--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -386,39 +386,33 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">【展開時/破棄時】計略を実行し、次の計略を準備する。
-[神算] 攻撃『適正距離1, 3, 5、2/2、不可避』を行う。
-[鬼謀] 攻撃『適正距離0, 2, 4、2/2、不可避』を行う。</t>
+    <t xml:space="preserve">【展開時】集中力1を支払い、計略を準備してもよい。
+【展開時/破棄時】計略を実行し、次の計略を準備する。
+[神算] 攻撃『適正距離0, 2, 4、2/1、不可避、【攻撃後】相手は手札から1枚と捨て札か伏せ札から1枚を選び、それらを山札の底に任意の順番で置く』を行う。
+[鬼謀] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。</t>
   </si>
   <si>
-    <t xml:space="preserve">19-megumi-o-s-2</t>
+    <t xml:space="preserve">09-chikage-o-n-4</t>
   </si>
   <si>
-    <t xml:space="preserve">megumi</t>
+    <t xml:space="preserve">chikage</t>
   </si>
   <si>
-    <t xml:space="preserve">可能性の枝</t>
+    <t xml:space="preserve">暗器</t>
   </si>
   <si>
-    <t xml:space="preserve">かのうせいのえだ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能性之枝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가능성의 가지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch of Possibility</t>
+    <t xml:space="preserve">あんき</t>
   </si>
   <si>
     <t xml:space="preserve">対応</t>
   </si>
   <si>
-    <t xml:space="preserve">生育1
-【常時】Xは《付与》カードの上にあるあなたの種結晶の個数の合計に等しい。
-【展開時】対応した《攻撃》は-X/+0となる。
-【展開中】相手の開始フェイズの開始時に攻撃『1-5、0/1、【常時】この攻撃は+X/+0となる』を行う。</t>
+    <t xml:space="preserve">1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力化：【常時】この《攻撃》は+1/+2となる。
+全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。
+【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。</t>
   </si>
   <si>
     <t xml:space="preserve">生育1
@@ -833,7 +827,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,7 +868,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,11 +944,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,12 +1016,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -16582,11 +16584,11 @@
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI4" activeCellId="0" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="AE6" activeCellId="0" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16620,7 +16622,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="11" width="42.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="11" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="11" width="106.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="42" style="11" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="42" style="11" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="11" width="109.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="11" width="63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="11" width="30.75"/>
@@ -16851,15 +16853,15 @@
       </c>
       <c r="AT2" s="28" t="e">
         <f aca="false">IF( A2 = "", "", "'" &amp; A2 &amp; "': {megami: '" &amp; B2 &amp; "'" &amp; IF( C2 &lt;&gt; "", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E2, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K2, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G2, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H2, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J2, "'", "\'" ) &amp; "', ruby: '" &amp; F2 &amp; "', rubyEn: '" &amp; L2 &amp; "', baseType: '" &amp; VLOOKUP( M2, , 2, 0 ) &amp; "'" &amp; IF( N2 = "○", ", extra: true", "" ) &amp; IF( O2 &lt;&gt; "", ", extraFrom: '" &amp; O2 &amp; "'", "" ) &amp; IF( P2 &lt;&gt; "", ", exchangabaleTo: '" &amp; P2 &amp; "'", "" ) &amp; IF( Q2 = "○", ", poison: true", "" ) &amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,,2,0)&amp;"'","") &amp; IF( T2 &lt;&gt; "", ", range: '" &amp; T2 &amp; "'" &amp; IF( U2 &lt;&gt; "", ", rangeOpened: '" &amp; U2 &amp; "'", "" ), "" ) &amp; IF( V2 &lt;&gt; "", ", damage: '" &amp; V2 &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", damageOpened: '" &amp; W2 &amp; "'", "" ), "" ) &amp; IF( X2 &lt;&gt; "", ", capacity: '" &amp; X2 &amp; "'", "" ) &amp; IF( Y2 &lt;&gt; "", ", cost: '" &amp; Y2 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z2 = "○", ", sealable: true", "" ) &amp; IF( AA2 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU2" s="29" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
-        <v>    /** 《しこみび / ねこだまし》 */ export const YUKIHI_O_N_2: TCardId = '06-yukihi-o-n-2';</v>
+        <v>/** 《しこみび / ねこだまし》 */ export const YUKIHI_O_N_2: TCardId = '06-yukihi-o-n-2';</v>
       </c>
       <c r="AV2" s="30" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
-        <v>    | '06-yukihi-o-n-2'</v>
+        <v>| '06-yukihi-o-n-2'</v>
       </c>
       <c r="AW2" s="31"/>
       <c r="AX2" s="31"/>
@@ -17918,11 +17920,11 @@
       </c>
       <c r="AU3" s="29" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    /** 《"&amp;$E3&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A3, 3, 1)="-", RIGHT($A3,LEN($A3)-3), $A3)), "-", "_")&amp;": TCardId = '"&amp;$A3&amp;"';", "")</f>
-        <v>    /** 《裏斬り》 */ export const SAINE_A2_N_2: TCardId = '02-saine-A2-n-2';</v>
+        <v>/** 《裏斬り》 */ export const SAINE_A2_N_2: TCardId = '02-saine-A2-n-2';</v>
       </c>
       <c r="AV3" s="30" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    | '"&amp;$A3&amp;"'", "")</f>
-        <v>    | '02-saine-A2-n-2'</v>
+        <v>| '02-saine-A2-n-2'</v>
       </c>
     </row>
     <row r="4" s="31" customFormat="true" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18005,14 +18007,14 @@
       </c>
       <c r="AU4" s="29" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    /** 《"&amp;$E4&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A4, 3, 1)="-", RIGHT($A4,LEN($A4)-3), $A4)), "-", "_")&amp;": TCardId = '"&amp;$A4&amp;"';", "")</f>
-        <v>    /** 《虚魚》 */ export const OBORO_O_S_3: TCardId = '05-oboro-o-s-3';</v>
+        <v>/** 《虚魚》 */ export const OBORO_O_S_3: TCardId = '05-oboro-o-s-3';</v>
       </c>
       <c r="AV4" s="30" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    | '"&amp;$A4&amp;"'", "")</f>
-        <v>    | '05-oboro-o-s-3'</v>
+        <v>| '05-oboro-o-s-3'</v>
       </c>
     </row>
-    <row r="5" s="31" customFormat="true" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="31" customFormat="true" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
         <v>109</v>
       </c>
@@ -18071,7 +18073,7 @@
       <c r="AE5" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="AF5" s="47"/>
+      <c r="AF5" s="48"/>
       <c r="AG5" s="33"/>
       <c r="AH5" s="21"/>
       <c r="AI5" s="34"/>
@@ -18086,15 +18088,15 @@
       <c r="AS5" s="36"/>
       <c r="AT5" s="28" t="str">
         <f aca="false">IF(A5="", "","'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"},")</f>
-        <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '1', text: '【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離1, 3, 5、2/2、不可避』を行う。\n[鬼謀] 攻撃『適正距離0, 2, 4、2/2、不可避』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '1', text: '【展開時】集中力1を支払い、計略を準備してもよい。\n【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離0, 2, 4、2/1、不可避、【攻撃後】相手は手札から1枚と捨て札か伏せ札から1枚を選び、それらを山札の底に任意の順番で置く』を行う。\n[鬼謀] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU5" s="29" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    /** 《"&amp;$E5&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A5, 3, 1)="-", RIGHT($A5,LEN($A5)-3), $A5)), "-", "_")&amp;": TCardId = '"&amp;$A5&amp;"';", "")</f>
-        <v>    /** 《使徒》 */ export const SHINRA_A1_N_7: TCardId = '07-shinra-A1-n-7';</v>
+        <v>/** 《使徒》 */ export const SHINRA_A1_N_7: TCardId = '07-shinra-A1-n-7';</v>
       </c>
       <c r="AV5" s="30" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    | '"&amp;$A5&amp;"'", "")</f>
-        <v>    | '07-shinra-A1-n-7'</v>
+        <v>| '07-shinra-A1-n-7'</v>
       </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18112,60 +18114,50 @@
       <c r="F6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>123</v>
-      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>102</v>
+      <c r="M6" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="T6" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="U6" s="14"/>
-      <c r="V6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="W6" s="14"/>
-      <c r="X6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-      <c r="AE6" s="49" t="s">
-        <v>127</v>
+      <c r="AE6" s="50" t="s">
+        <v>125</v>
       </c>
-      <c r="AF6" s="49"/>
+      <c r="AF6" s="51"/>
       <c r="AG6" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="34"/>
       <c r="AJ6" s="35"/>
       <c r="AK6" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AM6" s="42"/>
       <c r="AN6" s="21"/>
@@ -18176,15 +18168,15 @@
       <c r="AS6" s="36"/>
       <c r="AT6" s="28" t="str">
         <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
-        <v>'19-megumi-o-s-2': {megami: 'megumi', name: '可能性の枝', nameEn: 'Branch of Possibility', nameZh: '可能性之枝', nameZhG1: '可能性之枝', nameKo: '가능성의 가지', ruby: 'かのうせいのえだ', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'reaction', capacity: '2', growth: 1, cost: '3', text: '生育1\n【常時】Xは《付与》カードの上にあるあなたの種結晶の個数の合計に等しい。\n【展開時】対応した《攻撃》は-X/+0となる。\n【展開中】相手の開始フェイズの開始時に攻撃『1-5、0/1、【常時】この攻撃は+X/+0となる』を行う。', textZh: '生育1\n【常时】X等于你的展开中的《付于》牌上的你的种子结晶的数目。\n【展开时】被对应的《攻击》得-X/+0。\n【展开中】对手的准备阶段开始时，进行一次“攻击距离1-5 伤害0/1 【常时】此攻击得+X/+0”的攻击。', textZhG1: '', textKo: '생육 1\n【상시】 X는 《부여》 카드 위에 있는 당신의 씨앗결정 수의 합계와 같다.\n【전개시】 대응한 《공격》은 -X/+0 된다.\n【전개중】 상대의 개시 페이즈 시작에 공격 『적정거리 1-5, 0/1, 【상시】이 공격은 +X/+0 된다.』을 수행한다.', textEn: ''},</v>
+        <v>'09-chikage-o-n-4': {megami: 'chikage', name: '暗器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あんき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-5', damage: '1/1', text: '全力化：【常時】この《攻撃》は+1/+2となる。\n全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。\n【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。', textZh: '生育1\n【常时】X等于你的展开中的《付于》牌上的你的种子结晶的数目。\n【展开时】被对应的《攻击》得-X/+0。\n【展开中】对手的准备阶段开始时，进行一次“攻击距离1-5 伤害0/1 【常时】此攻击得+X/+0”的攻击。', textZhG1: '', textKo: '생육 1\n【상시】 X는 《부여》 카드 위에 있는 당신의 씨앗결정 수의 합계와 같다.\n【전개시】 대응한 《공격》은 -X/+0 된다.\n【전개중】 상대의 개시 페이즈 시작에 공격 『적정거리 1-5, 0/1, 【상시】이 공격은 +X/+0 된다.』을 수행한다.', textEn: ''},</v>
       </c>
       <c r="AU6" s="29" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    /** 《"&amp;$E6&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A6, 3, 1)="-", RIGHT($A6,LEN($A6)-3), $A6)), "-", "_")&amp;": TCardId = '"&amp;$A6&amp;"';", "")</f>
-        <v>    /** 《可能性の枝》 */ export const MEGUMI_O_S_2: TCardId = '19-megumi-o-s-2';</v>
+        <v>    /** 《暗器》 */ export const CHIKAGE_O_N_4: TCardId = '09-chikage-o-n-4';</v>
       </c>
       <c r="AV6" s="30" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    | '"&amp;$A6&amp;"'", "")</f>
-        <v>    | '19-megumi-o-s-2'</v>
+        <v>    | '09-chikage-o-n-4'</v>
       </c>
     </row>
     <row r="7" s="31" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18198,7 +18190,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="50"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
@@ -18218,15 +18210,15 @@
       <c r="AB7" s="37"/>
       <c r="AC7" s="37"/>
       <c r="AD7" s="37"/>
-      <c r="AE7" s="51"/>
+      <c r="AE7" s="53"/>
       <c r="AF7" s="41"/>
-      <c r="AG7" s="52"/>
+      <c r="AG7" s="54"/>
       <c r="AH7" s="41"/>
-      <c r="AI7" s="53"/>
+      <c r="AI7" s="55"/>
       <c r="AJ7" s="41"/>
-      <c r="AK7" s="54"/>
+      <c r="AK7" s="56"/>
       <c r="AL7" s="41"/>
-      <c r="AM7" s="55"/>
+      <c r="AM7" s="57"/>
       <c r="AN7" s="21"/>
       <c r="AO7" s="36"/>
       <c r="AP7" s="36"/>
@@ -18248,7 +18240,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>26</v>
@@ -18258,16 +18250,16 @@
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="39"/>
       <c r="I8" s="38"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="50"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
@@ -18287,15 +18279,15 @@
       <c r="AB8" s="37"/>
       <c r="AC8" s="37"/>
       <c r="AD8" s="37"/>
-      <c r="AE8" s="51"/>
+      <c r="AE8" s="53"/>
       <c r="AF8" s="41"/>
-      <c r="AG8" s="52"/>
+      <c r="AG8" s="54"/>
       <c r="AH8" s="41"/>
-      <c r="AI8" s="53"/>
+      <c r="AI8" s="55"/>
       <c r="AJ8" s="41"/>
-      <c r="AK8" s="54"/>
+      <c r="AK8" s="56"/>
       <c r="AL8" s="41"/>
-      <c r="AM8" s="55"/>
+      <c r="AM8" s="57"/>
       <c r="AN8" s="21"/>
       <c r="AO8" s="36"/>
       <c r="AP8" s="36"/>
@@ -18308,11 +18300,11 @@
       </c>
       <c r="AU8" s="29" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    /** 《"&amp;$E8&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A8, 3, 1)="-", RIGHT($A8,LEN($A8)-3), $A8)), "-", "_")&amp;": TCardId = '"&amp;$A8&amp;"';", "")</f>
-        <v>    /** 《欺瞞の霧》 */ export const RENRI_A1_N_2: TCardId = '22-renri-a1-n-2';</v>
+        <v>/** 《欺瞞の霧》 */ export const RENRI_A1_N_2: TCardId = '22-renri-a1-n-2';</v>
       </c>
       <c r="AV8" s="30" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    | '"&amp;$A8&amp;"'", "")</f>
-        <v>    | '22-renri-a1-n-2'</v>
+        <v>| '22-renri-a1-n-2'</v>
       </c>
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
@@ -19294,7 +19286,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>26</v>
@@ -19304,16 +19296,16 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="39"/>
       <c r="I9" s="38"/>
       <c r="J9" s="39"/>
-      <c r="K9" s="50"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
@@ -19333,15 +19325,15 @@
       <c r="AB9" s="37"/>
       <c r="AC9" s="37"/>
       <c r="AD9" s="37"/>
-      <c r="AE9" s="51"/>
+      <c r="AE9" s="53"/>
       <c r="AF9" s="41"/>
-      <c r="AG9" s="52"/>
+      <c r="AG9" s="54"/>
       <c r="AH9" s="41"/>
-      <c r="AI9" s="53"/>
+      <c r="AI9" s="55"/>
       <c r="AJ9" s="41"/>
-      <c r="AK9" s="54"/>
+      <c r="AK9" s="56"/>
       <c r="AL9" s="41"/>
-      <c r="AM9" s="55"/>
+      <c r="AM9" s="57"/>
       <c r="AN9" s="21"/>
       <c r="AO9" s="36"/>
       <c r="AP9" s="36"/>
@@ -19354,11 +19346,11 @@
       </c>
       <c r="AU9" s="29" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    /** 《"&amp;$E9&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A9, 3, 1)="-", RIGHT($A9,LEN($A9)-3), $A9)), "-", "_")&amp;": TCardId = '"&amp;$A9&amp;"';", "")</f>
-        <v>    /** 《神授》 */ export const RENRI_A1_N_5: TCardId = '22-renri-a1-n-5';</v>
+        <v>/** 《神授》 */ export const RENRI_A1_N_5: TCardId = '22-renri-a1-n-5';</v>
       </c>
       <c r="AV9" s="30" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    | '"&amp;$A9&amp;"'", "")</f>
-        <v>    | '22-renri-a1-n-5'</v>
+        <v>| '22-renri-a1-n-5'</v>
       </c>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
@@ -20340,7 +20332,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>26</v>
@@ -20350,16 +20342,16 @@
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
       <c r="I10" s="38"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="50"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
@@ -20379,15 +20371,15 @@
       <c r="AB10" s="37"/>
       <c r="AC10" s="37"/>
       <c r="AD10" s="37"/>
-      <c r="AE10" s="51"/>
+      <c r="AE10" s="53"/>
       <c r="AF10" s="41"/>
-      <c r="AG10" s="52"/>
+      <c r="AG10" s="54"/>
       <c r="AH10" s="41"/>
-      <c r="AI10" s="53"/>
+      <c r="AI10" s="55"/>
       <c r="AJ10" s="41"/>
-      <c r="AK10" s="54"/>
+      <c r="AK10" s="56"/>
       <c r="AL10" s="41"/>
-      <c r="AM10" s="55"/>
+      <c r="AM10" s="57"/>
       <c r="AN10" s="21"/>
       <c r="AO10" s="36"/>
       <c r="AP10" s="36"/>
@@ -20400,11 +20392,11 @@
       </c>
       <c r="AU10" s="29" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
-        <v>    /** 《偽りの武器》 */ export const RENRI_A1_N_5_EX1: TCardId = '22-renri-a1-n-5-ex1';</v>
+        <v>/** 《偽りの武器》 */ export const RENRI_A1_N_5_EX1: TCardId = '22-renri-a1-n-5-ex1';</v>
       </c>
       <c r="AV10" s="30" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    | '"&amp;$A10&amp;"'", "")</f>
-        <v>    | '22-renri-a1-n-5-ex1'</v>
+        <v>| '22-renri-a1-n-5-ex1'</v>
       </c>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
@@ -21386,7 +21378,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>26</v>
@@ -21396,16 +21388,16 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="39"/>
       <c r="I11" s="38"/>
       <c r="J11" s="39"/>
-      <c r="K11" s="50"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
@@ -21425,15 +21417,15 @@
       <c r="AB11" s="37"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
-      <c r="AE11" s="51"/>
+      <c r="AE11" s="53"/>
       <c r="AF11" s="41"/>
-      <c r="AG11" s="52"/>
+      <c r="AG11" s="54"/>
       <c r="AH11" s="41"/>
-      <c r="AI11" s="53"/>
+      <c r="AI11" s="55"/>
       <c r="AJ11" s="41"/>
-      <c r="AK11" s="54"/>
+      <c r="AK11" s="56"/>
       <c r="AL11" s="41"/>
-      <c r="AM11" s="55"/>
+      <c r="AM11" s="57"/>
       <c r="AN11" s="21"/>
       <c r="AO11" s="36"/>
       <c r="AP11" s="36"/>
@@ -21446,11 +21438,11 @@
       </c>
       <c r="AU11" s="29" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
-        <v>    /** 《刃の本質》 */ export const RENRI_A1_N_5_EX2: TCardId = '22-renri-a1-n-5-ex2';</v>
+        <v>/** 《刃の本質》 */ export const RENRI_A1_N_5_EX2: TCardId = '22-renri-a1-n-5-ex2';</v>
       </c>
       <c r="AV11" s="30" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    | '"&amp;$A11&amp;"'", "")</f>
-        <v>    | '22-renri-a1-n-5-ex2'</v>
+        <v>| '22-renri-a1-n-5-ex2'</v>
       </c>
       <c r="AW11" s="31"/>
       <c r="AX11" s="31"/>
@@ -22432,7 +22424,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>26</v>
@@ -22442,16 +22434,16 @@
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="39"/>
       <c r="I12" s="38"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="50"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
@@ -22471,15 +22463,15 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
-      <c r="AE12" s="51"/>
+      <c r="AE12" s="53"/>
       <c r="AF12" s="41"/>
-      <c r="AG12" s="52"/>
+      <c r="AG12" s="54"/>
       <c r="AH12" s="41"/>
-      <c r="AI12" s="53"/>
+      <c r="AI12" s="55"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="54"/>
+      <c r="AK12" s="56"/>
       <c r="AL12" s="41"/>
-      <c r="AM12" s="55"/>
+      <c r="AM12" s="57"/>
       <c r="AN12" s="21"/>
       <c r="AO12" s="36"/>
       <c r="AP12" s="36"/>
@@ -22492,11 +22484,11 @@
       </c>
       <c r="AU12" s="29" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>
-        <v>    /** 《最初の桜鈴》 */ export const RENRI_A1_N_5_EX3: TCardId = '22-renri-a1-n-5-ex3';</v>
+        <v>/** 《最初の桜鈴》 */ export const RENRI_A1_N_5_EX3: TCardId = '22-renri-a1-n-5-ex3';</v>
       </c>
       <c r="AV12" s="30" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    | '"&amp;$A12&amp;"'", "")</f>
-        <v>    | '22-renri-a1-n-5-ex3'</v>
+        <v>| '22-renri-a1-n-5-ex3'</v>
       </c>
       <c r="AW12" s="31"/>
       <c r="AX12" s="31"/>
@@ -23478,7 +23470,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>26</v>
@@ -23488,16 +23480,16 @@
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="39"/>
       <c r="I13" s="38"/>
       <c r="J13" s="39"/>
-      <c r="K13" s="50"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
@@ -23517,15 +23509,15 @@
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
-      <c r="AE13" s="51"/>
+      <c r="AE13" s="53"/>
       <c r="AF13" s="41"/>
-      <c r="AG13" s="52"/>
+      <c r="AG13" s="54"/>
       <c r="AH13" s="41"/>
-      <c r="AI13" s="53"/>
+      <c r="AI13" s="55"/>
       <c r="AJ13" s="41"/>
-      <c r="AK13" s="54"/>
+      <c r="AK13" s="56"/>
       <c r="AL13" s="41"/>
-      <c r="AM13" s="55"/>
+      <c r="AM13" s="57"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="36"/>
       <c r="AP13" s="36"/>
@@ -23538,11 +23530,11 @@
       </c>
       <c r="AU13" s="29" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    /** 《"&amp;$E13&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A13, 3, 1)="-", RIGHT($A13,LEN($A13)-3), $A13)), "-", "_")&amp;": TCardId = '"&amp;$A13&amp;"';", "")</f>
-        <v>    /** 《ロルレロラルロ》 */ export const RENRI_A1_S_1: TCardId = '22-renri-a1-s-1';</v>
+        <v>/** 《ロルレロラルロ》 */ export const RENRI_A1_S_1: TCardId = '22-renri-a1-s-1';</v>
       </c>
       <c r="AV13" s="30" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    | '"&amp;$A13&amp;"'", "")</f>
-        <v>    | '22-renri-a1-s-1'</v>
+        <v>| '22-renri-a1-s-1'</v>
       </c>
       <c r="AW13" s="31"/>
       <c r="AX13" s="31"/>
@@ -24533,7 +24525,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="38"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="50"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
@@ -24553,15 +24545,15 @@
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
-      <c r="AE14" s="51"/>
+      <c r="AE14" s="53"/>
       <c r="AF14" s="41"/>
-      <c r="AG14" s="52"/>
+      <c r="AG14" s="54"/>
       <c r="AH14" s="41"/>
-      <c r="AI14" s="53"/>
+      <c r="AI14" s="55"/>
       <c r="AJ14" s="41"/>
-      <c r="AK14" s="54"/>
+      <c r="AK14" s="56"/>
       <c r="AL14" s="41"/>
-      <c r="AM14" s="55"/>
+      <c r="AM14" s="57"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="36"/>
       <c r="AP14" s="36"/>
@@ -25569,7 +25561,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
       <c r="J15" s="39"/>
-      <c r="K15" s="50"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
@@ -25589,15 +25581,15 @@
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
       <c r="AD15" s="37"/>
-      <c r="AE15" s="51"/>
+      <c r="AE15" s="53"/>
       <c r="AF15" s="41"/>
-      <c r="AG15" s="52"/>
+      <c r="AG15" s="54"/>
       <c r="AH15" s="41"/>
-      <c r="AI15" s="53"/>
+      <c r="AI15" s="55"/>
       <c r="AJ15" s="41"/>
-      <c r="AK15" s="54"/>
+      <c r="AK15" s="56"/>
       <c r="AL15" s="41"/>
-      <c r="AM15" s="55"/>
+      <c r="AM15" s="57"/>
       <c r="AN15" s="21"/>
       <c r="AO15" s="36"/>
       <c r="AP15" s="36"/>
@@ -26605,7 +26597,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="50"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
@@ -26625,15 +26617,15 @@
       <c r="AB16" s="37"/>
       <c r="AC16" s="37"/>
       <c r="AD16" s="37"/>
-      <c r="AE16" s="51"/>
+      <c r="AE16" s="53"/>
       <c r="AF16" s="41"/>
-      <c r="AG16" s="52"/>
+      <c r="AG16" s="54"/>
       <c r="AH16" s="41"/>
-      <c r="AI16" s="53"/>
+      <c r="AI16" s="55"/>
       <c r="AJ16" s="41"/>
-      <c r="AK16" s="54"/>
+      <c r="AK16" s="56"/>
       <c r="AL16" s="41"/>
-      <c r="AM16" s="55"/>
+      <c r="AM16" s="57"/>
       <c r="AN16" s="21"/>
       <c r="AO16" s="36"/>
       <c r="AP16" s="36"/>
@@ -27641,7 +27633,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="38"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="50"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
@@ -27661,15 +27653,15 @@
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
-      <c r="AE17" s="51"/>
+      <c r="AE17" s="53"/>
       <c r="AF17" s="41"/>
-      <c r="AG17" s="52"/>
+      <c r="AG17" s="54"/>
       <c r="AH17" s="41"/>
-      <c r="AI17" s="53"/>
+      <c r="AI17" s="55"/>
       <c r="AJ17" s="41"/>
-      <c r="AK17" s="54"/>
+      <c r="AK17" s="56"/>
       <c r="AL17" s="41"/>
-      <c r="AM17" s="55"/>
+      <c r="AM17" s="57"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="36"/>
       <c r="AP17" s="36"/>
@@ -28677,7 +28669,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="50"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -28697,15 +28689,15 @@
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="51"/>
+      <c r="AE18" s="53"/>
       <c r="AF18" s="41"/>
-      <c r="AG18" s="52"/>
+      <c r="AG18" s="54"/>
       <c r="AH18" s="41"/>
-      <c r="AI18" s="53"/>
+      <c r="AI18" s="55"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="54"/>
+      <c r="AK18" s="56"/>
       <c r="AL18" s="41"/>
-      <c r="AM18" s="55"/>
+      <c r="AM18" s="57"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="36"/>
@@ -29713,7 +29705,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="50"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -29733,15 +29725,15 @@
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="51"/>
+      <c r="AE19" s="53"/>
       <c r="AF19" s="41"/>
-      <c r="AG19" s="52"/>
+      <c r="AG19" s="54"/>
       <c r="AH19" s="41"/>
-      <c r="AI19" s="53"/>
+      <c r="AI19" s="55"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="54"/>
+      <c r="AK19" s="56"/>
       <c r="AL19" s="41"/>
-      <c r="AM19" s="55"/>
+      <c r="AM19" s="57"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="36"/>
       <c r="AP19" s="36"/>
@@ -30749,7 +30741,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="50"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
@@ -30769,15 +30761,15 @@
       <c r="AB20" s="37"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="51"/>
+      <c r="AE20" s="53"/>
       <c r="AF20" s="41"/>
-      <c r="AG20" s="52"/>
+      <c r="AG20" s="54"/>
       <c r="AH20" s="41"/>
-      <c r="AI20" s="53"/>
+      <c r="AI20" s="55"/>
       <c r="AJ20" s="41"/>
-      <c r="AK20" s="54"/>
+      <c r="AK20" s="56"/>
       <c r="AL20" s="41"/>
-      <c r="AM20" s="55"/>
+      <c r="AM20" s="57"/>
       <c r="AN20" s="21"/>
       <c r="AO20" s="36"/>
       <c r="AP20" s="36"/>
@@ -31785,7 +31777,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="50"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
@@ -31805,15 +31797,15 @@
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
       <c r="AD21" s="37"/>
-      <c r="AE21" s="51"/>
+      <c r="AE21" s="53"/>
       <c r="AF21" s="41"/>
-      <c r="AG21" s="52"/>
+      <c r="AG21" s="54"/>
       <c r="AH21" s="41"/>
-      <c r="AI21" s="53"/>
+      <c r="AI21" s="55"/>
       <c r="AJ21" s="41"/>
-      <c r="AK21" s="54"/>
+      <c r="AK21" s="56"/>
       <c r="AL21" s="41"/>
-      <c r="AM21" s="55"/>
+      <c r="AM21" s="57"/>
       <c r="AN21" s="21"/>
       <c r="AO21" s="36"/>
       <c r="AP21" s="36"/>
@@ -32821,7 +32813,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="50"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -32841,15 +32833,15 @@
       <c r="AB22" s="37"/>
       <c r="AC22" s="37"/>
       <c r="AD22" s="37"/>
-      <c r="AE22" s="51"/>
+      <c r="AE22" s="53"/>
       <c r="AF22" s="41"/>
-      <c r="AG22" s="52"/>
+      <c r="AG22" s="54"/>
       <c r="AH22" s="41"/>
-      <c r="AI22" s="53"/>
+      <c r="AI22" s="55"/>
       <c r="AJ22" s="41"/>
-      <c r="AK22" s="54"/>
+      <c r="AK22" s="56"/>
       <c r="AL22" s="41"/>
-      <c r="AM22" s="55"/>
+      <c r="AM22" s="57"/>
       <c r="AN22" s="21"/>
       <c r="AO22" s="36"/>
       <c r="AP22" s="36"/>
@@ -33857,7 +33849,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="50"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
@@ -33877,15 +33869,15 @@
       <c r="AB23" s="37"/>
       <c r="AC23" s="37"/>
       <c r="AD23" s="37"/>
-      <c r="AE23" s="51"/>
+      <c r="AE23" s="53"/>
       <c r="AF23" s="41"/>
-      <c r="AG23" s="52"/>
+      <c r="AG23" s="54"/>
       <c r="AH23" s="41"/>
-      <c r="AI23" s="53"/>
+      <c r="AI23" s="55"/>
       <c r="AJ23" s="41"/>
-      <c r="AK23" s="54"/>
+      <c r="AK23" s="56"/>
       <c r="AL23" s="41"/>
-      <c r="AM23" s="55"/>
+      <c r="AM23" s="57"/>
       <c r="AN23" s="21"/>
       <c r="AO23" s="36"/>
       <c r="AP23" s="36"/>
@@ -34893,7 +34885,7 @@
       <c r="H24" s="39"/>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="50"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
@@ -34913,15 +34905,15 @@
       <c r="AB24" s="37"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="37"/>
-      <c r="AE24" s="51"/>
+      <c r="AE24" s="53"/>
       <c r="AF24" s="41"/>
-      <c r="AG24" s="52"/>
+      <c r="AG24" s="54"/>
       <c r="AH24" s="41"/>
-      <c r="AI24" s="53"/>
+      <c r="AI24" s="55"/>
       <c r="AJ24" s="41"/>
-      <c r="AK24" s="54"/>
+      <c r="AK24" s="56"/>
       <c r="AL24" s="41"/>
-      <c r="AM24" s="55"/>
+      <c r="AM24" s="57"/>
       <c r="AN24" s="21"/>
       <c r="AO24" s="36"/>
       <c r="AP24" s="36"/>
@@ -35929,7 +35921,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
-      <c r="K25" s="50"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
@@ -35949,15 +35941,15 @@
       <c r="AB25" s="37"/>
       <c r="AC25" s="37"/>
       <c r="AD25" s="37"/>
-      <c r="AE25" s="51"/>
+      <c r="AE25" s="53"/>
       <c r="AF25" s="41"/>
-      <c r="AG25" s="52"/>
+      <c r="AG25" s="54"/>
       <c r="AH25" s="41"/>
-      <c r="AI25" s="53"/>
+      <c r="AI25" s="55"/>
       <c r="AJ25" s="41"/>
-      <c r="AK25" s="54"/>
+      <c r="AK25" s="56"/>
       <c r="AL25" s="41"/>
-      <c r="AM25" s="55"/>
+      <c r="AM25" s="57"/>
       <c r="AN25" s="21"/>
       <c r="AO25" s="36"/>
       <c r="AP25" s="36"/>
@@ -36965,7 +36957,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="50"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
@@ -36985,15 +36977,15 @@
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
       <c r="AD26" s="37"/>
-      <c r="AE26" s="51"/>
+      <c r="AE26" s="53"/>
       <c r="AF26" s="41"/>
-      <c r="AG26" s="52"/>
+      <c r="AG26" s="54"/>
       <c r="AH26" s="41"/>
-      <c r="AI26" s="53"/>
+      <c r="AI26" s="55"/>
       <c r="AJ26" s="41"/>
-      <c r="AK26" s="54"/>
+      <c r="AK26" s="56"/>
       <c r="AL26" s="41"/>
-      <c r="AM26" s="55"/>
+      <c r="AM26" s="57"/>
       <c r="AN26" s="21"/>
       <c r="AO26" s="36"/>
       <c r="AP26" s="36"/>
@@ -38001,7 +37993,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="50"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -38021,15 +38013,15 @@
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
       <c r="AD27" s="37"/>
-      <c r="AE27" s="51"/>
+      <c r="AE27" s="53"/>
       <c r="AF27" s="41"/>
-      <c r="AG27" s="52"/>
+      <c r="AG27" s="54"/>
       <c r="AH27" s="41"/>
-      <c r="AI27" s="53"/>
+      <c r="AI27" s="55"/>
       <c r="AJ27" s="41"/>
-      <c r="AK27" s="54"/>
+      <c r="AK27" s="56"/>
       <c r="AL27" s="41"/>
-      <c r="AM27" s="55"/>
+      <c r="AM27" s="57"/>
       <c r="AN27" s="21"/>
       <c r="AO27" s="36"/>
       <c r="AP27" s="36"/>
@@ -39037,7 +39029,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="50"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
@@ -39057,15 +39049,15 @@
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
       <c r="AD28" s="37"/>
-      <c r="AE28" s="51"/>
+      <c r="AE28" s="53"/>
       <c r="AF28" s="41"/>
-      <c r="AG28" s="52"/>
+      <c r="AG28" s="54"/>
       <c r="AH28" s="41"/>
-      <c r="AI28" s="53"/>
+      <c r="AI28" s="55"/>
       <c r="AJ28" s="41"/>
-      <c r="AK28" s="54"/>
+      <c r="AK28" s="56"/>
       <c r="AL28" s="41"/>
-      <c r="AM28" s="55"/>
+      <c r="AM28" s="57"/>
       <c r="AN28" s="21"/>
       <c r="AO28" s="36"/>
       <c r="AP28" s="36"/>
@@ -40072,7 +40064,7 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="49"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -40093,15 +40085,15 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
       <c r="AG29" s="41"/>
       <c r="AH29" s="15"/>
       <c r="AI29" s="41"/>
       <c r="AJ29" s="15"/>
-      <c r="AK29" s="49"/>
+      <c r="AK29" s="51"/>
       <c r="AL29" s="15"/>
-      <c r="AM29" s="49"/>
+      <c r="AM29" s="51"/>
       <c r="AN29" s="15"/>
       <c r="AO29" s="14"/>
       <c r="AP29" s="14"/>
@@ -40131,7 +40123,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="48"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -40152,15 +40144,15 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
       <c r="AG30" s="41"/>
       <c r="AH30" s="15"/>
       <c r="AI30" s="41"/>
       <c r="AJ30" s="15"/>
-      <c r="AK30" s="49"/>
+      <c r="AK30" s="51"/>
       <c r="AL30" s="15"/>
-      <c r="AM30" s="49"/>
+      <c r="AM30" s="51"/>
       <c r="AN30" s="15"/>
       <c r="AO30" s="14"/>
       <c r="AP30" s="14"/>
@@ -40190,7 +40182,7 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="48"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -40211,15 +40203,15 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
       <c r="AG31" s="41"/>
       <c r="AH31" s="15"/>
       <c r="AI31" s="41"/>
       <c r="AJ31" s="15"/>
-      <c r="AK31" s="49"/>
+      <c r="AK31" s="51"/>
       <c r="AL31" s="15"/>
-      <c r="AM31" s="49"/>
+      <c r="AM31" s="51"/>
       <c r="AN31" s="15"/>
       <c r="AO31" s="14"/>
       <c r="AP31" s="14"/>
@@ -40249,7 +40241,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="48"/>
+      <c r="J32" s="49"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -40270,15 +40262,15 @@
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
       <c r="AD32" s="12"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
       <c r="AG32" s="41"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="41"/>
       <c r="AJ32" s="15"/>
-      <c r="AK32" s="49"/>
+      <c r="AK32" s="51"/>
       <c r="AL32" s="15"/>
-      <c r="AM32" s="49"/>
+      <c r="AM32" s="51"/>
       <c r="AN32" s="15"/>
       <c r="AO32" s="14"/>
       <c r="AP32" s="14"/>
@@ -40299,2353 +40291,2353 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="56"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="56"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="56"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="56"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="56"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="56"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="56"/>
+      <c r="I39" s="58"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="56"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="56"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="56"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="56"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="56"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="56"/>
+      <c r="I45" s="58"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="56"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="56"/>
+      <c r="I47" s="58"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="56"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="56"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="56"/>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="56"/>
+      <c r="I51" s="58"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="56"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="56"/>
+      <c r="I53" s="58"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="56"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="56"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="56"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="56"/>
+      <c r="I57" s="58"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="56"/>
+      <c r="I58" s="58"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="56"/>
+      <c r="I59" s="58"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="56"/>
+      <c r="I60" s="58"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="56"/>
+      <c r="I61" s="58"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="56"/>
+      <c r="I62" s="58"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="56"/>
+      <c r="I63" s="58"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="56"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="56"/>
+      <c r="I65" s="58"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="56"/>
+      <c r="I66" s="58"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="56"/>
+      <c r="I67" s="58"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="56"/>
+      <c r="I68" s="58"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="56"/>
+      <c r="I69" s="58"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="56"/>
+      <c r="I70" s="58"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="56"/>
+      <c r="I71" s="58"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="56"/>
+      <c r="I72" s="58"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="56"/>
+      <c r="I73" s="58"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="56"/>
+      <c r="I74" s="58"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="56"/>
+      <c r="I75" s="58"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="56"/>
+      <c r="I76" s="58"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="56"/>
+      <c r="I77" s="58"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="56"/>
+      <c r="I78" s="58"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="56"/>
+      <c r="I79" s="58"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="56"/>
+      <c r="I80" s="58"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="56"/>
+      <c r="I81" s="58"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="56"/>
+      <c r="I82" s="58"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="56"/>
+      <c r="I83" s="58"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="56"/>
+      <c r="I84" s="58"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="56"/>
+      <c r="I85" s="58"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="56"/>
+      <c r="I86" s="58"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="56"/>
+      <c r="I87" s="58"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="56"/>
+      <c r="I88" s="58"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="56"/>
+      <c r="I89" s="58"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="56"/>
+      <c r="I90" s="58"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="56"/>
+      <c r="I91" s="58"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="56"/>
+      <c r="I92" s="58"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="56"/>
+      <c r="I93" s="58"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="56"/>
+      <c r="I94" s="58"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="56"/>
+      <c r="I95" s="58"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="56"/>
+      <c r="I96" s="58"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="56"/>
+      <c r="I97" s="58"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="56"/>
+      <c r="I98" s="58"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="56"/>
+      <c r="I99" s="58"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="56"/>
+      <c r="I100" s="58"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="56"/>
+      <c r="I101" s="58"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="56"/>
+      <c r="I102" s="58"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="56"/>
+      <c r="I103" s="58"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="56"/>
+      <c r="I104" s="58"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="56"/>
+      <c r="I105" s="58"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="56"/>
+      <c r="I106" s="58"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="56"/>
+      <c r="I107" s="58"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="56"/>
+      <c r="I108" s="58"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="56"/>
+      <c r="I109" s="58"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="56"/>
+      <c r="I110" s="58"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="56"/>
+      <c r="I111" s="58"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="56"/>
+      <c r="I112" s="58"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="56"/>
+      <c r="I113" s="58"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="56"/>
+      <c r="I114" s="58"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="56"/>
+      <c r="I115" s="58"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="56"/>
+      <c r="I116" s="58"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="56"/>
+      <c r="I117" s="58"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="56"/>
+      <c r="I118" s="58"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="56"/>
+      <c r="I119" s="58"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="56"/>
+      <c r="I120" s="58"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="56"/>
+      <c r="I121" s="58"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="56"/>
+      <c r="I122" s="58"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="56"/>
+      <c r="I123" s="58"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="56"/>
+      <c r="I124" s="58"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="56"/>
+      <c r="I125" s="58"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="56"/>
+      <c r="I126" s="58"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="56"/>
+      <c r="I127" s="58"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="56"/>
+      <c r="I128" s="58"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="56"/>
+      <c r="I129" s="58"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="56"/>
+      <c r="I130" s="58"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="56"/>
+      <c r="I131" s="58"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="56"/>
+      <c r="I132" s="58"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="56"/>
+      <c r="I133" s="58"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="56"/>
+      <c r="I134" s="58"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="56"/>
+      <c r="I135" s="58"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="56"/>
+      <c r="I136" s="58"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="56"/>
+      <c r="I137" s="58"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="56"/>
+      <c r="I138" s="58"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="56"/>
+      <c r="I139" s="58"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="56"/>
+      <c r="I140" s="58"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="56"/>
+      <c r="I141" s="58"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="56"/>
+      <c r="I142" s="58"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="56"/>
+      <c r="I143" s="58"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="56"/>
+      <c r="I144" s="58"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="56"/>
+      <c r="I145" s="58"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="56"/>
+      <c r="I146" s="58"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="56"/>
+      <c r="I147" s="58"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="56"/>
+      <c r="I148" s="58"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="56"/>
+      <c r="I149" s="58"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="56"/>
+      <c r="I150" s="58"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="56"/>
+      <c r="I151" s="58"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="56"/>
+      <c r="I152" s="58"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="56"/>
+      <c r="I153" s="58"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="56"/>
+      <c r="I154" s="58"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="56"/>
+      <c r="I155" s="58"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="56"/>
+      <c r="I156" s="58"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="56"/>
+      <c r="I157" s="58"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="56"/>
+      <c r="I158" s="58"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="56"/>
+      <c r="I159" s="58"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="56"/>
+      <c r="I160" s="58"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="56"/>
+      <c r="I161" s="58"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="56"/>
+      <c r="I162" s="58"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="56"/>
+      <c r="I163" s="58"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="56"/>
+      <c r="I164" s="58"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="56"/>
+      <c r="I165" s="58"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="56"/>
+      <c r="I166" s="58"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="56"/>
+      <c r="I167" s="58"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="56"/>
+      <c r="I168" s="58"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="56"/>
+      <c r="I169" s="58"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="56"/>
+      <c r="I170" s="58"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="56"/>
+      <c r="I171" s="58"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="56"/>
+      <c r="I172" s="58"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="56"/>
+      <c r="I173" s="58"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="56"/>
+      <c r="I174" s="58"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="56"/>
+      <c r="I175" s="58"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="56"/>
+      <c r="I176" s="58"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="56"/>
+      <c r="I177" s="58"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="56"/>
+      <c r="I178" s="58"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="56"/>
+      <c r="I179" s="58"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="56"/>
+      <c r="I180" s="58"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="56"/>
+      <c r="I181" s="58"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="56"/>
+      <c r="I182" s="58"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="56"/>
+      <c r="I183" s="58"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="56"/>
+      <c r="I184" s="58"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="56"/>
+      <c r="I185" s="58"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="56"/>
+      <c r="I186" s="58"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="56"/>
+      <c r="I187" s="58"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="56"/>
+      <c r="I188" s="58"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="56"/>
+      <c r="I189" s="58"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="56"/>
+      <c r="I190" s="58"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="56"/>
+      <c r="I191" s="58"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="56"/>
+      <c r="I192" s="58"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="56"/>
+      <c r="I193" s="58"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="56"/>
+      <c r="I194" s="58"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="56"/>
+      <c r="I195" s="58"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="56"/>
+      <c r="I196" s="58"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="56"/>
+      <c r="I197" s="58"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="56"/>
+      <c r="I198" s="58"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="56"/>
+      <c r="I199" s="58"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="56"/>
+      <c r="I200" s="58"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="56"/>
+      <c r="I201" s="58"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="56"/>
+      <c r="I202" s="58"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="56"/>
+      <c r="I203" s="58"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="56"/>
+      <c r="I204" s="58"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="56"/>
+      <c r="I205" s="58"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="56"/>
+      <c r="I206" s="58"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="56"/>
+      <c r="I207" s="58"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="56"/>
+      <c r="I208" s="58"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="56"/>
+      <c r="I209" s="58"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="56"/>
+      <c r="I210" s="58"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="56"/>
+      <c r="I211" s="58"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="56"/>
+      <c r="I212" s="58"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="56"/>
+      <c r="I213" s="58"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="56"/>
+      <c r="I214" s="58"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="56"/>
+      <c r="I215" s="58"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="56"/>
+      <c r="I216" s="58"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="56"/>
+      <c r="I217" s="58"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="56"/>
+      <c r="I218" s="58"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="56"/>
+      <c r="I219" s="58"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="56"/>
+      <c r="I220" s="58"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="56"/>
+      <c r="I221" s="58"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="56"/>
+      <c r="I222" s="58"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="56"/>
+      <c r="I223" s="58"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="56"/>
+      <c r="I224" s="58"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="56"/>
+      <c r="I225" s="58"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="56"/>
+      <c r="I226" s="58"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="56"/>
+      <c r="I227" s="58"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="56"/>
+      <c r="I228" s="58"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="56"/>
+      <c r="I229" s="58"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="56"/>
+      <c r="I230" s="58"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="56"/>
+      <c r="I231" s="58"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="56"/>
+      <c r="I232" s="58"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="56"/>
+      <c r="I233" s="58"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="56"/>
+      <c r="I234" s="58"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="56"/>
+      <c r="I235" s="58"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="56"/>
+      <c r="I236" s="58"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="56"/>
+      <c r="I237" s="58"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="56"/>
+      <c r="I238" s="58"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="56"/>
+      <c r="I239" s="58"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="56"/>
+      <c r="I240" s="58"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="56"/>
+      <c r="I241" s="58"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="56"/>
+      <c r="I242" s="58"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="56"/>
+      <c r="I243" s="58"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="56"/>
+      <c r="I244" s="58"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="56"/>
+      <c r="I245" s="58"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="56"/>
+      <c r="I246" s="58"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="56"/>
+      <c r="I247" s="58"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="56"/>
+      <c r="I248" s="58"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="56"/>
+      <c r="I249" s="58"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="56"/>
+      <c r="I250" s="58"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="56"/>
+      <c r="I251" s="58"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="56"/>
+      <c r="I252" s="58"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="56"/>
+      <c r="I253" s="58"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="56"/>
+      <c r="I254" s="58"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="56"/>
+      <c r="I255" s="58"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="56"/>
+      <c r="I256" s="58"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="56"/>
+      <c r="I257" s="58"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="56"/>
+      <c r="I258" s="58"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="56"/>
+      <c r="I259" s="58"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="56"/>
+      <c r="I260" s="58"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="56"/>
+      <c r="I261" s="58"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="56"/>
+      <c r="I262" s="58"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="56"/>
+      <c r="I263" s="58"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="56"/>
+      <c r="I264" s="58"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="56"/>
+      <c r="I265" s="58"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="56"/>
+      <c r="I266" s="58"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="56"/>
+      <c r="I267" s="58"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="56"/>
+      <c r="I268" s="58"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="56"/>
+      <c r="I269" s="58"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="56"/>
+      <c r="I270" s="58"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="56"/>
+      <c r="I271" s="58"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="56"/>
+      <c r="I272" s="58"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="56"/>
+      <c r="I273" s="58"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="56"/>
+      <c r="I274" s="58"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="56"/>
+      <c r="I275" s="58"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="56"/>
+      <c r="I276" s="58"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="56"/>
+      <c r="I277" s="58"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="56"/>
+      <c r="I278" s="58"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="56"/>
+      <c r="I279" s="58"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="56"/>
+      <c r="I280" s="58"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="56"/>
+      <c r="I281" s="58"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="56"/>
+      <c r="I282" s="58"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="56"/>
+      <c r="I283" s="58"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="56"/>
+      <c r="I284" s="58"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="56"/>
+      <c r="I285" s="58"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="56"/>
+      <c r="I286" s="58"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="56"/>
+      <c r="I287" s="58"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="56"/>
+      <c r="I288" s="58"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="56"/>
+      <c r="I289" s="58"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="56"/>
+      <c r="I290" s="58"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="56"/>
+      <c r="I291" s="58"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="56"/>
+      <c r="I292" s="58"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="56"/>
+      <c r="I293" s="58"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="56"/>
+      <c r="I294" s="58"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="56"/>
+      <c r="I295" s="58"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="56"/>
+      <c r="I296" s="58"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="56"/>
+      <c r="I297" s="58"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="56"/>
+      <c r="I298" s="58"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="56"/>
+      <c r="I299" s="58"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="56"/>
+      <c r="I300" s="58"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="56"/>
+      <c r="I301" s="58"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="56"/>
+      <c r="I302" s="58"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="56"/>
+      <c r="I303" s="58"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="56"/>
+      <c r="I304" s="58"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="56"/>
+      <c r="I305" s="58"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="56"/>
+      <c r="I306" s="58"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="56"/>
+      <c r="I307" s="58"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="56"/>
+      <c r="I308" s="58"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="56"/>
+      <c r="I309" s="58"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="56"/>
+      <c r="I310" s="58"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="56"/>
+      <c r="I311" s="58"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="56"/>
+      <c r="I312" s="58"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="56"/>
+      <c r="I313" s="58"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="56"/>
+      <c r="I314" s="58"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="56"/>
+      <c r="I315" s="58"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="56"/>
+      <c r="I316" s="58"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="56"/>
+      <c r="I317" s="58"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="56"/>
+      <c r="I318" s="58"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="56"/>
+      <c r="I319" s="58"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="56"/>
+      <c r="I320" s="58"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="56"/>
+      <c r="I321" s="58"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="56"/>
+      <c r="I322" s="58"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="56"/>
+      <c r="I323" s="58"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="56"/>
+      <c r="I324" s="58"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="56"/>
+      <c r="I325" s="58"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="56"/>
+      <c r="I326" s="58"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="56"/>
+      <c r="I327" s="58"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="56"/>
+      <c r="I328" s="58"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="56"/>
+      <c r="I329" s="58"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="56"/>
+      <c r="I330" s="58"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="56"/>
+      <c r="I331" s="58"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="56"/>
+      <c r="I332" s="58"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="56"/>
+      <c r="I333" s="58"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="56"/>
+      <c r="I334" s="58"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="56"/>
+      <c r="I335" s="58"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="56"/>
+      <c r="I336" s="58"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="56"/>
+      <c r="I337" s="58"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="56"/>
+      <c r="I338" s="58"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="56"/>
+      <c r="I339" s="58"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="56"/>
+      <c r="I340" s="58"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="56"/>
+      <c r="I341" s="58"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="56"/>
+      <c r="I342" s="58"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="56"/>
+      <c r="I343" s="58"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="56"/>
+      <c r="I344" s="58"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="56"/>
+      <c r="I345" s="58"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="56"/>
+      <c r="I346" s="58"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="56"/>
+      <c r="I347" s="58"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="56"/>
+      <c r="I348" s="58"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="56"/>
+      <c r="I349" s="58"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="56"/>
+      <c r="I350" s="58"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="56"/>
+      <c r="I351" s="58"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="56"/>
+      <c r="I352" s="58"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="56"/>
+      <c r="I353" s="58"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="56"/>
+      <c r="I354" s="58"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="56"/>
+      <c r="I355" s="58"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="56"/>
+      <c r="I356" s="58"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="56"/>
+      <c r="I357" s="58"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="56"/>
+      <c r="I358" s="58"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="56"/>
+      <c r="I359" s="58"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="56"/>
+      <c r="I360" s="58"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="56"/>
+      <c r="I361" s="58"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="56"/>
+      <c r="I362" s="58"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="56"/>
+      <c r="I363" s="58"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="56"/>
+      <c r="I364" s="58"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="56"/>
+      <c r="I365" s="58"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="56"/>
+      <c r="I366" s="58"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="56"/>
+      <c r="I367" s="58"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="56"/>
+      <c r="I368" s="58"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="56"/>
+      <c r="I369" s="58"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="56"/>
+      <c r="I370" s="58"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="56"/>
+      <c r="I371" s="58"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="56"/>
+      <c r="I372" s="58"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="56"/>
+      <c r="I373" s="58"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="56"/>
+      <c r="I374" s="58"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="56"/>
+      <c r="I375" s="58"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="56"/>
+      <c r="I376" s="58"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="56"/>
+      <c r="I377" s="58"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="56"/>
+      <c r="I378" s="58"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="56"/>
+      <c r="I379" s="58"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="56"/>
+      <c r="I380" s="58"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="56"/>
+      <c r="I381" s="58"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="56"/>
+      <c r="I382" s="58"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="56"/>
+      <c r="I383" s="58"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="56"/>
+      <c r="I384" s="58"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="56"/>
+      <c r="I385" s="58"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="56"/>
+      <c r="I386" s="58"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="56"/>
+      <c r="I387" s="58"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="56"/>
+      <c r="I388" s="58"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="56"/>
+      <c r="I389" s="58"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="56"/>
+      <c r="I390" s="58"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="56"/>
+      <c r="I391" s="58"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="56"/>
+      <c r="I392" s="58"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="56"/>
+      <c r="I393" s="58"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="56"/>
+      <c r="I394" s="58"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="56"/>
+      <c r="I395" s="58"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="56"/>
+      <c r="I396" s="58"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="56"/>
+      <c r="I397" s="58"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="56"/>
+      <c r="I398" s="58"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="56"/>
+      <c r="I399" s="58"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="56"/>
+      <c r="I400" s="58"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="56"/>
+      <c r="I401" s="58"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="56"/>
+      <c r="I402" s="58"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="56"/>
+      <c r="I403" s="58"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="56"/>
+      <c r="I404" s="58"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="56"/>
+      <c r="I405" s="58"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="56"/>
+      <c r="I406" s="58"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="56"/>
+      <c r="I407" s="58"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="56"/>
+      <c r="I408" s="58"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="56"/>
+      <c r="I409" s="58"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="56"/>
+      <c r="I410" s="58"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="56"/>
+      <c r="I411" s="58"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="56"/>
+      <c r="I412" s="58"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="56"/>
+      <c r="I413" s="58"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="56"/>
+      <c r="I414" s="58"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="56"/>
+      <c r="I415" s="58"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="56"/>
+      <c r="I416" s="58"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="56"/>
+      <c r="I417" s="58"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="56"/>
+      <c r="I418" s="58"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="56"/>
+      <c r="I419" s="58"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="56"/>
+      <c r="I420" s="58"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="56"/>
+      <c r="I421" s="58"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="56"/>
+      <c r="I422" s="58"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="56"/>
+      <c r="I423" s="58"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="56"/>
+      <c r="I424" s="58"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="56"/>
+      <c r="I425" s="58"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="56"/>
+      <c r="I426" s="58"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="56"/>
+      <c r="I427" s="58"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="56"/>
+      <c r="I428" s="58"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="56"/>
+      <c r="I429" s="58"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="56"/>
+      <c r="I430" s="58"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="56"/>
+      <c r="I431" s="58"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="56"/>
+      <c r="I432" s="58"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="56"/>
+      <c r="I433" s="58"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="56"/>
+      <c r="I434" s="58"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="56"/>
+      <c r="I435" s="58"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="56"/>
+      <c r="I436" s="58"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="56"/>
+      <c r="I437" s="58"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="56"/>
+      <c r="I438" s="58"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="56"/>
+      <c r="I439" s="58"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="56"/>
+      <c r="I440" s="58"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="56"/>
+      <c r="I441" s="58"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="56"/>
+      <c r="I442" s="58"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="56"/>
+      <c r="I443" s="58"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="56"/>
+      <c r="I444" s="58"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="56"/>
+      <c r="I445" s="58"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="56"/>
+      <c r="I446" s="58"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="56"/>
+      <c r="I447" s="58"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="56"/>
+      <c r="I448" s="58"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="56"/>
+      <c r="I449" s="58"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="56"/>
+      <c r="I450" s="58"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="56"/>
+      <c r="I451" s="58"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="56"/>
+      <c r="I452" s="58"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="56"/>
+      <c r="I453" s="58"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="56"/>
+      <c r="I454" s="58"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="56"/>
+      <c r="I455" s="58"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="56"/>
+      <c r="I456" s="58"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="56"/>
+      <c r="I457" s="58"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="56"/>
+      <c r="I458" s="58"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="56"/>
+      <c r="I459" s="58"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="56"/>
+      <c r="I460" s="58"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="56"/>
+      <c r="I461" s="58"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="56"/>
+      <c r="I462" s="58"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="56"/>
+      <c r="I463" s="58"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="56"/>
+      <c r="I464" s="58"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="56"/>
+      <c r="I465" s="58"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="56"/>
+      <c r="I466" s="58"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="56"/>
+      <c r="I467" s="58"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="56"/>
+      <c r="I468" s="58"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="56"/>
+      <c r="I469" s="58"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="56"/>
+      <c r="I470" s="58"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="56"/>
+      <c r="I471" s="58"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="56"/>
+      <c r="I472" s="58"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="56"/>
+      <c r="I473" s="58"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="56"/>
+      <c r="I474" s="58"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="56"/>
+      <c r="I475" s="58"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="56"/>
+      <c r="I476" s="58"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="56"/>
+      <c r="I477" s="58"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="56"/>
+      <c r="I478" s="58"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="56"/>
+      <c r="I479" s="58"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="56"/>
+      <c r="I480" s="58"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="56"/>
+      <c r="I481" s="58"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="56"/>
+      <c r="I482" s="58"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="56"/>
+      <c r="I483" s="58"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="56"/>
+      <c r="I484" s="58"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="56"/>
+      <c r="I485" s="58"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="56"/>
+      <c r="I486" s="58"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="56"/>
+      <c r="I487" s="58"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="56"/>
+      <c r="I488" s="58"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="56"/>
+      <c r="I489" s="58"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="56"/>
+      <c r="I490" s="58"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="56"/>
+      <c r="I491" s="58"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="56"/>
+      <c r="I492" s="58"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="56"/>
+      <c r="I493" s="58"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="56"/>
+      <c r="I494" s="58"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="56"/>
+      <c r="I495" s="58"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="56"/>
+      <c r="I496" s="58"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="56"/>
+      <c r="I497" s="58"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="56"/>
+      <c r="I498" s="58"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="56"/>
+      <c r="I499" s="58"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="56"/>
+      <c r="I500" s="58"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="56"/>
+      <c r="I501" s="58"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="56"/>
+      <c r="I502" s="58"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="56"/>
+      <c r="I503" s="58"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="56"/>
+      <c r="I504" s="58"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="56"/>
+      <c r="I505" s="58"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="56"/>
+      <c r="I506" s="58"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="56"/>
+      <c r="I507" s="58"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="56"/>
+      <c r="I508" s="58"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="56"/>
+      <c r="I509" s="58"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="56"/>
+      <c r="I510" s="58"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="56"/>
+      <c r="I511" s="58"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="56"/>
+      <c r="I512" s="58"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="56"/>
+      <c r="I513" s="58"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="56"/>
+      <c r="I514" s="58"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="56"/>
+      <c r="I515" s="58"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="56"/>
+      <c r="I516" s="58"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="56"/>
+      <c r="I517" s="58"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="56"/>
+      <c r="I518" s="58"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="56"/>
+      <c r="I519" s="58"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="56"/>
+      <c r="I520" s="58"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="56"/>
+      <c r="I521" s="58"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="56"/>
+      <c r="I522" s="58"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="56"/>
+      <c r="I523" s="58"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="56"/>
+      <c r="I524" s="58"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="56"/>
+      <c r="I525" s="58"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="56"/>
+      <c r="I526" s="58"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="56"/>
+      <c r="I527" s="58"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="56"/>
+      <c r="I528" s="58"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="56"/>
+      <c r="I529" s="58"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="56"/>
+      <c r="I530" s="58"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="56"/>
+      <c r="I531" s="58"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="56"/>
+      <c r="I532" s="58"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="56"/>
+      <c r="I533" s="58"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="56"/>
+      <c r="I534" s="58"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="56"/>
+      <c r="I535" s="58"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="56"/>
+      <c r="I536" s="58"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="56"/>
+      <c r="I537" s="58"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="56"/>
+      <c r="I538" s="58"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="56"/>
+      <c r="I539" s="58"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="56"/>
+      <c r="I540" s="58"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="56"/>
+      <c r="I541" s="58"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="56"/>
+      <c r="I542" s="58"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="56"/>
+      <c r="I543" s="58"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="56"/>
+      <c r="I544" s="58"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="56"/>
+      <c r="I545" s="58"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="56"/>
+      <c r="I546" s="58"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="56"/>
+      <c r="I547" s="58"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="56"/>
+      <c r="I548" s="58"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="56"/>
+      <c r="I549" s="58"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="56"/>
+      <c r="I550" s="58"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="56"/>
+      <c r="I551" s="58"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="56"/>
+      <c r="I552" s="58"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="56"/>
+      <c r="I553" s="58"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="56"/>
+      <c r="I554" s="58"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="56"/>
+      <c r="I555" s="58"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="56"/>
+      <c r="I556" s="58"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="56"/>
+      <c r="I557" s="58"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="56"/>
+      <c r="I558" s="58"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="56"/>
+      <c r="I559" s="58"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="56"/>
+      <c r="I560" s="58"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="56"/>
+      <c r="I561" s="58"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="56"/>
+      <c r="I562" s="58"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="56"/>
+      <c r="I563" s="58"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="56"/>
+      <c r="I564" s="58"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="56"/>
+      <c r="I565" s="58"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="56"/>
+      <c r="I566" s="58"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="56"/>
+      <c r="I567" s="58"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="56"/>
+      <c r="I568" s="58"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="56"/>
+      <c r="I569" s="58"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="56"/>
+      <c r="I570" s="58"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="56"/>
+      <c r="I571" s="58"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="56"/>
+      <c r="I572" s="58"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="56"/>
+      <c r="I573" s="58"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="56"/>
+      <c r="I574" s="58"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="56"/>
+      <c r="I575" s="58"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="56"/>
+      <c r="I576" s="58"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="56"/>
+      <c r="I577" s="58"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="56"/>
+      <c r="I578" s="58"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="56"/>
+      <c r="I579" s="58"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="56"/>
+      <c r="I580" s="58"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="56"/>
+      <c r="I581" s="58"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="56"/>
+      <c r="I582" s="58"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="56"/>
+      <c r="I583" s="58"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="56"/>
+      <c r="I584" s="58"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="56"/>
+      <c r="I585" s="58"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="56"/>
+      <c r="I586" s="58"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="56"/>
+      <c r="I587" s="58"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="56"/>
+      <c r="I588" s="58"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="56"/>
+      <c r="I589" s="58"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="56"/>
+      <c r="I590" s="58"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="56"/>
+      <c r="I591" s="58"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="56"/>
+      <c r="I592" s="58"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="56"/>
+      <c r="I593" s="58"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="56"/>
+      <c r="I594" s="58"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="56"/>
+      <c r="I595" s="58"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="56"/>
+      <c r="I596" s="58"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="56"/>
+      <c r="I597" s="58"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="56"/>
+      <c r="I598" s="58"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="56"/>
+      <c r="I599" s="58"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="56"/>
+      <c r="I600" s="58"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="56"/>
+      <c r="I601" s="58"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="56"/>
+      <c r="I602" s="58"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="56"/>
+      <c r="I603" s="58"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="56"/>
+      <c r="I604" s="58"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="56"/>
+      <c r="I605" s="58"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="56"/>
+      <c r="I606" s="58"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="56"/>
+      <c r="I607" s="58"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="56"/>
+      <c r="I608" s="58"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="56"/>
+      <c r="I609" s="58"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="56"/>
+      <c r="I610" s="58"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="56"/>
+      <c r="I611" s="58"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="56"/>
+      <c r="I612" s="58"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="56"/>
+      <c r="I613" s="58"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="56"/>
+      <c r="I614" s="58"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="56"/>
+      <c r="I615" s="58"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="56"/>
+      <c r="I616" s="58"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="56"/>
+      <c r="I617" s="58"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="56"/>
+      <c r="I618" s="58"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="56"/>
+      <c r="I619" s="58"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="56"/>
+      <c r="I620" s="58"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="56"/>
+      <c r="I621" s="58"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="56"/>
+      <c r="I622" s="58"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="56"/>
+      <c r="I623" s="58"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="56"/>
+      <c r="I624" s="58"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="56"/>
+      <c r="I625" s="58"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="56"/>
+      <c r="I626" s="58"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="56"/>
+      <c r="I627" s="58"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="56"/>
+      <c r="I628" s="58"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="56"/>
+      <c r="I629" s="58"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="56"/>
+      <c r="I630" s="58"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="56"/>
+      <c r="I631" s="58"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="56"/>
+      <c r="I632" s="58"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="56"/>
+      <c r="I633" s="58"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="56"/>
+      <c r="I634" s="58"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="56"/>
+      <c r="I635" s="58"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="56"/>
+      <c r="I636" s="58"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="56"/>
+      <c r="I637" s="58"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="56"/>
+      <c r="I638" s="58"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="56"/>
+      <c r="I639" s="58"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="56"/>
+      <c r="I640" s="58"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="56"/>
+      <c r="I641" s="58"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="56"/>
+      <c r="I642" s="58"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="56"/>
+      <c r="I643" s="58"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="56"/>
+      <c r="I644" s="58"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="56"/>
+      <c r="I645" s="58"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="56"/>
+      <c r="I646" s="58"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="56"/>
+      <c r="I647" s="58"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="56"/>
+      <c r="I648" s="58"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="56"/>
+      <c r="I649" s="58"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="56"/>
+      <c r="I650" s="58"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="56"/>
+      <c r="I651" s="58"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="56"/>
+      <c r="I652" s="58"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="56"/>
+      <c r="I653" s="58"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="56"/>
+      <c r="I654" s="58"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="56"/>
+      <c r="I655" s="58"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="56"/>
+      <c r="I656" s="58"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="56"/>
+      <c r="I657" s="58"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="56"/>
+      <c r="I658" s="58"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="56"/>
+      <c r="I659" s="58"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="56"/>
+      <c r="I660" s="58"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="56"/>
+      <c r="I661" s="58"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="56"/>
+      <c r="I662" s="58"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="56"/>
+      <c r="I663" s="58"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="56"/>
+      <c r="I664" s="58"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="56"/>
+      <c r="I665" s="58"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="56"/>
+      <c r="I666" s="58"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="56"/>
+      <c r="I667" s="58"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="56"/>
+      <c r="I668" s="58"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="56"/>
+      <c r="I669" s="58"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="56"/>
+      <c r="I670" s="58"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="56"/>
+      <c r="I671" s="58"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="56"/>
+      <c r="I672" s="58"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="56"/>
+      <c r="I673" s="58"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="56"/>
+      <c r="I674" s="58"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="56"/>
+      <c r="I675" s="58"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="56"/>
+      <c r="I676" s="58"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="56"/>
+      <c r="I677" s="58"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="56"/>
+      <c r="I678" s="58"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="56"/>
+      <c r="I679" s="58"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="56"/>
+      <c r="I680" s="58"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="56"/>
+      <c r="I681" s="58"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="56"/>
+      <c r="I682" s="58"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="56"/>
+      <c r="I683" s="58"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="56"/>
+      <c r="I684" s="58"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="56"/>
+      <c r="I685" s="58"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="56"/>
+      <c r="I686" s="58"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="56"/>
+      <c r="I687" s="58"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="56"/>
+      <c r="I688" s="58"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="56"/>
+      <c r="I689" s="58"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="56"/>
+      <c r="I690" s="58"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="56"/>
+      <c r="I691" s="58"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="56"/>
+      <c r="I692" s="58"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="56"/>
+      <c r="I693" s="58"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="56"/>
+      <c r="I694" s="58"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="56"/>
+      <c r="I695" s="58"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="56"/>
+      <c r="I696" s="58"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="56"/>
+      <c r="I697" s="58"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="56"/>
+      <c r="I698" s="58"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="56"/>
+      <c r="I699" s="58"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="56"/>
+      <c r="I700" s="58"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="56"/>
+      <c r="I701" s="58"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="56"/>
+      <c r="I702" s="58"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="56"/>
+      <c r="I703" s="58"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="56"/>
+      <c r="I704" s="58"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="56"/>
+      <c r="I705" s="58"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="56"/>
+      <c r="I706" s="58"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="56"/>
+      <c r="I707" s="58"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="56"/>
+      <c r="I708" s="58"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="56"/>
+      <c r="I709" s="58"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="56"/>
+      <c r="I710" s="58"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="56"/>
+      <c r="I711" s="58"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="56"/>
+      <c r="I712" s="58"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="56"/>
+      <c r="I713" s="58"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="56"/>
+      <c r="I714" s="58"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="56"/>
+      <c r="I715" s="58"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="56"/>
+      <c r="I716" s="58"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="56"/>
+      <c r="I717" s="58"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="56"/>
+      <c r="I718" s="58"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="56"/>
+      <c r="I719" s="58"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="56"/>
+      <c r="I720" s="58"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="56"/>
+      <c r="I721" s="58"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="56"/>
+      <c r="I722" s="58"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="56"/>
+      <c r="I723" s="58"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="56"/>
+      <c r="I724" s="58"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="56"/>
+      <c r="I725" s="58"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="56"/>
+      <c r="I726" s="58"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="56"/>
+      <c r="I727" s="58"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="56"/>
+      <c r="I728" s="58"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="56"/>
+      <c r="I729" s="58"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="56"/>
+      <c r="I730" s="58"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="56"/>
+      <c r="I731" s="58"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="56"/>
+      <c r="I732" s="58"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="56"/>
+      <c r="I733" s="58"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="56"/>
+      <c r="I734" s="58"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="56"/>
+      <c r="I735" s="58"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="56"/>
+      <c r="I736" s="58"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="56"/>
+      <c r="I737" s="58"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="56"/>
+      <c r="I738" s="58"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="56"/>
+      <c r="I739" s="58"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="56"/>
+      <c r="I740" s="58"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="56"/>
+      <c r="I741" s="58"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="56"/>
+      <c r="I742" s="58"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="56"/>
+      <c r="I743" s="58"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="56"/>
+      <c r="I744" s="58"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="56"/>
+      <c r="I745" s="58"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="56"/>
+      <c r="I746" s="58"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="56"/>
+      <c r="I747" s="58"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="56"/>
+      <c r="I748" s="58"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="56"/>
+      <c r="I749" s="58"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="56"/>
+      <c r="I750" s="58"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="56"/>
+      <c r="I751" s="58"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="56"/>
+      <c r="I752" s="58"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="56"/>
+      <c r="I753" s="58"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="56"/>
+      <c r="I754" s="58"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="56"/>
+      <c r="I755" s="58"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="56"/>
+      <c r="I756" s="58"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="56"/>
+      <c r="I757" s="58"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="56"/>
+      <c r="I758" s="58"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I759" s="56"/>
+      <c r="I759" s="58"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I760" s="56"/>
+      <c r="I760" s="58"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I761" s="56"/>
+      <c r="I761" s="58"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I762" s="56"/>
+      <c r="I762" s="58"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I763" s="56"/>
+      <c r="I763" s="58"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I764" s="56"/>
+      <c r="I764" s="58"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I765" s="56"/>
+      <c r="I765" s="58"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I766" s="56"/>
+      <c r="I766" s="58"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I767" s="56"/>
+      <c r="I767" s="58"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I768" s="56"/>
+      <c r="I768" s="58"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I769" s="56"/>
+      <c r="I769" s="58"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I770" s="56"/>
+      <c r="I770" s="58"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I771" s="56"/>
+      <c r="I771" s="58"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I772" s="56"/>
+      <c r="I772" s="58"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I773" s="56"/>
+      <c r="I773" s="58"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I774" s="56"/>
+      <c r="I774" s="58"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I775" s="56"/>
+      <c r="I775" s="58"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I776" s="56"/>
+      <c r="I776" s="58"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I777" s="56"/>
+      <c r="I777" s="58"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I778" s="56"/>
+      <c r="I778" s="58"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I779" s="56"/>
+      <c r="I779" s="58"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I780" s="56"/>
+      <c r="I780" s="58"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I781" s="56"/>
+      <c r="I781" s="58"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I782" s="56"/>
+      <c r="I782" s="58"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I783" s="56"/>
+      <c r="I783" s="58"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I784" s="56"/>
+      <c r="I784" s="58"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I785" s="56"/>
+      <c r="I785" s="58"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I786" s="56"/>
+      <c r="I786" s="58"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I787" s="56"/>
+      <c r="I787" s="58"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I788" s="56"/>
+      <c r="I788" s="58"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I789" s="56"/>
+      <c r="I789" s="58"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I790" s="56"/>
+      <c r="I790" s="58"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I791" s="56"/>
+      <c r="I791" s="58"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I792" s="56"/>
+      <c r="I792" s="58"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I793" s="56"/>
+      <c r="I793" s="58"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I794" s="56"/>
+      <c r="I794" s="58"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I795" s="56"/>
+      <c r="I795" s="58"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I796" s="56"/>
+      <c r="I796" s="58"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I797" s="56"/>
+      <c r="I797" s="58"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I798" s="56"/>
+      <c r="I798" s="58"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I799" s="56"/>
+      <c r="I799" s="58"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I800" s="56"/>
+      <c r="I800" s="58"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I801" s="56"/>
+      <c r="I801" s="58"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I802" s="56"/>
+      <c r="I802" s="58"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I803" s="56"/>
+      <c r="I803" s="58"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I804" s="56"/>
+      <c r="I804" s="58"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I805" s="56"/>
+      <c r="I805" s="58"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I806" s="56"/>
+      <c r="I806" s="58"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I807" s="56"/>
+      <c r="I807" s="58"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I808" s="56"/>
+      <c r="I808" s="58"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I809" s="56"/>
+      <c r="I809" s="58"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I810" s="56"/>
+      <c r="I810" s="58"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I811" s="56"/>
+      <c r="I811" s="58"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I812" s="56"/>
+      <c r="I812" s="58"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I813" s="56"/>
+      <c r="I813" s="58"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I814" s="56"/>
+      <c r="I814" s="58"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I815" s="56"/>
+      <c r="I815" s="58"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -42681,98 +42673,98 @@
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>148</v>
+      <c r="B1" s="59" t="s">
+        <v>146</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>149</v>
+      <c r="E1" s="59" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>150</v>
+      <c r="B2" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>152</v>
+      <c r="E2" s="59" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>153</v>
+      <c r="B3" s="59" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>156</v>
+      <c r="B4" s="60" t="s">
+        <v>154</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>159</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>162</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>165</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -436,6 +436,12 @@
     <t xml:space="preserve">ぎまんのきり</t>
   </si>
   <si>
+    <t xml:space="preserve">不定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-5</t>
   </si>
   <si>
@@ -443,6 +449,14 @@
   </si>
   <si>
     <t xml:space="preserve">しんじゅ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行動</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。
+【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。
+</t>
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex1</t>
@@ -454,6 +468,15 @@
     <t xml:space="preserve">いつわりのぶき</t>
   </si>
   <si>
+    <t xml:space="preserve">2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">偽証設置　偽証　回帰
+【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード
+ならば、その《攻撃》は+0/+1となる。
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex2</t>
   </si>
   <si>
@@ -461,6 +484,15 @@
   </si>
   <si>
     <t xml:space="preserve">やいばのほんしつ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">偽証　回帰
+【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。
+【常時】このカードを回帰した時、相手の集中力は0になる。
+（このカードはザンカのカードとして扱う）</t>
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex3</t>
@@ -472,6 +504,13 @@
     <t xml:space="preserve">さいしょのさくらすず</t>
   </si>
   <si>
+    <t xml:space="preserve">偽証　回帰
+基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。
+光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。
+【常時】このカードが回帰した時、ダスト→自ライフ：1
+（このカードはヲウカのカードとして扱う）</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-s-1</t>
   </si>
   <si>
@@ -479,6 +518,16 @@
   </si>
   <si>
     <t xml:space="preserve">＝＝＝＝＝＝＝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。
+【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。
+【展開中】相手が焦燥で受けるダメージが2/1になる。
+【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。
+</t>
   </si>
   <si>
     <t xml:space="preserve">normal</t>
@@ -490,16 +539,10 @@
     <t xml:space="preserve">special</t>
   </si>
   <si>
-    <t xml:space="preserve">行動</t>
-  </si>
-  <si>
     <t xml:space="preserve">action</t>
   </si>
   <si>
     <t xml:space="preserve">extra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不定</t>
   </si>
   <si>
     <t xml:space="preserve">variable</t>
@@ -544,7 +587,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -690,12 +733,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
@@ -827,7 +864,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -868,7 +905,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,7 +965,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,11 +1001,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,7 +1033,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,31 +1053,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1048,23 +1093,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1159,12 +1220,12 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1307,8 +1368,8 @@
         <v>28</v>
       </c>
       <c r="W2" s="10" t="str">
-        <f aca="false">"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", ""))))))) &amp; ", tarotNo: '" &amp; L2 &amp; "'},"</f>
-        <v>'renri-a1': { name: '歴史家レンリ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '遺物', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'renri', anotherID: 'A1', tarotNo: '22'},</v>
+        <f aca="false">"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", IF(V2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8'] as CardSet[]", "")))))))) &amp; ", tarotNo: '" &amp; L2 &amp; "'},"</f>
+        <v>'renri-a1': { name: '歴史家レンリ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '遺物', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'renri', anotherID: 'A1', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8'] as CardSet[], tarotNo: '22'},</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -16583,12 +16644,12 @@
   </sheetPr>
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE6" activeCellId="0" sqref="AE6"/>
+      <selection pane="bottomRight" activeCell="S8" activeCellId="0" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16767,7 +16828,7 @@
       </c>
       <c r="AT1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -17841,7 +17902,7 @@
       <c r="AMJ2" s="31"/>
       <c r="AMK2" s="31"/>
     </row>
-    <row r="3" s="31" customFormat="true" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="31" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -17904,9 +17965,9 @@
       <c r="AF3" s="21"/>
       <c r="AG3" s="33"/>
       <c r="AH3" s="21"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="35"/>
       <c r="AM3" s="26"/>
       <c r="AN3" s="21"/>
       <c r="AO3" s="36"/>
@@ -17927,7 +17988,7 @@
         <v>| '02-saine-A2-n-2'</v>
       </c>
     </row>
-    <row r="4" s="31" customFormat="true" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="31" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
         <v>95</v>
       </c>
@@ -17989,9 +18050,9 @@
         <v>107</v>
       </c>
       <c r="AH4" s="21"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="25" t="s">
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35" t="s">
         <v>108</v>
       </c>
       <c r="AM4" s="42"/>
@@ -18014,7 +18075,7 @@
         <v>| '05-oboro-o-s-3'</v>
       </c>
     </row>
-    <row r="5" s="31" customFormat="true" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="31" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
         <v>109</v>
       </c>
@@ -18076,9 +18137,9 @@
       <c r="AF5" s="48"/>
       <c r="AG5" s="33"/>
       <c r="AH5" s="21"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="35"/>
       <c r="AM5" s="42"/>
       <c r="AN5" s="21"/>
       <c r="AO5" s="36"/>
@@ -18099,7 +18160,7 @@
         <v>| '07-shinra-A1-n-7'</v>
       </c>
     </row>
-    <row r="6" s="31" customFormat="true" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="31" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>119</v>
       </c>
@@ -18114,11 +18175,11 @@
       <c r="F6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="37"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="12"/>
       <c r="M6" s="43" t="s">
         <v>75</v>
@@ -18146,17 +18207,17 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-      <c r="AE6" s="50" t="s">
+      <c r="AE6" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AF6" s="51"/>
+      <c r="AF6" s="53"/>
       <c r="AG6" s="33" t="s">
         <v>126</v>
       </c>
       <c r="AH6" s="21"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="25" t="s">
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35" t="s">
         <v>127</v>
       </c>
       <c r="AM6" s="42"/>
@@ -18172,11 +18233,11 @@
       </c>
       <c r="AU6" s="29" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    /** 《"&amp;$E6&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A6, 3, 1)="-", RIGHT($A6,LEN($A6)-3), $A6)), "-", "_")&amp;": TCardId = '"&amp;$A6&amp;"';", "")</f>
-        <v>    /** 《暗器》 */ export const CHIKAGE_O_N_4: TCardId = '09-chikage-o-n-4';</v>
+        <v>/** 《暗器》 */ export const CHIKAGE_O_N_4: TCardId = '09-chikage-o-n-4';</v>
       </c>
       <c r="AV6" s="30" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    | '"&amp;$A6&amp;"'", "")</f>
-        <v>    | '09-chikage-o-n-4'</v>
+        <v>| '09-chikage-o-n-4'</v>
       </c>
     </row>
     <row r="7" s="31" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18190,7 +18251,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="52"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
@@ -18210,15 +18271,15 @@
       <c r="AB7" s="37"/>
       <c r="AC7" s="37"/>
       <c r="AD7" s="37"/>
-      <c r="AE7" s="53"/>
+      <c r="AE7" s="55"/>
       <c r="AF7" s="41"/>
-      <c r="AG7" s="54"/>
+      <c r="AG7" s="56"/>
       <c r="AH7" s="41"/>
-      <c r="AI7" s="55"/>
+      <c r="AI7" s="25"/>
       <c r="AJ7" s="41"/>
-      <c r="AK7" s="56"/>
+      <c r="AK7" s="57"/>
       <c r="AL7" s="41"/>
-      <c r="AM7" s="57"/>
+      <c r="AM7" s="58"/>
       <c r="AN7" s="21"/>
       <c r="AO7" s="36"/>
       <c r="AP7" s="36"/>
@@ -18238,7 +18299,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
         <v>128</v>
       </c>
@@ -18255,19 +18316,23 @@
       <c r="F8" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="39"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="R8" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="S8" s="62"/>
       <c r="T8" s="37"/>
       <c r="U8" s="36"/>
       <c r="V8" s="37"/>
@@ -18279,24 +18344,26 @@
       <c r="AB8" s="37"/>
       <c r="AC8" s="37"/>
       <c r="AD8" s="37"/>
-      <c r="AE8" s="53"/>
+      <c r="AE8" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="AF8" s="41"/>
-      <c r="AG8" s="54"/>
+      <c r="AG8" s="49"/>
       <c r="AH8" s="41"/>
-      <c r="AI8" s="55"/>
+      <c r="AI8" s="25"/>
       <c r="AJ8" s="41"/>
-      <c r="AK8" s="56"/>
+      <c r="AK8" s="49"/>
       <c r="AL8" s="41"/>
-      <c r="AM8" s="57"/>
+      <c r="AM8" s="49"/>
       <c r="AN8" s="21"/>
       <c r="AO8" s="36"/>
       <c r="AP8" s="36"/>
       <c r="AQ8" s="36"/>
       <c r="AR8" s="36"/>
       <c r="AS8" s="36"/>
-      <c r="AT8" s="28" t="e">
+      <c r="AT8" s="28" t="str">
         <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
-        <v>#N/A</v>
+        <v>'22-renri-a1-n-2': {megami: 'renri', anotherID: 'A1', replace: '', name: '欺瞞の霧', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ぎまんのきり', rubyEn: '', baseType: 'normal', type: 'variable', text: '【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU8" s="29" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    /** 《"&amp;$E8&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A8, 3, 1)="-", RIGHT($A8,LEN($A8)-3), $A8)), "-", "_")&amp;": TCardId = '"&amp;$A8&amp;"';", "")</f>
@@ -19284,9 +19351,9 @@
       <c r="AMJ8" s="31"/>
       <c r="AMK8" s="31"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>26</v>
@@ -19296,23 +19363,27 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="39"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="52"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
+      <c r="R9" s="37" t="s">
+        <v>136</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="36"/>
@@ -19325,24 +19396,26 @@
       <c r="AB9" s="37"/>
       <c r="AC9" s="37"/>
       <c r="AD9" s="37"/>
-      <c r="AE9" s="53"/>
+      <c r="AE9" s="55" t="s">
+        <v>137</v>
+      </c>
       <c r="AF9" s="41"/>
-      <c r="AG9" s="54"/>
+      <c r="AG9" s="49"/>
       <c r="AH9" s="41"/>
-      <c r="AI9" s="55"/>
+      <c r="AI9" s="25"/>
       <c r="AJ9" s="41"/>
-      <c r="AK9" s="56"/>
+      <c r="AK9" s="49"/>
       <c r="AL9" s="41"/>
-      <c r="AM9" s="57"/>
+      <c r="AM9" s="49"/>
       <c r="AN9" s="21"/>
       <c r="AO9" s="36"/>
       <c r="AP9" s="36"/>
       <c r="AQ9" s="36"/>
       <c r="AR9" s="36"/>
       <c r="AS9" s="36"/>
-      <c r="AT9" s="28" t="e">
+      <c r="AT9" s="28" t="str">
         <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
-        <v>#N/A</v>
+        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '', name: '神授', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU9" s="29" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    /** 《"&amp;$E9&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A9, 3, 1)="-", RIGHT($A9,LEN($A9)-3), $A9)), "-", "_")&amp;": TCardId = '"&amp;$A9&amp;"';", "")</f>
@@ -20330,9 +20403,9 @@
       <c r="AMJ9" s="31"/>
       <c r="AMK9" s="31"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>26</v>
@@ -20342,27 +20415,35 @@
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="39"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="52"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="R10" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="T10" s="37" t="s">
+        <v>141</v>
+      </c>
       <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
+      <c r="V10" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="W10" s="36"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
@@ -20371,24 +20452,26 @@
       <c r="AB10" s="37"/>
       <c r="AC10" s="37"/>
       <c r="AD10" s="37"/>
-      <c r="AE10" s="53"/>
+      <c r="AE10" s="55" t="s">
+        <v>142</v>
+      </c>
       <c r="AF10" s="41"/>
-      <c r="AG10" s="54"/>
+      <c r="AG10" s="49"/>
       <c r="AH10" s="41"/>
-      <c r="AI10" s="55"/>
+      <c r="AI10" s="25"/>
       <c r="AJ10" s="41"/>
-      <c r="AK10" s="56"/>
+      <c r="AK10" s="49"/>
       <c r="AL10" s="41"/>
-      <c r="AM10" s="57"/>
+      <c r="AM10" s="49"/>
       <c r="AN10" s="21"/>
       <c r="AO10" s="36"/>
       <c r="AP10" s="36"/>
       <c r="AQ10" s="36"/>
       <c r="AR10" s="36"/>
       <c r="AS10" s="36"/>
-      <c r="AT10" s="28" t="e">
+      <c r="AT10" s="28" t="str">
         <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
-        <v>#N/A</v>
+        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU10" s="29" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
@@ -21376,9 +21459,9 @@
       <c r="AMJ10" s="31"/>
       <c r="AMK10" s="31"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>26</v>
@@ -21388,27 +21471,35 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="39"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="52"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="R11" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="T11" s="37" t="s">
+        <v>146</v>
+      </c>
       <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
+      <c r="V11" s="37" t="s">
+        <v>93</v>
+      </c>
       <c r="W11" s="36"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
@@ -21417,24 +21508,26 @@
       <c r="AB11" s="37"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
-      <c r="AE11" s="53"/>
+      <c r="AE11" s="55" t="s">
+        <v>147</v>
+      </c>
       <c r="AF11" s="41"/>
-      <c r="AG11" s="54"/>
+      <c r="AG11" s="49"/>
       <c r="AH11" s="41"/>
-      <c r="AI11" s="55"/>
+      <c r="AI11" s="25"/>
       <c r="AJ11" s="41"/>
-      <c r="AK11" s="56"/>
+      <c r="AK11" s="49"/>
       <c r="AL11" s="41"/>
-      <c r="AM11" s="57"/>
+      <c r="AM11" s="49"/>
       <c r="AN11" s="21"/>
       <c r="AO11" s="36"/>
       <c r="AP11" s="36"/>
       <c r="AQ11" s="36"/>
       <c r="AR11" s="36"/>
       <c r="AS11" s="36"/>
-      <c r="AT11" s="28" t="e">
+      <c r="AT11" s="28" t="str">
         <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
-        <v>#N/A</v>
+        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU11" s="29" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
@@ -22422,9 +22515,9 @@
       <c r="AMJ11" s="31"/>
       <c r="AMK11" s="31"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>26</v>
@@ -22434,23 +22527,27 @@
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="39"/>
       <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="52"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="R12" s="37" t="s">
+        <v>136</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="36"/>
@@ -22463,24 +22560,26 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
-      <c r="AE12" s="53"/>
+      <c r="AE12" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="AF12" s="41"/>
-      <c r="AG12" s="54"/>
+      <c r="AG12" s="49"/>
       <c r="AH12" s="41"/>
-      <c r="AI12" s="55"/>
+      <c r="AI12" s="25"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="56"/>
+      <c r="AK12" s="49"/>
       <c r="AL12" s="41"/>
-      <c r="AM12" s="57"/>
+      <c r="AM12" s="49"/>
       <c r="AN12" s="21"/>
       <c r="AO12" s="36"/>
       <c r="AP12" s="36"/>
       <c r="AQ12" s="36"/>
       <c r="AR12" s="36"/>
       <c r="AS12" s="36"/>
-      <c r="AT12" s="28" t="e">
+      <c r="AT12" s="28" t="str">
         <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
-        <v>#N/A</v>
+        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU12" s="29" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>
@@ -23468,9 +23567,9 @@
       <c r="AMJ12" s="31"/>
       <c r="AMK12" s="31"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>26</v>
@@ -23480,53 +23579,63 @@
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="39"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="52"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="M13" s="37" t="s">
+        <v>102</v>
+      </c>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="R13" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="36"/>
       <c r="V13" s="37"/>
       <c r="W13" s="36"/>
-      <c r="X13" s="37"/>
+      <c r="X13" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="Z13" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
-      <c r="AE13" s="53"/>
+      <c r="AE13" s="55" t="s">
+        <v>156</v>
+      </c>
       <c r="AF13" s="41"/>
-      <c r="AG13" s="54"/>
+      <c r="AG13" s="49"/>
       <c r="AH13" s="41"/>
-      <c r="AI13" s="55"/>
+      <c r="AI13" s="25"/>
       <c r="AJ13" s="41"/>
-      <c r="AK13" s="56"/>
+      <c r="AK13" s="49"/>
       <c r="AL13" s="41"/>
-      <c r="AM13" s="57"/>
+      <c r="AM13" s="49"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="36"/>
       <c r="AP13" s="36"/>
       <c r="AQ13" s="36"/>
       <c r="AR13" s="36"/>
       <c r="AS13" s="36"/>
-      <c r="AT13" s="28" t="e">
+      <c r="AT13" s="28" t="str">
         <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
-        <v>#N/A</v>
+        <v>'22-renri-a1-s-1': {megami: 'renri', anotherID: 'A1', replace: '', name: 'ロルレロラルロ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '＝＝＝＝＝＝＝', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '0', cost: '0', text: '【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。\n【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。\n【展開中】相手が焦燥で受けるダメージが2/1になる。\n【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU13" s="29" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    /** 《"&amp;$E13&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A13, 3, 1)="-", RIGHT($A13,LEN($A13)-3), $A13)), "-", "_")&amp;": TCardId = '"&amp;$A13&amp;"';", "")</f>
@@ -24525,7 +24634,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="38"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="52"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
@@ -24545,15 +24654,15 @@
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
-      <c r="AE14" s="53"/>
+      <c r="AE14" s="55"/>
       <c r="AF14" s="41"/>
-      <c r="AG14" s="54"/>
+      <c r="AG14" s="56"/>
       <c r="AH14" s="41"/>
-      <c r="AI14" s="55"/>
+      <c r="AI14" s="25"/>
       <c r="AJ14" s="41"/>
-      <c r="AK14" s="56"/>
+      <c r="AK14" s="57"/>
       <c r="AL14" s="41"/>
-      <c r="AM14" s="57"/>
+      <c r="AM14" s="58"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="36"/>
       <c r="AP14" s="36"/>
@@ -25561,7 +25670,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
       <c r="J15" s="39"/>
-      <c r="K15" s="52"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
@@ -25581,15 +25690,15 @@
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
       <c r="AD15" s="37"/>
-      <c r="AE15" s="53"/>
+      <c r="AE15" s="55"/>
       <c r="AF15" s="41"/>
-      <c r="AG15" s="54"/>
+      <c r="AG15" s="56"/>
       <c r="AH15" s="41"/>
-      <c r="AI15" s="55"/>
+      <c r="AI15" s="25"/>
       <c r="AJ15" s="41"/>
-      <c r="AK15" s="56"/>
+      <c r="AK15" s="57"/>
       <c r="AL15" s="41"/>
-      <c r="AM15" s="57"/>
+      <c r="AM15" s="58"/>
       <c r="AN15" s="21"/>
       <c r="AO15" s="36"/>
       <c r="AP15" s="36"/>
@@ -26597,7 +26706,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
@@ -26617,15 +26726,15 @@
       <c r="AB16" s="37"/>
       <c r="AC16" s="37"/>
       <c r="AD16" s="37"/>
-      <c r="AE16" s="53"/>
+      <c r="AE16" s="55"/>
       <c r="AF16" s="41"/>
-      <c r="AG16" s="54"/>
+      <c r="AG16" s="56"/>
       <c r="AH16" s="41"/>
-      <c r="AI16" s="55"/>
+      <c r="AI16" s="25"/>
       <c r="AJ16" s="41"/>
-      <c r="AK16" s="56"/>
+      <c r="AK16" s="57"/>
       <c r="AL16" s="41"/>
-      <c r="AM16" s="57"/>
+      <c r="AM16" s="58"/>
       <c r="AN16" s="21"/>
       <c r="AO16" s="36"/>
       <c r="AP16" s="36"/>
@@ -27633,7 +27742,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="38"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
@@ -27653,15 +27762,15 @@
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
-      <c r="AE17" s="53"/>
+      <c r="AE17" s="55"/>
       <c r="AF17" s="41"/>
-      <c r="AG17" s="54"/>
+      <c r="AG17" s="56"/>
       <c r="AH17" s="41"/>
-      <c r="AI17" s="55"/>
+      <c r="AI17" s="25"/>
       <c r="AJ17" s="41"/>
-      <c r="AK17" s="56"/>
+      <c r="AK17" s="57"/>
       <c r="AL17" s="41"/>
-      <c r="AM17" s="57"/>
+      <c r="AM17" s="58"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="36"/>
       <c r="AP17" s="36"/>
@@ -28669,7 +28778,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -28689,15 +28798,15 @@
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="53"/>
+      <c r="AE18" s="55"/>
       <c r="AF18" s="41"/>
-      <c r="AG18" s="54"/>
+      <c r="AG18" s="56"/>
       <c r="AH18" s="41"/>
-      <c r="AI18" s="55"/>
+      <c r="AI18" s="25"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="56"/>
+      <c r="AK18" s="57"/>
       <c r="AL18" s="41"/>
-      <c r="AM18" s="57"/>
+      <c r="AM18" s="58"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="36"/>
@@ -29705,7 +29814,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="52"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -29725,15 +29834,15 @@
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="53"/>
+      <c r="AE19" s="55"/>
       <c r="AF19" s="41"/>
-      <c r="AG19" s="54"/>
+      <c r="AG19" s="56"/>
       <c r="AH19" s="41"/>
-      <c r="AI19" s="55"/>
+      <c r="AI19" s="25"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="56"/>
+      <c r="AK19" s="57"/>
       <c r="AL19" s="41"/>
-      <c r="AM19" s="57"/>
+      <c r="AM19" s="58"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="36"/>
       <c r="AP19" s="36"/>
@@ -30741,7 +30850,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="52"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
@@ -30761,15 +30870,15 @@
       <c r="AB20" s="37"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="53"/>
+      <c r="AE20" s="55"/>
       <c r="AF20" s="41"/>
-      <c r="AG20" s="54"/>
+      <c r="AG20" s="56"/>
       <c r="AH20" s="41"/>
-      <c r="AI20" s="55"/>
+      <c r="AI20" s="25"/>
       <c r="AJ20" s="41"/>
-      <c r="AK20" s="56"/>
+      <c r="AK20" s="57"/>
       <c r="AL20" s="41"/>
-      <c r="AM20" s="57"/>
+      <c r="AM20" s="58"/>
       <c r="AN20" s="21"/>
       <c r="AO20" s="36"/>
       <c r="AP20" s="36"/>
@@ -31777,7 +31886,7 @@
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="52"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
@@ -31797,15 +31906,15 @@
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
       <c r="AD21" s="37"/>
-      <c r="AE21" s="53"/>
+      <c r="AE21" s="55"/>
       <c r="AF21" s="41"/>
-      <c r="AG21" s="54"/>
+      <c r="AG21" s="56"/>
       <c r="AH21" s="41"/>
-      <c r="AI21" s="55"/>
+      <c r="AI21" s="25"/>
       <c r="AJ21" s="41"/>
-      <c r="AK21" s="56"/>
+      <c r="AK21" s="57"/>
       <c r="AL21" s="41"/>
-      <c r="AM21" s="57"/>
+      <c r="AM21" s="58"/>
       <c r="AN21" s="21"/>
       <c r="AO21" s="36"/>
       <c r="AP21" s="36"/>
@@ -32813,7 +32922,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -32833,15 +32942,15 @@
       <c r="AB22" s="37"/>
       <c r="AC22" s="37"/>
       <c r="AD22" s="37"/>
-      <c r="AE22" s="53"/>
+      <c r="AE22" s="55"/>
       <c r="AF22" s="41"/>
-      <c r="AG22" s="54"/>
+      <c r="AG22" s="56"/>
       <c r="AH22" s="41"/>
-      <c r="AI22" s="55"/>
+      <c r="AI22" s="25"/>
       <c r="AJ22" s="41"/>
-      <c r="AK22" s="56"/>
+      <c r="AK22" s="57"/>
       <c r="AL22" s="41"/>
-      <c r="AM22" s="57"/>
+      <c r="AM22" s="58"/>
       <c r="AN22" s="21"/>
       <c r="AO22" s="36"/>
       <c r="AP22" s="36"/>
@@ -33849,7 +33958,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="52"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
@@ -33869,15 +33978,15 @@
       <c r="AB23" s="37"/>
       <c r="AC23" s="37"/>
       <c r="AD23" s="37"/>
-      <c r="AE23" s="53"/>
+      <c r="AE23" s="55"/>
       <c r="AF23" s="41"/>
-      <c r="AG23" s="54"/>
+      <c r="AG23" s="56"/>
       <c r="AH23" s="41"/>
-      <c r="AI23" s="55"/>
+      <c r="AI23" s="25"/>
       <c r="AJ23" s="41"/>
-      <c r="AK23" s="56"/>
+      <c r="AK23" s="57"/>
       <c r="AL23" s="41"/>
-      <c r="AM23" s="57"/>
+      <c r="AM23" s="58"/>
       <c r="AN23" s="21"/>
       <c r="AO23" s="36"/>
       <c r="AP23" s="36"/>
@@ -34885,7 +34994,7 @@
       <c r="H24" s="39"/>
       <c r="I24" s="38"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
@@ -34905,15 +35014,15 @@
       <c r="AB24" s="37"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="37"/>
-      <c r="AE24" s="53"/>
+      <c r="AE24" s="55"/>
       <c r="AF24" s="41"/>
-      <c r="AG24" s="54"/>
+      <c r="AG24" s="56"/>
       <c r="AH24" s="41"/>
-      <c r="AI24" s="55"/>
+      <c r="AI24" s="25"/>
       <c r="AJ24" s="41"/>
-      <c r="AK24" s="56"/>
+      <c r="AK24" s="57"/>
       <c r="AL24" s="41"/>
-      <c r="AM24" s="57"/>
+      <c r="AM24" s="58"/>
       <c r="AN24" s="21"/>
       <c r="AO24" s="36"/>
       <c r="AP24" s="36"/>
@@ -35921,7 +36030,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="38"/>
       <c r="J25" s="39"/>
-      <c r="K25" s="52"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
@@ -35941,15 +36050,15 @@
       <c r="AB25" s="37"/>
       <c r="AC25" s="37"/>
       <c r="AD25" s="37"/>
-      <c r="AE25" s="53"/>
+      <c r="AE25" s="55"/>
       <c r="AF25" s="41"/>
-      <c r="AG25" s="54"/>
+      <c r="AG25" s="56"/>
       <c r="AH25" s="41"/>
-      <c r="AI25" s="55"/>
+      <c r="AI25" s="25"/>
       <c r="AJ25" s="41"/>
-      <c r="AK25" s="56"/>
+      <c r="AK25" s="57"/>
       <c r="AL25" s="41"/>
-      <c r="AM25" s="57"/>
+      <c r="AM25" s="58"/>
       <c r="AN25" s="21"/>
       <c r="AO25" s="36"/>
       <c r="AP25" s="36"/>
@@ -36957,7 +37066,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
@@ -36977,15 +37086,15 @@
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
       <c r="AD26" s="37"/>
-      <c r="AE26" s="53"/>
+      <c r="AE26" s="55"/>
       <c r="AF26" s="41"/>
-      <c r="AG26" s="54"/>
+      <c r="AG26" s="56"/>
       <c r="AH26" s="41"/>
-      <c r="AI26" s="55"/>
+      <c r="AI26" s="25"/>
       <c r="AJ26" s="41"/>
-      <c r="AK26" s="56"/>
+      <c r="AK26" s="57"/>
       <c r="AL26" s="41"/>
-      <c r="AM26" s="57"/>
+      <c r="AM26" s="58"/>
       <c r="AN26" s="21"/>
       <c r="AO26" s="36"/>
       <c r="AP26" s="36"/>
@@ -37993,7 +38102,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -38013,15 +38122,15 @@
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
       <c r="AD27" s="37"/>
-      <c r="AE27" s="53"/>
+      <c r="AE27" s="55"/>
       <c r="AF27" s="41"/>
-      <c r="AG27" s="54"/>
+      <c r="AG27" s="56"/>
       <c r="AH27" s="41"/>
-      <c r="AI27" s="55"/>
+      <c r="AI27" s="25"/>
       <c r="AJ27" s="41"/>
-      <c r="AK27" s="56"/>
+      <c r="AK27" s="57"/>
       <c r="AL27" s="41"/>
-      <c r="AM27" s="57"/>
+      <c r="AM27" s="58"/>
       <c r="AN27" s="21"/>
       <c r="AO27" s="36"/>
       <c r="AP27" s="36"/>
@@ -39029,7 +39138,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="52"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
@@ -39049,15 +39158,15 @@
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
       <c r="AD28" s="37"/>
-      <c r="AE28" s="53"/>
+      <c r="AE28" s="55"/>
       <c r="AF28" s="41"/>
-      <c r="AG28" s="54"/>
+      <c r="AG28" s="56"/>
       <c r="AH28" s="41"/>
-      <c r="AI28" s="55"/>
+      <c r="AI28" s="25"/>
       <c r="AJ28" s="41"/>
-      <c r="AK28" s="56"/>
+      <c r="AK28" s="57"/>
       <c r="AL28" s="41"/>
-      <c r="AM28" s="57"/>
+      <c r="AM28" s="58"/>
       <c r="AN28" s="21"/>
       <c r="AO28" s="36"/>
       <c r="AP28" s="36"/>
@@ -40064,7 +40173,7 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="49"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -40085,15 +40194,15 @@
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
       <c r="AG29" s="41"/>
       <c r="AH29" s="15"/>
       <c r="AI29" s="41"/>
       <c r="AJ29" s="15"/>
-      <c r="AK29" s="51"/>
+      <c r="AK29" s="53"/>
       <c r="AL29" s="15"/>
-      <c r="AM29" s="51"/>
+      <c r="AM29" s="53"/>
       <c r="AN29" s="15"/>
       <c r="AO29" s="14"/>
       <c r="AP29" s="14"/>
@@ -40123,7 +40232,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="49"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -40144,15 +40253,15 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
       <c r="AG30" s="41"/>
       <c r="AH30" s="15"/>
       <c r="AI30" s="41"/>
       <c r="AJ30" s="15"/>
-      <c r="AK30" s="51"/>
+      <c r="AK30" s="53"/>
       <c r="AL30" s="15"/>
-      <c r="AM30" s="51"/>
+      <c r="AM30" s="53"/>
       <c r="AN30" s="15"/>
       <c r="AO30" s="14"/>
       <c r="AP30" s="14"/>
@@ -40182,7 +40291,7 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="49"/>
+      <c r="J31" s="63"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -40203,15 +40312,15 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
       <c r="AG31" s="41"/>
       <c r="AH31" s="15"/>
       <c r="AI31" s="41"/>
       <c r="AJ31" s="15"/>
-      <c r="AK31" s="51"/>
+      <c r="AK31" s="53"/>
       <c r="AL31" s="15"/>
-      <c r="AM31" s="51"/>
+      <c r="AM31" s="53"/>
       <c r="AN31" s="15"/>
       <c r="AO31" s="14"/>
       <c r="AP31" s="14"/>
@@ -40241,7 +40350,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="49"/>
+      <c r="J32" s="63"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -40262,15 +40371,15 @@
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
       <c r="AD32" s="12"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
       <c r="AG32" s="41"/>
       <c r="AH32" s="15"/>
       <c r="AI32" s="41"/>
       <c r="AJ32" s="15"/>
-      <c r="AK32" s="51"/>
+      <c r="AK32" s="53"/>
       <c r="AL32" s="15"/>
-      <c r="AM32" s="51"/>
+      <c r="AM32" s="53"/>
       <c r="AN32" s="15"/>
       <c r="AO32" s="14"/>
       <c r="AP32" s="14"/>
@@ -40291,2353 +40400,2353 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="58"/>
+      <c r="I33" s="64"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="58"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="58"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="58"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="58"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="58"/>
+      <c r="I38" s="64"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="58"/>
+      <c r="I39" s="64"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="58"/>
+      <c r="I40" s="64"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="58"/>
+      <c r="I41" s="64"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="58"/>
+      <c r="I42" s="64"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="58"/>
+      <c r="I43" s="64"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="58"/>
+      <c r="I44" s="64"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="58"/>
+      <c r="I45" s="64"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="58"/>
+      <c r="I46" s="64"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="58"/>
+      <c r="I47" s="64"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="58"/>
+      <c r="I48" s="64"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="58"/>
+      <c r="I49" s="64"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="58"/>
+      <c r="I50" s="64"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="58"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="58"/>
+      <c r="I52" s="64"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="58"/>
+      <c r="I53" s="64"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="58"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="58"/>
+      <c r="I55" s="64"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="58"/>
+      <c r="I56" s="64"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="58"/>
+      <c r="I57" s="64"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="58"/>
+      <c r="I58" s="64"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="58"/>
+      <c r="I59" s="64"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="58"/>
+      <c r="I60" s="64"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="58"/>
+      <c r="I61" s="64"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="58"/>
+      <c r="I62" s="64"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="58"/>
+      <c r="I63" s="64"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="58"/>
+      <c r="I64" s="64"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="58"/>
+      <c r="I65" s="64"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="58"/>
+      <c r="I66" s="64"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="58"/>
+      <c r="I67" s="64"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="58"/>
+      <c r="I68" s="64"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="58"/>
+      <c r="I69" s="64"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="58"/>
+      <c r="I70" s="64"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="58"/>
+      <c r="I71" s="64"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="58"/>
+      <c r="I72" s="64"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="58"/>
+      <c r="I73" s="64"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="58"/>
+      <c r="I74" s="64"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="58"/>
+      <c r="I75" s="64"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="58"/>
+      <c r="I76" s="64"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="58"/>
+      <c r="I77" s="64"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="58"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="58"/>
+      <c r="I79" s="64"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="58"/>
+      <c r="I80" s="64"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="58"/>
+      <c r="I81" s="64"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="58"/>
+      <c r="I82" s="64"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="58"/>
+      <c r="I83" s="64"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="58"/>
+      <c r="I84" s="64"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="58"/>
+      <c r="I85" s="64"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="58"/>
+      <c r="I86" s="64"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="58"/>
+      <c r="I87" s="64"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="58"/>
+      <c r="I88" s="64"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="58"/>
+      <c r="I89" s="64"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="58"/>
+      <c r="I90" s="64"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="58"/>
+      <c r="I91" s="64"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="58"/>
+      <c r="I92" s="64"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="58"/>
+      <c r="I93" s="64"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="58"/>
+      <c r="I94" s="64"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="58"/>
+      <c r="I95" s="64"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="58"/>
+      <c r="I96" s="64"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="58"/>
+      <c r="I97" s="64"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="58"/>
+      <c r="I98" s="64"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="58"/>
+      <c r="I99" s="64"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="58"/>
+      <c r="I100" s="64"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="58"/>
+      <c r="I101" s="64"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="58"/>
+      <c r="I102" s="64"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="58"/>
+      <c r="I103" s="64"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="58"/>
+      <c r="I104" s="64"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="58"/>
+      <c r="I105" s="64"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="58"/>
+      <c r="I106" s="64"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="58"/>
+      <c r="I107" s="64"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="58"/>
+      <c r="I108" s="64"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="58"/>
+      <c r="I109" s="64"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="58"/>
+      <c r="I110" s="64"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="58"/>
+      <c r="I111" s="64"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="58"/>
+      <c r="I112" s="64"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="58"/>
+      <c r="I113" s="64"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="58"/>
+      <c r="I114" s="64"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="58"/>
+      <c r="I115" s="64"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="58"/>
+      <c r="I116" s="64"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="58"/>
+      <c r="I117" s="64"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="58"/>
+      <c r="I118" s="64"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="58"/>
+      <c r="I119" s="64"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="58"/>
+      <c r="I120" s="64"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="58"/>
+      <c r="I121" s="64"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="58"/>
+      <c r="I122" s="64"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="58"/>
+      <c r="I123" s="64"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="58"/>
+      <c r="I124" s="64"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="58"/>
+      <c r="I125" s="64"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="58"/>
+      <c r="I126" s="64"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="58"/>
+      <c r="I127" s="64"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="58"/>
+      <c r="I128" s="64"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="58"/>
+      <c r="I129" s="64"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="58"/>
+      <c r="I130" s="64"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="58"/>
+      <c r="I131" s="64"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="58"/>
+      <c r="I132" s="64"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="58"/>
+      <c r="I133" s="64"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="58"/>
+      <c r="I134" s="64"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="58"/>
+      <c r="I135" s="64"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="58"/>
+      <c r="I136" s="64"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="58"/>
+      <c r="I137" s="64"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="58"/>
+      <c r="I138" s="64"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="58"/>
+      <c r="I139" s="64"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="58"/>
+      <c r="I140" s="64"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="58"/>
+      <c r="I141" s="64"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="58"/>
+      <c r="I142" s="64"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="58"/>
+      <c r="I143" s="64"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="58"/>
+      <c r="I144" s="64"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="58"/>
+      <c r="I145" s="64"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="58"/>
+      <c r="I146" s="64"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="58"/>
+      <c r="I147" s="64"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="58"/>
+      <c r="I148" s="64"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="58"/>
+      <c r="I149" s="64"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="58"/>
+      <c r="I150" s="64"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="58"/>
+      <c r="I151" s="64"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="58"/>
+      <c r="I152" s="64"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="58"/>
+      <c r="I153" s="64"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="58"/>
+      <c r="I154" s="64"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="58"/>
+      <c r="I155" s="64"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="58"/>
+      <c r="I156" s="64"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="58"/>
+      <c r="I157" s="64"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="58"/>
+      <c r="I158" s="64"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="58"/>
+      <c r="I159" s="64"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="58"/>
+      <c r="I160" s="64"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="58"/>
+      <c r="I161" s="64"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="58"/>
+      <c r="I162" s="64"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="58"/>
+      <c r="I163" s="64"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="58"/>
+      <c r="I164" s="64"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="58"/>
+      <c r="I165" s="64"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="58"/>
+      <c r="I166" s="64"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="58"/>
+      <c r="I167" s="64"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="58"/>
+      <c r="I168" s="64"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="58"/>
+      <c r="I169" s="64"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="58"/>
+      <c r="I170" s="64"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="58"/>
+      <c r="I171" s="64"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="58"/>
+      <c r="I172" s="64"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="58"/>
+      <c r="I173" s="64"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="58"/>
+      <c r="I174" s="64"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="58"/>
+      <c r="I175" s="64"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="58"/>
+      <c r="I176" s="64"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="58"/>
+      <c r="I177" s="64"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="58"/>
+      <c r="I178" s="64"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="58"/>
+      <c r="I179" s="64"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="58"/>
+      <c r="I180" s="64"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="58"/>
+      <c r="I181" s="64"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="58"/>
+      <c r="I182" s="64"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="58"/>
+      <c r="I183" s="64"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="58"/>
+      <c r="I184" s="64"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="58"/>
+      <c r="I185" s="64"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="58"/>
+      <c r="I186" s="64"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="58"/>
+      <c r="I187" s="64"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="58"/>
+      <c r="I188" s="64"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="58"/>
+      <c r="I189" s="64"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="58"/>
+      <c r="I190" s="64"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="58"/>
+      <c r="I191" s="64"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="58"/>
+      <c r="I192" s="64"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="58"/>
+      <c r="I193" s="64"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="58"/>
+      <c r="I194" s="64"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="58"/>
+      <c r="I195" s="64"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="58"/>
+      <c r="I196" s="64"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="58"/>
+      <c r="I197" s="64"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="58"/>
+      <c r="I198" s="64"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="58"/>
+      <c r="I199" s="64"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="58"/>
+      <c r="I200" s="64"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="58"/>
+      <c r="I201" s="64"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="58"/>
+      <c r="I202" s="64"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="58"/>
+      <c r="I203" s="64"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="58"/>
+      <c r="I204" s="64"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="58"/>
+      <c r="I205" s="64"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="58"/>
+      <c r="I206" s="64"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="58"/>
+      <c r="I207" s="64"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="58"/>
+      <c r="I208" s="64"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="58"/>
+      <c r="I209" s="64"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="58"/>
+      <c r="I210" s="64"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="58"/>
+      <c r="I211" s="64"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="58"/>
+      <c r="I212" s="64"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="58"/>
+      <c r="I213" s="64"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="58"/>
+      <c r="I214" s="64"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="58"/>
+      <c r="I215" s="64"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="58"/>
+      <c r="I216" s="64"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="58"/>
+      <c r="I217" s="64"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="58"/>
+      <c r="I218" s="64"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="58"/>
+      <c r="I219" s="64"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="58"/>
+      <c r="I220" s="64"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="58"/>
+      <c r="I221" s="64"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="58"/>
+      <c r="I222" s="64"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="58"/>
+      <c r="I223" s="64"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="58"/>
+      <c r="I224" s="64"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="58"/>
+      <c r="I225" s="64"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="58"/>
+      <c r="I226" s="64"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="58"/>
+      <c r="I227" s="64"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="58"/>
+      <c r="I228" s="64"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="58"/>
+      <c r="I229" s="64"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="58"/>
+      <c r="I230" s="64"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="58"/>
+      <c r="I231" s="64"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="58"/>
+      <c r="I232" s="64"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="58"/>
+      <c r="I233" s="64"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="58"/>
+      <c r="I234" s="64"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="58"/>
+      <c r="I235" s="64"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="58"/>
+      <c r="I236" s="64"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="58"/>
+      <c r="I237" s="64"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="58"/>
+      <c r="I238" s="64"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="58"/>
+      <c r="I239" s="64"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="58"/>
+      <c r="I240" s="64"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="58"/>
+      <c r="I241" s="64"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="58"/>
+      <c r="I242" s="64"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="58"/>
+      <c r="I243" s="64"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="58"/>
+      <c r="I244" s="64"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="58"/>
+      <c r="I245" s="64"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="58"/>
+      <c r="I246" s="64"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="58"/>
+      <c r="I247" s="64"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="58"/>
+      <c r="I248" s="64"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="58"/>
+      <c r="I249" s="64"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="58"/>
+      <c r="I250" s="64"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="58"/>
+      <c r="I251" s="64"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="58"/>
+      <c r="I252" s="64"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="58"/>
+      <c r="I253" s="64"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="58"/>
+      <c r="I254" s="64"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="58"/>
+      <c r="I255" s="64"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="58"/>
+      <c r="I256" s="64"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="58"/>
+      <c r="I257" s="64"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="58"/>
+      <c r="I258" s="64"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="58"/>
+      <c r="I259" s="64"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="58"/>
+      <c r="I260" s="64"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="58"/>
+      <c r="I261" s="64"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="58"/>
+      <c r="I262" s="64"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="58"/>
+      <c r="I263" s="64"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="58"/>
+      <c r="I264" s="64"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="58"/>
+      <c r="I265" s="64"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="58"/>
+      <c r="I266" s="64"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="58"/>
+      <c r="I267" s="64"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="58"/>
+      <c r="I268" s="64"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="58"/>
+      <c r="I269" s="64"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="58"/>
+      <c r="I270" s="64"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="58"/>
+      <c r="I271" s="64"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="58"/>
+      <c r="I272" s="64"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="58"/>
+      <c r="I273" s="64"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="58"/>
+      <c r="I274" s="64"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="58"/>
+      <c r="I275" s="64"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="58"/>
+      <c r="I276" s="64"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="58"/>
+      <c r="I277" s="64"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="58"/>
+      <c r="I278" s="64"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="58"/>
+      <c r="I279" s="64"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="58"/>
+      <c r="I280" s="64"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="58"/>
+      <c r="I281" s="64"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="58"/>
+      <c r="I282" s="64"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="58"/>
+      <c r="I283" s="64"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="58"/>
+      <c r="I284" s="64"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="58"/>
+      <c r="I285" s="64"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="58"/>
+      <c r="I286" s="64"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="58"/>
+      <c r="I287" s="64"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="58"/>
+      <c r="I288" s="64"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="58"/>
+      <c r="I289" s="64"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="58"/>
+      <c r="I290" s="64"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="58"/>
+      <c r="I291" s="64"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="58"/>
+      <c r="I292" s="64"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="58"/>
+      <c r="I293" s="64"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="58"/>
+      <c r="I294" s="64"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="58"/>
+      <c r="I295" s="64"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="58"/>
+      <c r="I296" s="64"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="58"/>
+      <c r="I297" s="64"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="58"/>
+      <c r="I298" s="64"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="58"/>
+      <c r="I299" s="64"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="58"/>
+      <c r="I300" s="64"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="58"/>
+      <c r="I301" s="64"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="58"/>
+      <c r="I302" s="64"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="58"/>
+      <c r="I303" s="64"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="58"/>
+      <c r="I304" s="64"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="58"/>
+      <c r="I305" s="64"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="58"/>
+      <c r="I306" s="64"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="58"/>
+      <c r="I307" s="64"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="58"/>
+      <c r="I308" s="64"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="58"/>
+      <c r="I309" s="64"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="58"/>
+      <c r="I310" s="64"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="58"/>
+      <c r="I311" s="64"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="58"/>
+      <c r="I312" s="64"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="58"/>
+      <c r="I313" s="64"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="58"/>
+      <c r="I314" s="64"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="58"/>
+      <c r="I315" s="64"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="58"/>
+      <c r="I316" s="64"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="58"/>
+      <c r="I317" s="64"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="58"/>
+      <c r="I318" s="64"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="58"/>
+      <c r="I319" s="64"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="58"/>
+      <c r="I320" s="64"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="58"/>
+      <c r="I321" s="64"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="58"/>
+      <c r="I322" s="64"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="58"/>
+      <c r="I323" s="64"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="58"/>
+      <c r="I324" s="64"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="58"/>
+      <c r="I325" s="64"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="58"/>
+      <c r="I326" s="64"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="58"/>
+      <c r="I327" s="64"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="58"/>
+      <c r="I328" s="64"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="58"/>
+      <c r="I329" s="64"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="58"/>
+      <c r="I330" s="64"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="58"/>
+      <c r="I331" s="64"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="58"/>
+      <c r="I332" s="64"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="58"/>
+      <c r="I333" s="64"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="58"/>
+      <c r="I334" s="64"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="58"/>
+      <c r="I335" s="64"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="58"/>
+      <c r="I336" s="64"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="58"/>
+      <c r="I337" s="64"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="58"/>
+      <c r="I338" s="64"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="58"/>
+      <c r="I339" s="64"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="58"/>
+      <c r="I340" s="64"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="58"/>
+      <c r="I341" s="64"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="58"/>
+      <c r="I342" s="64"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="58"/>
+      <c r="I343" s="64"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="58"/>
+      <c r="I344" s="64"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="58"/>
+      <c r="I345" s="64"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="58"/>
+      <c r="I346" s="64"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="58"/>
+      <c r="I347" s="64"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="58"/>
+      <c r="I348" s="64"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="58"/>
+      <c r="I349" s="64"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="58"/>
+      <c r="I350" s="64"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="58"/>
+      <c r="I351" s="64"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="58"/>
+      <c r="I352" s="64"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="58"/>
+      <c r="I353" s="64"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="58"/>
+      <c r="I354" s="64"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="58"/>
+      <c r="I355" s="64"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="58"/>
+      <c r="I356" s="64"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="58"/>
+      <c r="I357" s="64"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="58"/>
+      <c r="I358" s="64"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="58"/>
+      <c r="I359" s="64"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="58"/>
+      <c r="I360" s="64"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="58"/>
+      <c r="I361" s="64"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="58"/>
+      <c r="I362" s="64"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="58"/>
+      <c r="I363" s="64"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="58"/>
+      <c r="I364" s="64"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="58"/>
+      <c r="I365" s="64"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="58"/>
+      <c r="I366" s="64"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="58"/>
+      <c r="I367" s="64"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="58"/>
+      <c r="I368" s="64"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="58"/>
+      <c r="I369" s="64"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="58"/>
+      <c r="I370" s="64"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="58"/>
+      <c r="I371" s="64"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="58"/>
+      <c r="I372" s="64"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="58"/>
+      <c r="I373" s="64"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="58"/>
+      <c r="I374" s="64"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="58"/>
+      <c r="I375" s="64"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="58"/>
+      <c r="I376" s="64"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="58"/>
+      <c r="I377" s="64"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="58"/>
+      <c r="I378" s="64"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="58"/>
+      <c r="I379" s="64"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="58"/>
+      <c r="I380" s="64"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="58"/>
+      <c r="I381" s="64"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="58"/>
+      <c r="I382" s="64"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="58"/>
+      <c r="I383" s="64"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="58"/>
+      <c r="I384" s="64"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="58"/>
+      <c r="I385" s="64"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="58"/>
+      <c r="I386" s="64"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="58"/>
+      <c r="I387" s="64"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="58"/>
+      <c r="I388" s="64"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="58"/>
+      <c r="I389" s="64"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="58"/>
+      <c r="I390" s="64"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="58"/>
+      <c r="I391" s="64"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="58"/>
+      <c r="I392" s="64"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="58"/>
+      <c r="I393" s="64"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="58"/>
+      <c r="I394" s="64"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="58"/>
+      <c r="I395" s="64"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="58"/>
+      <c r="I396" s="64"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="58"/>
+      <c r="I397" s="64"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="58"/>
+      <c r="I398" s="64"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="58"/>
+      <c r="I399" s="64"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="58"/>
+      <c r="I400" s="64"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="58"/>
+      <c r="I401" s="64"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="58"/>
+      <c r="I402" s="64"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="58"/>
+      <c r="I403" s="64"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="58"/>
+      <c r="I404" s="64"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="58"/>
+      <c r="I405" s="64"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="58"/>
+      <c r="I406" s="64"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="58"/>
+      <c r="I407" s="64"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="58"/>
+      <c r="I408" s="64"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="58"/>
+      <c r="I409" s="64"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="58"/>
+      <c r="I410" s="64"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="58"/>
+      <c r="I411" s="64"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="58"/>
+      <c r="I412" s="64"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="58"/>
+      <c r="I413" s="64"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="58"/>
+      <c r="I414" s="64"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="58"/>
+      <c r="I415" s="64"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="58"/>
+      <c r="I416" s="64"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="58"/>
+      <c r="I417" s="64"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="58"/>
+      <c r="I418" s="64"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="58"/>
+      <c r="I419" s="64"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="58"/>
+      <c r="I420" s="64"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="58"/>
+      <c r="I421" s="64"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="58"/>
+      <c r="I422" s="64"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="58"/>
+      <c r="I423" s="64"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="58"/>
+      <c r="I424" s="64"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="58"/>
+      <c r="I425" s="64"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="58"/>
+      <c r="I426" s="64"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="58"/>
+      <c r="I427" s="64"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="58"/>
+      <c r="I428" s="64"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="58"/>
+      <c r="I429" s="64"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="58"/>
+      <c r="I430" s="64"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="58"/>
+      <c r="I431" s="64"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="58"/>
+      <c r="I432" s="64"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="58"/>
+      <c r="I433" s="64"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="58"/>
+      <c r="I434" s="64"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="58"/>
+      <c r="I435" s="64"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="58"/>
+      <c r="I436" s="64"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="58"/>
+      <c r="I437" s="64"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="58"/>
+      <c r="I438" s="64"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="58"/>
+      <c r="I439" s="64"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="58"/>
+      <c r="I440" s="64"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="58"/>
+      <c r="I441" s="64"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="58"/>
+      <c r="I442" s="64"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="58"/>
+      <c r="I443" s="64"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="58"/>
+      <c r="I444" s="64"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="58"/>
+      <c r="I445" s="64"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="58"/>
+      <c r="I446" s="64"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="58"/>
+      <c r="I447" s="64"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="58"/>
+      <c r="I448" s="64"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="58"/>
+      <c r="I449" s="64"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="58"/>
+      <c r="I450" s="64"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="58"/>
+      <c r="I451" s="64"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="58"/>
+      <c r="I452" s="64"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="58"/>
+      <c r="I453" s="64"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="58"/>
+      <c r="I454" s="64"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="58"/>
+      <c r="I455" s="64"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="58"/>
+      <c r="I456" s="64"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="58"/>
+      <c r="I457" s="64"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="58"/>
+      <c r="I458" s="64"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="58"/>
+      <c r="I459" s="64"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="58"/>
+      <c r="I460" s="64"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="58"/>
+      <c r="I461" s="64"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="58"/>
+      <c r="I462" s="64"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="58"/>
+      <c r="I463" s="64"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="58"/>
+      <c r="I464" s="64"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="58"/>
+      <c r="I465" s="64"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="58"/>
+      <c r="I466" s="64"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="58"/>
+      <c r="I467" s="64"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="58"/>
+      <c r="I468" s="64"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="58"/>
+      <c r="I469" s="64"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="58"/>
+      <c r="I470" s="64"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="58"/>
+      <c r="I471" s="64"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="58"/>
+      <c r="I472" s="64"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="58"/>
+      <c r="I473" s="64"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="58"/>
+      <c r="I474" s="64"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="58"/>
+      <c r="I475" s="64"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="58"/>
+      <c r="I476" s="64"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="58"/>
+      <c r="I477" s="64"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="58"/>
+      <c r="I478" s="64"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="58"/>
+      <c r="I479" s="64"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="58"/>
+      <c r="I480" s="64"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="58"/>
+      <c r="I481" s="64"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="58"/>
+      <c r="I482" s="64"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="58"/>
+      <c r="I483" s="64"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="58"/>
+      <c r="I484" s="64"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="58"/>
+      <c r="I485" s="64"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="58"/>
+      <c r="I486" s="64"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="58"/>
+      <c r="I487" s="64"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="58"/>
+      <c r="I488" s="64"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="58"/>
+      <c r="I489" s="64"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="58"/>
+      <c r="I490" s="64"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="58"/>
+      <c r="I491" s="64"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="58"/>
+      <c r="I492" s="64"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="58"/>
+      <c r="I493" s="64"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="58"/>
+      <c r="I494" s="64"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="58"/>
+      <c r="I495" s="64"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="58"/>
+      <c r="I496" s="64"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="58"/>
+      <c r="I497" s="64"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="58"/>
+      <c r="I498" s="64"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="58"/>
+      <c r="I499" s="64"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="58"/>
+      <c r="I500" s="64"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="58"/>
+      <c r="I501" s="64"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="58"/>
+      <c r="I502" s="64"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="58"/>
+      <c r="I503" s="64"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="58"/>
+      <c r="I504" s="64"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="58"/>
+      <c r="I505" s="64"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="58"/>
+      <c r="I506" s="64"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="58"/>
+      <c r="I507" s="64"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="58"/>
+      <c r="I508" s="64"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="58"/>
+      <c r="I509" s="64"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="58"/>
+      <c r="I510" s="64"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="58"/>
+      <c r="I511" s="64"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="58"/>
+      <c r="I512" s="64"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="58"/>
+      <c r="I513" s="64"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="58"/>
+      <c r="I514" s="64"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="58"/>
+      <c r="I515" s="64"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="58"/>
+      <c r="I516" s="64"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="58"/>
+      <c r="I517" s="64"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="58"/>
+      <c r="I518" s="64"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="58"/>
+      <c r="I519" s="64"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="58"/>
+      <c r="I520" s="64"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="58"/>
+      <c r="I521" s="64"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="58"/>
+      <c r="I522" s="64"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="58"/>
+      <c r="I523" s="64"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="58"/>
+      <c r="I524" s="64"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="58"/>
+      <c r="I525" s="64"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="58"/>
+      <c r="I526" s="64"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="58"/>
+      <c r="I527" s="64"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="58"/>
+      <c r="I528" s="64"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="58"/>
+      <c r="I529" s="64"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="58"/>
+      <c r="I530" s="64"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="58"/>
+      <c r="I531" s="64"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="58"/>
+      <c r="I532" s="64"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="58"/>
+      <c r="I533" s="64"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="58"/>
+      <c r="I534" s="64"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="58"/>
+      <c r="I535" s="64"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="58"/>
+      <c r="I536" s="64"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="58"/>
+      <c r="I537" s="64"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="58"/>
+      <c r="I538" s="64"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="58"/>
+      <c r="I539" s="64"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="58"/>
+      <c r="I540" s="64"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="58"/>
+      <c r="I541" s="64"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="58"/>
+      <c r="I542" s="64"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="58"/>
+      <c r="I543" s="64"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="58"/>
+      <c r="I544" s="64"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="58"/>
+      <c r="I545" s="64"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="58"/>
+      <c r="I546" s="64"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="58"/>
+      <c r="I547" s="64"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="58"/>
+      <c r="I548" s="64"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="58"/>
+      <c r="I549" s="64"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="58"/>
+      <c r="I550" s="64"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="58"/>
+      <c r="I551" s="64"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="58"/>
+      <c r="I552" s="64"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="58"/>
+      <c r="I553" s="64"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="58"/>
+      <c r="I554" s="64"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="58"/>
+      <c r="I555" s="64"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="58"/>
+      <c r="I556" s="64"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="58"/>
+      <c r="I557" s="64"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="58"/>
+      <c r="I558" s="64"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="58"/>
+      <c r="I559" s="64"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="58"/>
+      <c r="I560" s="64"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="58"/>
+      <c r="I561" s="64"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="58"/>
+      <c r="I562" s="64"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="58"/>
+      <c r="I563" s="64"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="58"/>
+      <c r="I564" s="64"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="58"/>
+      <c r="I565" s="64"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="58"/>
+      <c r="I566" s="64"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="58"/>
+      <c r="I567" s="64"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="58"/>
+      <c r="I568" s="64"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="58"/>
+      <c r="I569" s="64"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="58"/>
+      <c r="I570" s="64"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="58"/>
+      <c r="I571" s="64"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="58"/>
+      <c r="I572" s="64"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="58"/>
+      <c r="I573" s="64"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="58"/>
+      <c r="I574" s="64"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="58"/>
+      <c r="I575" s="64"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="58"/>
+      <c r="I576" s="64"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="58"/>
+      <c r="I577" s="64"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="58"/>
+      <c r="I578" s="64"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="58"/>
+      <c r="I579" s="64"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="58"/>
+      <c r="I580" s="64"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="58"/>
+      <c r="I581" s="64"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="58"/>
+      <c r="I582" s="64"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="58"/>
+      <c r="I583" s="64"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="58"/>
+      <c r="I584" s="64"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="58"/>
+      <c r="I585" s="64"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="58"/>
+      <c r="I586" s="64"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="58"/>
+      <c r="I587" s="64"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="58"/>
+      <c r="I588" s="64"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="58"/>
+      <c r="I589" s="64"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="58"/>
+      <c r="I590" s="64"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="58"/>
+      <c r="I591" s="64"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="58"/>
+      <c r="I592" s="64"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="58"/>
+      <c r="I593" s="64"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="58"/>
+      <c r="I594" s="64"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="58"/>
+      <c r="I595" s="64"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="58"/>
+      <c r="I596" s="64"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="58"/>
+      <c r="I597" s="64"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="58"/>
+      <c r="I598" s="64"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="58"/>
+      <c r="I599" s="64"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="58"/>
+      <c r="I600" s="64"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="58"/>
+      <c r="I601" s="64"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="58"/>
+      <c r="I602" s="64"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="58"/>
+      <c r="I603" s="64"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="58"/>
+      <c r="I604" s="64"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="58"/>
+      <c r="I605" s="64"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="58"/>
+      <c r="I606" s="64"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="58"/>
+      <c r="I607" s="64"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="58"/>
+      <c r="I608" s="64"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="58"/>
+      <c r="I609" s="64"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="58"/>
+      <c r="I610" s="64"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="58"/>
+      <c r="I611" s="64"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="58"/>
+      <c r="I612" s="64"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="58"/>
+      <c r="I613" s="64"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="58"/>
+      <c r="I614" s="64"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="58"/>
+      <c r="I615" s="64"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="58"/>
+      <c r="I616" s="64"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="58"/>
+      <c r="I617" s="64"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="58"/>
+      <c r="I618" s="64"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="58"/>
+      <c r="I619" s="64"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="58"/>
+      <c r="I620" s="64"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="58"/>
+      <c r="I621" s="64"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="58"/>
+      <c r="I622" s="64"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="58"/>
+      <c r="I623" s="64"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="58"/>
+      <c r="I624" s="64"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="58"/>
+      <c r="I625" s="64"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="58"/>
+      <c r="I626" s="64"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="58"/>
+      <c r="I627" s="64"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="58"/>
+      <c r="I628" s="64"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="58"/>
+      <c r="I629" s="64"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="58"/>
+      <c r="I630" s="64"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="58"/>
+      <c r="I631" s="64"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="58"/>
+      <c r="I632" s="64"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="58"/>
+      <c r="I633" s="64"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="58"/>
+      <c r="I634" s="64"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="58"/>
+      <c r="I635" s="64"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="58"/>
+      <c r="I636" s="64"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="58"/>
+      <c r="I637" s="64"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="58"/>
+      <c r="I638" s="64"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="58"/>
+      <c r="I639" s="64"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="58"/>
+      <c r="I640" s="64"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="58"/>
+      <c r="I641" s="64"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="58"/>
+      <c r="I642" s="64"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="58"/>
+      <c r="I643" s="64"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="58"/>
+      <c r="I644" s="64"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="58"/>
+      <c r="I645" s="64"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="58"/>
+      <c r="I646" s="64"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="58"/>
+      <c r="I647" s="64"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="58"/>
+      <c r="I648" s="64"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="58"/>
+      <c r="I649" s="64"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="58"/>
+      <c r="I650" s="64"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="58"/>
+      <c r="I651" s="64"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="58"/>
+      <c r="I652" s="64"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="58"/>
+      <c r="I653" s="64"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="58"/>
+      <c r="I654" s="64"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="58"/>
+      <c r="I655" s="64"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="58"/>
+      <c r="I656" s="64"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="58"/>
+      <c r="I657" s="64"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="58"/>
+      <c r="I658" s="64"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="58"/>
+      <c r="I659" s="64"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="58"/>
+      <c r="I660" s="64"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="58"/>
+      <c r="I661" s="64"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="58"/>
+      <c r="I662" s="64"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="58"/>
+      <c r="I663" s="64"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="58"/>
+      <c r="I664" s="64"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="58"/>
+      <c r="I665" s="64"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="58"/>
+      <c r="I666" s="64"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="58"/>
+      <c r="I667" s="64"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="58"/>
+      <c r="I668" s="64"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="58"/>
+      <c r="I669" s="64"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="58"/>
+      <c r="I670" s="64"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="58"/>
+      <c r="I671" s="64"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="58"/>
+      <c r="I672" s="64"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="58"/>
+      <c r="I673" s="64"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="58"/>
+      <c r="I674" s="64"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="58"/>
+      <c r="I675" s="64"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="58"/>
+      <c r="I676" s="64"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="58"/>
+      <c r="I677" s="64"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="58"/>
+      <c r="I678" s="64"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="58"/>
+      <c r="I679" s="64"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="58"/>
+      <c r="I680" s="64"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="58"/>
+      <c r="I681" s="64"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="58"/>
+      <c r="I682" s="64"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="58"/>
+      <c r="I683" s="64"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="58"/>
+      <c r="I684" s="64"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="58"/>
+      <c r="I685" s="64"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="58"/>
+      <c r="I686" s="64"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="58"/>
+      <c r="I687" s="64"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="58"/>
+      <c r="I688" s="64"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="58"/>
+      <c r="I689" s="64"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="58"/>
+      <c r="I690" s="64"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="58"/>
+      <c r="I691" s="64"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="58"/>
+      <c r="I692" s="64"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="58"/>
+      <c r="I693" s="64"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="58"/>
+      <c r="I694" s="64"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="58"/>
+      <c r="I695" s="64"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="58"/>
+      <c r="I696" s="64"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="58"/>
+      <c r="I697" s="64"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="58"/>
+      <c r="I698" s="64"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="58"/>
+      <c r="I699" s="64"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="58"/>
+      <c r="I700" s="64"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="58"/>
+      <c r="I701" s="64"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="58"/>
+      <c r="I702" s="64"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="58"/>
+      <c r="I703" s="64"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="58"/>
+      <c r="I704" s="64"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="58"/>
+      <c r="I705" s="64"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="58"/>
+      <c r="I706" s="64"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="58"/>
+      <c r="I707" s="64"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="58"/>
+      <c r="I708" s="64"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="58"/>
+      <c r="I709" s="64"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="58"/>
+      <c r="I710" s="64"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="58"/>
+      <c r="I711" s="64"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="58"/>
+      <c r="I712" s="64"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="58"/>
+      <c r="I713" s="64"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="58"/>
+      <c r="I714" s="64"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="58"/>
+      <c r="I715" s="64"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="58"/>
+      <c r="I716" s="64"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="58"/>
+      <c r="I717" s="64"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="58"/>
+      <c r="I718" s="64"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="58"/>
+      <c r="I719" s="64"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="58"/>
+      <c r="I720" s="64"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="58"/>
+      <c r="I721" s="64"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="58"/>
+      <c r="I722" s="64"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="58"/>
+      <c r="I723" s="64"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="58"/>
+      <c r="I724" s="64"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="58"/>
+      <c r="I725" s="64"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="58"/>
+      <c r="I726" s="64"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="58"/>
+      <c r="I727" s="64"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="58"/>
+      <c r="I728" s="64"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="58"/>
+      <c r="I729" s="64"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="58"/>
+      <c r="I730" s="64"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="58"/>
+      <c r="I731" s="64"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="58"/>
+      <c r="I732" s="64"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="58"/>
+      <c r="I733" s="64"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="58"/>
+      <c r="I734" s="64"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="58"/>
+      <c r="I735" s="64"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="58"/>
+      <c r="I736" s="64"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="58"/>
+      <c r="I737" s="64"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="58"/>
+      <c r="I738" s="64"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="58"/>
+      <c r="I739" s="64"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="58"/>
+      <c r="I740" s="64"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="58"/>
+      <c r="I741" s="64"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="58"/>
+      <c r="I742" s="64"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="58"/>
+      <c r="I743" s="64"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="58"/>
+      <c r="I744" s="64"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="58"/>
+      <c r="I745" s="64"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="58"/>
+      <c r="I746" s="64"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="58"/>
+      <c r="I747" s="64"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="58"/>
+      <c r="I748" s="64"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="58"/>
+      <c r="I749" s="64"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="58"/>
+      <c r="I750" s="64"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="58"/>
+      <c r="I751" s="64"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="58"/>
+      <c r="I752" s="64"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="58"/>
+      <c r="I753" s="64"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="58"/>
+      <c r="I754" s="64"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="58"/>
+      <c r="I755" s="64"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="58"/>
+      <c r="I756" s="64"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="58"/>
+      <c r="I757" s="64"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="58"/>
+      <c r="I758" s="64"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I759" s="58"/>
+      <c r="I759" s="64"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I760" s="58"/>
+      <c r="I760" s="64"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I761" s="58"/>
+      <c r="I761" s="64"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I762" s="58"/>
+      <c r="I762" s="64"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I763" s="58"/>
+      <c r="I763" s="64"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I764" s="58"/>
+      <c r="I764" s="64"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I765" s="58"/>
+      <c r="I765" s="64"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I766" s="58"/>
+      <c r="I766" s="64"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I767" s="58"/>
+      <c r="I767" s="64"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I768" s="58"/>
+      <c r="I768" s="64"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I769" s="58"/>
+      <c r="I769" s="64"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I770" s="58"/>
+      <c r="I770" s="64"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I771" s="58"/>
+      <c r="I771" s="64"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I772" s="58"/>
+      <c r="I772" s="64"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I773" s="58"/>
+      <c r="I773" s="64"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I774" s="58"/>
+      <c r="I774" s="64"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I775" s="58"/>
+      <c r="I775" s="64"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I776" s="58"/>
+      <c r="I776" s="64"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I777" s="58"/>
+      <c r="I777" s="64"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I778" s="58"/>
+      <c r="I778" s="64"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I779" s="58"/>
+      <c r="I779" s="64"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I780" s="58"/>
+      <c r="I780" s="64"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I781" s="58"/>
+      <c r="I781" s="64"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I782" s="58"/>
+      <c r="I782" s="64"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I783" s="58"/>
+      <c r="I783" s="64"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I784" s="58"/>
+      <c r="I784" s="64"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I785" s="58"/>
+      <c r="I785" s="64"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I786" s="58"/>
+      <c r="I786" s="64"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I787" s="58"/>
+      <c r="I787" s="64"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I788" s="58"/>
+      <c r="I788" s="64"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I789" s="58"/>
+      <c r="I789" s="64"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I790" s="58"/>
+      <c r="I790" s="64"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I791" s="58"/>
+      <c r="I791" s="64"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I792" s="58"/>
+      <c r="I792" s="64"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I793" s="58"/>
+      <c r="I793" s="64"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I794" s="58"/>
+      <c r="I794" s="64"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I795" s="58"/>
+      <c r="I795" s="64"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I796" s="58"/>
+      <c r="I796" s="64"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I797" s="58"/>
+      <c r="I797" s="64"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I798" s="58"/>
+      <c r="I798" s="64"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I799" s="58"/>
+      <c r="I799" s="64"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I800" s="58"/>
+      <c r="I800" s="64"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I801" s="58"/>
+      <c r="I801" s="64"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I802" s="58"/>
+      <c r="I802" s="64"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I803" s="58"/>
+      <c r="I803" s="64"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I804" s="58"/>
+      <c r="I804" s="64"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I805" s="58"/>
+      <c r="I805" s="64"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I806" s="58"/>
+      <c r="I806" s="64"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I807" s="58"/>
+      <c r="I807" s="64"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I808" s="58"/>
+      <c r="I808" s="64"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I809" s="58"/>
+      <c r="I809" s="64"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I810" s="58"/>
+      <c r="I810" s="64"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I811" s="58"/>
+      <c r="I811" s="64"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I812" s="58"/>
+      <c r="I812" s="64"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I813" s="58"/>
+      <c r="I813" s="64"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I814" s="58"/>
+      <c r="I814" s="64"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I815" s="58"/>
+      <c r="I815" s="64"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -42673,98 +42782,98 @@
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>146</v>
+      <c r="B1" s="65" t="s">
+        <v>157</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="59" t="s">
-        <v>147</v>
+      <c r="E1" s="65" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>148</v>
+      <c r="B2" s="65" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>150</v>
+      <c r="E2" s="65" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>151</v>
+      <c r="B3" s="65" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>153</v>
+      <c r="E3" s="65" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
-        <v>154</v>
+      <c r="A4" s="66" t="s">
+        <v>163</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>154</v>
+      <c r="B4" s="66" t="s">
+        <v>163</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>155</v>
+      <c r="E4" s="65" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>156</v>
+      <c r="A5" s="67" t="s">
+        <v>165</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>157</v>
+      <c r="B5" s="67" t="s">
+        <v>166</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>158</v>
+      <c r="E5" s="65" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
-        <v>159</v>
+      <c r="A6" s="67" t="s">
+        <v>168</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>160</v>
+      <c r="B6" s="67" t="s">
+        <v>169</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>161</v>
+      <c r="E6" s="65" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>162</v>
+      <c r="A7" s="67" t="s">
+        <v>171</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>163</v>
+      <c r="B7" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="176">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -430,6 +430,9 @@
     <t xml:space="preserve">22-renri-a1-n-2</t>
   </si>
   <si>
+    <t xml:space="preserve">22-renri-o-n-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">欺瞞の霧</t>
   </si>
   <si>
@@ -443,6 +446,9 @@
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-n-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-renri-o-n-5</t>
   </si>
   <si>
     <t xml:space="preserve">神授</t>
@@ -512,6 +518,9 @@
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-renri-o-s-1</t>
   </si>
   <si>
     <t xml:space="preserve">ロルレロラルロ</t>
@@ -905,7 +914,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,7 +1122,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1220,7 +1229,7 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -16644,12 +16653,12 @@
   </sheetPr>
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S8" activeCellId="0" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="AA9" activeCellId="0" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18309,12 +18318,14 @@
       <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>129</v>
       </c>
+      <c r="E8" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F8" s="37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="39"/>
@@ -18330,7 +18341,7 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S8" s="62"/>
       <c r="T8" s="37"/>
@@ -18345,7 +18356,7 @@
       <c r="AC8" s="37"/>
       <c r="AD8" s="37"/>
       <c r="AE8" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF8" s="41"/>
       <c r="AG8" s="49"/>
@@ -18363,7 +18374,7 @@
       <c r="AS8" s="36"/>
       <c r="AT8" s="28" t="str">
         <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-2': {megami: 'renri', anotherID: 'A1', replace: '', name: '欺瞞の霧', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ぎまんのきり', rubyEn: '', baseType: 'normal', type: 'variable', text: '【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-n-2': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-2', name: '欺瞞の霧', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ぎまんのきり', rubyEn: '', baseType: 'normal', type: 'variable', text: '【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU8" s="29" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    /** 《"&amp;$E8&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A8, 3, 1)="-", RIGHT($A8,LEN($A8)-3), $A8)), "-", "_")&amp;": TCardId = '"&amp;$A8&amp;"';", "")</f>
@@ -19353,7 +19364,7 @@
     </row>
     <row r="9" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>26</v>
@@ -19361,12 +19372,14 @@
       <c r="C9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="E9" s="37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G9" s="59"/>
       <c r="H9" s="39"/>
@@ -19382,7 +19395,7 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -19397,7 +19410,7 @@
       <c r="AC9" s="37"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF9" s="41"/>
       <c r="AG9" s="49"/>
@@ -19415,7 +19428,7 @@
       <c r="AS9" s="36"/>
       <c r="AT9" s="28" t="str">
         <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '', name: '神授', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-5', name: '神授', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU9" s="29" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    /** 《"&amp;$E9&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A9, 3, 1)="-", RIGHT($A9,LEN($A9)-3), $A9)), "-", "_")&amp;": TCardId = '"&amp;$A9&amp;"';", "")</f>
@@ -20405,7 +20418,7 @@
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>26</v>
@@ -20415,10 +20428,10 @@
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G10" s="59"/>
       <c r="H10" s="39"/>
@@ -20429,7 +20442,9 @@
       <c r="M10" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="37"/>
+      <c r="N10" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -20438,7 +20453,7 @@
       </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U10" s="36"/>
       <c r="V10" s="37" t="s">
@@ -20448,12 +20463,14 @@
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
+      <c r="AA10" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="AB10" s="37"/>
       <c r="AC10" s="37"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="55" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF10" s="41"/>
       <c r="AG10" s="49"/>
@@ -20471,7 +20488,7 @@
       <c r="AS10" s="36"/>
       <c r="AT10" s="28" t="str">
         <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU10" s="29" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
@@ -21461,7 +21478,7 @@
     </row>
     <row r="11" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>26</v>
@@ -21471,10 +21488,10 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G11" s="59"/>
       <c r="H11" s="39"/>
@@ -21485,7 +21502,9 @@
       <c r="M11" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -21494,7 +21513,7 @@
       </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U11" s="36"/>
       <c r="V11" s="37" t="s">
@@ -21504,12 +21523,14 @@
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
+      <c r="AA11" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="AB11" s="37"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="55" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF11" s="41"/>
       <c r="AG11" s="49"/>
@@ -21527,7 +21548,7 @@
       <c r="AS11" s="36"/>
       <c r="AT11" s="28" t="str">
         <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU11" s="29" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
@@ -22517,7 +22538,7 @@
     </row>
     <row r="12" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>26</v>
@@ -22527,10 +22548,10 @@
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="39"/>
@@ -22541,12 +22562,14 @@
       <c r="M12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="37"/>
+      <c r="N12" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -22556,12 +22579,14 @@
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
+      <c r="AA12" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
       <c r="AE12" s="55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF12" s="41"/>
       <c r="AG12" s="49"/>
@@ -22579,7 +22604,7 @@
       <c r="AS12" s="36"/>
       <c r="AT12" s="28" t="str">
         <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU12" s="29" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>
@@ -23569,7 +23594,7 @@
     </row>
     <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>26</v>
@@ -23577,12 +23602,14 @@
       <c r="C13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="E13" s="37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="39"/>
@@ -23606,18 +23633,18 @@
       <c r="V13" s="37"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
       <c r="AE13" s="55" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF13" s="41"/>
       <c r="AG13" s="49"/>
@@ -23635,7 +23662,7 @@
       <c r="AS13" s="36"/>
       <c r="AT13" s="28" t="str">
         <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-s-1': {megami: 'renri', anotherID: 'A1', replace: '', name: 'ロルレロラルロ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '＝＝＝＝＝＝＝', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '0', cost: '0', text: '【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。\n【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。\n【展開中】相手が焦燥で受けるダメージが2/1になる。\n【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-s-1': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-s-1', name: 'ロルレロラルロ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '＝＝＝＝＝＝＝', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '0', cost: '0', text: '【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。\n【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。\n【展開中】相手が焦燥で受けるダメージが2/1になる。\n【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU13" s="29" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    /** 《"&amp;$E13&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A13, 3, 1)="-", RIGHT($A13,LEN($A13)-3), $A13)), "-", "_")&amp;": TCardId = '"&amp;$A13&amp;"';", "")</f>
@@ -42783,14 +42810,14 @@
         <v>75</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42798,14 +42825,14 @@
         <v>102</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42813,67 +42840,67 @@
         <v>38</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="67" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="67" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -465,6 +465,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">（使用済み領域に出し、右クリックすることで効果を発動可能）</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex1</t>
   </si>
   <si>
@@ -481,6 +484,9 @@
 【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード
 ならば、その《攻撃》は+0/+1となる。
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">（表向きの状態で右クリックすることで回帰させることが可能）</t>
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex2</t>
@@ -596,7 +602,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -769,6 +775,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF4F81BD"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -873,7 +886,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1126,6 +1139,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1134,7 +1151,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,7 +1224,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -16654,11 +16671,11 @@
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA9" activeCellId="0" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="AF10" activeCellId="0" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19412,15 +19429,17 @@
       <c r="AE9" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="AF9" s="41"/>
+      <c r="AF9" s="63" t="s">
+        <v>140</v>
+      </c>
       <c r="AG9" s="49"/>
-      <c r="AH9" s="41"/>
+      <c r="AH9" s="49"/>
       <c r="AI9" s="25"/>
       <c r="AJ9" s="41"/>
       <c r="AK9" s="49"/>
-      <c r="AL9" s="41"/>
+      <c r="AL9" s="49"/>
       <c r="AM9" s="49"/>
-      <c r="AN9" s="21"/>
+      <c r="AN9" s="49"/>
       <c r="AO9" s="36"/>
       <c r="AP9" s="36"/>
       <c r="AQ9" s="36"/>
@@ -19428,7 +19447,7 @@
       <c r="AS9" s="36"/>
       <c r="AT9" s="28" t="str">
         <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-5', name: '神授', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-5', name: '神授', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textAdditional: '（使用済み領域に出し、右クリックすることで効果を発動可能）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU9" s="29" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    /** 《"&amp;$E9&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A9, 3, 1)="-", RIGHT($A9,LEN($A9)-3), $A9)), "-", "_")&amp;": TCardId = '"&amp;$A9&amp;"';", "")</f>
@@ -20418,7 +20437,7 @@
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>26</v>
@@ -20428,10 +20447,10 @@
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G10" s="59"/>
       <c r="H10" s="39"/>
@@ -20453,7 +20472,7 @@
       </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U10" s="36"/>
       <c r="V10" s="37" t="s">
@@ -20470,17 +20489,19 @@
       <c r="AC10" s="37"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
-      <c r="AF10" s="41"/>
+      <c r="AF10" s="63" t="s">
+        <v>146</v>
+      </c>
       <c r="AG10" s="49"/>
-      <c r="AH10" s="41"/>
+      <c r="AH10" s="49"/>
       <c r="AI10" s="25"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="49"/>
-      <c r="AL10" s="41"/>
+      <c r="AL10" s="49"/>
       <c r="AM10" s="49"/>
-      <c r="AN10" s="21"/>
+      <c r="AN10" s="49"/>
       <c r="AO10" s="36"/>
       <c r="AP10" s="36"/>
       <c r="AQ10" s="36"/>
@@ -20488,7 +20509,7 @@
       <c r="AS10" s="36"/>
       <c r="AT10" s="28" t="str">
         <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textAdditional: '（表向きの状態で右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU10" s="29" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
@@ -21478,7 +21499,7 @@
     </row>
     <row r="11" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>26</v>
@@ -21488,10 +21509,10 @@
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G11" s="59"/>
       <c r="H11" s="39"/>
@@ -21513,7 +21534,7 @@
       </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U11" s="36"/>
       <c r="V11" s="37" t="s">
@@ -21530,17 +21551,19 @@
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
-      <c r="AF11" s="41"/>
+      <c r="AF11" s="63" t="s">
+        <v>146</v>
+      </c>
       <c r="AG11" s="49"/>
-      <c r="AH11" s="41"/>
+      <c r="AH11" s="49"/>
       <c r="AI11" s="25"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="49"/>
-      <c r="AL11" s="41"/>
+      <c r="AL11" s="49"/>
       <c r="AM11" s="49"/>
-      <c r="AN11" s="21"/>
+      <c r="AN11" s="49"/>
       <c r="AO11" s="36"/>
       <c r="AP11" s="36"/>
       <c r="AQ11" s="36"/>
@@ -21548,7 +21571,7 @@
       <c r="AS11" s="36"/>
       <c r="AT11" s="28" t="str">
         <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textAdditional: '（表向きの状態で右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU11" s="29" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
@@ -22538,7 +22561,7 @@
     </row>
     <row r="12" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>26</v>
@@ -22548,10 +22571,10 @@
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="39"/>
@@ -22586,17 +22609,19 @@
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
       <c r="AE12" s="55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
-      <c r="AF12" s="41"/>
+      <c r="AF12" s="63" t="s">
+        <v>146</v>
+      </c>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="41"/>
+      <c r="AH12" s="49"/>
       <c r="AI12" s="25"/>
       <c r="AJ12" s="41"/>
       <c r="AK12" s="49"/>
-      <c r="AL12" s="41"/>
+      <c r="AL12" s="49"/>
       <c r="AM12" s="49"/>
-      <c r="AN12" s="21"/>
+      <c r="AN12" s="49"/>
       <c r="AO12" s="36"/>
       <c r="AP12" s="36"/>
       <c r="AQ12" s="36"/>
@@ -22604,7 +22629,7 @@
       <c r="AS12" s="36"/>
       <c r="AT12" s="28" t="str">
         <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textAdditional: '（表向きの状態で右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU12" s="29" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>
@@ -23594,7 +23619,7 @@
     </row>
     <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>26</v>
@@ -23603,13 +23628,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="39"/>
@@ -23633,18 +23658,18 @@
       <c r="V13" s="37"/>
       <c r="W13" s="36"/>
       <c r="X13" s="37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
       <c r="AE13" s="55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF13" s="41"/>
       <c r="AG13" s="49"/>
@@ -40200,7 +40225,7 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="63"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -40259,7 +40284,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="63"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -40318,7 +40343,7 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="63"/>
+      <c r="J31" s="64"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -40377,7 +40402,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="63"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
@@ -40427,2353 +40452,2353 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="64"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="64"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="64"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="64"/>
+      <c r="I37" s="65"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="64"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="64"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="64"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="64"/>
+      <c r="I41" s="65"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="64"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="64"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="64"/>
+      <c r="I44" s="65"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="64"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="64"/>
+      <c r="I46" s="65"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="64"/>
+      <c r="I47" s="65"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="64"/>
+      <c r="I48" s="65"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="64"/>
+      <c r="I49" s="65"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="64"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="64"/>
+      <c r="I51" s="65"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="64"/>
+      <c r="I52" s="65"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="64"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="64"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="64"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="64"/>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="64"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="64"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="64"/>
+      <c r="I59" s="65"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="64"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="64"/>
+      <c r="I61" s="65"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="64"/>
+      <c r="I62" s="65"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="64"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="64"/>
+      <c r="I64" s="65"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="64"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="64"/>
+      <c r="I66" s="65"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="64"/>
+      <c r="I67" s="65"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="64"/>
+      <c r="I68" s="65"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="64"/>
+      <c r="I69" s="65"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="64"/>
+      <c r="I70" s="65"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="64"/>
+      <c r="I71" s="65"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="64"/>
+      <c r="I72" s="65"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="64"/>
+      <c r="I73" s="65"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="64"/>
+      <c r="I74" s="65"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="64"/>
+      <c r="I75" s="65"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="64"/>
+      <c r="I76" s="65"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="64"/>
+      <c r="I77" s="65"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="64"/>
+      <c r="I79" s="65"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="64"/>
+      <c r="I80" s="65"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="64"/>
+      <c r="I81" s="65"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="64"/>
+      <c r="I82" s="65"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="64"/>
+      <c r="I83" s="65"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="64"/>
+      <c r="I84" s="65"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="64"/>
+      <c r="I85" s="65"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="64"/>
+      <c r="I86" s="65"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="64"/>
+      <c r="I87" s="65"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="64"/>
+      <c r="I88" s="65"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="64"/>
+      <c r="I89" s="65"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="64"/>
+      <c r="I90" s="65"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="64"/>
+      <c r="I91" s="65"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="64"/>
+      <c r="I92" s="65"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="64"/>
+      <c r="I93" s="65"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="64"/>
+      <c r="I94" s="65"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="64"/>
+      <c r="I95" s="65"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="64"/>
+      <c r="I96" s="65"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="64"/>
+      <c r="I97" s="65"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="64"/>
+      <c r="I98" s="65"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="64"/>
+      <c r="I99" s="65"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="64"/>
+      <c r="I100" s="65"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="64"/>
+      <c r="I101" s="65"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="64"/>
+      <c r="I102" s="65"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="64"/>
+      <c r="I103" s="65"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="64"/>
+      <c r="I104" s="65"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="64"/>
+      <c r="I105" s="65"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="64"/>
+      <c r="I106" s="65"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="64"/>
+      <c r="I107" s="65"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="64"/>
+      <c r="I108" s="65"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="64"/>
+      <c r="I109" s="65"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="64"/>
+      <c r="I110" s="65"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="64"/>
+      <c r="I111" s="65"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="64"/>
+      <c r="I112" s="65"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="64"/>
+      <c r="I113" s="65"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="64"/>
+      <c r="I114" s="65"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="64"/>
+      <c r="I115" s="65"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="64"/>
+      <c r="I116" s="65"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="64"/>
+      <c r="I117" s="65"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="64"/>
+      <c r="I118" s="65"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="64"/>
+      <c r="I119" s="65"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="64"/>
+      <c r="I120" s="65"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="64"/>
+      <c r="I121" s="65"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="64"/>
+      <c r="I122" s="65"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="64"/>
+      <c r="I123" s="65"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="64"/>
+      <c r="I124" s="65"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="64"/>
+      <c r="I125" s="65"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="64"/>
+      <c r="I126" s="65"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="64"/>
+      <c r="I127" s="65"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="64"/>
+      <c r="I128" s="65"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="64"/>
+      <c r="I129" s="65"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="64"/>
+      <c r="I130" s="65"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="64"/>
+      <c r="I131" s="65"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="64"/>
+      <c r="I132" s="65"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="64"/>
+      <c r="I133" s="65"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="64"/>
+      <c r="I134" s="65"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="64"/>
+      <c r="I135" s="65"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="64"/>
+      <c r="I136" s="65"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="64"/>
+      <c r="I137" s="65"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="64"/>
+      <c r="I138" s="65"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="64"/>
+      <c r="I139" s="65"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="64"/>
+      <c r="I140" s="65"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="64"/>
+      <c r="I141" s="65"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="64"/>
+      <c r="I142" s="65"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="64"/>
+      <c r="I143" s="65"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="64"/>
+      <c r="I144" s="65"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="64"/>
+      <c r="I145" s="65"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="64"/>
+      <c r="I146" s="65"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="64"/>
+      <c r="I147" s="65"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="64"/>
+      <c r="I148" s="65"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="64"/>
+      <c r="I149" s="65"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="64"/>
+      <c r="I150" s="65"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="64"/>
+      <c r="I151" s="65"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="64"/>
+      <c r="I152" s="65"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="64"/>
+      <c r="I153" s="65"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="64"/>
+      <c r="I154" s="65"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="64"/>
+      <c r="I155" s="65"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="64"/>
+      <c r="I156" s="65"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="64"/>
+      <c r="I157" s="65"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="64"/>
+      <c r="I158" s="65"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="64"/>
+      <c r="I159" s="65"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="64"/>
+      <c r="I160" s="65"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="64"/>
+      <c r="I161" s="65"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="64"/>
+      <c r="I162" s="65"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="64"/>
+      <c r="I163" s="65"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="64"/>
+      <c r="I164" s="65"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="64"/>
+      <c r="I165" s="65"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="64"/>
+      <c r="I166" s="65"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="64"/>
+      <c r="I167" s="65"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="64"/>
+      <c r="I168" s="65"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="64"/>
+      <c r="I169" s="65"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="64"/>
+      <c r="I170" s="65"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="64"/>
+      <c r="I171" s="65"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="64"/>
+      <c r="I172" s="65"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="64"/>
+      <c r="I173" s="65"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="64"/>
+      <c r="I174" s="65"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="64"/>
+      <c r="I175" s="65"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="64"/>
+      <c r="I176" s="65"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="64"/>
+      <c r="I177" s="65"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="64"/>
+      <c r="I178" s="65"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="64"/>
+      <c r="I179" s="65"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="64"/>
+      <c r="I180" s="65"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="64"/>
+      <c r="I181" s="65"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="64"/>
+      <c r="I182" s="65"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="64"/>
+      <c r="I183" s="65"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="64"/>
+      <c r="I184" s="65"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="64"/>
+      <c r="I185" s="65"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="64"/>
+      <c r="I186" s="65"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="64"/>
+      <c r="I187" s="65"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="64"/>
+      <c r="I188" s="65"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="64"/>
+      <c r="I189" s="65"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="64"/>
+      <c r="I190" s="65"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="64"/>
+      <c r="I191" s="65"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="64"/>
+      <c r="I192" s="65"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="64"/>
+      <c r="I193" s="65"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="64"/>
+      <c r="I194" s="65"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="64"/>
+      <c r="I195" s="65"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="64"/>
+      <c r="I196" s="65"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="64"/>
+      <c r="I197" s="65"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="64"/>
+      <c r="I198" s="65"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="64"/>
+      <c r="I199" s="65"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="64"/>
+      <c r="I200" s="65"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="64"/>
+      <c r="I201" s="65"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="64"/>
+      <c r="I202" s="65"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="64"/>
+      <c r="I203" s="65"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="64"/>
+      <c r="I204" s="65"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="64"/>
+      <c r="I205" s="65"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="64"/>
+      <c r="I206" s="65"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="64"/>
+      <c r="I207" s="65"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="64"/>
+      <c r="I208" s="65"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="64"/>
+      <c r="I209" s="65"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="64"/>
+      <c r="I210" s="65"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="64"/>
+      <c r="I211" s="65"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="64"/>
+      <c r="I212" s="65"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="64"/>
+      <c r="I213" s="65"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="64"/>
+      <c r="I214" s="65"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="64"/>
+      <c r="I215" s="65"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="64"/>
+      <c r="I216" s="65"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="64"/>
+      <c r="I217" s="65"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="64"/>
+      <c r="I218" s="65"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="64"/>
+      <c r="I219" s="65"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="64"/>
+      <c r="I220" s="65"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="64"/>
+      <c r="I221" s="65"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="64"/>
+      <c r="I222" s="65"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="64"/>
+      <c r="I223" s="65"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="64"/>
+      <c r="I224" s="65"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="64"/>
+      <c r="I225" s="65"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="64"/>
+      <c r="I226" s="65"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="64"/>
+      <c r="I227" s="65"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="64"/>
+      <c r="I228" s="65"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="64"/>
+      <c r="I229" s="65"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="64"/>
+      <c r="I230" s="65"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="64"/>
+      <c r="I231" s="65"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="64"/>
+      <c r="I232" s="65"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="64"/>
+      <c r="I233" s="65"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="64"/>
+      <c r="I234" s="65"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="64"/>
+      <c r="I235" s="65"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="64"/>
+      <c r="I236" s="65"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="64"/>
+      <c r="I237" s="65"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="64"/>
+      <c r="I238" s="65"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="64"/>
+      <c r="I239" s="65"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="64"/>
+      <c r="I240" s="65"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="64"/>
+      <c r="I241" s="65"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="64"/>
+      <c r="I242" s="65"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="64"/>
+      <c r="I243" s="65"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="64"/>
+      <c r="I244" s="65"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="64"/>
+      <c r="I245" s="65"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="64"/>
+      <c r="I246" s="65"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="64"/>
+      <c r="I247" s="65"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="64"/>
+      <c r="I248" s="65"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="64"/>
+      <c r="I249" s="65"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="64"/>
+      <c r="I250" s="65"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="64"/>
+      <c r="I251" s="65"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="64"/>
+      <c r="I252" s="65"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="64"/>
+      <c r="I253" s="65"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="64"/>
+      <c r="I254" s="65"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="64"/>
+      <c r="I255" s="65"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="64"/>
+      <c r="I256" s="65"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="64"/>
+      <c r="I257" s="65"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="64"/>
+      <c r="I258" s="65"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="64"/>
+      <c r="I259" s="65"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="64"/>
+      <c r="I260" s="65"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="64"/>
+      <c r="I261" s="65"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="64"/>
+      <c r="I262" s="65"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="64"/>
+      <c r="I263" s="65"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="64"/>
+      <c r="I264" s="65"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="64"/>
+      <c r="I265" s="65"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="64"/>
+      <c r="I266" s="65"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="64"/>
+      <c r="I267" s="65"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="64"/>
+      <c r="I268" s="65"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="64"/>
+      <c r="I269" s="65"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="64"/>
+      <c r="I270" s="65"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="64"/>
+      <c r="I271" s="65"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="64"/>
+      <c r="I272" s="65"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="64"/>
+      <c r="I273" s="65"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="64"/>
+      <c r="I274" s="65"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="64"/>
+      <c r="I275" s="65"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="64"/>
+      <c r="I276" s="65"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="64"/>
+      <c r="I277" s="65"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="64"/>
+      <c r="I278" s="65"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="64"/>
+      <c r="I279" s="65"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="64"/>
+      <c r="I280" s="65"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="64"/>
+      <c r="I281" s="65"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="64"/>
+      <c r="I282" s="65"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="64"/>
+      <c r="I283" s="65"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="64"/>
+      <c r="I284" s="65"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="64"/>
+      <c r="I285" s="65"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="64"/>
+      <c r="I286" s="65"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="64"/>
+      <c r="I287" s="65"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="64"/>
+      <c r="I288" s="65"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="64"/>
+      <c r="I289" s="65"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="64"/>
+      <c r="I290" s="65"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="64"/>
+      <c r="I291" s="65"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="64"/>
+      <c r="I292" s="65"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="64"/>
+      <c r="I293" s="65"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="64"/>
+      <c r="I294" s="65"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="64"/>
+      <c r="I295" s="65"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="64"/>
+      <c r="I296" s="65"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="64"/>
+      <c r="I297" s="65"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="64"/>
+      <c r="I298" s="65"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="64"/>
+      <c r="I299" s="65"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="64"/>
+      <c r="I300" s="65"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="64"/>
+      <c r="I301" s="65"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="64"/>
+      <c r="I302" s="65"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="64"/>
+      <c r="I303" s="65"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="64"/>
+      <c r="I304" s="65"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="64"/>
+      <c r="I305" s="65"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="64"/>
+      <c r="I306" s="65"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="64"/>
+      <c r="I307" s="65"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="64"/>
+      <c r="I308" s="65"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="64"/>
+      <c r="I309" s="65"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="64"/>
+      <c r="I310" s="65"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="64"/>
+      <c r="I311" s="65"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="64"/>
+      <c r="I312" s="65"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="64"/>
+      <c r="I313" s="65"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="64"/>
+      <c r="I314" s="65"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="64"/>
+      <c r="I315" s="65"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="64"/>
+      <c r="I316" s="65"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="64"/>
+      <c r="I317" s="65"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="64"/>
+      <c r="I318" s="65"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="64"/>
+      <c r="I319" s="65"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="64"/>
+      <c r="I320" s="65"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="64"/>
+      <c r="I321" s="65"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="64"/>
+      <c r="I322" s="65"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="64"/>
+      <c r="I323" s="65"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="64"/>
+      <c r="I324" s="65"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="64"/>
+      <c r="I325" s="65"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="64"/>
+      <c r="I326" s="65"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="64"/>
+      <c r="I327" s="65"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="64"/>
+      <c r="I328" s="65"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="64"/>
+      <c r="I329" s="65"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="64"/>
+      <c r="I330" s="65"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="64"/>
+      <c r="I331" s="65"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="64"/>
+      <c r="I332" s="65"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="64"/>
+      <c r="I333" s="65"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="64"/>
+      <c r="I334" s="65"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="64"/>
+      <c r="I335" s="65"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="64"/>
+      <c r="I336" s="65"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="64"/>
+      <c r="I337" s="65"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="64"/>
+      <c r="I338" s="65"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="64"/>
+      <c r="I339" s="65"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="64"/>
+      <c r="I340" s="65"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="64"/>
+      <c r="I341" s="65"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="64"/>
+      <c r="I342" s="65"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="64"/>
+      <c r="I343" s="65"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="64"/>
+      <c r="I344" s="65"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="64"/>
+      <c r="I345" s="65"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="64"/>
+      <c r="I346" s="65"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="64"/>
+      <c r="I347" s="65"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="64"/>
+      <c r="I348" s="65"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="64"/>
+      <c r="I349" s="65"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="64"/>
+      <c r="I350" s="65"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="64"/>
+      <c r="I351" s="65"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="64"/>
+      <c r="I352" s="65"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="64"/>
+      <c r="I353" s="65"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="64"/>
+      <c r="I354" s="65"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="64"/>
+      <c r="I355" s="65"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="64"/>
+      <c r="I356" s="65"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="64"/>
+      <c r="I357" s="65"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="64"/>
+      <c r="I358" s="65"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="64"/>
+      <c r="I359" s="65"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="64"/>
+      <c r="I360" s="65"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="64"/>
+      <c r="I361" s="65"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="64"/>
+      <c r="I362" s="65"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="64"/>
+      <c r="I363" s="65"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="64"/>
+      <c r="I364" s="65"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="64"/>
+      <c r="I365" s="65"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="64"/>
+      <c r="I366" s="65"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="64"/>
+      <c r="I367" s="65"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="64"/>
+      <c r="I368" s="65"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="64"/>
+      <c r="I369" s="65"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="64"/>
+      <c r="I370" s="65"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="64"/>
+      <c r="I371" s="65"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="64"/>
+      <c r="I372" s="65"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="64"/>
+      <c r="I373" s="65"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="64"/>
+      <c r="I374" s="65"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="64"/>
+      <c r="I375" s="65"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="64"/>
+      <c r="I376" s="65"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="64"/>
+      <c r="I377" s="65"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="64"/>
+      <c r="I378" s="65"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="64"/>
+      <c r="I379" s="65"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="64"/>
+      <c r="I380" s="65"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="64"/>
+      <c r="I381" s="65"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="64"/>
+      <c r="I382" s="65"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="64"/>
+      <c r="I383" s="65"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="64"/>
+      <c r="I384" s="65"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="64"/>
+      <c r="I385" s="65"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="64"/>
+      <c r="I386" s="65"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="64"/>
+      <c r="I387" s="65"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="64"/>
+      <c r="I388" s="65"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="64"/>
+      <c r="I389" s="65"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="64"/>
+      <c r="I390" s="65"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="64"/>
+      <c r="I391" s="65"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="64"/>
+      <c r="I392" s="65"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="64"/>
+      <c r="I393" s="65"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="64"/>
+      <c r="I394" s="65"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="64"/>
+      <c r="I395" s="65"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="64"/>
+      <c r="I396" s="65"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="64"/>
+      <c r="I397" s="65"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="64"/>
+      <c r="I398" s="65"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="64"/>
+      <c r="I399" s="65"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="64"/>
+      <c r="I400" s="65"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="64"/>
+      <c r="I401" s="65"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="64"/>
+      <c r="I402" s="65"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="64"/>
+      <c r="I403" s="65"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="64"/>
+      <c r="I404" s="65"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="64"/>
+      <c r="I405" s="65"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="64"/>
+      <c r="I406" s="65"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="64"/>
+      <c r="I407" s="65"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="64"/>
+      <c r="I408" s="65"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="64"/>
+      <c r="I409" s="65"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="64"/>
+      <c r="I410" s="65"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="64"/>
+      <c r="I411" s="65"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="64"/>
+      <c r="I412" s="65"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="64"/>
+      <c r="I413" s="65"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="64"/>
+      <c r="I414" s="65"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="64"/>
+      <c r="I415" s="65"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="64"/>
+      <c r="I416" s="65"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="64"/>
+      <c r="I417" s="65"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="64"/>
+      <c r="I418" s="65"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="64"/>
+      <c r="I419" s="65"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="64"/>
+      <c r="I420" s="65"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="64"/>
+      <c r="I421" s="65"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="64"/>
+      <c r="I422" s="65"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="64"/>
+      <c r="I423" s="65"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="64"/>
+      <c r="I424" s="65"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="64"/>
+      <c r="I425" s="65"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="64"/>
+      <c r="I426" s="65"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="64"/>
+      <c r="I427" s="65"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="64"/>
+      <c r="I428" s="65"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="64"/>
+      <c r="I429" s="65"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="64"/>
+      <c r="I430" s="65"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="64"/>
+      <c r="I431" s="65"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="64"/>
+      <c r="I432" s="65"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="64"/>
+      <c r="I433" s="65"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="64"/>
+      <c r="I434" s="65"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="64"/>
+      <c r="I435" s="65"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="64"/>
+      <c r="I436" s="65"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="64"/>
+      <c r="I437" s="65"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="64"/>
+      <c r="I438" s="65"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="64"/>
+      <c r="I439" s="65"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="64"/>
+      <c r="I440" s="65"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="64"/>
+      <c r="I441" s="65"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="64"/>
+      <c r="I442" s="65"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="64"/>
+      <c r="I443" s="65"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="64"/>
+      <c r="I444" s="65"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="64"/>
+      <c r="I445" s="65"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="64"/>
+      <c r="I446" s="65"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="64"/>
+      <c r="I447" s="65"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="64"/>
+      <c r="I448" s="65"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="64"/>
+      <c r="I449" s="65"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="64"/>
+      <c r="I450" s="65"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="64"/>
+      <c r="I451" s="65"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="64"/>
+      <c r="I452" s="65"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="64"/>
+      <c r="I453" s="65"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="64"/>
+      <c r="I454" s="65"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="64"/>
+      <c r="I455" s="65"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="64"/>
+      <c r="I456" s="65"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="64"/>
+      <c r="I457" s="65"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="64"/>
+      <c r="I458" s="65"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="64"/>
+      <c r="I459" s="65"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="64"/>
+      <c r="I460" s="65"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="64"/>
+      <c r="I461" s="65"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="64"/>
+      <c r="I462" s="65"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="64"/>
+      <c r="I463" s="65"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="64"/>
+      <c r="I464" s="65"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="64"/>
+      <c r="I465" s="65"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="64"/>
+      <c r="I466" s="65"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="64"/>
+      <c r="I467" s="65"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="64"/>
+      <c r="I468" s="65"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="64"/>
+      <c r="I469" s="65"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="64"/>
+      <c r="I470" s="65"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="64"/>
+      <c r="I471" s="65"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="64"/>
+      <c r="I472" s="65"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="64"/>
+      <c r="I473" s="65"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="64"/>
+      <c r="I474" s="65"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="64"/>
+      <c r="I475" s="65"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="64"/>
+      <c r="I476" s="65"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="64"/>
+      <c r="I477" s="65"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="64"/>
+      <c r="I478" s="65"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="64"/>
+      <c r="I479" s="65"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="64"/>
+      <c r="I480" s="65"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="64"/>
+      <c r="I481" s="65"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="64"/>
+      <c r="I482" s="65"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="64"/>
+      <c r="I483" s="65"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="64"/>
+      <c r="I484" s="65"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="64"/>
+      <c r="I485" s="65"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="64"/>
+      <c r="I486" s="65"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="64"/>
+      <c r="I487" s="65"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="64"/>
+      <c r="I488" s="65"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="64"/>
+      <c r="I489" s="65"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="64"/>
+      <c r="I490" s="65"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="64"/>
+      <c r="I491" s="65"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="64"/>
+      <c r="I492" s="65"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="64"/>
+      <c r="I493" s="65"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="64"/>
+      <c r="I494" s="65"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="64"/>
+      <c r="I495" s="65"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="64"/>
+      <c r="I496" s="65"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="64"/>
+      <c r="I497" s="65"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="64"/>
+      <c r="I498" s="65"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="64"/>
+      <c r="I499" s="65"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="64"/>
+      <c r="I500" s="65"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="64"/>
+      <c r="I501" s="65"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="64"/>
+      <c r="I502" s="65"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="64"/>
+      <c r="I503" s="65"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="64"/>
+      <c r="I504" s="65"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="64"/>
+      <c r="I505" s="65"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="64"/>
+      <c r="I506" s="65"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="64"/>
+      <c r="I507" s="65"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="64"/>
+      <c r="I508" s="65"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="64"/>
+      <c r="I509" s="65"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="64"/>
+      <c r="I510" s="65"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="64"/>
+      <c r="I511" s="65"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="64"/>
+      <c r="I512" s="65"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="64"/>
+      <c r="I513" s="65"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="64"/>
+      <c r="I514" s="65"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="64"/>
+      <c r="I515" s="65"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="64"/>
+      <c r="I516" s="65"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="64"/>
+      <c r="I517" s="65"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="64"/>
+      <c r="I518" s="65"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="64"/>
+      <c r="I519" s="65"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="64"/>
+      <c r="I520" s="65"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="64"/>
+      <c r="I521" s="65"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="64"/>
+      <c r="I522" s="65"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="64"/>
+      <c r="I523" s="65"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="64"/>
+      <c r="I524" s="65"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="64"/>
+      <c r="I525" s="65"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="64"/>
+      <c r="I526" s="65"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="64"/>
+      <c r="I527" s="65"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="64"/>
+      <c r="I528" s="65"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="64"/>
+      <c r="I529" s="65"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="64"/>
+      <c r="I530" s="65"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="64"/>
+      <c r="I531" s="65"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="64"/>
+      <c r="I532" s="65"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="64"/>
+      <c r="I533" s="65"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="64"/>
+      <c r="I534" s="65"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="64"/>
+      <c r="I535" s="65"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="64"/>
+      <c r="I536" s="65"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="64"/>
+      <c r="I537" s="65"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="64"/>
+      <c r="I538" s="65"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="64"/>
+      <c r="I539" s="65"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="64"/>
+      <c r="I540" s="65"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="64"/>
+      <c r="I541" s="65"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="64"/>
+      <c r="I542" s="65"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="64"/>
+      <c r="I543" s="65"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="64"/>
+      <c r="I544" s="65"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="64"/>
+      <c r="I545" s="65"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="64"/>
+      <c r="I546" s="65"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="64"/>
+      <c r="I547" s="65"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="64"/>
+      <c r="I548" s="65"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="64"/>
+      <c r="I549" s="65"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="64"/>
+      <c r="I550" s="65"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="64"/>
+      <c r="I551" s="65"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="64"/>
+      <c r="I552" s="65"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="64"/>
+      <c r="I553" s="65"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="64"/>
+      <c r="I554" s="65"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="64"/>
+      <c r="I555" s="65"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="64"/>
+      <c r="I556" s="65"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="64"/>
+      <c r="I557" s="65"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="64"/>
+      <c r="I558" s="65"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="64"/>
+      <c r="I559" s="65"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="64"/>
+      <c r="I560" s="65"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="64"/>
+      <c r="I561" s="65"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="64"/>
+      <c r="I562" s="65"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="64"/>
+      <c r="I563" s="65"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="64"/>
+      <c r="I564" s="65"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="64"/>
+      <c r="I565" s="65"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="64"/>
+      <c r="I566" s="65"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="64"/>
+      <c r="I567" s="65"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="64"/>
+      <c r="I568" s="65"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="64"/>
+      <c r="I569" s="65"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="64"/>
+      <c r="I570" s="65"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="64"/>
+      <c r="I571" s="65"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="64"/>
+      <c r="I572" s="65"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="64"/>
+      <c r="I573" s="65"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="64"/>
+      <c r="I574" s="65"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="64"/>
+      <c r="I575" s="65"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="64"/>
+      <c r="I576" s="65"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="64"/>
+      <c r="I577" s="65"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="64"/>
+      <c r="I578" s="65"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="64"/>
+      <c r="I579" s="65"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="64"/>
+      <c r="I580" s="65"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="64"/>
+      <c r="I581" s="65"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="64"/>
+      <c r="I582" s="65"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="64"/>
+      <c r="I583" s="65"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="64"/>
+      <c r="I584" s="65"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="64"/>
+      <c r="I585" s="65"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="64"/>
+      <c r="I586" s="65"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="64"/>
+      <c r="I587" s="65"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="64"/>
+      <c r="I588" s="65"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="64"/>
+      <c r="I589" s="65"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="64"/>
+      <c r="I590" s="65"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="64"/>
+      <c r="I591" s="65"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="64"/>
+      <c r="I592" s="65"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="64"/>
+      <c r="I593" s="65"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="64"/>
+      <c r="I594" s="65"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="64"/>
+      <c r="I595" s="65"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="64"/>
+      <c r="I596" s="65"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="64"/>
+      <c r="I597" s="65"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="64"/>
+      <c r="I598" s="65"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="64"/>
+      <c r="I599" s="65"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="64"/>
+      <c r="I600" s="65"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="64"/>
+      <c r="I601" s="65"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="64"/>
+      <c r="I602" s="65"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="64"/>
+      <c r="I603" s="65"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="64"/>
+      <c r="I604" s="65"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="64"/>
+      <c r="I605" s="65"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="64"/>
+      <c r="I606" s="65"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="64"/>
+      <c r="I607" s="65"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="64"/>
+      <c r="I608" s="65"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="64"/>
+      <c r="I609" s="65"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="64"/>
+      <c r="I610" s="65"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="64"/>
+      <c r="I611" s="65"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="64"/>
+      <c r="I612" s="65"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="64"/>
+      <c r="I613" s="65"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="64"/>
+      <c r="I614" s="65"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="64"/>
+      <c r="I615" s="65"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="64"/>
+      <c r="I616" s="65"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="64"/>
+      <c r="I617" s="65"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="64"/>
+      <c r="I618" s="65"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="64"/>
+      <c r="I619" s="65"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="64"/>
+      <c r="I620" s="65"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="64"/>
+      <c r="I621" s="65"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="64"/>
+      <c r="I622" s="65"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="64"/>
+      <c r="I623" s="65"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="64"/>
+      <c r="I624" s="65"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="64"/>
+      <c r="I625" s="65"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="64"/>
+      <c r="I626" s="65"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="64"/>
+      <c r="I627" s="65"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="64"/>
+      <c r="I628" s="65"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="64"/>
+      <c r="I629" s="65"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="64"/>
+      <c r="I630" s="65"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="64"/>
+      <c r="I631" s="65"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="64"/>
+      <c r="I632" s="65"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="64"/>
+      <c r="I633" s="65"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="64"/>
+      <c r="I634" s="65"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="64"/>
+      <c r="I635" s="65"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="64"/>
+      <c r="I636" s="65"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="64"/>
+      <c r="I637" s="65"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="64"/>
+      <c r="I638" s="65"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="64"/>
+      <c r="I639" s="65"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="64"/>
+      <c r="I640" s="65"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="64"/>
+      <c r="I641" s="65"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="64"/>
+      <c r="I642" s="65"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="64"/>
+      <c r="I643" s="65"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="64"/>
+      <c r="I644" s="65"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="64"/>
+      <c r="I645" s="65"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="64"/>
+      <c r="I646" s="65"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="64"/>
+      <c r="I647" s="65"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="64"/>
+      <c r="I648" s="65"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="64"/>
+      <c r="I649" s="65"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="64"/>
+      <c r="I650" s="65"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="64"/>
+      <c r="I651" s="65"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="64"/>
+      <c r="I652" s="65"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="64"/>
+      <c r="I653" s="65"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="64"/>
+      <c r="I654" s="65"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="64"/>
+      <c r="I655" s="65"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="64"/>
+      <c r="I656" s="65"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="64"/>
+      <c r="I657" s="65"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="64"/>
+      <c r="I658" s="65"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="64"/>
+      <c r="I659" s="65"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="64"/>
+      <c r="I660" s="65"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="64"/>
+      <c r="I661" s="65"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="64"/>
+      <c r="I662" s="65"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="64"/>
+      <c r="I663" s="65"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="64"/>
+      <c r="I664" s="65"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="64"/>
+      <c r="I665" s="65"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="64"/>
+      <c r="I666" s="65"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="64"/>
+      <c r="I667" s="65"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="64"/>
+      <c r="I668" s="65"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="64"/>
+      <c r="I669" s="65"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="64"/>
+      <c r="I670" s="65"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="64"/>
+      <c r="I671" s="65"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="64"/>
+      <c r="I672" s="65"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="64"/>
+      <c r="I673" s="65"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="64"/>
+      <c r="I674" s="65"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="64"/>
+      <c r="I675" s="65"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="64"/>
+      <c r="I676" s="65"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="64"/>
+      <c r="I677" s="65"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="64"/>
+      <c r="I678" s="65"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="64"/>
+      <c r="I679" s="65"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="64"/>
+      <c r="I680" s="65"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="64"/>
+      <c r="I681" s="65"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="64"/>
+      <c r="I682" s="65"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="64"/>
+      <c r="I683" s="65"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="64"/>
+      <c r="I684" s="65"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="64"/>
+      <c r="I685" s="65"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="64"/>
+      <c r="I686" s="65"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="64"/>
+      <c r="I687" s="65"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="64"/>
+      <c r="I688" s="65"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="64"/>
+      <c r="I689" s="65"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="64"/>
+      <c r="I690" s="65"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="64"/>
+      <c r="I691" s="65"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="64"/>
+      <c r="I692" s="65"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="64"/>
+      <c r="I693" s="65"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="64"/>
+      <c r="I694" s="65"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="64"/>
+      <c r="I695" s="65"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="64"/>
+      <c r="I696" s="65"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="64"/>
+      <c r="I697" s="65"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="64"/>
+      <c r="I698" s="65"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="64"/>
+      <c r="I699" s="65"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="64"/>
+      <c r="I700" s="65"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="64"/>
+      <c r="I701" s="65"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="64"/>
+      <c r="I702" s="65"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="64"/>
+      <c r="I703" s="65"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="64"/>
+      <c r="I704" s="65"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="64"/>
+      <c r="I705" s="65"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="64"/>
+      <c r="I706" s="65"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="64"/>
+      <c r="I707" s="65"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="64"/>
+      <c r="I708" s="65"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="64"/>
+      <c r="I709" s="65"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="64"/>
+      <c r="I710" s="65"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="64"/>
+      <c r="I711" s="65"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="64"/>
+      <c r="I712" s="65"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="64"/>
+      <c r="I713" s="65"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="64"/>
+      <c r="I714" s="65"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="64"/>
+      <c r="I715" s="65"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="64"/>
+      <c r="I716" s="65"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="64"/>
+      <c r="I717" s="65"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="64"/>
+      <c r="I718" s="65"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="64"/>
+      <c r="I719" s="65"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="64"/>
+      <c r="I720" s="65"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="64"/>
+      <c r="I721" s="65"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="64"/>
+      <c r="I722" s="65"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="64"/>
+      <c r="I723" s="65"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="64"/>
+      <c r="I724" s="65"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="64"/>
+      <c r="I725" s="65"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="64"/>
+      <c r="I726" s="65"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="64"/>
+      <c r="I727" s="65"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="64"/>
+      <c r="I728" s="65"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="64"/>
+      <c r="I729" s="65"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="64"/>
+      <c r="I730" s="65"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="64"/>
+      <c r="I731" s="65"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="64"/>
+      <c r="I732" s="65"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="64"/>
+      <c r="I733" s="65"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="64"/>
+      <c r="I734" s="65"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="64"/>
+      <c r="I735" s="65"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="64"/>
+      <c r="I736" s="65"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="64"/>
+      <c r="I737" s="65"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="64"/>
+      <c r="I738" s="65"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="64"/>
+      <c r="I739" s="65"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="64"/>
+      <c r="I740" s="65"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="64"/>
+      <c r="I741" s="65"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="64"/>
+      <c r="I742" s="65"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="64"/>
+      <c r="I743" s="65"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="64"/>
+      <c r="I744" s="65"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="64"/>
+      <c r="I745" s="65"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="64"/>
+      <c r="I746" s="65"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="64"/>
+      <c r="I747" s="65"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="64"/>
+      <c r="I748" s="65"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="64"/>
+      <c r="I749" s="65"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="64"/>
+      <c r="I750" s="65"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="64"/>
+      <c r="I751" s="65"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="64"/>
+      <c r="I752" s="65"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="64"/>
+      <c r="I753" s="65"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="64"/>
+      <c r="I754" s="65"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="64"/>
+      <c r="I755" s="65"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="64"/>
+      <c r="I756" s="65"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="64"/>
+      <c r="I757" s="65"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="64"/>
+      <c r="I758" s="65"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I759" s="64"/>
+      <c r="I759" s="65"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I760" s="64"/>
+      <c r="I760" s="65"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I761" s="64"/>
+      <c r="I761" s="65"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I762" s="64"/>
+      <c r="I762" s="65"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I763" s="64"/>
+      <c r="I763" s="65"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I764" s="64"/>
+      <c r="I764" s="65"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I765" s="64"/>
+      <c r="I765" s="65"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I766" s="64"/>
+      <c r="I766" s="65"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I767" s="64"/>
+      <c r="I767" s="65"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I768" s="64"/>
+      <c r="I768" s="65"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I769" s="64"/>
+      <c r="I769" s="65"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I770" s="64"/>
+      <c r="I770" s="65"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I771" s="64"/>
+      <c r="I771" s="65"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I772" s="64"/>
+      <c r="I772" s="65"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I773" s="64"/>
+      <c r="I773" s="65"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I774" s="64"/>
+      <c r="I774" s="65"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I775" s="64"/>
+      <c r="I775" s="65"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I776" s="64"/>
+      <c r="I776" s="65"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I777" s="64"/>
+      <c r="I777" s="65"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I778" s="64"/>
+      <c r="I778" s="65"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I779" s="64"/>
+      <c r="I779" s="65"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I780" s="64"/>
+      <c r="I780" s="65"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I781" s="64"/>
+      <c r="I781" s="65"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I782" s="64"/>
+      <c r="I782" s="65"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I783" s="64"/>
+      <c r="I783" s="65"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I784" s="64"/>
+      <c r="I784" s="65"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I785" s="64"/>
+      <c r="I785" s="65"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I786" s="64"/>
+      <c r="I786" s="65"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I787" s="64"/>
+      <c r="I787" s="65"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I788" s="64"/>
+      <c r="I788" s="65"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I789" s="64"/>
+      <c r="I789" s="65"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I790" s="64"/>
+      <c r="I790" s="65"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I791" s="64"/>
+      <c r="I791" s="65"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I792" s="64"/>
+      <c r="I792" s="65"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I793" s="64"/>
+      <c r="I793" s="65"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I794" s="64"/>
+      <c r="I794" s="65"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I795" s="64"/>
+      <c r="I795" s="65"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I796" s="64"/>
+      <c r="I796" s="65"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I797" s="64"/>
+      <c r="I797" s="65"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I798" s="64"/>
+      <c r="I798" s="65"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I799" s="64"/>
+      <c r="I799" s="65"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I800" s="64"/>
+      <c r="I800" s="65"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I801" s="64"/>
+      <c r="I801" s="65"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I802" s="64"/>
+      <c r="I802" s="65"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I803" s="64"/>
+      <c r="I803" s="65"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I804" s="64"/>
+      <c r="I804" s="65"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I805" s="64"/>
+      <c r="I805" s="65"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I806" s="64"/>
+      <c r="I806" s="65"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I807" s="64"/>
+      <c r="I807" s="65"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I808" s="64"/>
+      <c r="I808" s="65"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I809" s="64"/>
+      <c r="I809" s="65"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I810" s="64"/>
+      <c r="I810" s="65"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I811" s="64"/>
+      <c r="I811" s="65"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I812" s="64"/>
+      <c r="I812" s="65"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I813" s="64"/>
+      <c r="I813" s="65"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I814" s="64"/>
+      <c r="I814" s="65"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I815" s="64"/>
+      <c r="I815" s="65"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -42809,98 +42834,98 @@
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>160</v>
+      <c r="B1" s="66" t="s">
+        <v>162</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>161</v>
+      <c r="E1" s="66" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>162</v>
+      <c r="B2" s="66" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="65" t="s">
-        <v>163</v>
+      <c r="E2" s="66" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>164</v>
+      <c r="B3" s="66" t="s">
+        <v>166</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="65" t="s">
-        <v>165</v>
+      <c r="E3" s="66" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="66" t="s">
-        <v>166</v>
+      <c r="A4" s="67" t="s">
+        <v>168</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>166</v>
+      <c r="B4" s="67" t="s">
+        <v>168</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>167</v>
+      <c r="E4" s="66" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
-        <v>168</v>
+      <c r="A5" s="68" t="s">
+        <v>170</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>169</v>
+      <c r="B5" s="68" t="s">
+        <v>171</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="65" t="s">
-        <v>170</v>
+      <c r="E5" s="66" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="s">
-        <v>171</v>
+      <c r="A6" s="68" t="s">
+        <v>173</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>172</v>
+      <c r="B6" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="65" t="s">
-        <v>173</v>
+      <c r="E6" s="66" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="s">
-        <v>174</v>
+      <c r="A7" s="68" t="s">
+        <v>176</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>175</v>
+      <c r="B7" s="68" t="s">
+        <v>177</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -486,7 +486,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">（表向きの状態で右クリックすることで回帰させることが可能）</t>
+    <t xml:space="preserve">（表向きにした後に右クリックすることで回帰させることが可能）</t>
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex2</t>
@@ -16671,9 +16671,9 @@
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AF10" activeCellId="0" sqref="AF10"/>
     </sheetView>
@@ -20509,7 +20509,7 @@
       <c r="AS10" s="36"/>
       <c r="AT10" s="28" t="str">
         <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textAdditional: '（表向きの状態で右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで 3枚目に使うカードが 《攻撃》 カード\nならば、その《攻撃》は+0/+1となる。\n', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU10" s="29" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
@@ -21571,7 +21571,7 @@
       <c r="AS11" s="36"/>
       <c r="AT11" s="28" t="str">
         <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textAdditional: '（表向きの状態で右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU11" s="29" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
@@ -22629,7 +22629,7 @@
       <c r="AS12" s="36"/>
       <c r="AT12" s="28" t="str">
         <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textAdditional: '（表向きの状態で右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
       </c>
       <c r="AU12" s="29" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="277">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -405,16 +405,7 @@
 【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。</t>
   </si>
   <si>
-    <t xml:space="preserve">生育1
-【常时】X等于你的展开中的《付于》牌上的你的种子结晶的数目。
-【展开时】被对应的《攻击》得-X/+0。
-【展开中】对手的准备阶段开始时，进行一次“攻击距离1-5 伤害0/1 【常时】此攻击得+X/+0”的攻击。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">생육 1
-【상시】 X는 《부여》 카드 위에 있는 당신의 씨앗결정 수의 합계와 같다.
-【전개시】 대응한 《공격》은 -X/+0 된다.
-【전개중】 상대의 개시 페이즈 시작에 공격 『적정거리 1-5, 0/1, 【상시】이 공격은 +X/+0 된다.』을 수행한다.</t>
+    <t xml:space="preserve">（毒袋領域を右クリックすることで、相手に毒袋の中身を見せることが可能）</t>
   </si>
   <si>
     <t xml:space="preserve">11-thallya-o-n-4</t>
@@ -2946,6 +2937,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF4F81BD"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
@@ -3048,13 +3046,6 @@
       <name val="Malgun Gothic Semilight"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4F81BD"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3374,15 +3365,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3390,7 +3381,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3406,19 +3397,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3426,11 +3417,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3442,7 +3437,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3450,7 +3445,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3462,11 +3457,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3474,7 +3469,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3490,16 +3485,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3606,7 +3597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W2" activeCellId="1" sqref="AT11:AT12 W2"/>
+      <selection pane="bottomRight" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19026,11 +19017,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AN1" activeCellId="0" sqref="AN1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AT11" activeCellId="0" sqref="AT11:AT12"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AT7" activeCellId="0" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20585,16 +20576,14 @@
       <c r="AE6" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="33" t="s">
+      <c r="AF6" s="53" t="s">
         <v>123</v>
       </c>
+      <c r="AG6" s="33"/>
       <c r="AH6" s="21"/>
       <c r="AI6" s="25"/>
       <c r="AJ6" s="34"/>
-      <c r="AK6" s="35" t="s">
-        <v>124</v>
-      </c>
+      <c r="AK6" s="35"/>
       <c r="AM6" s="42"/>
       <c r="AN6" s="21"/>
       <c r="AO6" s="36"/>
@@ -20604,7 +20593,7 @@
       <c r="AS6" s="36"/>
       <c r="AT6" s="28" t="str">
         <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
-        <v>'09-chikage-o-n-4': {megami: 'chikage', name: '暗器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あんき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-5', damage: '1/1', text: '全力化：【常時】この《攻撃》は+1/+2となる。\n全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。\n【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。', textZh: '生育1\n【常时】X等于你的展开中的《付于》牌上的你的种子结晶的数目。\n【展开时】被对应的《攻击》得-X/+0。\n【展开中】对手的准备阶段开始时，进行一次“攻击距离1-5 伤害0/1 【常时】此攻击得+X/+0”的攻击。', textZhG1: '', textKo: '생육 1\n【상시】 X는 《부여》 카드 위에 있는 당신의 씨앗결정 수의 합계와 같다.\n【전개시】 대응한 《공격》은 -X/+0 된다.\n【전개중】 상대의 개시 페이즈 시작에 공격 『적정거리 1-5, 0/1, 【상시】이 공격은 +X/+0 된다.』을 수행한다.', textEn: ''},</v>
+        <v>'09-chikage-o-n-4': {megami: 'chikage', name: '暗器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あんき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-5', damage: '1/1', text: '全力化：【常時】この《攻撃》は+1/+2となる。\n全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。\n【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。', textAdditional: '（毒袋領域を右クリックすることで、相手に毒袋の中身を見せることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU6" s="29" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    /** 《"&amp;$E6&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A6, 3, 1)="-", RIGHT($A6,LEN($A6)-3), $A6)), "-", "_")&amp;": TCardId = '"&amp;$A6&amp;"';", "")</f>
@@ -20617,33 +20606,33 @@
     </row>
     <row r="7" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>129</v>
-      </c>
       <c r="J7" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
@@ -20658,7 +20647,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U7" s="32"/>
       <c r="V7" s="12" t="s">
@@ -20673,7 +20662,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="56"/>
@@ -21686,35 +21675,35 @@
     </row>
     <row r="8" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="J8" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="K8" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
@@ -21725,7 +21714,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -21742,14 +21731,14 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG8" s="56"/>
       <c r="AH8" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI8" s="21"/>
       <c r="AJ8" s="1"/>
@@ -22759,31 +22748,31 @@
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>148</v>
-      </c>
       <c r="H9" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
@@ -22798,11 +22787,11 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U9" s="32"/>
       <c r="V9" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W9" s="32"/>
       <c r="X9" s="12"/>
@@ -22813,21 +22802,21 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="62"/>
       <c r="AK9" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL9" s="34"/>
       <c r="AM9" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN9" s="32"/>
       <c r="AO9" s="32"/>
@@ -23832,35 +23821,35 @@
     </row>
     <row r="10" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>162</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -23875,11 +23864,11 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U10" s="32"/>
       <c r="V10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W10" s="32"/>
       <c r="X10" s="12"/>
@@ -23894,14 +23883,14 @@
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF10" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG10" s="56"/>
       <c r="AH10" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI10" s="64"/>
       <c r="AJ10" s="41"/>
@@ -24907,29 +24896,29 @@
     </row>
     <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
@@ -24940,7 +24929,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -24956,10 +24945,10 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="53" t="s">
-        <v>177</v>
+      <c r="AE11" s="66" t="s">
+        <v>176</v>
       </c>
-      <c r="AF11" s="53"/>
+      <c r="AF11" s="66"/>
       <c r="AG11" s="56"/>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
@@ -24992,31 +24981,31 @@
     </row>
     <row r="12" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="G12" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="H12" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67" t="s">
+      <c r="K12" s="69" t="s">
         <v>183</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>184</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
@@ -25031,11 +25020,11 @@
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U12" s="36"/>
       <c r="V12" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W12" s="36"/>
       <c r="X12" s="37"/>
@@ -25045,8 +25034,8 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
-      <c r="AE12" s="69" t="s">
-        <v>186</v>
+      <c r="AE12" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="AF12" s="41"/>
       <c r="AG12" s="56"/>
@@ -26055,31 +26044,31 @@
     </row>
     <row r="13" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="G13" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67" t="s">
+      <c r="K13" s="69" t="s">
         <v>190</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>191</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37" t="s">
@@ -26090,7 +26079,7 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -26106,8 +26095,8 @@
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
-      <c r="AE13" s="69" t="s">
-        <v>192</v>
+      <c r="AE13" s="70" t="s">
+        <v>191</v>
       </c>
       <c r="AF13" s="41"/>
       <c r="AG13" s="56"/>
@@ -27116,7 +27105,7 @@
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>26</v>
@@ -27124,25 +27113,25 @@
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="G14" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="H14" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="I14" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="J14" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="K14" s="72" t="s">
         <v>199</v>
-      </c>
-      <c r="K14" s="71" t="s">
-        <v>200</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37" t="s">
@@ -27153,7 +27142,7 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S14" s="37" t="s">
         <v>120</v>
@@ -27172,21 +27161,21 @@
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
       <c r="AE14" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF14" s="41"/>
-      <c r="AG14" s="72" t="s">
-        <v>202</v>
+      <c r="AG14" s="73" t="s">
+        <v>201</v>
       </c>
       <c r="AH14" s="41"/>
       <c r="AI14" s="41"/>
       <c r="AJ14" s="41"/>
-      <c r="AK14" s="73" t="s">
-        <v>203</v>
+      <c r="AK14" s="74" t="s">
+        <v>202</v>
       </c>
       <c r="AL14" s="41"/>
-      <c r="AM14" s="74" t="s">
-        <v>204</v>
+      <c r="AM14" s="75" t="s">
+        <v>203</v>
       </c>
       <c r="AN14" s="21"/>
       <c r="AO14" s="36"/>
@@ -28187,28 +28176,28 @@
     </row>
     <row r="15" customFormat="false" ht="53" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>208</v>
-      </c>
       <c r="G15" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
       <c r="J15" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="76"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37" t="s">
         <v>75</v>
@@ -28238,8 +28227,8 @@
       <c r="AD15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AE15" s="76" t="s">
-        <v>210</v>
+      <c r="AE15" s="77" t="s">
+        <v>209</v>
       </c>
       <c r="AF15" s="41"/>
       <c r="AG15" s="56"/>
@@ -29247,28 +29236,28 @@
     </row>
     <row r="16" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="G16" s="38" t="s">
         <v>213</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>214</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
-      <c r="K16" s="75"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37" t="s">
         <v>100</v>
@@ -29278,7 +29267,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -29288,7 +29277,7 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
@@ -29298,8 +29287,8 @@
       <c r="AD16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AE16" s="76" t="s">
-        <v>217</v>
+      <c r="AE16" s="77" t="s">
+        <v>216</v>
       </c>
       <c r="AF16" s="41"/>
       <c r="AG16" s="56"/>
@@ -30307,15 +30296,15 @@
     </row>
     <row r="17" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="49"/>
@@ -30332,7 +30321,7 @@
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S17" s="37" t="s">
         <v>120</v>
@@ -30348,16 +30337,16 @@
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
-      <c r="AE17" s="76" t="s">
-        <v>221</v>
+      <c r="AE17" s="77" t="s">
+        <v>220</v>
       </c>
       <c r="AF17" s="41"/>
       <c r="AG17" s="56"/>
       <c r="AH17" s="41"/>
       <c r="AI17" s="41"/>
       <c r="AJ17" s="41"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="79"/>
       <c r="AM17" s="60"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="36"/>
@@ -31357,28 +31346,28 @@
     </row>
     <row r="18" customFormat="false" ht="96.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="K18" s="75"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37" t="s">
         <v>100</v>
@@ -31388,7 +31377,7 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S18" s="37" t="s">
         <v>120</v>
@@ -31406,20 +31395,20 @@
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="76" t="s">
-        <v>227</v>
+      <c r="AE18" s="77" t="s">
+        <v>226</v>
       </c>
       <c r="AF18" s="41"/>
       <c r="AG18" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH18" s="41"/>
       <c r="AI18" s="41"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="77" t="s">
-        <v>229</v>
+      <c r="AK18" s="78" t="s">
+        <v>228</v>
       </c>
-      <c r="AL18" s="78"/>
+      <c r="AL18" s="79"/>
       <c r="AM18" s="60"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="36"/>
@@ -32428,7 +32417,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="75"/>
+      <c r="K19" s="76"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -32448,15 +32437,15 @@
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="76"/>
+      <c r="AE19" s="77"/>
       <c r="AF19" s="41"/>
-      <c r="AG19" s="79"/>
+      <c r="AG19" s="80"/>
       <c r="AH19" s="41"/>
       <c r="AI19" s="25"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="73"/>
+      <c r="AK19" s="74"/>
       <c r="AL19" s="41"/>
-      <c r="AM19" s="78"/>
+      <c r="AM19" s="79"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="36"/>
       <c r="AP19" s="36"/>
@@ -32479,7 +32468,7 @@
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>26</v>
@@ -32488,19 +32477,19 @@
         <v>27</v>
       </c>
       <c r="D20" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="F20" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="G20" s="80"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="39"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="37"/>
       <c r="M20" s="43" t="s">
         <v>75</v>
@@ -32510,9 +32499,9 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
-      <c r="S20" s="83"/>
+      <c r="S20" s="84"/>
       <c r="T20" s="37"/>
       <c r="U20" s="36"/>
       <c r="V20" s="37"/>
@@ -32524,8 +32513,8 @@
       <c r="AB20" s="37"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="76" t="s">
-        <v>235</v>
+      <c r="AE20" s="77" t="s">
+        <v>234</v>
       </c>
       <c r="AF20" s="41"/>
       <c r="AG20" s="49"/>
@@ -33534,7 +33523,7 @@
     </row>
     <row r="21" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>26</v>
@@ -33543,19 +33532,19 @@
         <v>27</v>
       </c>
       <c r="D21" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="F21" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="80"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="83"/>
       <c r="L21" s="37"/>
       <c r="M21" s="43" t="s">
         <v>75</v>
@@ -33565,7 +33554,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -33579,11 +33568,11 @@
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
       <c r="AD21" s="37"/>
-      <c r="AE21" s="76" t="s">
+      <c r="AE21" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF21" s="53" t="s">
         <v>240</v>
-      </c>
-      <c r="AF21" s="84" t="s">
-        <v>241</v>
       </c>
       <c r="AG21" s="49"/>
       <c r="AH21" s="49"/>
@@ -34590,7 +34579,7 @@
     </row>
     <row r="22" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>26</v>
@@ -34600,16 +34589,16 @@
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" s="80"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="39"/>
       <c r="I22" s="38"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
       <c r="L22" s="37"/>
       <c r="M22" s="43" t="s">
         <v>75</v>
@@ -34625,7 +34614,7 @@
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U22" s="36"/>
       <c r="V22" s="37" t="s">
@@ -34641,11 +34630,11 @@
       <c r="AB22" s="37"/>
       <c r="AC22" s="37"/>
       <c r="AD22" s="37"/>
-      <c r="AE22" s="76" t="s">
+      <c r="AE22" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF22" s="53" t="s">
         <v>246</v>
-      </c>
-      <c r="AF22" s="84" t="s">
-        <v>247</v>
       </c>
       <c r="AG22" s="49"/>
       <c r="AH22" s="49"/>
@@ -35652,7 +35641,7 @@
     </row>
     <row r="23" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>26</v>
@@ -35662,16 +35651,16 @@
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="80"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="39"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
       <c r="L23" s="37"/>
       <c r="M23" s="43" t="s">
         <v>75</v>
@@ -35687,7 +35676,7 @@
       </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U23" s="36"/>
       <c r="V23" s="37" t="s">
@@ -35703,11 +35692,11 @@
       <c r="AB23" s="37"/>
       <c r="AC23" s="37"/>
       <c r="AD23" s="37"/>
-      <c r="AE23" s="76" t="s">
-        <v>251</v>
+      <c r="AE23" s="77" t="s">
+        <v>250</v>
       </c>
-      <c r="AF23" s="84" t="s">
-        <v>247</v>
+      <c r="AF23" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="AG23" s="49"/>
       <c r="AH23" s="49"/>
@@ -36714,7 +36703,7 @@
     </row>
     <row r="24" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>26</v>
@@ -36724,16 +36713,16 @@
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="39"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
       <c r="L24" s="37"/>
       <c r="M24" s="43" t="s">
         <v>75</v>
@@ -36745,7 +36734,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -36761,11 +36750,11 @@
       <c r="AB24" s="37"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="37"/>
-      <c r="AE24" s="76" t="s">
-        <v>255</v>
+      <c r="AE24" s="77" t="s">
+        <v>254</v>
       </c>
-      <c r="AF24" s="84" t="s">
-        <v>247</v>
+      <c r="AF24" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="AG24" s="49"/>
       <c r="AH24" s="49"/>
@@ -37772,7 +37761,7 @@
     </row>
     <row r="25" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>26</v>
@@ -37781,19 +37770,19 @@
         <v>27</v>
       </c>
       <c r="D25" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="F25" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="39"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37" t="s">
         <v>100</v>
@@ -37811,18 +37800,18 @@
       <c r="V25" s="37"/>
       <c r="W25" s="36"/>
       <c r="X25" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
       <c r="AC25" s="37"/>
       <c r="AD25" s="37"/>
-      <c r="AE25" s="76" t="s">
-        <v>261</v>
+      <c r="AE25" s="77" t="s">
+        <v>260</v>
       </c>
       <c r="AF25" s="41"/>
       <c r="AG25" s="49"/>
@@ -38839,7 +38828,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="75"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
@@ -38859,15 +38848,15 @@
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
       <c r="AD26" s="37"/>
-      <c r="AE26" s="76"/>
+      <c r="AE26" s="77"/>
       <c r="AF26" s="41"/>
-      <c r="AG26" s="79"/>
+      <c r="AG26" s="80"/>
       <c r="AH26" s="41"/>
       <c r="AI26" s="25"/>
       <c r="AJ26" s="41"/>
-      <c r="AK26" s="73"/>
+      <c r="AK26" s="74"/>
       <c r="AL26" s="41"/>
-      <c r="AM26" s="78"/>
+      <c r="AM26" s="79"/>
       <c r="AN26" s="21"/>
       <c r="AO26" s="36"/>
       <c r="AP26" s="36"/>
@@ -39875,7 +39864,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="75"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -39895,15 +39884,15 @@
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
       <c r="AD27" s="37"/>
-      <c r="AE27" s="76"/>
+      <c r="AE27" s="77"/>
       <c r="AF27" s="41"/>
-      <c r="AG27" s="79"/>
+      <c r="AG27" s="80"/>
       <c r="AH27" s="41"/>
       <c r="AI27" s="25"/>
       <c r="AJ27" s="41"/>
-      <c r="AK27" s="73"/>
+      <c r="AK27" s="74"/>
       <c r="AL27" s="41"/>
-      <c r="AM27" s="78"/>
+      <c r="AM27" s="79"/>
       <c r="AN27" s="21"/>
       <c r="AO27" s="36"/>
       <c r="AP27" s="36"/>
@@ -40911,7 +40900,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="75"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
@@ -40931,15 +40920,15 @@
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
       <c r="AD28" s="37"/>
-      <c r="AE28" s="76"/>
+      <c r="AE28" s="77"/>
       <c r="AF28" s="41"/>
-      <c r="AG28" s="79"/>
+      <c r="AG28" s="80"/>
       <c r="AH28" s="41"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="41"/>
-      <c r="AK28" s="73"/>
+      <c r="AK28" s="74"/>
       <c r="AL28" s="41"/>
-      <c r="AM28" s="78"/>
+      <c r="AM28" s="79"/>
       <c r="AN28" s="21"/>
       <c r="AO28" s="36"/>
       <c r="AP28" s="36"/>
@@ -41947,7 +41936,7 @@
       <c r="H29" s="39"/>
       <c r="I29" s="38"/>
       <c r="J29" s="39"/>
-      <c r="K29" s="75"/>
+      <c r="K29" s="76"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
@@ -41967,15 +41956,15 @@
       <c r="AB29" s="37"/>
       <c r="AC29" s="37"/>
       <c r="AD29" s="37"/>
-      <c r="AE29" s="76"/>
+      <c r="AE29" s="77"/>
       <c r="AF29" s="41"/>
-      <c r="AG29" s="79"/>
+      <c r="AG29" s="80"/>
       <c r="AH29" s="41"/>
       <c r="AI29" s="25"/>
       <c r="AJ29" s="41"/>
-      <c r="AK29" s="73"/>
+      <c r="AK29" s="74"/>
       <c r="AL29" s="41"/>
-      <c r="AM29" s="78"/>
+      <c r="AM29" s="79"/>
       <c r="AN29" s="21"/>
       <c r="AO29" s="36"/>
       <c r="AP29" s="36"/>
@@ -42983,7 +42972,7 @@
       <c r="H30" s="39"/>
       <c r="I30" s="38"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="75"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -43003,15 +42992,15 @@
       <c r="AB30" s="37"/>
       <c r="AC30" s="37"/>
       <c r="AD30" s="37"/>
-      <c r="AE30" s="76"/>
+      <c r="AE30" s="77"/>
       <c r="AF30" s="41"/>
-      <c r="AG30" s="79"/>
+      <c r="AG30" s="80"/>
       <c r="AH30" s="41"/>
       <c r="AI30" s="25"/>
       <c r="AJ30" s="41"/>
-      <c r="AK30" s="73"/>
+      <c r="AK30" s="74"/>
       <c r="AL30" s="41"/>
-      <c r="AM30" s="78"/>
+      <c r="AM30" s="79"/>
       <c r="AN30" s="21"/>
       <c r="AO30" s="36"/>
       <c r="AP30" s="36"/>
@@ -44019,7 +44008,7 @@
       <c r="H31" s="39"/>
       <c r="I31" s="38"/>
       <c r="J31" s="39"/>
-      <c r="K31" s="75"/>
+      <c r="K31" s="76"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -44039,15 +44028,15 @@
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="37"/>
-      <c r="AE31" s="76"/>
+      <c r="AE31" s="77"/>
       <c r="AF31" s="41"/>
-      <c r="AG31" s="79"/>
+      <c r="AG31" s="80"/>
       <c r="AH31" s="41"/>
       <c r="AI31" s="25"/>
       <c r="AJ31" s="41"/>
-      <c r="AK31" s="73"/>
+      <c r="AK31" s="74"/>
       <c r="AL31" s="41"/>
-      <c r="AM31" s="78"/>
+      <c r="AM31" s="79"/>
       <c r="AN31" s="21"/>
       <c r="AO31" s="36"/>
       <c r="AP31" s="36"/>
@@ -45055,7 +45044,7 @@
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="75"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
@@ -45075,15 +45064,15 @@
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="37"/>
-      <c r="AE32" s="76"/>
+      <c r="AE32" s="77"/>
       <c r="AF32" s="41"/>
-      <c r="AG32" s="79"/>
+      <c r="AG32" s="80"/>
       <c r="AH32" s="41"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="41"/>
-      <c r="AK32" s="73"/>
+      <c r="AK32" s="74"/>
       <c r="AL32" s="41"/>
-      <c r="AM32" s="78"/>
+      <c r="AM32" s="79"/>
       <c r="AN32" s="21"/>
       <c r="AO32" s="36"/>
       <c r="AP32" s="36"/>
@@ -46091,7 +46080,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="75"/>
+      <c r="K33" s="76"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -46111,15 +46100,15 @@
       <c r="AB33" s="37"/>
       <c r="AC33" s="37"/>
       <c r="AD33" s="37"/>
-      <c r="AE33" s="76"/>
+      <c r="AE33" s="77"/>
       <c r="AF33" s="41"/>
-      <c r="AG33" s="79"/>
+      <c r="AG33" s="80"/>
       <c r="AH33" s="41"/>
       <c r="AI33" s="25"/>
       <c r="AJ33" s="41"/>
-      <c r="AK33" s="73"/>
+      <c r="AK33" s="74"/>
       <c r="AL33" s="41"/>
-      <c r="AM33" s="78"/>
+      <c r="AM33" s="79"/>
       <c r="AN33" s="21"/>
       <c r="AO33" s="36"/>
       <c r="AP33" s="36"/>
@@ -47127,7 +47116,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="38"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="75"/>
+      <c r="K34" s="76"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -47147,15 +47136,15 @@
       <c r="AB34" s="37"/>
       <c r="AC34" s="37"/>
       <c r="AD34" s="37"/>
-      <c r="AE34" s="76"/>
+      <c r="AE34" s="77"/>
       <c r="AF34" s="41"/>
-      <c r="AG34" s="79"/>
+      <c r="AG34" s="80"/>
       <c r="AH34" s="41"/>
       <c r="AI34" s="25"/>
       <c r="AJ34" s="41"/>
-      <c r="AK34" s="73"/>
+      <c r="AK34" s="74"/>
       <c r="AL34" s="41"/>
-      <c r="AM34" s="78"/>
+      <c r="AM34" s="79"/>
       <c r="AN34" s="21"/>
       <c r="AO34" s="36"/>
       <c r="AP34" s="36"/>
@@ -48163,7 +48152,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="38"/>
       <c r="J35" s="39"/>
-      <c r="K35" s="75"/>
+      <c r="K35" s="76"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -48183,15 +48172,15 @@
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
-      <c r="AE35" s="76"/>
+      <c r="AE35" s="77"/>
       <c r="AF35" s="41"/>
-      <c r="AG35" s="79"/>
+      <c r="AG35" s="80"/>
       <c r="AH35" s="41"/>
       <c r="AI35" s="25"/>
       <c r="AJ35" s="41"/>
-      <c r="AK35" s="73"/>
+      <c r="AK35" s="74"/>
       <c r="AL35" s="41"/>
-      <c r="AM35" s="78"/>
+      <c r="AM35" s="79"/>
       <c r="AN35" s="21"/>
       <c r="AO35" s="36"/>
       <c r="AP35" s="36"/>
@@ -49199,7 +49188,7 @@
       <c r="H36" s="39"/>
       <c r="I36" s="38"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="75"/>
+      <c r="K36" s="76"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
@@ -49219,15 +49208,15 @@
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="37"/>
-      <c r="AE36" s="76"/>
+      <c r="AE36" s="77"/>
       <c r="AF36" s="41"/>
-      <c r="AG36" s="79"/>
+      <c r="AG36" s="80"/>
       <c r="AH36" s="41"/>
       <c r="AI36" s="25"/>
       <c r="AJ36" s="41"/>
-      <c r="AK36" s="73"/>
+      <c r="AK36" s="74"/>
       <c r="AL36" s="41"/>
-      <c r="AM36" s="78"/>
+      <c r="AM36" s="79"/>
       <c r="AN36" s="21"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
@@ -50235,7 +50224,7 @@
       <c r="H37" s="39"/>
       <c r="I37" s="38"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="75"/>
+      <c r="K37" s="76"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
@@ -50255,15 +50244,15 @@
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
       <c r="AD37" s="37"/>
-      <c r="AE37" s="76"/>
+      <c r="AE37" s="77"/>
       <c r="AF37" s="41"/>
-      <c r="AG37" s="79"/>
+      <c r="AG37" s="80"/>
       <c r="AH37" s="41"/>
       <c r="AI37" s="25"/>
       <c r="AJ37" s="41"/>
-      <c r="AK37" s="73"/>
+      <c r="AK37" s="74"/>
       <c r="AL37" s="41"/>
-      <c r="AM37" s="78"/>
+      <c r="AM37" s="79"/>
       <c r="AN37" s="21"/>
       <c r="AO37" s="36"/>
       <c r="AP37" s="36"/>
@@ -51271,7 +51260,7 @@
       <c r="H38" s="39"/>
       <c r="I38" s="38"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="75"/>
+      <c r="K38" s="76"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
@@ -51291,15 +51280,15 @@
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="37"/>
-      <c r="AE38" s="76"/>
+      <c r="AE38" s="77"/>
       <c r="AF38" s="41"/>
-      <c r="AG38" s="79"/>
+      <c r="AG38" s="80"/>
       <c r="AH38" s="41"/>
       <c r="AI38" s="25"/>
       <c r="AJ38" s="41"/>
-      <c r="AK38" s="73"/>
+      <c r="AK38" s="74"/>
       <c r="AL38" s="41"/>
-      <c r="AM38" s="78"/>
+      <c r="AM38" s="79"/>
       <c r="AN38" s="21"/>
       <c r="AO38" s="36"/>
       <c r="AP38" s="36"/>
@@ -52307,7 +52296,7 @@
       <c r="H39" s="39"/>
       <c r="I39" s="38"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="75"/>
+      <c r="K39" s="76"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
@@ -52327,15 +52316,15 @@
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="37"/>
-      <c r="AE39" s="76"/>
+      <c r="AE39" s="77"/>
       <c r="AF39" s="41"/>
-      <c r="AG39" s="79"/>
+      <c r="AG39" s="80"/>
       <c r="AH39" s="41"/>
       <c r="AI39" s="25"/>
       <c r="AJ39" s="41"/>
-      <c r="AK39" s="73"/>
+      <c r="AK39" s="74"/>
       <c r="AL39" s="41"/>
-      <c r="AM39" s="78"/>
+      <c r="AM39" s="79"/>
       <c r="AN39" s="21"/>
       <c r="AO39" s="36"/>
       <c r="AP39" s="36"/>
@@ -53343,7 +53332,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="38"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="75"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
@@ -53363,15 +53352,15 @@
       <c r="AB40" s="37"/>
       <c r="AC40" s="37"/>
       <c r="AD40" s="37"/>
-      <c r="AE40" s="76"/>
+      <c r="AE40" s="77"/>
       <c r="AF40" s="41"/>
-      <c r="AG40" s="79"/>
+      <c r="AG40" s="80"/>
       <c r="AH40" s="41"/>
       <c r="AI40" s="25"/>
       <c r="AJ40" s="41"/>
-      <c r="AK40" s="73"/>
+      <c r="AK40" s="74"/>
       <c r="AL40" s="41"/>
-      <c r="AM40" s="78"/>
+      <c r="AM40" s="79"/>
       <c r="AN40" s="21"/>
       <c r="AO40" s="36"/>
       <c r="AP40" s="36"/>
@@ -54399,15 +54388,15 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12"/>
-      <c r="AE41" s="53"/>
-      <c r="AF41" s="53"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
       <c r="AG41" s="41"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="41"/>
       <c r="AJ41" s="15"/>
-      <c r="AK41" s="53"/>
+      <c r="AK41" s="66"/>
       <c r="AL41" s="15"/>
-      <c r="AM41" s="53"/>
+      <c r="AM41" s="66"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="14"/>
       <c r="AP41" s="14"/>
@@ -54458,15 +54447,15 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
       <c r="AG42" s="41"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="41"/>
       <c r="AJ42" s="15"/>
-      <c r="AK42" s="53"/>
+      <c r="AK42" s="66"/>
       <c r="AL42" s="15"/>
-      <c r="AM42" s="53"/>
+      <c r="AM42" s="66"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -54517,15 +54506,15 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
       <c r="AG43" s="41"/>
       <c r="AH43" s="15"/>
       <c r="AI43" s="41"/>
       <c r="AJ43" s="15"/>
-      <c r="AK43" s="53"/>
+      <c r="AK43" s="66"/>
       <c r="AL43" s="15"/>
-      <c r="AM43" s="53"/>
+      <c r="AM43" s="66"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -54576,15 +54565,15 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
       <c r="AD44" s="12"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
       <c r="AG44" s="41"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="41"/>
       <c r="AJ44" s="15"/>
-      <c r="AK44" s="53"/>
+      <c r="AK44" s="66"/>
       <c r="AL44" s="15"/>
-      <c r="AM44" s="53"/>
+      <c r="AM44" s="66"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
@@ -56988,7 +56977,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="AT11:AT12 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57003,14 +56992,14 @@
         <v>75</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57018,14 +57007,14 @@
         <v>100</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -57033,67 +57022,67 @@
         <v>38</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="87" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87" t="s">
-        <v>268</v>
-      </c>
       <c r="B4" s="87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E4" s="86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="88" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88" t="s">
+      <c r="B5" s="88" t="s">
         <v>270</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>271</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E5" s="86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="88" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
+      <c r="B6" s="88" t="s">
         <v>273</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>274</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="88" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
+      <c r="B7" s="88" t="s">
         <v>276</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>277</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="273">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -340,16 +340,6 @@
     <t xml:space="preserve">【展開時】あなたは捨て札を好きな枚数だけ伏せ札にする。
 【展開中】あなたが伏せ札から使用するカードの矢印は両矢印（⇔）になる。
 【展開中/使用済】山札を再構成する直前に設置を持つ《攻撃》でないカードを追加で1枚伏せ札から使用できる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">终端　距离限制（0-7） 
-【使用时/使用后】使用时和你要重铸牌库之前，你可以公开你弃牌或者手牌中的一张八叶的牌并将其变为完全态。若如此做，令你畏缩。 
-（例如将手牌中的『星之爪』公开的话就和追加牌区的『星辰之钩爪』作交换并加入手牌。）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">종단 간격제한(0-7)
-【사용시/사용됨】사용시와 당신이 패산을 재구성하기 직전에, 당신의 버림패 또는 손패에 있는 야츠하의 카드를 1장 공개하고, 완전태로 만들어도 된다. 그렇게 했다면, 당신은 위축된다.
-(「별의 손톱」이라면, 「성신의 갈퀴손」을 동일한 영역에 교환한다.)</t>
   </si>
   <si>
     <t xml:space="preserve">07-shinra-A1-n-7</t>
@@ -1472,1143 +1462,6 @@
 開始フェイズと同様の手順であなたの裂傷トークンを全てダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り捨て）に等しい』を行う。</t>
   </si>
   <si>
-    <t xml:space="preserve">【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。
-选择任意个区域，将这些区域中你放置的裂伤指示物以任意顺序伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向上取整）”的攻击。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">상시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">】 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">카드가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대응하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">있다면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">해결한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">후에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">카드의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">효과를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">해결한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">임의의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">수의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">영역을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">고른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">뒤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">곳에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">놓인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">당신의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">열상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">토큰을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">원하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">순서대로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">데미지화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 『</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">적정거리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 1-4, 2/1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">대응불가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">통상패</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">), 【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">상시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">】 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">공격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> +0/+X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">된다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">. X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">턴에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">당신이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">데미지를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">받은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">횟수의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">절반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">올림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">같다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">.』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">수행한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">22-renri-a1-n-2</t>
   </si>
   <si>
@@ -2777,7 +1630,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3041,13 +1894,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic Semilight"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3152,7 +1998,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3249,6 +2095,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3257,15 +2107,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3289,12 +2135,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3429,7 +2283,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3441,7 +2295,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3497,7 +2351,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19017,11 +17871,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AN1" activeCellId="0" sqref="AN1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT7" activeCellId="0" sqref="AT7"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19261,26 +18115,22 @@
         <v>80</v>
       </c>
       <c r="AF2" s="23"/>
-      <c r="AG2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="26"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="27"/>
       <c r="AQ2" s="27"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
       <c r="AT2" s="28" t="str">
         <f aca="false">IF( A2 = "", "", "'" &amp; A2 &amp; "': {megami: '" &amp; B2 &amp; "'" &amp; IF( C2 &lt;&gt; "", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E2, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K2, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G2, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H2, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J2, "'", "\'" ) &amp; "', ruby: '" &amp; F2 &amp; "', rubyEn: '" &amp; L2 &amp; "', baseType: '" &amp; VLOOKUP( M2, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N2 = "○", ", extra: true", "" ) &amp; IF( O2 &lt;&gt; "", ", extraFrom: '" &amp; O2 &amp; "'", "" ) &amp; IF( P2 &lt;&gt; "", ", exchangabaleTo: '" &amp; P2 &amp; "'", "" ) &amp; IF( Q2 = "○", ", poison: true", "" ) &amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T2 &lt;&gt; "", ", range: '" &amp; T2 &amp; "'" &amp; IF( U2 &lt;&gt; "", ", rangeOpened: '" &amp; U2 &amp; "'", "" ), "" ) &amp; IF( V2 &lt;&gt; "", ", damage: '" &amp; V2 &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", damageOpened: '" &amp; W2 &amp; "'", "" ), "" ) &amp; IF( X2 &lt;&gt; "", ", capacity: '" &amp; X2 &amp; "'", "" ) &amp; IF( Y2 &lt;&gt; "", ", cost: '" &amp; Y2 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z2 = "○", ", sealable: true", "" ) &amp; IF( AA2 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', nameEn: 'Preparation / Fake Out', nameZh: '预演 / 猫骗', nameZhG1: '匍匐/猫跳', nameKo: '숨긴 불꽃 / 손뼉치기', ruby: '', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-6', rangeOpened: '0-1', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】傘の開閉を行ってもよい。', textZh: '【攻撃後】傘の開閉を行ってもよい。', textZhG1: '', textKo: '', textEn: '', textOpened: '【攻撃後】傘の開閉を行ってもよい。', textOpenedZh: '', textOpenedZhG1: '', textOpenedKo: '', textOpenedEn: ''},</v>
+        <v>'06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', nameEn: 'Preparation / Fake Out', nameZh: '预演 / 猫骗', nameZhG1: '匍匐/猫跳', nameKo: '숨긴 불꽃 / 손뼉치기', ruby: '', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-6', rangeOpened: '0-1', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】傘の開閉を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', textOpened: '', textOpenedZh: '', textOpenedZhG1: '', textOpenedKo: '', textOpenedEn: ''},</v>
       </c>
       <c r="AU2" s="29" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
@@ -20331,16 +19181,16 @@
       <c r="AF3" s="21"/>
       <c r="AG3" s="33"/>
       <c r="AH3" s="21"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="35"/>
-      <c r="AM3" s="26"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="36"/>
+      <c r="AM3" s="37"/>
       <c r="AN3" s="21"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
       <c r="AT3" s="28" t="str">
         <f aca="false">IF(A3="", "","'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"},")</f>
         <v>'02-saine-A2-n-2': {megami: 'saine', anotherID: 'A2', replace: '02-saine-o-n-2', name: '裏斬り', nameEn: 'Treachery', nameZh: '里斩', nameZhG1: '', nameKo: '등 베기', ruby: 'うらぎり', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-5', damage: '3/1', text: '対応不可（切札）\n【常時】この《攻撃》が行われた時、相手のオーラが1以下ならば、この《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -20355,82 +19205,78 @@
       </c>
     </row>
     <row r="4" s="31" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37" t="s">
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AE4" s="41" t="s">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AE4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="33" t="s">
-        <v>105</v>
-      </c>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="33"/>
       <c r="AH4" s="21"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM4" s="42"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="36"/>
+      <c r="AM4" s="44"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
       <c r="AT4" s="28" t="str">
         <f aca="false">IF(A4="", "","'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"},")</f>
-        <v>'05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', nameEn: 'Uro-Uo', nameZh: '虚鱼', nameZhG1: '虚鱼', nameKo: '우로우오', ruby: 'うろうお', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '2', text: '【展開時】あなたは捨て札を好きな枚数だけ伏せ札にする。\n【展開中】あなたが伏せ札から使用するカードの矢印は両矢印（⇔）になる。\n【展開中/使用済】山札を再構成する直前に設置を持つ《攻撃》でないカードを追加で1枚伏せ札から使用できる。', textZh: '终端　距离限制（0-7） \n【使用时/使用后】使用时和你要重铸牌库之前，你可以公开你弃牌或者手牌中的一张八叶的牌并将其变为完全态。若如此做，令你畏缩。 \n（例如将手牌中的『星之爪』公开的话就和追加牌区的『星辰之钩爪』作交换并加入手牌。）', textZhG1: '', textKo: '종단 간격제한(0-7)\n【사용시/사용됨】사용시와 당신이 패산을 재구성하기 직전에, 당신의 버림패 또는 손패에 있는 야츠하의 카드를 1장 공개하고, 완전태로 만들어도 된다. 그렇게 했다면, 당신은 위축된다.\n(「별의 손톱」이라면, 「성신의 갈퀴손」을 동일한 영역에 교환한다.)', textEn: ''},</v>
+        <v>'05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', nameEn: 'Uro-Uo', nameZh: '虚鱼', nameZhG1: '虚鱼', nameKo: '우로우오', ruby: 'うろうお', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '2', text: '【展開時】あなたは捨て札を好きな枚数だけ伏せ札にする。\n【展開中】あなたが伏せ札から使用するカードの矢印は両矢印（⇔）になる。\n【展開中/使用済】山札を再構成する直前に設置を持つ《攻撃》でないカードを追加で1枚伏せ札から使用できる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU4" s="29" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    /** 《"&amp;$E4&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A4, 3, 1)="-", RIGHT($A4,LEN($A4)-3), $A4)), "-", "_")&amp;": TCardId = '"&amp;$A4&amp;"';", "")</f>
@@ -20442,77 +19288,77 @@
       </c>
     </row>
     <row r="5" s="31" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="F5" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="G5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="K5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>110</v>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45" t="s">
+        <v>75</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>110</v>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45" t="s">
+        <v>101</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="43" t="s">
+      <c r="S5" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="T5" s="45"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AE5" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AE5" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF5" s="48"/>
+      <c r="AF5" s="50"/>
       <c r="AG5" s="33"/>
       <c r="AH5" s="21"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="35"/>
-      <c r="AM5" s="42"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+      <c r="AM5" s="44"/>
       <c r="AN5" s="21"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
       <c r="AT5" s="28" t="str">
         <f aca="false">IF(A5="", "","'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"},")</f>
         <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '【展開時】集中力を1支払い、計略を準備してもよい。\n【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離0, 2, 4、2/1、不可避、【攻撃後】相手は手札から1枚と捨て札か伏せ札から1枚を選び、それらを山札の底に任意の順番で置く』を行う。\n[鬼謀] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -20528,26 +19374,26 @@
     </row>
     <row r="6" s="31" customFormat="true" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="45" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="12"/>
@@ -20558,10 +19404,10 @@
         <v>76</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="12" t="s">
@@ -20573,24 +19419,24 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-      <c r="AE6" s="52" t="s">
-        <v>122</v>
+      <c r="AE6" s="54" t="s">
+        <v>120</v>
       </c>
-      <c r="AF6" s="53" t="s">
-        <v>123</v>
+      <c r="AF6" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="AG6" s="33"/>
       <c r="AH6" s="21"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="35"/>
-      <c r="AM6" s="42"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="36"/>
+      <c r="AM6" s="44"/>
       <c r="AN6" s="21"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
       <c r="AT6" s="28" t="str">
         <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
         <v>'09-chikage-o-n-4': {megami: 'chikage', name: '暗器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あんき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-5', damage: '1/1', text: '全力化：【常時】この《攻撃》は+1/+2となる。\n全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。\n【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。', textAdditional: '（毒袋領域を右クリックすることで、相手に毒袋の中身を見せることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -20606,33 +19452,33 @@
     </row>
     <row r="7" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>128</v>
-      </c>
       <c r="J7" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
@@ -20647,7 +19493,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U7" s="32"/>
       <c r="V7" s="12" t="s">
@@ -20662,22 +19508,22 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="56"/>
+      <c r="AG7" s="58"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="56"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="58"/>
       <c r="AN7" s="32"/>
       <c r="AO7" s="32"/>
       <c r="AP7" s="32"/>
       <c r="AQ7" s="32"/>
       <c r="AR7" s="32"/>
-      <c r="AS7" s="36"/>
+      <c r="AS7" s="38"/>
       <c r="AT7" s="28" t="str">
         <f aca="false">IF(A7="", "","'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"},")</f>
         <v>'11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', nameEn: 'Steam Cannon', nameZh: 'Steam Cannon', nameZhG1: 'Steam Cannon', nameKo: 'Steam Cannon', ruby: 'スチームカノン', rubyEn: '', rubyZh: '蒸汽大炮', baseType: 'normal', type: 'attack', range: '3-7', damage: '1/1', text: '燃焼\n全力化：【常時】この《攻撃》は距離拡大（近1）と距離拡大（遠1）を得て、 +2/+2 となる。\n【攻撃後】 全力化していないならば、あなた の燃焼済の造花結晶を2つ回復する。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -21675,35 +20521,35 @@
     </row>
     <row r="8" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>137</v>
+      <c r="K8" s="61" t="s">
+        <v>135</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
@@ -21714,7 +20560,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -21731,26 +20577,26 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
-      <c r="AG8" s="56"/>
+      <c r="AG8" s="58"/>
       <c r="AH8" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI8" s="21"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="60"/>
+      <c r="AK8" s="62"/>
       <c r="AL8" s="21"/>
-      <c r="AM8" s="60"/>
+      <c r="AM8" s="62"/>
       <c r="AN8" s="32"/>
       <c r="AO8" s="32"/>
       <c r="AP8" s="32"/>
       <c r="AQ8" s="32"/>
       <c r="AR8" s="32"/>
-      <c r="AS8" s="36"/>
+      <c r="AS8" s="38"/>
       <c r="AT8" s="28" t="str">
         <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
         <v>'10-kururu-A1-s-3': {megami: 'kururu', anotherID: 'A1', replace: '10-kururu-o-s-3', name: 'らすとりさーち', nameEn: 'Last Research', nameZh: '终极探索', nameZhG1: '不懈探索', nameKo: '라스트 리서치', ruby: '', rubyEn: '', rubyZh: 'Last Research', baseType: 'special', type: 'action', cost: '2', text: '----\n&lt;攻&gt; 相手の伏せ札が0枚ならば相手の山札の上から1枚を伏せ札にする。相手は伏せ札から1枚を選ぶ。あなたはカード名を1つ宣言し、相手は選んだカードを捨て札にする。そのカード名が一致したらこのカードの上にゲーム外から桜花結晶を1つ置く。2つになったら世紀の大発見を行う。\n----\n【使用済】あなたが山札を再構成した時ならびに《全力》カードを使用した時、このターンの終了フェイズにこのカードをコストを支払わずに使用してもよい。', textAdditional: '「世紀の大発見」- 相手の切札を全て見る。その後、あなたか対戦相手のどちらかを選び、そのプレイヤーが宿しているメガミの切札の内、眼前構築で選ばれていない切札5枚をゲーム外から未使用状態で得る。 さらに、使用したあなたの「らすとりさーち」を取り除き、追加札領域にある「ぐらんがりばー」を未使用状態で得る。\n（条件を満たした状態で、このカードを右クリックすることにより発動可能）', textZh: '', textZhG1: '', textZhAdditional: '「世纪的大发现」～查看对手的所有王牌。这之后选择你或者对手，将所选玩家寄宿的女神的王牌中在眼前构筑时没有被选上的5张，从游戏外以未使用的状态获得。再将『终极探索』移出游戏并从追加牌区以未使用的状态获得王牌『壮绝旅途』。', textKo: '', textEn: ''},</v>
@@ -22748,31 +21594,31 @@
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="K9" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
@@ -22787,11 +21633,11 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U9" s="32"/>
       <c r="V9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="W9" s="32"/>
       <c r="X9" s="12"/>
@@ -22802,28 +21648,28 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF9" s="3"/>
-      <c r="AG9" s="62" t="s">
-        <v>153</v>
+      <c r="AG9" s="64" t="s">
+        <v>151</v>
       </c>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="34" t="s">
-        <v>154</v>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="35" t="s">
+        <v>152</v>
       </c>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="63" t="s">
-        <v>155</v>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="65" t="s">
+        <v>153</v>
       </c>
       <c r="AN9" s="32"/>
       <c r="AO9" s="32"/>
       <c r="AP9" s="32"/>
       <c r="AQ9" s="32"/>
       <c r="AR9" s="32"/>
-      <c r="AS9" s="36"/>
+      <c r="AS9" s="38"/>
       <c r="AT9" s="28" t="str">
         <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
         <v>'12-raira-o-n-2': {megami: 'raira', name: '風雷撃', nameEn: 'Wind and Thunder', nameZh: '风雷击', nameZhG1: '风雷击', nameKo: '풍뢰격', ruby: 'ふうらいげき', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-2', damage: 'X/2', text: '【常時】Xは風神ゲージと雷神ゲージのうち、小さい方の値である。', textZh: '【常时】X等于风神槽与雷神槽的值中的较小者。', textZhG1: '', textKo: '【상시】X는 풍신 게이지나 뇌신 게이지 중, 작은쪽의 수치가 된다.', textEn: 'Forced: X is equal to the lower of your Wind and Thunder God gauges.'},</v>
@@ -23821,35 +22667,35 @@
     </row>
     <row r="10" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="K10" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -23864,11 +22710,11 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U10" s="32"/>
       <c r="V10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W10" s="32"/>
       <c r="X10" s="12"/>
@@ -23883,21 +22729,21 @@
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF10" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="AF10" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="41"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="43"/>
       <c r="AO10" s="32"/>
       <c r="AP10" s="32"/>
       <c r="AQ10" s="14"/>
@@ -24896,29 +23742,29 @@
     </row>
     <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="37" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="K11" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
@@ -24929,7 +23775,7 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -24945,17 +23791,17 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="66" t="s">
-        <v>176</v>
+      <c r="AE11" s="68" t="s">
+        <v>174</v>
       </c>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="60"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="62"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="62"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="14"/>
       <c r="AP11" s="14"/>
@@ -24980,77 +23826,77 @@
       <c r="AMM11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="F12" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37" t="s">
+      <c r="G12" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="H12" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="K12" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="68" t="s">
-        <v>181</v>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>75</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="U12" s="38"/>
+      <c r="V12" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="38"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="60"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="62"/>
       <c r="AN12" s="21"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
       <c r="AT12" s="28" t="str">
         <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
         <v>'21-kamuwi-o-n-2': {megami: 'kamuwi', name: '散華刃', nameEn: 'Scattering Strike', nameZh: '散华刃', nameZhG1: '散华刃', nameKo: '흩날리는 칼날', ruby: 'さんげじん', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-4', damage: '2/1', text: '(+1) 【常時】この《攻撃》は+1/+0となる。\n----\n(+1) 【攻撃後】相手のオーラが4以下ならば、相オーラ→自オーラ：1', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -26043,75 +24889,75 @@
       <c r="AML12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>178</v>
+      <c r="G13" s="69" t="s">
+        <v>185</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
+      <c r="H13" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="K13" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>187</v>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>100</v>
       </c>
-      <c r="H13" s="68" t="s">
-        <v>187</v>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39" t="s">
+        <v>137</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68" t="s">
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="60"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="62"/>
       <c r="AN13" s="21"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
       <c r="AT13" s="28" t="str">
         <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
         <v>'21-kamuwi-o-s-4': {megami: 'kamuwi', name: '理', nameEn: 'Balance', nameZh: '理', nameZhG1: '理', nameKo: '이치', ruby: 'ことわり', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: '以下を3回まで選ぶ。 同じものを複数回選んでもよい。\n・間合→ダスト：1\n・あなたのライフが8以下ならば、あなたの禁忌ゲージを1上げる。そうした場合、自オーラ→自ライフ：1', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -27104,85 +25950,85 @@
       <c r="AML13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="G14" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="H14" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="I14" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="J14" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="K14" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="L14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="41" t="s">
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="73" t="s">
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="75" t="s">
-        <v>203</v>
-      </c>
       <c r="AN14" s="21"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
       <c r="AT14" s="28" t="str">
         <f aca="false">IF(A14="", "","'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;IF(AA14="○",", lie: true","")&amp;IF(AD14="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-o-n-6': {megami: 'renri', name: '魚吊り', nameEn: 'Motive', nameZh: '吊魚', nameZhG1: '辜毒谄言', nameKo: '낚시질', ruby: 'うおつり', rubyEn: '', rubyZh: '钓鱼', baseType: 'normal', type: 'action', subType: 'reaction', text: '偽証（偽証は対応では行えない）\n間合→自フレア：1', textZh: '伪证（不能用伪证来对应）\n距→1→自气', textZhG1: '', textKo: '위증（위증은 대응으로 사용할 수 없다）\n간격→플레어(자신)：1', textEn: 'Falsehood (You cannot play cards face-down as a Reaction to an attack.)\n\nDistance (1)→ Your Flare', lie: true},</v>
@@ -28175,75 +27021,75 @@
       <c r="AML14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="53" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="F15" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37" t="s">
+      <c r="G15" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="K15" s="78"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="39"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE15" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="S15" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE15" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="60"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="62"/>
       <c r="AN15" s="21"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
       <c r="AT15" s="28" t="str">
         <f aca="false">IF(A15="", "","'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"},")</f>
         <v>'23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '直接金融', nameZhG1: '', nameKo: '직접금융', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '隙　投資券\n【展開時】相オーラ→自オーラ：1\n1以上の集中力を全て支払ってもよい。 そうした場合、この矢印効果をもう1回行う。\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', investable: true},</v>
@@ -29235,75 +28081,75 @@
       <c r="AMK15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37" t="s">
+      <c r="G16" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="K16" s="78"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39" t="s">
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD16" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE16" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="60"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="62"/>
       <c r="AN16" s="21"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
       <c r="AT16" s="28" t="str">
         <f aca="false">IF(A16="", "","'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;IF(AD16="○",", investable: true","")&amp;"},")</f>
         <v>'23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '源上安歧那的妙算', nameZhG1: '', nameKo: '미나카미 아키나의 정확한 계산', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-6）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたのメインフェイズの開始時に、あなたは回収を行う代わりに基本動作《宿し》を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', removable: true, investable: true},</v>
@@ -30295,65 +29141,65 @@
       <c r="AMK16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" s="39"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="60"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="80"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="62"/>
       <c r="AN17" s="21"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
       <c r="AT17" s="28" t="str">
         <f aca="false">IF(A17="", "","'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"},")</f>
         <v>'24-shisui-o-n-7': {megami: 'shisui', name: '黒き絆', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '以下から異なるX個までを選ぶ。Xはあなたがこのターンにダメージを受けた回数に等しい。\n・対応した《攻撃》を +0/-1する。\n・相手を畏縮させる。\n・相手は相手のオーラかフレアかライフから1つ選ぶ。 あなたはそこに裂傷を1与える。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -31345,80 +30191,76 @@
       <c r="AMK17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="96.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38" t="s">
+      <c r="J18" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38" t="s">
+      <c r="K18" s="78"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="39"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="K18" s="76"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="S18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="60"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="62"/>
       <c r="AN18" s="21"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
       <c r="AT18" s="28" t="str">
         <f aca="false">IF(A18="", "","'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;IF(AD18="○",", investable: true","")&amp;"},")</f>
-        <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: '', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', rubyZh: 'Padma', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n開始フェイズと同様の手順であなたの裂傷トークンを全てダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り捨て）に等しい』を行う。', textZh: '【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。\n选择任意个区域，将这些区域中你放置的裂伤指示物以任意顺序伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向上取整）”的攻击。', textZhG1: '', textKo: ' 【상시】 이 카드가 대응하고 있는 《공격》이 있다면, 그 《공격》을 해결한 후에 이 카드의 효과를 해결한다.\n임의의 수의 영역을 고른 뒤 그 곳에 놓인 당신의 열상 토큰을 원하는 순서대로 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴에 당신이 데미지를 받은 횟수의 절반(올림)과 같다.』을 수행한다.', textEn: ''},</v>
+        <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: '', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', rubyZh: 'Padma', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n開始フェイズと同様の手順であなたの裂傷トークンを全てダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り捨て）に等しい』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU18" s="29" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
@@ -32407,51 +31249,51 @@
       <c r="AMK18" s="31"/>
     </row>
     <row r="19" s="31" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="79"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="81"/>
       <c r="AN19" s="21"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
       <c r="AT19" s="28" t="str">
         <f aca="false">IF(A19="", "","'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;IF(AD19="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -32467,69 +31309,69 @@
       <c r="XFD19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="83"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="37" t="s">
+      <c r="S20" s="86"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="S20" s="84"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="49"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="51"/>
       <c r="AN20" s="21"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
       <c r="AT20" s="28" t="str">
         <f aca="false">IF(A20="", "","'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-n-2': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-2', name: '欺瞞の霧', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ぎまんのきり', rubyEn: '', baseType: 'normal', type: 'variable', text: '【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -33522,71 +32364,71 @@
       <c r="XFD20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="83"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="37" t="s">
+      <c r="AF21" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF21" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
       <c r="AT21" s="28" t="str">
         <f aca="false">IF(A21="", "","'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;IF(AD21="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-5', name: '神授', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textAdditional: '（使用済み領域に出し、右クリックすることで効果を発動可能）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -34578,77 +33420,77 @@
       <c r="AMK21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="U22" s="38"/>
+      <c r="V22" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="W22" s="38"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="79" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37" t="s">
+      <c r="AF22" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="U22" s="36"/>
-      <c r="V22" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF22" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
       <c r="AT22" s="28" t="str">
         <f aca="false">IF(A22="", "","'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで3枚目に使うカードが 《攻撃》 カードならば、その《攻撃》は+0/+1となる。\n', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
@@ -35640,77 +34482,77 @@
       <c r="AMK22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
-        <v>247</v>
+      <c r="A23" s="39" t="s">
+        <v>243</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
-        <v>248</v>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
+        <v>244</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>249</v>
+      <c r="F23" s="39" t="s">
+        <v>245</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="43" t="s">
+      <c r="G23" s="83"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37" t="s">
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37" t="s">
-        <v>184</v>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39" t="s">
+        <v>182</v>
       </c>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37" t="s">
+      <c r="U23" s="38"/>
+      <c r="V23" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="W23" s="36"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37" t="s">
+      <c r="W23" s="38"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF23" s="53" t="s">
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
+      <c r="AF23" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
       <c r="AT23" s="28" t="str">
         <f aca="false">IF(A23="", "","'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;IF(AA23="○",", lie: true","")&amp;IF(AD23="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
@@ -36702,73 +35544,73 @@
       <c r="AMK23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
-        <v>251</v>
+      <c r="A24" s="39" t="s">
+        <v>247</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37" t="s">
-        <v>252</v>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>248</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>253</v>
+      <c r="F24" s="39" t="s">
+        <v>249</v>
       </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="43" t="s">
+      <c r="G24" s="83"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37" t="s">
-        <v>139</v>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39" t="s">
+        <v>137</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37" t="s">
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="77" t="s">
-        <v>254</v>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="79" t="s">
+        <v>250</v>
       </c>
-      <c r="AF24" s="53" t="s">
-        <v>246</v>
+      <c r="AF24" s="55" t="s">
+        <v>242</v>
       </c>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
       <c r="AT24" s="28" t="str">
         <f aca="false">IF(A24="", "","'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24="○",", poison: true","")&amp;IF(R24&lt;&gt;"", ", type: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S24&lt;&gt;"",", subType: '"&amp;VLOOKUP(S24,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T24&lt;&gt;"",", range: '"&amp;T24&amp;"'","")&amp;IF(V24&lt;&gt;"",", damage: '"&amp;V24&amp;"'","")&amp;IF(X24&lt;&gt;"",", capacity: '"&amp;X24&amp;"'","")&amp;IF(Y24&lt;&gt;"",", growth: "&amp;Y24&amp;"","")&amp;IF(Z24&lt;&gt;"",", cost: '"&amp;Z24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ24&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL24&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN24&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB24="○",", sealable: true","")&amp;IF(AC24="○",", removable: true","")&amp;IF(AA24="○",", lie: true","")&amp;IF(AD24="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '', textZhG1: '', textKo: '', textEn: '', lie: true},</v>
@@ -37760,73 +36602,73 @@
       <c r="AMK24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>26</v>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39" t="s">
+        <v>255</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="37" t="s">
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="49"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="51"/>
       <c r="AN25" s="21"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
       <c r="AT25" s="28" t="str">
         <f aca="false">IF(A25="", "","'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25="○",", poison: true","")&amp;IF(R25&lt;&gt;"", ", type: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S25&lt;&gt;"",", subType: '"&amp;VLOOKUP(S25,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T25&lt;&gt;"",", range: '"&amp;T25&amp;"'","")&amp;IF(V25&lt;&gt;"",", damage: '"&amp;V25&amp;"'","")&amp;IF(X25&lt;&gt;"",", capacity: '"&amp;X25&amp;"'","")&amp;IF(Y25&lt;&gt;"",", growth: "&amp;Y25&amp;"","")&amp;IF(Z25&lt;&gt;"",", cost: '"&amp;Z25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ25&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL25&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN25&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB25="○",", sealable: true","")&amp;IF(AC25="○",", removable: true","")&amp;IF(AA25="○",", lie: true","")&amp;IF(AD25="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-s-1': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-s-1', name: 'ロルレロラルロ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '＝＝＝＝＝＝＝', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '0', cost: '0', text: '【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。\n【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。\n【展開中】相手が焦燥で受けるダメージが2/1になる。\n【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
@@ -38818,51 +37660,51 @@
       <c r="AMK25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="80"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="79"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="81"/>
       <c r="AN26" s="21"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
       <c r="AT26" s="28" t="str">
         <f aca="false">IF(A26="", "","'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26="○",", poison: true","")&amp;IF(R26&lt;&gt;"", ", type: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S26&lt;&gt;"",", subType: '"&amp;VLOOKUP(S26,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T26&lt;&gt;"",", range: '"&amp;T26&amp;"'","")&amp;IF(V26&lt;&gt;"",", damage: '"&amp;V26&amp;"'","")&amp;IF(X26&lt;&gt;"",", capacity: '"&amp;X26&amp;"'","")&amp;IF(Y26&lt;&gt;"",", growth: "&amp;Y26&amp;"","")&amp;IF(Z26&lt;&gt;"",", cost: '"&amp;Z26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ26&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL26&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN26&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB26="○",", sealable: true","")&amp;IF(AC26="○",", removable: true","")&amp;IF(AA26="○",", lie: true","")&amp;IF(AD26="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -39854,51 +38696,51 @@
       <c r="AMK26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="79"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="81"/>
       <c r="AN27" s="21"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
       <c r="AT27" s="28" t="str">
         <f aca="false">IF(A27="", "","'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27="○",", poison: true","")&amp;IF(R27&lt;&gt;"", ", type: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S27&lt;&gt;"",", subType: '"&amp;VLOOKUP(S27,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T27&lt;&gt;"",", range: '"&amp;T27&amp;"'","")&amp;IF(V27&lt;&gt;"",", damage: '"&amp;V27&amp;"'","")&amp;IF(X27&lt;&gt;"",", capacity: '"&amp;X27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", growth: "&amp;Y27&amp;"","")&amp;IF(Z27&lt;&gt;"",", cost: '"&amp;Z27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ27&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL27&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN27&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB27="○",", sealable: true","")&amp;IF(AC27="○",", removable: true","")&amp;IF(AA27="○",", lie: true","")&amp;IF(AD27="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -40890,51 +39732,51 @@
       <c r="AMK27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="79"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="81"/>
       <c r="AN28" s="21"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
       <c r="AT28" s="28" t="str">
         <f aca="false">IF(A28="", "","'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(Q28="○",", poison: true","")&amp;IF(R28&lt;&gt;"", ", type: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S28&lt;&gt;"",", subType: '"&amp;VLOOKUP(S28,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T28&lt;&gt;"",", range: '"&amp;T28&amp;"'","")&amp;IF(V28&lt;&gt;"",", damage: '"&amp;V28&amp;"'","")&amp;IF(X28&lt;&gt;"",", capacity: '"&amp;X28&amp;"'","")&amp;IF(Y28&lt;&gt;"",", growth: "&amp;Y28&amp;"","")&amp;IF(Z28&lt;&gt;"",", cost: '"&amp;Z28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ28&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL28&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN28&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB28="○",", sealable: true","")&amp;IF(AC28="○",", removable: true","")&amp;IF(AA28="○",", lie: true","")&amp;IF(AD28="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -41926,51 +40768,51 @@
       <c r="AMK28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="79"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="81"/>
       <c r="AN29" s="21"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
       <c r="AT29" s="28" t="str">
         <f aca="false">IF(A29="", "","'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(Q29="○",", poison: true","")&amp;IF(R29&lt;&gt;"", ", type: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S29&lt;&gt;"",", subType: '"&amp;VLOOKUP(S29,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T29&lt;&gt;"",", range: '"&amp;T29&amp;"'","")&amp;IF(V29&lt;&gt;"",", damage: '"&amp;V29&amp;"'","")&amp;IF(X29&lt;&gt;"",", capacity: '"&amp;X29&amp;"'","")&amp;IF(Y29&lt;&gt;"",", growth: "&amp;Y29&amp;"","")&amp;IF(Z29&lt;&gt;"",", cost: '"&amp;Z29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ29&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL29&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN29&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB29="○",", sealable: true","")&amp;IF(AC29="○",", removable: true","")&amp;IF(AA29="○",", lie: true","")&amp;IF(AD29="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -42962,51 +41804,51 @@
       <c r="AMK29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="79"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="81"/>
       <c r="AN30" s="21"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
       <c r="AT30" s="28" t="str">
         <f aca="false">IF(A30="", "","'"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"",", anotherID: '"&amp;C30&amp;"', replace: '"&amp;D30&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E30,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K30,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G30,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H30,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J30,"'","\'")&amp;"', ruby: '"&amp;F30&amp;"', rubyEn: '"&amp;L30&amp;IF(I30&lt;&gt;"", "', rubyZh: '"&amp;I30, "")&amp;"', baseType: '"&amp;VLOOKUP(M30,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N30="○",", extra: true","")&amp;IF(O30&lt;&gt;"",", extraFrom: '"&amp;O30&amp;"'","")&amp;IF(P30&lt;&gt;"",", exchangableTo: '"&amp;P30&amp;"'","")&amp;IF(Q30="○",", poison: true","")&amp;IF(R30&lt;&gt;"", ", type: '"&amp;VLOOKUP(R30,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S30&lt;&gt;"",", subType: '"&amp;VLOOKUP(S30,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T30&lt;&gt;"",", range: '"&amp;T30&amp;"'","")&amp;IF(V30&lt;&gt;"",", damage: '"&amp;V30&amp;"'","")&amp;IF(X30&lt;&gt;"",", capacity: '"&amp;X30&amp;"'","")&amp;IF(Y30&lt;&gt;"",", growth: "&amp;Y30&amp;"","")&amp;IF(Z30&lt;&gt;"",", cost: '"&amp;Z30&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE30, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF30&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH30&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ30&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL30&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN30&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB30="○",", sealable: true","")&amp;IF(AC30="○",", removable: true","")&amp;IF(AA30="○",", lie: true","")&amp;IF(AD30="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -43998,51 +42840,51 @@
       <c r="AMK30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="74"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="79"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="81"/>
       <c r="AN31" s="21"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
       <c r="AT31" s="28" t="str">
         <f aca="false">IF(A31="", "","'"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"",", anotherID: '"&amp;C31&amp;"', replace: '"&amp;D31&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E31,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K31,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G31,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H31,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J31,"'","\'")&amp;"', ruby: '"&amp;F31&amp;"', rubyEn: '"&amp;L31&amp;IF(I31&lt;&gt;"", "', rubyZh: '"&amp;I31, "")&amp;"', baseType: '"&amp;VLOOKUP(M31,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N31="○",", extra: true","")&amp;IF(O31&lt;&gt;"",", extraFrom: '"&amp;O31&amp;"'","")&amp;IF(P31&lt;&gt;"",", exchangableTo: '"&amp;P31&amp;"'","")&amp;IF(Q31="○",", poison: true","")&amp;IF(R31&lt;&gt;"", ", type: '"&amp;VLOOKUP(R31,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S31&lt;&gt;"",", subType: '"&amp;VLOOKUP(S31,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T31&lt;&gt;"",", range: '"&amp;T31&amp;"'","")&amp;IF(V31&lt;&gt;"",", damage: '"&amp;V31&amp;"'","")&amp;IF(X31&lt;&gt;"",", capacity: '"&amp;X31&amp;"'","")&amp;IF(Y31&lt;&gt;"",", growth: "&amp;Y31&amp;"","")&amp;IF(Z31&lt;&gt;"",", cost: '"&amp;Z31&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE31, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF31&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH31&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ31&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL31&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN31&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB31="○",", sealable: true","")&amp;IF(AC31="○",", removable: true","")&amp;IF(AA31="○",", lie: true","")&amp;IF(AD31="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -45034,51 +43876,51 @@
       <c r="AMK31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="74"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="79"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="81"/>
       <c r="AN32" s="21"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="38"/>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
       <c r="AT32" s="28" t="str">
         <f aca="false">IF(A32="", "","'"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"",", anotherID: '"&amp;C32&amp;"', replace: '"&amp;D32&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E32,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K32,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G32,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H32,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J32,"'","\'")&amp;"', ruby: '"&amp;F32&amp;"', rubyEn: '"&amp;L32&amp;IF(I32&lt;&gt;"", "', rubyZh: '"&amp;I32, "")&amp;"', baseType: '"&amp;VLOOKUP(M32,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N32="○",", extra: true","")&amp;IF(O32&lt;&gt;"",", extraFrom: '"&amp;O32&amp;"'","")&amp;IF(P32&lt;&gt;"",", exchangableTo: '"&amp;P32&amp;"'","")&amp;IF(Q32="○",", poison: true","")&amp;IF(R32&lt;&gt;"", ", type: '"&amp;VLOOKUP(R32,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S32&lt;&gt;"",", subType: '"&amp;VLOOKUP(S32,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T32&lt;&gt;"",", range: '"&amp;T32&amp;"'","")&amp;IF(V32&lt;&gt;"",", damage: '"&amp;V32&amp;"'","")&amp;IF(X32&lt;&gt;"",", capacity: '"&amp;X32&amp;"'","")&amp;IF(Y32&lt;&gt;"",", growth: "&amp;Y32&amp;"","")&amp;IF(Z32&lt;&gt;"",", cost: '"&amp;Z32&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE32, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF32&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH32&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ32&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL32&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN32&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB32="○",", sealable: true","")&amp;IF(AC32="○",", removable: true","")&amp;IF(AA32="○",", lie: true","")&amp;IF(AD32="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -46070,51 +44912,51 @@
       <c r="AMK32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="74"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="79"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="81"/>
       <c r="AN33" s="21"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
       <c r="AT33" s="28" t="str">
         <f aca="false">IF(A33="", "","'"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"",", anotherID: '"&amp;C33&amp;"', replace: '"&amp;D33&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E33,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K33,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G33,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H33,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J33,"'","\'")&amp;"', ruby: '"&amp;F33&amp;"', rubyEn: '"&amp;L33&amp;IF(I33&lt;&gt;"", "', rubyZh: '"&amp;I33, "")&amp;"', baseType: '"&amp;VLOOKUP(M33,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N33="○",", extra: true","")&amp;IF(O33&lt;&gt;"",", extraFrom: '"&amp;O33&amp;"'","")&amp;IF(P33&lt;&gt;"",", exchangableTo: '"&amp;P33&amp;"'","")&amp;IF(Q33="○",", poison: true","")&amp;IF(R33&lt;&gt;"", ", type: '"&amp;VLOOKUP(R33,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S33&lt;&gt;"",", subType: '"&amp;VLOOKUP(S33,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T33&lt;&gt;"",", range: '"&amp;T33&amp;"'","")&amp;IF(V33&lt;&gt;"",", damage: '"&amp;V33&amp;"'","")&amp;IF(X33&lt;&gt;"",", capacity: '"&amp;X33&amp;"'","")&amp;IF(Y33&lt;&gt;"",", growth: "&amp;Y33&amp;"","")&amp;IF(Z33&lt;&gt;"",", cost: '"&amp;Z33&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE33, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF33&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH33&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ33&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL33&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN33&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB33="○",", sealable: true","")&amp;IF(AC33="○",", removable: true","")&amp;IF(AA33="○",", lie: true","")&amp;IF(AD33="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -47106,51 +45948,51 @@
       <c r="AMK33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="79"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="76"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="81"/>
       <c r="AN34" s="21"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
       <c r="AT34" s="28" t="str">
         <f aca="false">IF(A34="", "","'"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"",", anotherID: '"&amp;C34&amp;"', replace: '"&amp;D34&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E34,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K34,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G34,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H34,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J34,"'","\'")&amp;"', ruby: '"&amp;F34&amp;"', rubyEn: '"&amp;L34&amp;IF(I34&lt;&gt;"", "', rubyZh: '"&amp;I34, "")&amp;"', baseType: '"&amp;VLOOKUP(M34,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N34="○",", extra: true","")&amp;IF(O34&lt;&gt;"",", extraFrom: '"&amp;O34&amp;"'","")&amp;IF(P34&lt;&gt;"",", exchangableTo: '"&amp;P34&amp;"'","")&amp;IF(Q34="○",", poison: true","")&amp;IF(R34&lt;&gt;"", ", type: '"&amp;VLOOKUP(R34,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S34&lt;&gt;"",", subType: '"&amp;VLOOKUP(S34,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T34&lt;&gt;"",", range: '"&amp;T34&amp;"'","")&amp;IF(V34&lt;&gt;"",", damage: '"&amp;V34&amp;"'","")&amp;IF(X34&lt;&gt;"",", capacity: '"&amp;X34&amp;"'","")&amp;IF(Y34&lt;&gt;"",", growth: "&amp;Y34&amp;"","")&amp;IF(Z34&lt;&gt;"",", cost: '"&amp;Z34&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE34, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF34&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH34&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ34&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL34&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN34&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB34="○",", sealable: true","")&amp;IF(AC34="○",", removable: true","")&amp;IF(AA34="○",", lie: true","")&amp;IF(AD34="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -48142,51 +46984,51 @@
       <c r="AMK34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="77"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="79"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="81"/>
       <c r="AN35" s="21"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
+      <c r="AO35" s="38"/>
+      <c r="AP35" s="38"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
       <c r="AT35" s="28" t="str">
         <f aca="false">IF(A35="", "","'"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"'"&amp;IF(C35&lt;&gt;"",", anotherID: '"&amp;C35&amp;"', replace: '"&amp;D35&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E35,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K35,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G35,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H35,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J35,"'","\'")&amp;"', ruby: '"&amp;F35&amp;"', rubyEn: '"&amp;L35&amp;IF(I35&lt;&gt;"", "', rubyZh: '"&amp;I35, "")&amp;"', baseType: '"&amp;VLOOKUP(M35,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N35="○",", extra: true","")&amp;IF(O35&lt;&gt;"",", extraFrom: '"&amp;O35&amp;"'","")&amp;IF(P35&lt;&gt;"",", exchangableTo: '"&amp;P35&amp;"'","")&amp;IF(Q35="○",", poison: true","")&amp;IF(R35&lt;&gt;"", ", type: '"&amp;VLOOKUP(R35,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S35&lt;&gt;"",", subType: '"&amp;VLOOKUP(S35,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T35&lt;&gt;"",", range: '"&amp;T35&amp;"'","")&amp;IF(V35&lt;&gt;"",", damage: '"&amp;V35&amp;"'","")&amp;IF(X35&lt;&gt;"",", capacity: '"&amp;X35&amp;"'","")&amp;IF(Y35&lt;&gt;"",", growth: "&amp;Y35&amp;"","")&amp;IF(Z35&lt;&gt;"",", cost: '"&amp;Z35&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE35, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF35&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH35&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ35&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL35&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN35&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB35="○",", sealable: true","")&amp;IF(AC35="○",", removable: true","")&amp;IF(AA35="○",", lie: true","")&amp;IF(AD35="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -49178,51 +48020,51 @@
       <c r="AMK35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="77"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="79"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="82"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="81"/>
       <c r="AN36" s="21"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
+      <c r="AO36" s="38"/>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
       <c r="AT36" s="28" t="str">
         <f aca="false">IF(A36="", "","'"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"'"&amp;IF(C36&lt;&gt;"",", anotherID: '"&amp;C36&amp;"', replace: '"&amp;D36&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E36,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K36,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G36,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H36,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J36,"'","\'")&amp;"', ruby: '"&amp;F36&amp;"', rubyEn: '"&amp;L36&amp;IF(I36&lt;&gt;"", "', rubyZh: '"&amp;I36, "")&amp;"', baseType: '"&amp;VLOOKUP(M36,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N36="○",", extra: true","")&amp;IF(O36&lt;&gt;"",", extraFrom: '"&amp;O36&amp;"'","")&amp;IF(P36&lt;&gt;"",", exchangableTo: '"&amp;P36&amp;"'","")&amp;IF(Q36="○",", poison: true","")&amp;IF(R36&lt;&gt;"", ", type: '"&amp;VLOOKUP(R36,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S36&lt;&gt;"",", subType: '"&amp;VLOOKUP(S36,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T36&lt;&gt;"",", range: '"&amp;T36&amp;"'","")&amp;IF(V36&lt;&gt;"",", damage: '"&amp;V36&amp;"'","")&amp;IF(X36&lt;&gt;"",", capacity: '"&amp;X36&amp;"'","")&amp;IF(Y36&lt;&gt;"",", growth: "&amp;Y36&amp;"","")&amp;IF(Z36&lt;&gt;"",", cost: '"&amp;Z36&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE36, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF36&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH36&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ36&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL36&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN36&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB36="○",", sealable: true","")&amp;IF(AC36="○",", removable: true","")&amp;IF(AA36="○",", lie: true","")&amp;IF(AD36="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -50214,51 +49056,51 @@
       <c r="AMK36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="77"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="74"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="79"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="82"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="81"/>
       <c r="AN37" s="21"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
       <c r="AT37" s="28" t="str">
         <f aca="false">IF(A37="", "","'"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"'"&amp;IF(C37&lt;&gt;"",", anotherID: '"&amp;C37&amp;"', replace: '"&amp;D37&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E37,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K37,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G37,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H37,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J37,"'","\'")&amp;"', ruby: '"&amp;F37&amp;"', rubyEn: '"&amp;L37&amp;IF(I37&lt;&gt;"", "', rubyZh: '"&amp;I37, "")&amp;"', baseType: '"&amp;VLOOKUP(M37,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N37="○",", extra: true","")&amp;IF(O37&lt;&gt;"",", extraFrom: '"&amp;O37&amp;"'","")&amp;IF(P37&lt;&gt;"",", exchangableTo: '"&amp;P37&amp;"'","")&amp;IF(Q37="○",", poison: true","")&amp;IF(R37&lt;&gt;"", ", type: '"&amp;VLOOKUP(R37,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S37&lt;&gt;"",", subType: '"&amp;VLOOKUP(S37,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T37&lt;&gt;"",", range: '"&amp;T37&amp;"'","")&amp;IF(V37&lt;&gt;"",", damage: '"&amp;V37&amp;"'","")&amp;IF(X37&lt;&gt;"",", capacity: '"&amp;X37&amp;"'","")&amp;IF(Y37&lt;&gt;"",", growth: "&amp;Y37&amp;"","")&amp;IF(Z37&lt;&gt;"",", cost: '"&amp;Z37&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE37, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF37&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH37&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ37&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL37&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN37&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB37="○",", sealable: true","")&amp;IF(AC37="○",", removable: true","")&amp;IF(AA37="○",", lie: true","")&amp;IF(AD37="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -51250,51 +50092,51 @@
       <c r="AMK37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="77"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="74"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="79"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="82"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="81"/>
       <c r="AN38" s="21"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
       <c r="AT38" s="28" t="str">
         <f aca="false">IF(A38="", "","'"&amp;A38&amp;"': {megami: '"&amp;B38&amp;"'"&amp;IF(C38&lt;&gt;"",", anotherID: '"&amp;C38&amp;"', replace: '"&amp;D38&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E38,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K38,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G38,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H38,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J38,"'","\'")&amp;"', ruby: '"&amp;F38&amp;"', rubyEn: '"&amp;L38&amp;IF(I38&lt;&gt;"", "', rubyZh: '"&amp;I38, "")&amp;"', baseType: '"&amp;VLOOKUP(M38,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N38="○",", extra: true","")&amp;IF(O38&lt;&gt;"",", extraFrom: '"&amp;O38&amp;"'","")&amp;IF(P38&lt;&gt;"",", exchangableTo: '"&amp;P38&amp;"'","")&amp;IF(Q38="○",", poison: true","")&amp;IF(R38&lt;&gt;"", ", type: '"&amp;VLOOKUP(R38,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S38&lt;&gt;"",", subType: '"&amp;VLOOKUP(S38,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T38&lt;&gt;"",", range: '"&amp;T38&amp;"'","")&amp;IF(V38&lt;&gt;"",", damage: '"&amp;V38&amp;"'","")&amp;IF(X38&lt;&gt;"",", capacity: '"&amp;X38&amp;"'","")&amp;IF(Y38&lt;&gt;"",", growth: "&amp;Y38&amp;"","")&amp;IF(Z38&lt;&gt;"",", cost: '"&amp;Z38&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE38, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF38&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF38, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG38, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI38, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH38&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH38, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ38&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ38, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK38, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL38&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL38, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM38, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN38&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN38, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB38="○",", sealable: true","")&amp;IF(AC38="○",", removable: true","")&amp;IF(AA38="○",", lie: true","")&amp;IF(AD38="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -52286,51 +51128,51 @@
       <c r="AMK38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="77"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="80"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="79"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="82"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="81"/>
       <c r="AN39" s="21"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
       <c r="AT39" s="28" t="str">
         <f aca="false">IF(A39="", "","'"&amp;A39&amp;"': {megami: '"&amp;B39&amp;"'"&amp;IF(C39&lt;&gt;"",", anotherID: '"&amp;C39&amp;"', replace: '"&amp;D39&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E39,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K39,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G39,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H39,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J39,"'","\'")&amp;"', ruby: '"&amp;F39&amp;"', rubyEn: '"&amp;L39&amp;IF(I39&lt;&gt;"", "', rubyZh: '"&amp;I39, "")&amp;"', baseType: '"&amp;VLOOKUP(M39,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N39="○",", extra: true","")&amp;IF(O39&lt;&gt;"",", extraFrom: '"&amp;O39&amp;"'","")&amp;IF(P39&lt;&gt;"",", exchangableTo: '"&amp;P39&amp;"'","")&amp;IF(Q39="○",", poison: true","")&amp;IF(R39&lt;&gt;"", ", type: '"&amp;VLOOKUP(R39,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S39&lt;&gt;"",", subType: '"&amp;VLOOKUP(S39,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T39&lt;&gt;"",", range: '"&amp;T39&amp;"'","")&amp;IF(V39&lt;&gt;"",", damage: '"&amp;V39&amp;"'","")&amp;IF(X39&lt;&gt;"",", capacity: '"&amp;X39&amp;"'","")&amp;IF(Y39&lt;&gt;"",", growth: "&amp;Y39&amp;"","")&amp;IF(Z39&lt;&gt;"",", cost: '"&amp;Z39&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE39, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF39&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF39, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG39, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI39, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH39&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH39, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ39&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ39, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK39, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL39&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL39, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM39, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN39&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN39, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB39="○",", sealable: true","")&amp;IF(AC39="○",", removable: true","")&amp;IF(AA39="○",", lie: true","")&amp;IF(AD39="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -53322,51 +52164,51 @@
       <c r="AMK39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="77"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="74"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="79"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="82"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="76"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="81"/>
       <c r="AN40" s="21"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
       <c r="AT40" s="28" t="str">
         <f aca="false">IF(A40="", "","'"&amp;A40&amp;"': {megami: '"&amp;B40&amp;"'"&amp;IF(C40&lt;&gt;"",", anotherID: '"&amp;C40&amp;"', replace: '"&amp;D40&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E40,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K40,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G40,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H40,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J40,"'","\'")&amp;"', ruby: '"&amp;F40&amp;"', rubyEn: '"&amp;L40&amp;IF(I40&lt;&gt;"", "', rubyZh: '"&amp;I40, "")&amp;"', baseType: '"&amp;VLOOKUP(M40,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N40="○",", extra: true","")&amp;IF(O40&lt;&gt;"",", extraFrom: '"&amp;O40&amp;"'","")&amp;IF(P40&lt;&gt;"",", exchangableTo: '"&amp;P40&amp;"'","")&amp;IF(Q40="○",", poison: true","")&amp;IF(R40&lt;&gt;"", ", type: '"&amp;VLOOKUP(R40,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S40&lt;&gt;"",", subType: '"&amp;VLOOKUP(S40,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T40&lt;&gt;"",", range: '"&amp;T40&amp;"'","")&amp;IF(V40&lt;&gt;"",", damage: '"&amp;V40&amp;"'","")&amp;IF(X40&lt;&gt;"",", capacity: '"&amp;X40&amp;"'","")&amp;IF(Y40&lt;&gt;"",", growth: "&amp;Y40&amp;"","")&amp;IF(Z40&lt;&gt;"",", cost: '"&amp;Z40&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE40, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF40&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF40, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG40, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI40, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH40&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH40, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ40&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ40, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK40, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL40&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL40, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM40, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN40&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN40, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB40="○",", sealable: true","")&amp;IF(AC40="○",", removable: true","")&amp;IF(AA40="○",", lie: true","")&amp;IF(AD40="○",", investable: true","")&amp;"},")</f>
         <v/>
@@ -54364,10 +53206,10 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="65"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -54388,15 +53230,15 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="41"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="43"/>
       <c r="AH41" s="15"/>
-      <c r="AI41" s="41"/>
+      <c r="AI41" s="43"/>
       <c r="AJ41" s="15"/>
-      <c r="AK41" s="66"/>
+      <c r="AK41" s="68"/>
       <c r="AL41" s="15"/>
-      <c r="AM41" s="66"/>
+      <c r="AM41" s="68"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="14"/>
       <c r="AP41" s="14"/>
@@ -54423,10 +53265,10 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="65"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -54447,15 +53289,15 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="41"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="43"/>
       <c r="AH42" s="15"/>
-      <c r="AI42" s="41"/>
+      <c r="AI42" s="43"/>
       <c r="AJ42" s="15"/>
-      <c r="AK42" s="66"/>
+      <c r="AK42" s="68"/>
       <c r="AL42" s="15"/>
-      <c r="AM42" s="66"/>
+      <c r="AM42" s="68"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -54482,10 +53324,10 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="65"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
@@ -54506,15 +53348,15 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="41"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="43"/>
       <c r="AH43" s="15"/>
-      <c r="AI43" s="41"/>
+      <c r="AI43" s="43"/>
       <c r="AJ43" s="15"/>
-      <c r="AK43" s="66"/>
+      <c r="AK43" s="68"/>
       <c r="AL43" s="15"/>
-      <c r="AM43" s="66"/>
+      <c r="AM43" s="68"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -54541,10 +53383,10 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="65"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -54565,15 +53407,15 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
       <c r="AD44" s="12"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="41"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="43"/>
       <c r="AH44" s="15"/>
-      <c r="AI44" s="41"/>
+      <c r="AI44" s="43"/>
       <c r="AJ44" s="15"/>
-      <c r="AK44" s="66"/>
+      <c r="AK44" s="68"/>
       <c r="AL44" s="15"/>
-      <c r="AM44" s="66"/>
+      <c r="AM44" s="68"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
@@ -54594,2353 +53436,2353 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="85"/>
+      <c r="I45" s="87"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="85"/>
+      <c r="I46" s="87"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="85"/>
+      <c r="I47" s="87"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="85"/>
+      <c r="I48" s="87"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="85"/>
+      <c r="I49" s="87"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="85"/>
+      <c r="I50" s="87"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="85"/>
+      <c r="I51" s="87"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="85"/>
+      <c r="I52" s="87"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="85"/>
+      <c r="I53" s="87"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="85"/>
+      <c r="I54" s="87"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="85"/>
+      <c r="I55" s="87"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="85"/>
+      <c r="I56" s="87"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="85"/>
+      <c r="I57" s="87"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="85"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="85"/>
+      <c r="I59" s="87"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="85"/>
+      <c r="I60" s="87"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="85"/>
+      <c r="I61" s="87"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="85"/>
+      <c r="I62" s="87"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="85"/>
+      <c r="I63" s="87"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="85"/>
+      <c r="I64" s="87"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="85"/>
+      <c r="I65" s="87"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="85"/>
+      <c r="I66" s="87"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="85"/>
+      <c r="I67" s="87"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="85"/>
+      <c r="I68" s="87"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="85"/>
+      <c r="I69" s="87"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="85"/>
+      <c r="I70" s="87"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="85"/>
+      <c r="I71" s="87"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="85"/>
+      <c r="I72" s="87"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="85"/>
+      <c r="I73" s="87"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="85"/>
+      <c r="I74" s="87"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="85"/>
+      <c r="I75" s="87"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="85"/>
+      <c r="I76" s="87"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="85"/>
+      <c r="I77" s="87"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="85"/>
+      <c r="I78" s="87"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="85"/>
+      <c r="I79" s="87"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="85"/>
+      <c r="I80" s="87"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="85"/>
+      <c r="I81" s="87"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="85"/>
+      <c r="I82" s="87"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="85"/>
+      <c r="I83" s="87"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="85"/>
+      <c r="I84" s="87"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="85"/>
+      <c r="I85" s="87"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="85"/>
+      <c r="I86" s="87"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="85"/>
+      <c r="I87" s="87"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="85"/>
+      <c r="I88" s="87"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="85"/>
+      <c r="I89" s="87"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="85"/>
+      <c r="I90" s="87"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="85"/>
+      <c r="I91" s="87"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="85"/>
+      <c r="I92" s="87"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="85"/>
+      <c r="I93" s="87"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="85"/>
+      <c r="I94" s="87"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="85"/>
+      <c r="I95" s="87"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="85"/>
+      <c r="I96" s="87"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="85"/>
+      <c r="I97" s="87"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="85"/>
+      <c r="I98" s="87"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="85"/>
+      <c r="I99" s="87"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="85"/>
+      <c r="I100" s="87"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="85"/>
+      <c r="I101" s="87"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="85"/>
+      <c r="I102" s="87"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="85"/>
+      <c r="I103" s="87"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="85"/>
+      <c r="I104" s="87"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="85"/>
+      <c r="I105" s="87"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="85"/>
+      <c r="I106" s="87"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="85"/>
+      <c r="I107" s="87"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="85"/>
+      <c r="I108" s="87"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="85"/>
+      <c r="I109" s="87"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="85"/>
+      <c r="I110" s="87"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="85"/>
+      <c r="I111" s="87"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="85"/>
+      <c r="I112" s="87"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="85"/>
+      <c r="I113" s="87"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="85"/>
+      <c r="I114" s="87"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="85"/>
+      <c r="I115" s="87"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="85"/>
+      <c r="I116" s="87"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="85"/>
+      <c r="I117" s="87"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="85"/>
+      <c r="I118" s="87"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="85"/>
+      <c r="I119" s="87"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="85"/>
+      <c r="I120" s="87"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="85"/>
+      <c r="I121" s="87"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="85"/>
+      <c r="I122" s="87"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="85"/>
+      <c r="I123" s="87"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="85"/>
+      <c r="I124" s="87"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="85"/>
+      <c r="I125" s="87"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="85"/>
+      <c r="I126" s="87"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="85"/>
+      <c r="I127" s="87"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="85"/>
+      <c r="I128" s="87"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="85"/>
+      <c r="I129" s="87"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="85"/>
+      <c r="I130" s="87"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="85"/>
+      <c r="I131" s="87"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="85"/>
+      <c r="I132" s="87"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="85"/>
+      <c r="I133" s="87"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="85"/>
+      <c r="I134" s="87"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="85"/>
+      <c r="I135" s="87"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="85"/>
+      <c r="I136" s="87"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="85"/>
+      <c r="I137" s="87"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="85"/>
+      <c r="I138" s="87"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="85"/>
+      <c r="I139" s="87"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="85"/>
+      <c r="I140" s="87"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="85"/>
+      <c r="I141" s="87"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="85"/>
+      <c r="I142" s="87"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="85"/>
+      <c r="I143" s="87"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="85"/>
+      <c r="I144" s="87"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="85"/>
+      <c r="I145" s="87"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="85"/>
+      <c r="I146" s="87"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="85"/>
+      <c r="I147" s="87"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="85"/>
+      <c r="I148" s="87"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="85"/>
+      <c r="I149" s="87"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="85"/>
+      <c r="I150" s="87"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="85"/>
+      <c r="I151" s="87"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="85"/>
+      <c r="I152" s="87"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="85"/>
+      <c r="I153" s="87"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="85"/>
+      <c r="I154" s="87"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="85"/>
+      <c r="I155" s="87"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="85"/>
+      <c r="I156" s="87"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="85"/>
+      <c r="I157" s="87"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="85"/>
+      <c r="I158" s="87"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="85"/>
+      <c r="I159" s="87"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="85"/>
+      <c r="I160" s="87"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="85"/>
+      <c r="I161" s="87"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="85"/>
+      <c r="I162" s="87"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="85"/>
+      <c r="I163" s="87"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="85"/>
+      <c r="I164" s="87"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="85"/>
+      <c r="I165" s="87"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="85"/>
+      <c r="I166" s="87"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="85"/>
+      <c r="I167" s="87"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="85"/>
+      <c r="I168" s="87"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="85"/>
+      <c r="I169" s="87"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="85"/>
+      <c r="I170" s="87"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="85"/>
+      <c r="I171" s="87"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="85"/>
+      <c r="I172" s="87"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="85"/>
+      <c r="I173" s="87"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="85"/>
+      <c r="I174" s="87"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="85"/>
+      <c r="I175" s="87"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="85"/>
+      <c r="I176" s="87"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="85"/>
+      <c r="I177" s="87"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="85"/>
+      <c r="I178" s="87"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="85"/>
+      <c r="I179" s="87"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="85"/>
+      <c r="I180" s="87"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="85"/>
+      <c r="I181" s="87"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="85"/>
+      <c r="I182" s="87"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="85"/>
+      <c r="I183" s="87"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="85"/>
+      <c r="I184" s="87"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="85"/>
+      <c r="I185" s="87"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="85"/>
+      <c r="I186" s="87"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="85"/>
+      <c r="I187" s="87"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="85"/>
+      <c r="I188" s="87"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="85"/>
+      <c r="I189" s="87"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="85"/>
+      <c r="I190" s="87"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="85"/>
+      <c r="I191" s="87"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="85"/>
+      <c r="I192" s="87"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="85"/>
+      <c r="I193" s="87"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="85"/>
+      <c r="I194" s="87"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="85"/>
+      <c r="I195" s="87"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="85"/>
+      <c r="I196" s="87"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="85"/>
+      <c r="I197" s="87"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="85"/>
+      <c r="I198" s="87"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="85"/>
+      <c r="I199" s="87"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="85"/>
+      <c r="I200" s="87"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="85"/>
+      <c r="I201" s="87"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="85"/>
+      <c r="I202" s="87"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="85"/>
+      <c r="I203" s="87"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="85"/>
+      <c r="I204" s="87"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="85"/>
+      <c r="I205" s="87"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="85"/>
+      <c r="I206" s="87"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="85"/>
+      <c r="I207" s="87"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="85"/>
+      <c r="I208" s="87"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="85"/>
+      <c r="I209" s="87"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="85"/>
+      <c r="I210" s="87"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="85"/>
+      <c r="I211" s="87"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="85"/>
+      <c r="I212" s="87"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="85"/>
+      <c r="I213" s="87"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="85"/>
+      <c r="I214" s="87"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="85"/>
+      <c r="I215" s="87"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="85"/>
+      <c r="I216" s="87"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="85"/>
+      <c r="I217" s="87"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="85"/>
+      <c r="I218" s="87"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="85"/>
+      <c r="I219" s="87"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="85"/>
+      <c r="I220" s="87"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="85"/>
+      <c r="I221" s="87"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="85"/>
+      <c r="I222" s="87"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="85"/>
+      <c r="I223" s="87"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="85"/>
+      <c r="I224" s="87"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="85"/>
+      <c r="I225" s="87"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="85"/>
+      <c r="I226" s="87"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="85"/>
+      <c r="I227" s="87"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="85"/>
+      <c r="I228" s="87"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="85"/>
+      <c r="I229" s="87"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="85"/>
+      <c r="I230" s="87"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="85"/>
+      <c r="I231" s="87"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="85"/>
+      <c r="I232" s="87"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="85"/>
+      <c r="I233" s="87"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="85"/>
+      <c r="I234" s="87"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="85"/>
+      <c r="I235" s="87"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="85"/>
+      <c r="I236" s="87"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="85"/>
+      <c r="I237" s="87"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="85"/>
+      <c r="I238" s="87"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="85"/>
+      <c r="I239" s="87"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="85"/>
+      <c r="I240" s="87"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="85"/>
+      <c r="I241" s="87"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="85"/>
+      <c r="I242" s="87"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="85"/>
+      <c r="I243" s="87"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="85"/>
+      <c r="I244" s="87"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="85"/>
+      <c r="I245" s="87"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="85"/>
+      <c r="I246" s="87"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="85"/>
+      <c r="I247" s="87"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="85"/>
+      <c r="I248" s="87"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="85"/>
+      <c r="I249" s="87"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="85"/>
+      <c r="I250" s="87"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="85"/>
+      <c r="I251" s="87"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="85"/>
+      <c r="I252" s="87"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="85"/>
+      <c r="I253" s="87"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="85"/>
+      <c r="I254" s="87"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="85"/>
+      <c r="I255" s="87"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="85"/>
+      <c r="I256" s="87"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="85"/>
+      <c r="I257" s="87"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="85"/>
+      <c r="I258" s="87"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="85"/>
+      <c r="I259" s="87"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="85"/>
+      <c r="I260" s="87"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="85"/>
+      <c r="I261" s="87"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="85"/>
+      <c r="I262" s="87"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="85"/>
+      <c r="I263" s="87"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="85"/>
+      <c r="I264" s="87"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="85"/>
+      <c r="I265" s="87"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="85"/>
+      <c r="I266" s="87"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="85"/>
+      <c r="I267" s="87"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="85"/>
+      <c r="I268" s="87"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="85"/>
+      <c r="I269" s="87"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="85"/>
+      <c r="I270" s="87"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="85"/>
+      <c r="I271" s="87"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="85"/>
+      <c r="I272" s="87"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="85"/>
+      <c r="I273" s="87"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="85"/>
+      <c r="I274" s="87"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="85"/>
+      <c r="I275" s="87"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="85"/>
+      <c r="I276" s="87"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="85"/>
+      <c r="I277" s="87"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="85"/>
+      <c r="I278" s="87"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="85"/>
+      <c r="I279" s="87"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="85"/>
+      <c r="I280" s="87"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="85"/>
+      <c r="I281" s="87"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="85"/>
+      <c r="I282" s="87"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="85"/>
+      <c r="I283" s="87"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="85"/>
+      <c r="I284" s="87"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="85"/>
+      <c r="I285" s="87"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="85"/>
+      <c r="I286" s="87"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="85"/>
+      <c r="I287" s="87"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="85"/>
+      <c r="I288" s="87"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="85"/>
+      <c r="I289" s="87"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="85"/>
+      <c r="I290" s="87"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="85"/>
+      <c r="I291" s="87"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="85"/>
+      <c r="I292" s="87"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="85"/>
+      <c r="I293" s="87"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="85"/>
+      <c r="I294" s="87"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="85"/>
+      <c r="I295" s="87"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="85"/>
+      <c r="I296" s="87"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="85"/>
+      <c r="I297" s="87"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="85"/>
+      <c r="I298" s="87"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="85"/>
+      <c r="I299" s="87"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="85"/>
+      <c r="I300" s="87"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="85"/>
+      <c r="I301" s="87"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="85"/>
+      <c r="I302" s="87"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="85"/>
+      <c r="I303" s="87"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="85"/>
+      <c r="I304" s="87"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="85"/>
+      <c r="I305" s="87"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="85"/>
+      <c r="I306" s="87"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="85"/>
+      <c r="I307" s="87"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="85"/>
+      <c r="I308" s="87"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="85"/>
+      <c r="I309" s="87"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="85"/>
+      <c r="I310" s="87"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="85"/>
+      <c r="I311" s="87"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="85"/>
+      <c r="I312" s="87"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="85"/>
+      <c r="I313" s="87"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="85"/>
+      <c r="I314" s="87"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="85"/>
+      <c r="I315" s="87"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="85"/>
+      <c r="I316" s="87"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="85"/>
+      <c r="I317" s="87"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="85"/>
+      <c r="I318" s="87"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="85"/>
+      <c r="I319" s="87"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="85"/>
+      <c r="I320" s="87"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="85"/>
+      <c r="I321" s="87"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="85"/>
+      <c r="I322" s="87"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="85"/>
+      <c r="I323" s="87"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="85"/>
+      <c r="I324" s="87"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="85"/>
+      <c r="I325" s="87"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="85"/>
+      <c r="I326" s="87"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="85"/>
+      <c r="I327" s="87"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="85"/>
+      <c r="I328" s="87"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="85"/>
+      <c r="I329" s="87"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="85"/>
+      <c r="I330" s="87"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="85"/>
+      <c r="I331" s="87"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="85"/>
+      <c r="I332" s="87"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="85"/>
+      <c r="I333" s="87"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="85"/>
+      <c r="I334" s="87"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="85"/>
+      <c r="I335" s="87"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="85"/>
+      <c r="I336" s="87"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="85"/>
+      <c r="I337" s="87"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="85"/>
+      <c r="I338" s="87"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="85"/>
+      <c r="I339" s="87"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="85"/>
+      <c r="I340" s="87"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="85"/>
+      <c r="I341" s="87"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="85"/>
+      <c r="I342" s="87"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="85"/>
+      <c r="I343" s="87"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="85"/>
+      <c r="I344" s="87"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="85"/>
+      <c r="I345" s="87"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="85"/>
+      <c r="I346" s="87"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="85"/>
+      <c r="I347" s="87"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="85"/>
+      <c r="I348" s="87"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="85"/>
+      <c r="I349" s="87"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="85"/>
+      <c r="I350" s="87"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="85"/>
+      <c r="I351" s="87"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="85"/>
+      <c r="I352" s="87"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="85"/>
+      <c r="I353" s="87"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="85"/>
+      <c r="I354" s="87"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="85"/>
+      <c r="I355" s="87"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="85"/>
+      <c r="I356" s="87"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="85"/>
+      <c r="I357" s="87"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="85"/>
+      <c r="I358" s="87"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="85"/>
+      <c r="I359" s="87"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="85"/>
+      <c r="I360" s="87"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="85"/>
+      <c r="I361" s="87"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="85"/>
+      <c r="I362" s="87"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="85"/>
+      <c r="I363" s="87"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="85"/>
+      <c r="I364" s="87"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="85"/>
+      <c r="I365" s="87"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="85"/>
+      <c r="I366" s="87"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="85"/>
+      <c r="I367" s="87"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="85"/>
+      <c r="I368" s="87"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="85"/>
+      <c r="I369" s="87"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="85"/>
+      <c r="I370" s="87"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="85"/>
+      <c r="I371" s="87"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="85"/>
+      <c r="I372" s="87"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="85"/>
+      <c r="I373" s="87"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="85"/>
+      <c r="I374" s="87"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="85"/>
+      <c r="I375" s="87"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="85"/>
+      <c r="I376" s="87"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="85"/>
+      <c r="I377" s="87"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="85"/>
+      <c r="I378" s="87"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="85"/>
+      <c r="I379" s="87"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="85"/>
+      <c r="I380" s="87"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="85"/>
+      <c r="I381" s="87"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="85"/>
+      <c r="I382" s="87"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="85"/>
+      <c r="I383" s="87"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="85"/>
+      <c r="I384" s="87"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="85"/>
+      <c r="I385" s="87"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="85"/>
+      <c r="I386" s="87"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="85"/>
+      <c r="I387" s="87"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="85"/>
+      <c r="I388" s="87"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="85"/>
+      <c r="I389" s="87"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="85"/>
+      <c r="I390" s="87"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="85"/>
+      <c r="I391" s="87"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="85"/>
+      <c r="I392" s="87"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="85"/>
+      <c r="I393" s="87"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="85"/>
+      <c r="I394" s="87"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="85"/>
+      <c r="I395" s="87"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="85"/>
+      <c r="I396" s="87"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="85"/>
+      <c r="I397" s="87"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="85"/>
+      <c r="I398" s="87"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="85"/>
+      <c r="I399" s="87"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="85"/>
+      <c r="I400" s="87"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="85"/>
+      <c r="I401" s="87"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="85"/>
+      <c r="I402" s="87"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="85"/>
+      <c r="I403" s="87"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="85"/>
+      <c r="I404" s="87"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="85"/>
+      <c r="I405" s="87"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="85"/>
+      <c r="I406" s="87"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="85"/>
+      <c r="I407" s="87"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="85"/>
+      <c r="I408" s="87"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="85"/>
+      <c r="I409" s="87"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="85"/>
+      <c r="I410" s="87"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="85"/>
+      <c r="I411" s="87"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="85"/>
+      <c r="I412" s="87"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="85"/>
+      <c r="I413" s="87"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="85"/>
+      <c r="I414" s="87"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="85"/>
+      <c r="I415" s="87"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="85"/>
+      <c r="I416" s="87"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="85"/>
+      <c r="I417" s="87"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="85"/>
+      <c r="I418" s="87"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="85"/>
+      <c r="I419" s="87"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="85"/>
+      <c r="I420" s="87"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="85"/>
+      <c r="I421" s="87"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="85"/>
+      <c r="I422" s="87"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="85"/>
+      <c r="I423" s="87"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="85"/>
+      <c r="I424" s="87"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="85"/>
+      <c r="I425" s="87"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="85"/>
+      <c r="I426" s="87"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="85"/>
+      <c r="I427" s="87"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="85"/>
+      <c r="I428" s="87"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="85"/>
+      <c r="I429" s="87"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="85"/>
+      <c r="I430" s="87"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="85"/>
+      <c r="I431" s="87"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="85"/>
+      <c r="I432" s="87"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="85"/>
+      <c r="I433" s="87"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="85"/>
+      <c r="I434" s="87"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="85"/>
+      <c r="I435" s="87"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="85"/>
+      <c r="I436" s="87"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="85"/>
+      <c r="I437" s="87"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="85"/>
+      <c r="I438" s="87"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="85"/>
+      <c r="I439" s="87"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="85"/>
+      <c r="I440" s="87"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="85"/>
+      <c r="I441" s="87"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="85"/>
+      <c r="I442" s="87"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="85"/>
+      <c r="I443" s="87"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="85"/>
+      <c r="I444" s="87"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="85"/>
+      <c r="I445" s="87"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="85"/>
+      <c r="I446" s="87"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="85"/>
+      <c r="I447" s="87"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="85"/>
+      <c r="I448" s="87"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="85"/>
+      <c r="I449" s="87"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="85"/>
+      <c r="I450" s="87"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="85"/>
+      <c r="I451" s="87"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="85"/>
+      <c r="I452" s="87"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="85"/>
+      <c r="I453" s="87"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="85"/>
+      <c r="I454" s="87"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="85"/>
+      <c r="I455" s="87"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="85"/>
+      <c r="I456" s="87"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="85"/>
+      <c r="I457" s="87"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="85"/>
+      <c r="I458" s="87"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="85"/>
+      <c r="I459" s="87"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="85"/>
+      <c r="I460" s="87"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="85"/>
+      <c r="I461" s="87"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="85"/>
+      <c r="I462" s="87"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="85"/>
+      <c r="I463" s="87"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="85"/>
+      <c r="I464" s="87"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="85"/>
+      <c r="I465" s="87"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="85"/>
+      <c r="I466" s="87"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="85"/>
+      <c r="I467" s="87"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="85"/>
+      <c r="I468" s="87"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="85"/>
+      <c r="I469" s="87"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="85"/>
+      <c r="I470" s="87"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="85"/>
+      <c r="I471" s="87"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="85"/>
+      <c r="I472" s="87"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="85"/>
+      <c r="I473" s="87"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="85"/>
+      <c r="I474" s="87"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="85"/>
+      <c r="I475" s="87"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="85"/>
+      <c r="I476" s="87"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="85"/>
+      <c r="I477" s="87"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="85"/>
+      <c r="I478" s="87"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="85"/>
+      <c r="I479" s="87"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="85"/>
+      <c r="I480" s="87"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="85"/>
+      <c r="I481" s="87"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="85"/>
+      <c r="I482" s="87"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="85"/>
+      <c r="I483" s="87"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="85"/>
+      <c r="I484" s="87"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="85"/>
+      <c r="I485" s="87"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="85"/>
+      <c r="I486" s="87"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="85"/>
+      <c r="I487" s="87"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="85"/>
+      <c r="I488" s="87"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="85"/>
+      <c r="I489" s="87"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="85"/>
+      <c r="I490" s="87"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="85"/>
+      <c r="I491" s="87"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="85"/>
+      <c r="I492" s="87"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="85"/>
+      <c r="I493" s="87"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="85"/>
+      <c r="I494" s="87"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="85"/>
+      <c r="I495" s="87"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="85"/>
+      <c r="I496" s="87"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="85"/>
+      <c r="I497" s="87"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="85"/>
+      <c r="I498" s="87"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="85"/>
+      <c r="I499" s="87"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="85"/>
+      <c r="I500" s="87"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="85"/>
+      <c r="I501" s="87"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="85"/>
+      <c r="I502" s="87"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="85"/>
+      <c r="I503" s="87"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="85"/>
+      <c r="I504" s="87"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="85"/>
+      <c r="I505" s="87"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="85"/>
+      <c r="I506" s="87"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="85"/>
+      <c r="I507" s="87"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="85"/>
+      <c r="I508" s="87"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="85"/>
+      <c r="I509" s="87"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="85"/>
+      <c r="I510" s="87"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="85"/>
+      <c r="I511" s="87"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="85"/>
+      <c r="I512" s="87"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="85"/>
+      <c r="I513" s="87"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="85"/>
+      <c r="I514" s="87"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="85"/>
+      <c r="I515" s="87"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="85"/>
+      <c r="I516" s="87"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="85"/>
+      <c r="I517" s="87"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="85"/>
+      <c r="I518" s="87"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="85"/>
+      <c r="I519" s="87"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="85"/>
+      <c r="I520" s="87"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="85"/>
+      <c r="I521" s="87"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="85"/>
+      <c r="I522" s="87"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="85"/>
+      <c r="I523" s="87"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="85"/>
+      <c r="I524" s="87"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="85"/>
+      <c r="I525" s="87"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="85"/>
+      <c r="I526" s="87"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="85"/>
+      <c r="I527" s="87"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="85"/>
+      <c r="I528" s="87"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="85"/>
+      <c r="I529" s="87"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="85"/>
+      <c r="I530" s="87"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="85"/>
+      <c r="I531" s="87"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="85"/>
+      <c r="I532" s="87"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="85"/>
+      <c r="I533" s="87"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="85"/>
+      <c r="I534" s="87"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="85"/>
+      <c r="I535" s="87"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="85"/>
+      <c r="I536" s="87"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="85"/>
+      <c r="I537" s="87"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="85"/>
+      <c r="I538" s="87"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="85"/>
+      <c r="I539" s="87"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="85"/>
+      <c r="I540" s="87"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="85"/>
+      <c r="I541" s="87"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="85"/>
+      <c r="I542" s="87"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="85"/>
+      <c r="I543" s="87"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="85"/>
+      <c r="I544" s="87"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="85"/>
+      <c r="I545" s="87"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="85"/>
+      <c r="I546" s="87"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="85"/>
+      <c r="I547" s="87"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="85"/>
+      <c r="I548" s="87"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="85"/>
+      <c r="I549" s="87"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="85"/>
+      <c r="I550" s="87"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="85"/>
+      <c r="I551" s="87"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="85"/>
+      <c r="I552" s="87"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="85"/>
+      <c r="I553" s="87"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="85"/>
+      <c r="I554" s="87"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="85"/>
+      <c r="I555" s="87"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="85"/>
+      <c r="I556" s="87"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="85"/>
+      <c r="I557" s="87"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="85"/>
+      <c r="I558" s="87"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="85"/>
+      <c r="I559" s="87"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="85"/>
+      <c r="I560" s="87"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="85"/>
+      <c r="I561" s="87"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="85"/>
+      <c r="I562" s="87"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="85"/>
+      <c r="I563" s="87"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="85"/>
+      <c r="I564" s="87"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="85"/>
+      <c r="I565" s="87"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="85"/>
+      <c r="I566" s="87"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="85"/>
+      <c r="I567" s="87"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="85"/>
+      <c r="I568" s="87"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="85"/>
+      <c r="I569" s="87"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="85"/>
+      <c r="I570" s="87"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="85"/>
+      <c r="I571" s="87"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="85"/>
+      <c r="I572" s="87"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="85"/>
+      <c r="I573" s="87"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="85"/>
+      <c r="I574" s="87"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="85"/>
+      <c r="I575" s="87"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="85"/>
+      <c r="I576" s="87"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="85"/>
+      <c r="I577" s="87"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="85"/>
+      <c r="I578" s="87"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="85"/>
+      <c r="I579" s="87"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="85"/>
+      <c r="I580" s="87"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="85"/>
+      <c r="I581" s="87"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="85"/>
+      <c r="I582" s="87"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="85"/>
+      <c r="I583" s="87"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="85"/>
+      <c r="I584" s="87"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="85"/>
+      <c r="I585" s="87"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="85"/>
+      <c r="I586" s="87"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="85"/>
+      <c r="I587" s="87"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="85"/>
+      <c r="I588" s="87"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="85"/>
+      <c r="I589" s="87"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="85"/>
+      <c r="I590" s="87"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="85"/>
+      <c r="I591" s="87"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="85"/>
+      <c r="I592" s="87"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="85"/>
+      <c r="I593" s="87"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="85"/>
+      <c r="I594" s="87"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="85"/>
+      <c r="I595" s="87"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="85"/>
+      <c r="I596" s="87"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="85"/>
+      <c r="I597" s="87"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="85"/>
+      <c r="I598" s="87"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="85"/>
+      <c r="I599" s="87"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="85"/>
+      <c r="I600" s="87"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="85"/>
+      <c r="I601" s="87"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="85"/>
+      <c r="I602" s="87"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="85"/>
+      <c r="I603" s="87"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="85"/>
+      <c r="I604" s="87"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="85"/>
+      <c r="I605" s="87"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="85"/>
+      <c r="I606" s="87"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="85"/>
+      <c r="I607" s="87"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="85"/>
+      <c r="I608" s="87"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="85"/>
+      <c r="I609" s="87"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="85"/>
+      <c r="I610" s="87"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="85"/>
+      <c r="I611" s="87"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="85"/>
+      <c r="I612" s="87"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="85"/>
+      <c r="I613" s="87"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="85"/>
+      <c r="I614" s="87"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="85"/>
+      <c r="I615" s="87"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="85"/>
+      <c r="I616" s="87"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="85"/>
+      <c r="I617" s="87"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="85"/>
+      <c r="I618" s="87"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="85"/>
+      <c r="I619" s="87"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="85"/>
+      <c r="I620" s="87"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="85"/>
+      <c r="I621" s="87"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="85"/>
+      <c r="I622" s="87"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="85"/>
+      <c r="I623" s="87"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="85"/>
+      <c r="I624" s="87"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="85"/>
+      <c r="I625" s="87"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="85"/>
+      <c r="I626" s="87"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="85"/>
+      <c r="I627" s="87"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="85"/>
+      <c r="I628" s="87"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="85"/>
+      <c r="I629" s="87"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="85"/>
+      <c r="I630" s="87"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="85"/>
+      <c r="I631" s="87"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="85"/>
+      <c r="I632" s="87"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="85"/>
+      <c r="I633" s="87"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="85"/>
+      <c r="I634" s="87"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="85"/>
+      <c r="I635" s="87"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="85"/>
+      <c r="I636" s="87"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="85"/>
+      <c r="I637" s="87"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="85"/>
+      <c r="I638" s="87"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="85"/>
+      <c r="I639" s="87"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="85"/>
+      <c r="I640" s="87"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="85"/>
+      <c r="I641" s="87"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="85"/>
+      <c r="I642" s="87"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="85"/>
+      <c r="I643" s="87"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="85"/>
+      <c r="I644" s="87"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="85"/>
+      <c r="I645" s="87"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="85"/>
+      <c r="I646" s="87"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="85"/>
+      <c r="I647" s="87"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="85"/>
+      <c r="I648" s="87"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="85"/>
+      <c r="I649" s="87"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="85"/>
+      <c r="I650" s="87"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="85"/>
+      <c r="I651" s="87"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="85"/>
+      <c r="I652" s="87"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="85"/>
+      <c r="I653" s="87"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="85"/>
+      <c r="I654" s="87"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="85"/>
+      <c r="I655" s="87"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="85"/>
+      <c r="I656" s="87"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="85"/>
+      <c r="I657" s="87"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="85"/>
+      <c r="I658" s="87"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="85"/>
+      <c r="I659" s="87"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="85"/>
+      <c r="I660" s="87"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="85"/>
+      <c r="I661" s="87"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="85"/>
+      <c r="I662" s="87"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="85"/>
+      <c r="I663" s="87"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="85"/>
+      <c r="I664" s="87"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="85"/>
+      <c r="I665" s="87"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="85"/>
+      <c r="I666" s="87"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="85"/>
+      <c r="I667" s="87"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="85"/>
+      <c r="I668" s="87"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="85"/>
+      <c r="I669" s="87"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="85"/>
+      <c r="I670" s="87"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="85"/>
+      <c r="I671" s="87"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="85"/>
+      <c r="I672" s="87"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="85"/>
+      <c r="I673" s="87"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="85"/>
+      <c r="I674" s="87"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="85"/>
+      <c r="I675" s="87"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="85"/>
+      <c r="I676" s="87"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="85"/>
+      <c r="I677" s="87"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="85"/>
+      <c r="I678" s="87"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="85"/>
+      <c r="I679" s="87"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="85"/>
+      <c r="I680" s="87"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="85"/>
+      <c r="I681" s="87"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="85"/>
+      <c r="I682" s="87"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="85"/>
+      <c r="I683" s="87"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="85"/>
+      <c r="I684" s="87"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="85"/>
+      <c r="I685" s="87"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="85"/>
+      <c r="I686" s="87"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="85"/>
+      <c r="I687" s="87"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="85"/>
+      <c r="I688" s="87"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="85"/>
+      <c r="I689" s="87"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="85"/>
+      <c r="I690" s="87"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="85"/>
+      <c r="I691" s="87"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="85"/>
+      <c r="I692" s="87"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="85"/>
+      <c r="I693" s="87"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="85"/>
+      <c r="I694" s="87"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="85"/>
+      <c r="I695" s="87"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="85"/>
+      <c r="I696" s="87"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="85"/>
+      <c r="I697" s="87"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="85"/>
+      <c r="I698" s="87"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="85"/>
+      <c r="I699" s="87"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="85"/>
+      <c r="I700" s="87"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="85"/>
+      <c r="I701" s="87"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="85"/>
+      <c r="I702" s="87"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="85"/>
+      <c r="I703" s="87"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="85"/>
+      <c r="I704" s="87"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="85"/>
+      <c r="I705" s="87"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="85"/>
+      <c r="I706" s="87"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="85"/>
+      <c r="I707" s="87"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="85"/>
+      <c r="I708" s="87"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="85"/>
+      <c r="I709" s="87"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="85"/>
+      <c r="I710" s="87"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="85"/>
+      <c r="I711" s="87"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="85"/>
+      <c r="I712" s="87"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="85"/>
+      <c r="I713" s="87"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="85"/>
+      <c r="I714" s="87"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="85"/>
+      <c r="I715" s="87"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="85"/>
+      <c r="I716" s="87"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="85"/>
+      <c r="I717" s="87"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="85"/>
+      <c r="I718" s="87"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="85"/>
+      <c r="I719" s="87"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="85"/>
+      <c r="I720" s="87"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="85"/>
+      <c r="I721" s="87"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="85"/>
+      <c r="I722" s="87"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="85"/>
+      <c r="I723" s="87"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="85"/>
+      <c r="I724" s="87"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="85"/>
+      <c r="I725" s="87"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="85"/>
+      <c r="I726" s="87"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="85"/>
+      <c r="I727" s="87"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="85"/>
+      <c r="I728" s="87"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="85"/>
+      <c r="I729" s="87"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="85"/>
+      <c r="I730" s="87"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="85"/>
+      <c r="I731" s="87"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="85"/>
+      <c r="I732" s="87"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="85"/>
+      <c r="I733" s="87"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="85"/>
+      <c r="I734" s="87"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="85"/>
+      <c r="I735" s="87"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="85"/>
+      <c r="I736" s="87"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="85"/>
+      <c r="I737" s="87"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="85"/>
+      <c r="I738" s="87"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="85"/>
+      <c r="I739" s="87"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="85"/>
+      <c r="I740" s="87"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="85"/>
+      <c r="I741" s="87"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="85"/>
+      <c r="I742" s="87"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="85"/>
+      <c r="I743" s="87"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="85"/>
+      <c r="I744" s="87"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="85"/>
+      <c r="I745" s="87"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="85"/>
+      <c r="I746" s="87"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="85"/>
+      <c r="I747" s="87"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="85"/>
+      <c r="I748" s="87"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="85"/>
+      <c r="I749" s="87"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="85"/>
+      <c r="I750" s="87"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="85"/>
+      <c r="I751" s="87"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="85"/>
+      <c r="I752" s="87"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="85"/>
+      <c r="I753" s="87"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="85"/>
+      <c r="I754" s="87"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="85"/>
+      <c r="I755" s="87"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="85"/>
+      <c r="I756" s="87"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="85"/>
+      <c r="I757" s="87"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="85"/>
+      <c r="I758" s="87"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I759" s="85"/>
+      <c r="I759" s="87"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I760" s="85"/>
+      <c r="I760" s="87"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I761" s="85"/>
+      <c r="I761" s="87"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I762" s="85"/>
+      <c r="I762" s="87"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I763" s="85"/>
+      <c r="I763" s="87"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I764" s="85"/>
+      <c r="I764" s="87"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I765" s="85"/>
+      <c r="I765" s="87"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I766" s="85"/>
+      <c r="I766" s="87"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I767" s="85"/>
+      <c r="I767" s="87"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I768" s="85"/>
+      <c r="I768" s="87"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I769" s="85"/>
+      <c r="I769" s="87"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I770" s="85"/>
+      <c r="I770" s="87"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I771" s="85"/>
+      <c r="I771" s="87"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I772" s="85"/>
+      <c r="I772" s="87"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I773" s="85"/>
+      <c r="I773" s="87"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I774" s="85"/>
+      <c r="I774" s="87"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I775" s="85"/>
+      <c r="I775" s="87"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I776" s="85"/>
+      <c r="I776" s="87"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I777" s="85"/>
+      <c r="I777" s="87"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I778" s="85"/>
+      <c r="I778" s="87"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I779" s="85"/>
+      <c r="I779" s="87"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I780" s="85"/>
+      <c r="I780" s="87"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I781" s="85"/>
+      <c r="I781" s="87"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I782" s="85"/>
+      <c r="I782" s="87"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I783" s="85"/>
+      <c r="I783" s="87"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I784" s="85"/>
+      <c r="I784" s="87"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I785" s="85"/>
+      <c r="I785" s="87"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I786" s="85"/>
+      <c r="I786" s="87"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I787" s="85"/>
+      <c r="I787" s="87"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I788" s="85"/>
+      <c r="I788" s="87"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I789" s="85"/>
+      <c r="I789" s="87"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I790" s="85"/>
+      <c r="I790" s="87"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I791" s="85"/>
+      <c r="I791" s="87"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I792" s="85"/>
+      <c r="I792" s="87"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I793" s="85"/>
+      <c r="I793" s="87"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I794" s="85"/>
+      <c r="I794" s="87"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I795" s="85"/>
+      <c r="I795" s="87"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I796" s="85"/>
+      <c r="I796" s="87"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I797" s="85"/>
+      <c r="I797" s="87"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I798" s="85"/>
+      <c r="I798" s="87"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I799" s="85"/>
+      <c r="I799" s="87"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I800" s="85"/>
+      <c r="I800" s="87"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I801" s="85"/>
+      <c r="I801" s="87"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I802" s="85"/>
+      <c r="I802" s="87"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I803" s="85"/>
+      <c r="I803" s="87"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I804" s="85"/>
+      <c r="I804" s="87"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I805" s="85"/>
+      <c r="I805" s="87"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I806" s="85"/>
+      <c r="I806" s="87"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I807" s="85"/>
+      <c r="I807" s="87"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I808" s="85"/>
+      <c r="I808" s="87"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I809" s="85"/>
+      <c r="I809" s="87"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I810" s="85"/>
+      <c r="I810" s="87"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I811" s="85"/>
+      <c r="I811" s="87"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I812" s="85"/>
+      <c r="I812" s="87"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I813" s="85"/>
+      <c r="I813" s="87"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I814" s="85"/>
+      <c r="I814" s="87"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I815" s="85"/>
+      <c r="I815" s="87"/>
     </row>
     <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I816" s="85"/>
+      <c r="I816" s="87"/>
     </row>
     <row r="817" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I817" s="85"/>
+      <c r="I817" s="87"/>
     </row>
     <row r="818" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I818" s="85"/>
+      <c r="I818" s="87"/>
     </row>
     <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I819" s="85"/>
+      <c r="I819" s="87"/>
     </row>
     <row r="820" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I820" s="85"/>
+      <c r="I820" s="87"/>
     </row>
     <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I821" s="85"/>
+      <c r="I821" s="87"/>
     </row>
     <row r="822" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I822" s="85"/>
+      <c r="I822" s="87"/>
     </row>
     <row r="823" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I823" s="85"/>
+      <c r="I823" s="87"/>
     </row>
     <row r="824" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I824" s="85"/>
+      <c r="I824" s="87"/>
     </row>
     <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I825" s="85"/>
+      <c r="I825" s="87"/>
     </row>
     <row r="826" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I826" s="85"/>
+      <c r="I826" s="87"/>
     </row>
     <row r="827" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I827" s="85"/>
+      <c r="I827" s="87"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -56991,98 +55833,98 @@
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>261</v>
+      <c r="B1" s="88" t="s">
+        <v>257</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="86" t="s">
-        <v>262</v>
+      <c r="E1" s="88" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>263</v>
+      <c r="B2" s="88" t="s">
+        <v>259</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
-      <c r="E2" s="86" t="s">
-        <v>264</v>
+      <c r="E2" s="88" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>265</v>
+      <c r="B3" s="88" t="s">
+        <v>261</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>266</v>
+      <c r="E3" s="88" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87" t="s">
-        <v>267</v>
+      <c r="A4" s="89" t="s">
+        <v>263</v>
       </c>
-      <c r="B4" s="87" t="s">
-        <v>267</v>
+      <c r="B4" s="89" t="s">
+        <v>263</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
-      <c r="E4" s="86" t="s">
-        <v>268</v>
+      <c r="E4" s="88" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88" t="s">
-        <v>269</v>
+      <c r="A5" s="90" t="s">
+        <v>265</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>270</v>
+      <c r="B5" s="90" t="s">
+        <v>266</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
-      <c r="E5" s="86" t="s">
-        <v>271</v>
+      <c r="E5" s="88" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
-        <v>272</v>
+      <c r="A6" s="90" t="s">
+        <v>268</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>273</v>
+      <c r="B6" s="90" t="s">
+        <v>269</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="86" t="s">
-        <v>274</v>
+      <c r="E6" s="88" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
-        <v>275</v>
+      <c r="A7" s="90" t="s">
+        <v>271</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>276</v>
+      <c r="B7" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s8-2.xlsx
+++ b/sheet/cards_s8-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="367">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">유물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relic</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
@@ -327,6 +330,10 @@
 【상시】 이 《공격》을 수행할 때, 상대의 오라가 1 이하라면, 이 《공격》의 오라 데미지와 라이프 데미지를 서로 바꾼다</t>
   </si>
   <si>
+    <t xml:space="preserve">No Reactions (Special)
+Forced: When this Attack is launched, if your opponent's Aura is 1 or less, swap this Attack's Aura damage and Life damage values.</t>
+  </si>
+  <si>
     <t xml:space="preserve">05-oboro-o-s-3</t>
   </si>
   <si>
@@ -375,6 +382,11 @@
 【전개중/사용됨】 패산을 재구성하기 직전에 설치를 가지는 《공격》이 아닌 카드를 추가로 1장 덮은패에서 사용해도 된다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Initialize: You may move any number of cards from your played pile to your discard pile.
+Ongoing: Arrows on your cards you play from your discard pile become double arrows (⇔).
+Ongoing/Devoted: You may play 1 extra non-Attack card with Trap from your discard pile just before you reshuffle your deck.</t>
+  </si>
+  <si>
     <t xml:space="preserve">07-shinra-A1-n-7</t>
   </si>
   <si>
@@ -419,6 +431,12 @@
 「귀모」 공격 『적정거리 1,3,5, 2/2, 불가피, 【공격후】 상대의 패산 위의 카드 1장을 버림패로, 1장을 덮은패로 보낸다.』를 수행한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Initialize: You may spend 1 Vigor to prepare a new Plan.
+Initialize/Disenchant: Enact your current Plan, then prepare your next one.
+Divine - You attack with "Range: 0, 2, 4, Damage: 2/1, Unavoidable, After Attack: Your opponent chooses 1 card from their hand and 1 card from either their played or discard piles, then puts the chosen cards at the bottom of their deck in any order."
+Devious - You attack with "Range: 1, 3, 5, Damage: 2/2, Unavoidable, After Attack: Put 1 card from the top of your opponent's deck into their played pile, then 1 more into their discard pile."</t>
+  </si>
+  <si>
     <t xml:space="preserve">09-chikage-o-n-4</t>
   </si>
   <si>
@@ -461,6 +479,11 @@
 【공격후】 상대의 손패에 독 카드가 있다면, 기본동작 《휘감기》를 1회 수행한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">All-Out: Forced: This Attack gains +1/+2.
+All-Out: After Attack: Your opponent looks at your Poison pouch and chooses 1 card from it, then puts it into their hand.
+After Attack: If your opponent has a Poison card in their hand, perform the Recover basic action once.</t>
+  </si>
+  <si>
     <t xml:space="preserve">11-thallya-o-n-4</t>
   </si>
   <si>
@@ -493,6 +516,11 @@
     <t xml:space="preserve">연소
 전력화: 【상시】 이 《공격》은 거리확대(근1)과 거리확대(원1)을 얻고 +2/+2 된다.
 【공격후】 전력화로 사용하지 않았다면, 당신의 연소상태의 조화결정을 2개 회복한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combust
+All-Out: Forced: This Attack gets 1 increased Range in both the near and distant directions, and gains +2/+2.
+After Attack: If this card was not played as All-Out, recover 2 burned Artificial Sakura tokens.</t>
   </si>
   <si>
     <t xml:space="preserve">10-kururu-A1-s-3</t>
@@ -545,6 +573,40 @@
 &lt;공&gt; 상대의 덮은패가 0장이라면 상대의 패산 위에서 1장 덮은패로 보낸다. 상대는 덮음패에서 카드를 1장 선택한다. 당신은 카드 이름을 1개 선언하고, 상대는 선택한 카드를 버림패로 만든다. 그 카드의 이름이 일치했다면, 게임 바깥에서 벚꽃결정을 1개 가져와 이 카드 위에 놓는다. 벚꽃결정이 2개가 되었다면, 세기의 대발견을 수행한다.
 ----
 【사용됨】 당신이 패산을 재구성했거나 《전력》 카드를 사용했을 때, 그 턴의 종료 페이즈에 이 카드를 소모값을 지불하지 않고 사용해도 된다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mechanism (ATK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - If your opponent's discard pile has 0 cards in it, put 1 card from the top of your opponent's deck into their discard. Your opponent chooses a card in their discard pile, then you declare a card name. Put your opponent's chosen card into their played pile. If the name matched, move 1 Sakura token from Out-of-Game to this card. If there are 2 Sakura tokens on this card, you make the Discovery of the Century.
+----------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Devoted: When you reshuffle your deck or play a Throughout card, at the end of this turn you may play this card ignoring any costs. (This effect can stack for multiple uses)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">12-raira-o-n-2</t>
@@ -653,6 +715,10 @@
 【사용됨】 당신 또는 상대의 종료 페이즈에, 더스트가 13 이상이라면, 종언의 그림자가 되살아난다. 그 후 이 카드를 게임에서 제외하고, 당신의 추가패에서 「망아」를 사용된 상태로 얻고, 카드를 1장 뽑은 뒤, 당신의 라이프가 6 이상이라면, 라이프가 5가 될 때까지 라이프에서 더스트로 벛꽃결정을 이동시킨다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Terminal
+Devoted: If Shadow is 13 or more at the end of either player's turn, The End is Nigh. Then, remove this card from the game, add your set aside "желание" (Desire) to your Special cards face-up, draw a card, and if your Life is 6 or more move Sakura tokens from it to Shadow until your Life is 5.</t>
+  </si>
+  <si>
     <t xml:space="preserve">20-kanawe-o-s-1</t>
   </si>
   <si>
@@ -685,6 +751,10 @@
   <si>
     <t xml:space="preserve">추가패 또는 달성완료에서 구상 카드를 1장 준비한다. 달성완료에서 준비했다면, 이 카드를 게임에서 제외한다.
 【사용됨】 상대의 개시 페이즈 시작에, 당신이 직전 턴에 구상을 진행하지 않았다면, 이 카드를 미사용 상태로 되돌린다. 그렇게 했다면, 상대는 집중력을 1 얻는다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare one of your set-aside or Achieved Plot cards. If it was an Achieved Plot card, remove this card from the game.
+Devoted: At the beginning of your opponent's turn, if you did not progress a Plot on your previous turn, turn this card face-down. If you do, your opponent gains 1 Vigor.</t>
   </si>
   <si>
     <t xml:space="preserve">21-kamuwi-o-n-2</t>
@@ -726,6 +796,11 @@
 (+1) 【공격후】 상대의 오라가 4 이하라면, 오라(상대)→오라(자신): 1</t>
   </si>
   <si>
+    <t xml:space="preserve">(+1): Forced: This Attack gains +1/+0.
+----
+(+1): After Attack: If your opponent's Aura is 4 or less, Opponent's Aura (1)→ Your Aura</t>
+  </si>
+  <si>
     <t xml:space="preserve">21-kamuwi-o-s-4</t>
   </si>
   <si>
@@ -754,6 +829,30 @@
     <t xml:space="preserve">아래에서 3번 선택한다. 같은 것을 여러 번 선택해도 된다.
 ・간격→더스트:1
 ・당신의 라이프가 8 이하라면, 당신의 금기 게이지를 1 올린다. 그렇게 했다면, 오라(자신)→라이프(자신):1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Choose up to 3. You may choose the same option more than once:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・Distance (1)→ Shadow
+・If your Life is 8 or less, increase your Taboo gauge by 1. If you do, Your Aura (1)→ Your Life</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">22-renri-o-n-6</t>
@@ -894,6 +993,11 @@
 【파기시】 공격 『적정거리 2-5, 1/0』을 수행해도 된다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Unguarded, Investment
+Initialize: Opponent's Aura (1)→ Your Aura. If you have 1 or more Vigor, you may spend all of your Vigor. If you do, perform this arrow effect once more.
+Disenchant: You may attack with "Range: 2-5, Damage: 1/0".</t>
+  </si>
+  <si>
     <t xml:space="preserve">23-akina-o-s-4</t>
   </si>
   <si>
@@ -944,6 +1048,11 @@
 【사용됨】 당신의 메인 페이즈 시작에, 당신은 회수를 수행하는 대신 기본동작 《품기》를 1번 수행해도 된다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Range Restriction (0-6), Investment
+You may Divest. If you do, perform up to 2 Recover basic actions and remove this card from the game.
+Devoted: At the beginning of your main phase, you may perform 1 Focus basic action instead of Divesting.</t>
+  </si>
+  <si>
     <t xml:space="preserve">24-shisui-o-n-7</t>
   </si>
   <si>
@@ -979,6 +1088,31 @@
 ・상대는 상대의 오라, 라이프, 플레어 중 하나를 고른다. 당신은 그곳에 열상 하나를 준다.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Choose X different options from the following. X is equal to the number of times you've taken damage this turn.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・The Attack this reacted to gains +0/-1.
+・Flinch your opponent.
+・Your opponent chooses 1 area from among their Aura, Flare, or Life. Add 1 Laceration to the chosen area.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">24-shisui-o-s-1</t>
   </si>
   <si>
@@ -1006,6 +1140,10 @@
 개시 페이즈와 동일한 순서로 당신의 열상 토큰을 모두 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴 동안 데미지를 받은 횟수의 절반(내림)과 같다.』을 수행한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">Forced: If this card is used as a reaction to an Attack, after that Attack resolves this card's effect activates.
+Exactly like the process during start of turn, convert all of your Laceration tokens into damage. Afterward, attack with "Range: 1-4, Damage: 2/1, No Reactions (Normal), Forced: This attack gains +0/+X, where X is equal to half the number of times you've taken damage this turn (rounded down)."</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-2</t>
   </si>
   <si>
@@ -1024,6 +1162,9 @@
     <t xml:space="preserve">기만의 안개</t>
   </si>
   <si>
+    <t xml:space="preserve">Fog of Deception</t>
+  </si>
+  <si>
     <t xml:space="preserve">不定</t>
   </si>
   <si>
@@ -1035,6 +1176,9 @@
   <si>
     <t xml:space="preserve">【상시】 이 카드를, 상대가 안전구축에서 고를 수 있는 다른 여신의 《부여》가 아닌 통상패로서 통상의 방법으로 사용을 선언해도 된다.
 그렇게 했다면, 상대는 상대의 손패, 덮은패, 버림패로부터 해당 카드를 공개해도 된다. 공개되었다면, 이 카드는 사용되지 않고 버림패가 된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forced: You may declare this card as if it were any non-Renri non-Enhancement Normal card that your opponent could have chosen during deck construction, being played within the regular timing rules of that card. When you do, your opponent may reveal the copied card from their hand, discard or played pile. If they reveal it, place this card in your played pile without being played.</t>
   </si>
   <si>
     <t xml:space="preserve">22-renri-a1-n-5</t>
@@ -1050,6 +1194,9 @@
   </si>
   <si>
     <t xml:space="preserve">신수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divine Gift</t>
   </si>
   <si>
     <t xml:space="preserve">この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。
@@ -1074,6 +1221,13 @@
     <t xml:space="preserve">（사용됨 영역에서 꺼내서 우클릭으로 효과 발동 가능）</t>
   </si>
   <si>
+    <t xml:space="preserve">Put this "Divine Gift" on the top of your deck, then exchange it with a Noral card in your Relic.
+Forced: You may use this "Divine Gift" from played pile just before you reshuffle your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(You can activate the effect by placing it in a used area and right-clicking.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex1</t>
   </si>
   <si>
@@ -1087,6 +1241,9 @@
   </si>
   <si>
     <t xml:space="preserve">거짓의 무기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricated Weapon</t>
   </si>
   <si>
     <t xml:space="preserve">2-4</t>
@@ -1114,6 +1271,13 @@
     <t xml:space="preserve">（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）</t>
   </si>
   <si>
+    <t xml:space="preserve">FalseTrap Falsehood Return
+After Attack: False Inferno - If the third card you play this turn is an attack card, that attack gains +0/+1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(You can return by right-clicking after turning it face up)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex2</t>
   </si>
   <si>
@@ -1127,6 +1291,9 @@
   </si>
   <si>
     <t xml:space="preserve">검의 본질</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essence of Sword</t>
   </si>
   <si>
     <t xml:space="preserve">偽証　回帰
@@ -1147,6 +1314,12 @@
 (이 카드는 여신 '잔카'의 카드로 취급한다.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Falsehood Return
+Forced: Oblation - If there are Sakura tokens on "Resolution", this attack gains +0/+1.
+Forced: When this card returns, your opponent's vigor becomes 0.
+(Treat this card as a Zanka card.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-n-5-ex3</t>
   </si>
   <si>
@@ -1160,6 +1333,9 @@
   </si>
   <si>
     <t xml:space="preserve">최초의 벚꽃방울</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primal Sakura Bell</t>
   </si>
   <si>
     <t xml:space="preserve">偽証　回帰
@@ -1183,6 +1359,13 @@
 (이 카드는 여신 '오우카'의 카드로 취급한다.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Falsehood Return
+Perform a basic action. If this was not refuted, perform one more.
+Luminosity - If there are 5 or less Sakura tokens on Shadow, choose a card in your discard pile and put it on bottom of your deck.
+Forced: When this card returns, Shadow (2)→Your Life.
+(Treat this card as a Ouka card.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22-renri-a1-s-1</t>
   </si>
   <si>
@@ -1202,6 +1385,9 @@
   </si>
   <si>
     <t xml:space="preserve">로루레라라리로</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -1224,6 +1410,12 @@
 【전개중】 당신의 메인 페이즈의 시작에, 카드를 1장 뽑아도 된다.
 【전개중】 상대가 받는 초조 데미지는 2/1이 된다.
 【전개중】 당신의 위증이 반증되지 않았다면, 이 카드를 공개해도 된다. 그것이 거짓이었다면, 집중력을 1 얻는다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devoted: At the end of your turn, you may play this card as if its Charge were 3, but you must pay one of its charge from Your Life.
+Ongoing: At the beginning of your main phase, you may draw a card.
+Ongoing: The Burnout damage that your opponent takes becomes 2/1.
+Ongoing: If your Falsehood was not refuted, you may reveal that card. If it was a fake, you gain 1 Vigor.</t>
   </si>
   <si>
     <t xml:space="preserve">normal</t>
@@ -1283,7 +1475,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1471,6 +1663,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
@@ -1483,6 +1682,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <strike val="true"/>
@@ -1638,7 +1844,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1747,7 +1953,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1883,7 +2089,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1891,7 +2101,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1911,7 +2121,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1923,7 +2133,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1939,11 +2153,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1951,7 +2165,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1959,15 +2173,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1975,7 +2185,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1983,7 +2193,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2078,12 +2288,12 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2211,15 +2421,17 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -2229,11 +2441,11 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" s="10" t="str">
         <f aca="false">"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", IF(V2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8'] as CardSet[]", "")))))))) &amp; ", tarotNo: '" &amp; L2 &amp; "'},"</f>
-        <v>'renri-a1': { name: '歴史家レンリ', nameZh: '역사가 렌리', nameZhG1: '', nameKo: '遺物', nameEn: '遗物', symbol: '', symbolZh: '유물', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'renri', anotherID: 'A1', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8'] as CardSet[], tarotNo: '22'},</v>
+        <v>'renri-a1': { name: '歴史家レンリ', nameZh: '역사가 렌리', nameZhG1: '', nameKo: '遺物', nameEn: '遗物', symbol: '', symbolZh: '유물', symbolZhG1: '', symbolKo: '', symbolEn: 'Relic', base: 'renri', anotherID: 'A1', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8'] as CardSet[], tarotNo: '22'},</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -7082,7 +7294,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
@@ -7121,7 +7333,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
@@ -7160,7 +7372,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
@@ -7199,7 +7411,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
@@ -17508,12 +17720,12 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AH17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AQ1" activeCellId="0" sqref="AQ1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT7" activeCellId="0" sqref="AT7"/>
+      <selection pane="topRight" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="AM23" activeCellId="0" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17556,22 +17768,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>2</v>
@@ -17580,7 +17792,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>4</v>
@@ -17589,158 +17801,158 @@
         <v>5</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="X1" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL1" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN1" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO1" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ1" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR1" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AT1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -17750,30 +17962,30 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="22"/>
       <c r="AE2" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH2" s="24"/>
       <c r="AI2" s="25"/>
       <c r="AJ2" s="21"/>
       <c r="AK2" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="21"/>
       <c r="AM2" s="26"/>
       <c r="AN2" s="21"/>
       <c r="AO2" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ2" s="26"/>
       <c r="AR2" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="26"/>
       <c r="AT2" s="27" t="str">
@@ -18766,54 +18978,54 @@
       <c r="AMJ2" s="30"/>
       <c r="AMK2" s="30"/>
     </row>
-    <row r="3" s="30" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="30" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
       <c r="J3" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W3" s="31"/>
       <c r="X3" s="3"/>
@@ -18824,19 +19036,21 @@
       <c r="AC3" s="21"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF3" s="21"/>
       <c r="AG3" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="25"/>
       <c r="AJ3" s="33"/>
       <c r="AK3" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM3" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="AM3" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="AN3" s="21"/>
       <c r="AO3" s="36"/>
       <c r="AP3" s="36"/>
@@ -18845,7 +19059,7 @@
       <c r="AS3" s="36"/>
       <c r="AT3" s="27" t="str">
         <f aca="false">IF(A3="", "","'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"},")</f>
-        <v>'02-saine-A2-n-2': {megami: 'saine', anotherID: 'A2', replace: '02-saine-o-n-2', name: '裏斬り', nameEn: 'Treachery', nameZh: '里斩', nameZhG1: '', nameKo: '등 베기', ruby: 'うらぎり', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-5', damage: '3/1', text: '対応不可（切札）\n【常時】この《攻撃》が行われた時、相手のオーラが1以下ならば、この《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。', textZh: '不可被对应（王牌）\n【常时】进行此《攻击》时若敌装不大于1，交换此《攻击》的对装伤害和对命伤害。', textZhG1: '', textKo: '대응불가(비장패)\n【상시】 이 《공격》을 수행할 때, 상대의 오라가 1 이하라면, 이 《공격》의 오라 데미지와 라이프 데미지를 서로 바꾼다', textEn: ''},</v>
+        <v>'02-saine-A2-n-2': {megami: 'saine', anotherID: 'A2', replace: '02-saine-o-n-2', name: '裏斬り', nameEn: 'Treachery', nameZh: '里斩', nameZhG1: '', nameKo: '등 베기', ruby: 'うらぎり', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-5', damage: '3/1', text: '対応不可（切札）\n【常時】この《攻撃》が行われた時、相手のオーラが1以下ならば、この《攻撃》のオーラへのダメージとライフへのダメージを入れ替える。', textZh: '不可被对应（王牌）\n【常时】进行此《攻击》时若敌装不大于1，交换此《攻击》的对装伤害和对命伤害。', textZhG1: '', textKo: '대응불가(비장패)\n【상시】 이 《공격》을 수행할 때, 상대의 오라가 1 이하라면, 이 《공격》의 오라 데미지와 라이프 데미지를 서로 바꾼다', textEn: 'No Reactions (Special)\n\nForced: When this Attack is launched, if your opponent\'s Aura is 1 or less, swap this Attack\'s Aura damage and Life damage values.'},</v>
       </c>
       <c r="AU3" s="28" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    /** 《"&amp;$E3&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A3, 3, 1)="-", RIGHT($A3,LEN($A3)-3), $A3)), "-", "_")&amp;": TCardId = '"&amp;$A3&amp;"';", "")</f>
@@ -18856,44 +19070,44 @@
         <v>| '02-saine-A2-n-2'</v>
       </c>
     </row>
-    <row r="4" s="30" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="30" customFormat="true" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I4" s="38"/>
       <c r="J4" s="39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
@@ -18901,29 +19115,31 @@
       <c r="V4" s="37"/>
       <c r="W4" s="36"/>
       <c r="X4" s="37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="37"/>
       <c r="Z4" s="37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA4" s="37"/>
       <c r="AB4" s="41"/>
       <c r="AC4" s="41"/>
       <c r="AE4" s="41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF4" s="41"/>
       <c r="AG4" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="25"/>
       <c r="AJ4" s="33"/>
       <c r="AK4" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM4" s="42"/>
+        <v>115</v>
+      </c>
+      <c r="AM4" s="42" t="s">
+        <v>116</v>
+      </c>
       <c r="AN4" s="21"/>
       <c r="AO4" s="36"/>
       <c r="AP4" s="36"/>
@@ -18932,7 +19148,7 @@
       <c r="AS4" s="36"/>
       <c r="AT4" s="27" t="str">
         <f aca="false">IF(A4="", "","'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"},")</f>
-        <v>'05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', nameEn: 'Uro-Uo', nameZh: '虚鱼', nameZhG1: '虚鱼', nameKo: '우로우오', ruby: 'うろうお', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '2', text: '【展開時】あなたは捨て札を好きな枚数だけ伏せ札にする。\n【展開中】あなたが伏せ札から使用するカードの矢印は両矢印（⇔）になる。\n【展開中/使用済】山札を再構成する直前に設置を持つ《攻撃》でないカードを追加で1枚伏せ札から使用できる。', textZh: '【展开时】你将任意数量的弃牌盖伏。\n【展开中】你从盖牌中使用的牌的箭头视为双箭头（↔）。\n【展开中/使用后】重铸牌库前可以从盖牌追加使用一张具有设置的非《攻击》的牌。', textZhG1: '', textKo: '【전개시】 당신은 버림패를 원하는 숫자만큼 덮은패로 보내도 된다.\n【전개중】 당신이 덮은패에서 사용하는 카드의 화살표는 양방향 화살표(↔)가 된다.\n【전개중/사용됨】 패산을 재구성하기 직전에 설치를 가지는 《공격》이 아닌 카드를 추가로 1장 덮은패에서 사용해도 된다.', textEn: ''},</v>
+        <v>'05-oboro-o-s-3': {megami: 'oboro', name: '虚魚', nameEn: 'Uro-Uo', nameZh: '虚鱼', nameZhG1: '虚鱼', nameKo: '우로우오', ruby: 'うろうお', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '2', text: '【展開時】あなたは捨て札を好きな枚数だけ伏せ札にする。\n【展開中】あなたが伏せ札から使用するカードの矢印は両矢印（⇔）になる。\n【展開中/使用済】山札を再構成する直前に設置を持つ《攻撃》でないカードを追加で1枚伏せ札から使用できる。', textZh: '【展开时】你将任意数量的弃牌盖伏。\n【展开中】你从盖牌中使用的牌的箭头视为双箭头（↔）。\n【展开中/使用后】重铸牌库前可以从盖牌追加使用一张具有设置的非《攻击》的牌。', textZhG1: '', textKo: '【전개시】 당신은 버림패를 원하는 숫자만큼 덮은패로 보내도 된다.\n【전개중】 당신이 덮은패에서 사용하는 카드의 화살표는 양방향 화살표(↔)가 된다.\n【전개중/사용됨】 패산을 재구성하기 직전에 설치를 가지는 《공격》이 아닌 카드를 추가로 1장 덮은패에서 사용해도 된다.', textEn: 'Initialize: You may move any number of cards from your played pile to your discard pile.\n\nOngoing: Arrows on your cards you play from your discard pile become double arrows (⇔).\n\nOngoing/Devoted: You may play 1 extra non-Attack card with Trap from your discard pile just before you reshuffle your deck.'},</v>
       </c>
       <c r="AU4" s="28" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    /** 《"&amp;$E4&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A4, 3, 1)="-", RIGHT($A4,LEN($A4)-3), $A4)), "-", "_")&amp;": TCardId = '"&amp;$A4&amp;"';", "")</f>
@@ -18943,76 +19159,78 @@
         <v>| '05-oboro-o-s-3'</v>
       </c>
     </row>
-    <row r="5" s="30" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="30" customFormat="true" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L5" s="43"/>
       <c r="M5" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
       <c r="Q5" s="43"/>
       <c r="R5" s="43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T5" s="43"/>
       <c r="U5" s="46"/>
       <c r="V5" s="43"/>
       <c r="W5" s="46"/>
       <c r="X5" s="43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
       <c r="AE5" s="47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF5" s="48"/>
       <c r="AG5" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AH5" s="21"/>
       <c r="AI5" s="25"/>
       <c r="AJ5" s="33"/>
       <c r="AK5" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM5" s="42"/>
+        <v>127</v>
+      </c>
+      <c r="AM5" s="42" t="s">
+        <v>128</v>
+      </c>
       <c r="AN5" s="21"/>
       <c r="AO5" s="36"/>
       <c r="AP5" s="36"/>
@@ -19021,7 +19239,7 @@
       <c r="AS5" s="36"/>
       <c r="AT5" s="27" t="str">
         <f aca="false">IF(A5="", "","'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"},")</f>
-        <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '【展開時】集中力を1支払い、計略を準備してもよい。\n【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離0, 2, 4、2/1、不可避、【攻撃後】相手は手札から1枚と捨て札か伏せ札から1枚を選び、それらを山札の底に任意の順番で置く』を行う。\n[鬼謀] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。', textZh: '【展开时】可以支付1点集中力来准备计略。\n【展开时/破弃时】实行当前计略，准备下个计略。\n----\n[神算] 进行一次“攻击距离0,2,4 伤害2/1 不可被闪避 【攻击后】对手从手牌中选择1张牌并从弃牌或者盖牌中选择1张牌，将那些牌以任意顺序置于牌库底”的攻击。\n----\n[鬼谋] 进行一次“攻击距离1,3,5 伤害2/2 不可被闪避 【攻击后】对手从牌库顶弃掉1张牌，盖伏1张牌”的攻击。', textZhG1: '', textKo: '【전개시】 집중력 1을 지불하고, 계략을 준비해도 된다.\n【전개시/파기시】 계략을 실행하고, 다음번 계략을 준비한다.\n「신산」 공격 『 적정거리 0,2,4, 2/1, 불가피, 【공격후】 상대는 손패에서 1장, 버림패나 덮은패에서 1장의 카드를 고른 뒤 그들을 패산 아래에 임의의 순서로 놓는다.』를 수행한다.\n「귀모」 공격 『적정거리 1,3,5, 2/2, 불가피, 【공격후】 상대의 패산 위의 카드 1장을 버림패로, 1장을 덮은패로 보낸다.』를 수행한다.', textEn: ''},</v>
+        <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '【展開時】集中力を1支払い、計略を準備してもよい。\n【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離0, 2, 4、2/1、不可避、【攻撃後】相手は手札から1枚と捨て札か伏せ札から1枚を選び、それらを山札の底に任意の順番で置く』を行う。\n[鬼謀] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。', textZh: '【展开时】可以支付1点集中力来准备计略。\n【展开时/破弃时】实行当前计略，准备下个计略。\n----\n[神算] 进行一次“攻击距离0,2,4 伤害2/1 不可被闪避 【攻击后】对手从手牌中选择1张牌并从弃牌或者盖牌中选择1张牌，将那些牌以任意顺序置于牌库底”的攻击。\n----\n[鬼谋] 进行一次“攻击距离1,3,5 伤害2/2 不可被闪避 【攻击后】对手从牌库顶弃掉1张牌，盖伏1张牌”的攻击。', textZhG1: '', textKo: '【전개시】 집중력 1을 지불하고, 계략을 준비해도 된다.\n【전개시/파기시】 계략을 실행하고, 다음번 계략을 준비한다.\n「신산」 공격 『 적정거리 0,2,4, 2/1, 불가피, 【공격후】 상대는 손패에서 1장, 버림패나 덮은패에서 1장의 카드를 고른 뒤 그들을 패산 아래에 임의의 순서로 놓는다.』를 수행한다.\n「귀모」 공격 『적정거리 1,3,5, 2/2, 불가피, 【공격후】 상대의 패산 위의 카드 1장을 버림패로, 1장을 덮은패로 보낸다.』를 수행한다.', textEn: 'Initialize: You may spend 1 Vigor to prepare a new Plan.\n\nInitialize/Disenchant: Enact your current Plan, then prepare your next one.\n\nDivine - You attack with "Range: 0, 2, 4, Damage: 2/1, Unavoidable, After Attack: Your opponent chooses 1 card from their hand and 1 card from either their played or discard piles, then puts the chosen cards at the bottom of their deck in any order."\n\nDevious - You attack with "Range: 1, 3, 5, Damage: 2/2, Unavoidable, After Attack: Put 1 card from the top of your opponent\'s deck into their played pile, then 1 more into their discard pile."'},</v>
       </c>
       <c r="AU5" s="28" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    /** 《"&amp;$E5&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A5, 3, 1)="-", RIGHT($A5,LEN($A5)-3), $A5)), "-", "_")&amp;": TCardId = '"&amp;$A5&amp;"';", "")</f>
@@ -19032,50 +19250,50 @@
         <v>| '07-shinra-A1-n-7'</v>
       </c>
     </row>
-    <row r="6" s="30" customFormat="true" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="30" customFormat="true" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="13"/>
       <c r="J6" s="50" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="12"/>
       <c r="M6" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W6" s="14"/>
       <c r="X6" s="12"/>
@@ -19084,23 +19302,25 @@
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AE6" s="52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF6" s="53" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG6" s="32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH6" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AI6" s="25"/>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM6" s="42"/>
+        <v>140</v>
+      </c>
+      <c r="AM6" s="42" t="s">
+        <v>141</v>
+      </c>
       <c r="AN6" s="21"/>
       <c r="AO6" s="36"/>
       <c r="AP6" s="36"/>
@@ -19109,7 +19329,7 @@
       <c r="AS6" s="36"/>
       <c r="AT6" s="27" t="str">
         <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
-        <v>'09-chikage-o-n-4': {megami: 'chikage', name: '暗器', nameEn: '', nameZh: '暗器', nameZhG1: '', nameKo: '암기', ruby: 'あんき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-5', damage: '1/1', text: '全力化：【常時】この《攻撃》は+1/+2となる。\n全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。\n【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。', textAdditional: '（毒袋領域を右クリックすることで、相手に毒袋の中身を見せることが可能）', textZh: '全力化：【常时】此《攻击》得+1/+2。\n全力化：【攻击后】对手查看你的毒袋并从中选择1张加入手牌。\n【攻击后】对手手牌中有毒牌的话，进行1次基本动作《装附》。', textZhG1: '', textZhAdditional: '（在毒袋区域右键可以让对手查看毒袋）', textKo: '전력화: 【상시】 이 《공격》은 +1/+2 된다.\n전력화: 【공격후】 상대는 당신의 독주머니를 보고 그 중에서 1장을 골라 그것을 상대의 손패에 추가한다.\n【공격후】 상대의 손패에 독 카드가 있다면, 기본동작 《휘감기》를 1회 수행한다.', textEn: ''},</v>
+        <v>'09-chikage-o-n-4': {megami: 'chikage', name: '暗器', nameEn: '', nameZh: '暗器', nameZhG1: '', nameKo: '암기', ruby: 'あんき', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-5', damage: '1/1', text: '全力化：【常時】この《攻撃》は+1/+2となる。\n全力化：【攻撃後】相手はあなたの毒袋を見てその中から1枚を選び、それを相手の手札に加える。\n【攻撃後】相手の手札に毒カードがあるならば、基本動作《纏い》を1回行う。', textAdditional: '（毒袋領域を右クリックすることで、相手に毒袋の中身を見せることが可能）', textZh: '全力化：【常时】此《攻击》得+1/+2。\n全力化：【攻击后】对手查看你的毒袋并从中选择1张加入手牌。\n【攻击后】对手手牌中有毒牌的话，进行1次基本动作《装附》。', textZhG1: '', textZhAdditional: '（在毒袋区域右键可以让对手查看毒袋）', textKo: '전력화: 【상시】 이 《공격》은 +1/+2 된다.\n전력화: 【공격후】 상대는 당신의 독주머니를 보고 그 중에서 1장을 골라 그것을 상대의 손패에 추가한다.\n【공격후】 상대의 손패에 독 카드가 있다면, 기본동작 《휘감기》를 1회 수행한다.', textEn: 'All-Out: Forced: This Attack gains +1/+2.\n\nAll-Out: After Attack: Your opponent looks at your Poison pouch and chooses 1 card from it, then puts it into their hand.\n\nAfter Attack: If your opponent has a Poison card in their hand, perform the Recover basic action once.'},</v>
       </c>
       <c r="AU6" s="28" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    /** 《"&amp;$E6&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A6, 3, 1)="-", RIGHT($A6,LEN($A6)-3), $A6)), "-", "_")&amp;": TCardId = '"&amp;$A6&amp;"';", "")</f>
@@ -19120,54 +19340,54 @@
         <v>| '09-chikage-o-n-4'</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="74" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="U7" s="31"/>
       <c r="V7" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W7" s="31"/>
       <c r="X7" s="3"/>
@@ -19178,20 +19398,22 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="21" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="56" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="57"/>
       <c r="AJ7" s="57"/>
       <c r="AK7" s="56" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AL7" s="58"/>
-      <c r="AM7" s="56"/>
+      <c r="AM7" s="56" t="s">
+        <v>151</v>
+      </c>
       <c r="AN7" s="31"/>
       <c r="AO7" s="31"/>
       <c r="AP7" s="31"/>
@@ -19200,7 +19422,7 @@
       <c r="AS7" s="36"/>
       <c r="AT7" s="27" t="str">
         <f aca="false">IF(A7="", "","'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"},")</f>
-        <v>'11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', nameEn: 'Steam Cannon', nameZh: 'Steam Cannon', nameZhG1: 'Steam Cannon', nameKo: 'Steam Cannon', ruby: 'スチームカノン', rubyEn: '', rubyZh: '蒸汽大炮', baseType: 'normal', type: 'attack', range: '3-7', damage: '1/1', text: '燃焼\n全力化：【常時】この《攻撃》は距離拡大（近1）と距離拡大（遠1）を得て、+2/+2となる。\n【攻撃後】全力化していないならば、あなたの燃焼済の造花結晶を2つ回復する。\n', textZh: '燃烧\n全力化：【常时】此《攻击》获得距离扩大（近1）和距离扩大（远1），且得+2/+2。\n【攻击后】若非全力化，则回复你2个已燃烧的造花结晶。', textZhG1: '', textKo: '연소\n전력화: 【상시】 이 《공격》은 거리확대(근1)과 거리확대(원1)을 얻고 +2/+2 된다.\n【공격후】 전력화로 사용하지 않았다면, 당신의 연소상태의 조화결정을 2개 회복한다.', textEn: ''},</v>
+        <v>'11-thallya-o-n-4': {megami: 'thallya', name: 'Steam Cannon', nameEn: 'Steam Cannon', nameZh: 'Steam Cannon', nameZhG1: 'Steam Cannon', nameKo: 'Steam Cannon', ruby: 'スチームカノン', rubyEn: '', rubyZh: '蒸汽大炮', baseType: 'normal', type: 'attack', range: '3-7', damage: '1/1', text: '燃焼\n全力化：【常時】この《攻撃》は距離拡大（近1）と距離拡大（遠1）を得て、+2/+2となる。\n【攻撃後】全力化していないならば、あなたの燃焼済の造花結晶を2つ回復する。\n', textZh: '燃烧\n全力化：【常时】此《攻击》获得距离扩大（近1）和距离扩大（远1），且得+2/+2。\n【攻击后】若非全力化，则回复你2个已燃烧的造花结晶。', textZhG1: '', textKo: '연소\n전력화: 【상시】 이 《공격》은 거리확대(근1)과 거리확대(원1)을 얻고 +2/+2 된다.\n【공격후】 전력화로 사용하지 않았다면, 당신의 연소상태의 조화결정을 2개 회복한다.', textEn: 'Combust\n\nAll-Out: Forced: This Attack gets 1 increased Range in both the near and distant directions, and gains +2/+2.\n\nAfter Attack: If this card was not played as All-Out, recover 2 burned Artificial Sakura tokens.'},</v>
       </c>
       <c r="AU7" s="28" t="str">
         <f aca="false">IF($A7&lt;&gt;"", "    /** 《"&amp;$E7&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A7, 3, 1)="-", RIGHT($A7,LEN($A7)-3), $A7)), "-", "_")&amp;": TCardId = '"&amp;$A7&amp;"';", "")</f>
@@ -20193,48 +20415,48 @@
       <c r="AMO7" s="1"/>
       <c r="AMP7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="172" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -20244,31 +20466,33 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AG8" s="56" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AH8" s="21" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AI8" s="21"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="60" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AL8" s="21"/>
-      <c r="AM8" s="60"/>
+      <c r="AM8" s="61" t="s">
+        <v>166</v>
+      </c>
       <c r="AN8" s="31"/>
       <c r="AO8" s="31"/>
       <c r="AP8" s="31"/>
@@ -20277,7 +20501,7 @@
       <c r="AS8" s="36"/>
       <c r="AT8" s="27" t="str">
         <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
-        <v>'10-kururu-A1-s-3': {megami: 'kururu', anotherID: 'A1', replace: '10-kururu-o-s-3', name: 'らすとりさーち', nameEn: 'Last Research', nameZh: '终极探索', nameZhG1: '不懈探索', nameKo: '라스트 리서치', ruby: '', rubyEn: '', rubyZh: 'Last Research', baseType: 'special', type: 'action', cost: '2', text: '----\n&lt;攻&gt; 相手の伏せ札が0枚ならば相手の山札の上から1枚を伏せ札にする。相手は伏せ札から1枚を選ぶ。あなたはカード名を1つ宣言し、相手は選んだカードを捨て札にする。そのカード名が一致したらこのカードの上にゲーム外から桜花結晶を1つ置く。2つになったら世紀の大発見を行う。\n----\n【使用済】あなたが山札を再構成した時ならびに《全力》カードを使用した時、このターンの終了フェイズにこのカードをコストを支払わずに使用してもよい。', textAdditional: '「世紀の大発見」- 相手の切札を全て見る。その後、あなたか対戦相手のどちらかを選び、そのプレイヤーが宿しているメガミの切札の内、眼前構築で選ばれていない切札5枚をゲーム外から未使用状態で得る。 さらに、使用したあなたの「らすとりさーち」を取り除き、追加札領域にある「ぐらんがりばー」を未使用状態で得る。\n（条件を満たした状態で、このカードを右クリックすることにより発動可能）', textZh: '----\n&lt;攻&gt; 若对手盖牌为0张则盖伏对手牌库顶1张牌。对手选择其盖牌区中的1张牌。你宣言1个牌名，并弃置所选择的牌。若你宣言的牌名与所选择牌的牌名一致，则从游戏外将1个樱花结晶移至此牌上。达到2个后，进行世纪的大发现。\n----\n【使用后】你重铸牌库时或者使用《全力》牌时，那个回合的结束阶段可以免费使用此牌。', textZhG1: '', textZhAdditional: '「世纪的大发现」～查看对手的所有王牌。这之后选择你或者对手，将所选玩家寄宿的女神的王牌中在眼前构筑时没有被选上的5张，从游戏外以未使用的状态获得。再将『终极探索』移出游戏并从追加牌区以未使用的状态获得王牌『壮绝旅途』。', textKo: '----\n&lt;공&gt; 상대의 덮은패가 0장이라면 상대의 패산 위에서 1장 덮은패로 보낸다. 상대는 덮음패에서 카드를 1장 선택한다. 당신은 카드 이름을 1개 선언하고, 상대는 선택한 카드를 버림패로 만든다. 그 카드의 이름이 일치했다면, 게임 바깥에서 벚꽃결정을 1개 가져와 이 카드 위에 놓는다. 벚꽃결정이 2개가 되었다면, 세기의 대발견을 수행한다.\n----\n【사용됨】 당신이 패산을 재구성했거나 《전력》 카드를 사용했을 때, 그 턴의 종료 페이즈에 이 카드를 소모값을 지불하지 않고 사용해도 된다.', textEn: ''},</v>
+        <v>'10-kururu-A1-s-3': {megami: 'kururu', anotherID: 'A1', replace: '10-kururu-o-s-3', name: 'らすとりさーち', nameEn: 'Last Research', nameZh: '终极探索', nameZhG1: '不懈探索', nameKo: '라스트 리서치', ruby: '', rubyEn: '', rubyZh: 'Last Research', baseType: 'special', type: 'action', cost: '2', text: '----\n&lt;攻&gt; 相手の伏せ札が0枚ならば相手の山札の上から1枚を伏せ札にする。相手は伏せ札から1枚を選ぶ。あなたはカード名を1つ宣言し、相手は選んだカードを捨て札にする。そのカード名が一致したらこのカードの上にゲーム外から桜花結晶を1つ置く。2つになったら世紀の大発見を行う。\n----\n【使用済】あなたが山札を再構成した時ならびに《全力》カードを使用した時、このターンの終了フェイズにこのカードをコストを支払わずに使用してもよい。', textAdditional: '「世紀の大発見」- 相手の切札を全て見る。その後、あなたか対戦相手のどちらかを選び、そのプレイヤーが宿しているメガミの切札の内、眼前構築で選ばれていない切札5枚をゲーム外から未使用状態で得る。 さらに、使用したあなたの「らすとりさーち」を取り除き、追加札領域にある「ぐらんがりばー」を未使用状態で得る。\n（条件を満たした状態で、このカードを右クリックすることにより発動可能）', textZh: '----\n&lt;攻&gt; 若对手盖牌为0张则盖伏对手牌库顶1张牌。对手选择其盖牌区中的1张牌。你宣言1个牌名，并弃置所选择的牌。若你宣言的牌名与所选择牌的牌名一致，则从游戏外将1个樱花结晶移至此牌上。达到2个后，进行世纪的大发现。\n----\n【使用后】你重铸牌库时或者使用《全力》牌时，那个回合的结束阶段可以免费使用此牌。', textZhG1: '', textZhAdditional: '「世纪的大发现」～查看对手的所有王牌。这之后选择你或者对手，将所选玩家寄宿的女神的王牌中在眼前构筑时没有被选上的5张，从游戏外以未使用的状态获得。再将『终极探索』移出游戏并从追加牌区以未使用的状态获得王牌『壮绝旅途』。', textKo: '----\n&lt;공&gt; 상대의 덮은패가 0장이라면 상대의 패산 위에서 1장 덮은패로 보낸다. 상대는 덮음패에서 카드를 1장 선택한다. 당신은 카드 이름을 1개 선언하고, 상대는 선택한 카드를 버림패로 만든다. 그 카드의 이름이 일치했다면, 게임 바깥에서 벚꽃결정을 1개 가져와 이 카드 위에 놓는다. 벚꽃결정이 2개가 되었다면, 세기의 대발견을 수행한다.\n----\n【사용됨】 당신이 패산을 재구성했거나 《전력》 카드를 사용했을 때, 그 턴의 종료 페이즈에 이 카드를 소모값을 지불하지 않고 사용해도 된다.', textEn: 'Mechanism (ATK) - If your opponent\'s discard pile has 0 cards in it, put 1 card from the top of your opponent\'s deck into their discard. Your opponent chooses a card in their discard pile, then you declare a card name. Put your opponent\'s chosen card into their played pile. If the name matched, move 1 Sakura token from Out-of-Game to this card. If there are 2 Sakura tokens on this card, you make the Discovery of the Century.\n\n----------\n\nDevoted: When you reshuffle your deck or play a Throughout card, at the end of this turn you may play this card ignoring any costs. (This effect can stack for multiple uses)'},</v>
       </c>
       <c r="AU8" s="28" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    /** 《"&amp;$E8&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A8, 3, 1)="-", RIGHT($A8,LEN($A8)-3), $A8)), "-", "_")&amp;": TCardId = '"&amp;$A8&amp;"';", "")</f>
@@ -21272,50 +21496,50 @@
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>171</v>
       </c>
       <c r="I9" s="54"/>
-      <c r="J9" s="61" t="s">
-        <v>165</v>
+      <c r="J9" s="62" t="s">
+        <v>172</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="U9" s="31"/>
       <c r="V9" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="W9" s="31"/>
       <c r="X9" s="12"/>
@@ -21326,21 +21550,21 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AF9" s="3"/>
-      <c r="AG9" s="62" t="s">
-        <v>170</v>
+      <c r="AG9" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="62"/>
+      <c r="AJ9" s="63"/>
       <c r="AK9" s="33" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AL9" s="33"/>
-      <c r="AM9" s="63" t="s">
-        <v>172</v>
+      <c r="AM9" s="64" t="s">
+        <v>179</v>
       </c>
       <c r="AN9" s="31"/>
       <c r="AO9" s="31"/>
@@ -22345,86 +22569,88 @@
     </row>
     <row r="10" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="55" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="U10" s="31"/>
       <c r="V10" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="W10" s="31"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="21" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AF10" s="21" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AG10" s="56" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AH10" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI10" s="64"/>
+        <v>193</v>
+      </c>
+      <c r="AI10" s="65"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="60" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AL10" s="41"/>
-      <c r="AM10" s="60"/>
+      <c r="AM10" s="60" t="s">
+        <v>195</v>
+      </c>
       <c r="AN10" s="41"/>
       <c r="AO10" s="31"/>
       <c r="AP10" s="31"/>
@@ -22433,7 +22659,7 @@
       <c r="AS10" s="14"/>
       <c r="AT10" s="27" t="str">
         <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
-        <v>'13-utsuro-A1-s-1': {megami: 'utsuro', anotherID: 'A1', replace: '13-utsuro-o-s-1', name: '残響装置:枢式', nameEn: 'Reverberation Device: Kururu-Type', nameZh: '残响装置：枢式', nameZhG1: '残响装置：枢式', nameKo: '잔향장치:쿠루루식', ruby: 'ざんきょうそうち　くるるしき', rubyEn: '', baseType: 'special', type: 'attack', range: '3-10', damage: '2/1', cost: '2', text: '終端\n【使用済】あなたか相手の終了フェイズにダストが13以上ならば、終焉の影が蘇る。その後、このカードを取り除き、あなたの追加札から「望我」を使用済で得て、カードを1枚引き、あなたのライフが6以上ならば、ライフが5になるように桜花結晶をダストに移動させる。', textAdditional: '「終焉の影が蘇る」- 山札、手札、伏せ札、捨て札、付与札にある切札でないカードをすべて取り除き、代わりに「万象乖ク殲滅ノ影」「我ヲ亡クシテ静寂ヲ往ク」「終焉、来タレ」の3枚を捨て札に置き、その後山札を再構成する。\n（条件を満たした状態で、このカードを右クリックすることにより発動可能）', textZh: '终端\n【已使用】若在你或者对手的结束阶段虚有13或以上的话，则终焉之影苏醒。然后将此牌移出游戏，从追加牌区以使用后状态获得王牌『夙愿』，并抓1张牌。自命有6或更多的话，留下其中5个其他全部移至虚。', textZhG1: '', textZhAdditional: '「终焉之影苏醒」～将你手牌、牌库、盖牌区、弃牌区与付与区中的所有非王牌移出游戏（付与牌的破弃时效果不发动），从追加牌区将『万象乖离残灭之影』『灭吾之身静以思』『终焉、降临吧』置入弃牌区，然后重铸牌库。', textKo: '종단\n【사용됨】 당신 또는 상대의 종료 페이즈에, 더스트가 13 이상이라면, 종언의 그림자가 되살아난다. 그 후 이 카드를 게임에서 제외하고, 당신의 추가패에서 「망아」를 사용된 상태로 얻고, 카드를 1장 뽑은 뒤, 당신의 라이프가 6 이상이라면, 라이프가 5가 될 때까지 라이프에서 더스트로 벛꽃결정을 이동시킨다.', textEn: '', removable: true},</v>
+        <v>'13-utsuro-A1-s-1': {megami: 'utsuro', anotherID: 'A1', replace: '13-utsuro-o-s-1', name: '残響装置:枢式', nameEn: 'Reverberation Device: Kururu-Type', nameZh: '残响装置：枢式', nameZhG1: '残响装置：枢式', nameKo: '잔향장치:쿠루루식', ruby: 'ざんきょうそうち　くるるしき', rubyEn: '', baseType: 'special', type: 'attack', range: '3-10', damage: '2/1', cost: '2', text: '終端\n【使用済】あなたか相手の終了フェイズにダストが13以上ならば、終焉の影が蘇る。その後、このカードを取り除き、あなたの追加札から「望我」を使用済で得て、カードを1枚引き、あなたのライフが6以上ならば、ライフが5になるように桜花結晶をダストに移動させる。', textAdditional: '「終焉の影が蘇る」- 山札、手札、伏せ札、捨て札、付与札にある切札でないカードをすべて取り除き、代わりに「万象乖ク殲滅ノ影」「我ヲ亡クシテ静寂ヲ往ク」「終焉、来タレ」の3枚を捨て札に置き、その後山札を再構成する。\n（条件を満たした状態で、このカードを右クリックすることにより発動可能）', textZh: '终端\n【已使用】若在你或者对手的结束阶段虚有13或以上的话，则终焉之影苏醒。然后将此牌移出游戏，从追加牌区以使用后状态获得王牌『夙愿』，并抓1张牌。自命有6或更多的话，留下其中5个其他全部移至虚。', textZhG1: '', textZhAdditional: '「终焉之影苏醒」～将你手牌、牌库、盖牌区、弃牌区与付与区中的所有非王牌移出游戏（付与牌的破弃时效果不发动），从追加牌区将『万象乖离残灭之影』『灭吾之身静以思』『终焉、降临吧』置入弃牌区，然后重铸牌库。', textKo: '종단\n【사용됨】 당신 또는 상대의 종료 페이즈에, 더스트가 13 이상이라면, 종언의 그림자가 되살아난다. 그 후 이 카드를 게임에서 제외하고, 당신의 추가패에서 「망아」를 사용된 상태로 얻고, 카드를 1장 뽑은 뒤, 당신의 라이프가 6 이상이라면, 라이프가 5가 될 때까지 라이프에서 더스트로 벛꽃결정을 이동시킨다.', textEn: 'Terminal\n\nDevoted: If Shadow is 13 or more at the end of either player\'s turn, The End is Nigh. Then, remove this card from the game, add your set aside "желание" (Desire) to your Special cards face-up, draw a card, and if your Life is 6 or more move Sakura tokens from it to Shadow until your Life is 5.', removable: true},</v>
       </c>
       <c r="AU10" s="28" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
@@ -23422,42 +23648,42 @@
       <c r="AMM10" s="1"/>
       <c r="AMN10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="37" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="65" t="s">
-        <v>193</v>
+      <c r="J11" s="66" t="s">
+        <v>201</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -23473,21 +23699,23 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF11" s="66"/>
+      <c r="AE11" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF11" s="67"/>
       <c r="AG11" s="56" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AH11" s="41"/>
       <c r="AI11" s="41"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="60" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AL11" s="41"/>
-      <c r="AM11" s="60"/>
+      <c r="AM11" s="60" t="s">
+        <v>206</v>
+      </c>
       <c r="AN11" s="15"/>
       <c r="AO11" s="14"/>
       <c r="AP11" s="14"/>
@@ -23496,7 +23724,7 @@
       <c r="AS11" s="14"/>
       <c r="AT11" s="27" t="str">
         <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
-        <v>'20-kanawe-o-s-1': {megami: 'kanawe', name: 'たまゆらふみ', nameEn: 'Action to the Word', nameZh: '玉响一瞬书成文', nameZhG1: '玉响书', nameKo: '어렴풋한 이야기', ruby: '', rubyEn: '', baseType: 'special', type: 'action', cost: '1', text: '追加札または達成済から構想カードを1枚準備する。達成済から準備したらこのカードを取り除く。\n【使用済】相手の開始フェイズの開始時に、あなたが直前のターンに構想を進めていないならば、このカードを未使用に戻す。そうした場合、相手は集中力を1得る。\n', textZh: '从追加牌区或从已达成的构想牌中准备1张构想。从已达成的构想牌中准备的话将此牌移出游戏。\n【使用后】在对手的准备阶段开始时，若你在上个回合没有推进构想的话，将此牌变为未使用的状态。若如此做，对手获得1点集中力。', textZhG1: '', textKo: '추가패 또는 달성완료에서 구상 카드를 1장 준비한다. 달성완료에서 준비했다면, 이 카드를 게임에서 제외한다.\n【사용됨】 상대의 개시 페이즈 시작에, 당신이 직전 턴에 구상을 진행하지 않았다면, 이 카드를 미사용 상태로 되돌린다. 그렇게 했다면, 상대는 집중력을 1 얻는다.', textEn: ''},</v>
+        <v>'20-kanawe-o-s-1': {megami: 'kanawe', name: 'たまゆらふみ', nameEn: 'Action to the Word', nameZh: '玉响一瞬书成文', nameZhG1: '玉响书', nameKo: '어렴풋한 이야기', ruby: '', rubyEn: '', baseType: 'special', type: 'action', cost: '1', text: '追加札または達成済から構想カードを1枚準備する。達成済から準備したらこのカードを取り除く。\n【使用済】相手の開始フェイズの開始時に、あなたが直前のターンに構想を進めていないならば、このカードを未使用に戻す。そうした場合、相手は集中力を1得る。\n', textZh: '从追加牌区或从已达成的构想牌中准备1张构想。从已达成的构想牌中准备的话将此牌移出游戏。\n【使用后】在对手的准备阶段开始时，若你在上个回合没有推进构想的话，将此牌变为未使用的状态。若如此做，对手获得1点集中力。', textZhG1: '', textKo: '추가패 또는 달성완료에서 구상 카드를 1장 준비한다. 달성완료에서 준비했다면, 이 카드를 게임에서 제외한다.\n【사용됨】 상대의 개시 페이즈 시작에, 당신이 직전 턴에 구상을 진행하지 않았다면, 이 카드를 미사용 상태로 되돌린다. 그렇게 했다면, 상대는 집중력을 1 얻는다.', textEn: 'Prepare one of your set-aside or Achieved Plot cards. If it was an Achieved Plot card, remove this card from the game.\n\nDevoted: At the beginning of your opponent\'s turn, if you did not progress a Plot on your previous turn, turn this card face-down. If you do, your opponent gains 1 Vigor.'},</v>
       </c>
       <c r="AU11" s="28" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
@@ -23511,52 +23739,52 @@
       <c r="AML11" s="11"/>
       <c r="AMM11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>213</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="U12" s="36"/>
       <c r="V12" s="37" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="W12" s="36"/>
       <c r="X12" s="37"/>
@@ -23566,21 +23794,23 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
-      <c r="AE12" s="70" t="s">
-        <v>206</v>
+      <c r="AE12" s="71" t="s">
+        <v>215</v>
       </c>
       <c r="AF12" s="41"/>
       <c r="AG12" s="56" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AH12" s="41"/>
       <c r="AI12" s="41"/>
       <c r="AJ12" s="41"/>
       <c r="AK12" s="60" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AL12" s="41"/>
-      <c r="AM12" s="60"/>
+      <c r="AM12" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="AN12" s="21"/>
       <c r="AO12" s="36"/>
       <c r="AP12" s="36"/>
@@ -23589,7 +23819,7 @@
       <c r="AS12" s="36"/>
       <c r="AT12" s="27" t="str">
         <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
-        <v>'21-kamuwi-o-n-2': {megami: 'kamuwi', name: '散華刃', nameEn: 'Scattering Strike', nameZh: '散华刃', nameZhG1: '散华刃', nameKo: '흩날리는 칼날', ruby: 'さんげじん', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-4', damage: '2/1', text: '(+1) 【常時】この《攻撃》は+1/+0となる。\n----\n(+1) 【攻撃後】相手のオーラが4以下ならば、相オーラ→自オーラ：1', textZh: '(+1) 【常时】此《攻击》得+1/+0。\n----\n(+1) 【攻击后】敌装仅4或以下的话，敌装→1→自装', textZhG1: '', textKo: '(+1) 【상시】 이 《공격》은 +1/+0 된다.\n----\n(+1) 【공격후】 상대의 오라가 4 이하라면, 오라(상대)→오라(자신): 1', textEn: ''},</v>
+        <v>'21-kamuwi-o-n-2': {megami: 'kamuwi', name: '散華刃', nameEn: 'Scattering Strike', nameZh: '散华刃', nameZhG1: '散华刃', nameKo: '흩날리는 칼날', ruby: 'さんげじん', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-4', damage: '2/1', text: '(+1) 【常時】この《攻撃》は+1/+0となる。\n----\n(+1) 【攻撃後】相手のオーラが4以下ならば、相オーラ→自オーラ：1', textZh: '(+1) 【常时】此《攻击》得+1/+0。\n----\n(+1) 【攻击后】敌装仅4或以下的话，敌装→1→自装', textZhG1: '', textKo: '(+1) 【상시】 이 《공격》은 +1/+0 된다.\n----\n(+1) 【공격후】 상대의 오라가 4 이하라면, 오라(상대)→오라(자신): 1', textEn: '(+1): Forced: This Attack gains +1/+0.\n----\n(+1): After Attack: If your opponent\'s Aura is 4 or less, Opponent\'s Aura (1)→ Your Aura'},</v>
       </c>
       <c r="AU12" s="28" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>
@@ -24578,44 +24808,44 @@
       <c r="AMK12" s="30"/>
       <c r="AML12" s="30"/>
     </row>
-    <row r="13" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>213</v>
+        <v>221</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>223</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -24625,27 +24855,29 @@
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
-      <c r="AE13" s="70" t="s">
-        <v>214</v>
+      <c r="AE13" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="AF13" s="41"/>
       <c r="AG13" s="56" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AH13" s="41"/>
       <c r="AI13" s="41"/>
       <c r="AJ13" s="41"/>
       <c r="AK13" s="60" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AL13" s="41"/>
-      <c r="AM13" s="60"/>
+      <c r="AM13" s="72" t="s">
+        <v>227</v>
+      </c>
       <c r="AN13" s="21"/>
       <c r="AO13" s="36"/>
       <c r="AP13" s="36"/>
@@ -24654,7 +24886,7 @@
       <c r="AS13" s="36"/>
       <c r="AT13" s="27" t="str">
         <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
-        <v>'21-kamuwi-o-s-4': {megami: 'kamuwi', name: '理', nameEn: 'Balance', nameZh: '理', nameZhG1: '理', nameKo: '이치', ruby: 'ことわり', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: '以下を3回まで選ぶ。 同じものを複数回選んでもよい。\n・間合→ダスト：1\n・あなたのライフが8以下ならば、あなたの禁忌ゲージを1上げる。そうした場合、自オーラ→自ライフ：1', textZh: '选择以下最多3次，可以重复选择：\n·距→1→虚\n·自命不大于8的话，你的禁忌槽上升1。若如此做，自装→1→自命', textZhG1: '', textKo: '아래에서 3번 선택한다. 같은 것을 여러 번 선택해도 된다.\n・간격→더스트:1\n・당신의 라이프가 8 이하라면, 당신의 금기 게이지를 1 올린다. 그렇게 했다면, 오라(자신)→라이프(자신):1', textEn: ''},</v>
+        <v>'21-kamuwi-o-s-4': {megami: 'kamuwi', name: '理', nameEn: 'Balance', nameZh: '理', nameZhG1: '理', nameKo: '이치', ruby: 'ことわり', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: '以下を3回まで選ぶ。 同じものを複数回選んでもよい。\n・間合→ダスト：1\n・あなたのライフが8以下ならば、あなたの禁忌ゲージを1上げる。そうした場合、自オーラ→自ライフ：1', textZh: '选择以下最多3次，可以重复选择：\n·距→1→虚\n·自命不大于8的话，你的禁忌槽上升1。若如此做，自装→1→自命', textZhG1: '', textKo: '아래에서 3번 선택한다. 같은 것을 여러 번 선택해도 된다.\n・간격→더스트:1\n・당신의 라이프가 8 이하라면, 당신의 금기 게이지를 1 올린다. 그렇게 했다면, 오라(자신)→라이프(자신):1', textEn: 'Choose up to 3. You may choose the same option more than once:\n・Distance (1)→ Shadow\n・If your Life is 8 or less, increase your Taboo gauge by 1. If you do, Your Aura (1)→ Your Life'},</v>
       </c>
       <c r="AU13" s="28" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    /** 《"&amp;$E13&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A13, 3, 1)="-", RIGHT($A13,LEN($A13)-3), $A13)), "-", "_")&amp;": TCardId = '"&amp;$A13&amp;"';", "")</f>
@@ -25645,47 +25877,47 @@
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="I14" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>234</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T14" s="37"/>
       <c r="U14" s="36"/>
@@ -25695,27 +25927,27 @@
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
       <c r="AE14" s="41" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AF14" s="41"/>
-      <c r="AG14" s="72" t="s">
-        <v>226</v>
+      <c r="AG14" s="74" t="s">
+        <v>237</v>
       </c>
       <c r="AH14" s="41"/>
       <c r="AI14" s="41"/>
       <c r="AJ14" s="41"/>
-      <c r="AK14" s="73" t="s">
-        <v>227</v>
+      <c r="AK14" s="75" t="s">
+        <v>238</v>
       </c>
       <c r="AL14" s="41"/>
-      <c r="AM14" s="74" t="s">
-        <v>228</v>
+      <c r="AM14" s="76" t="s">
+        <v>239</v>
       </c>
       <c r="AN14" s="21"/>
       <c r="AO14" s="36"/>
@@ -26714,43 +26946,43 @@
       <c r="AMK14" s="30"/>
       <c r="AML14" s="30"/>
     </row>
-    <row r="15" customFormat="false" ht="53" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="38"/>
       <c r="J15" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" s="75"/>
+        <v>244</v>
+      </c>
+      <c r="K15" s="77"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S15" s="37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T15" s="37"/>
       <c r="U15" s="36"/>
@@ -26765,23 +26997,25 @@
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
       <c r="AD15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE15" s="76" t="s">
-        <v>234</v>
+        <v>32</v>
+      </c>
+      <c r="AE15" s="78" t="s">
+        <v>245</v>
       </c>
       <c r="AF15" s="41"/>
       <c r="AG15" s="56" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AH15" s="41"/>
       <c r="AI15" s="41"/>
       <c r="AJ15" s="41"/>
       <c r="AK15" s="60" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AL15" s="41"/>
-      <c r="AM15" s="60"/>
+      <c r="AM15" s="60" t="s">
+        <v>248</v>
+      </c>
       <c r="AN15" s="21"/>
       <c r="AO15" s="36"/>
       <c r="AP15" s="36"/>
@@ -26790,7 +27024,7 @@
       <c r="AS15" s="36"/>
       <c r="AT15" s="27" t="str">
         <f aca="false">IF(A15="", "","'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"},")</f>
-        <v>'23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '直接金融', nameZhG1: '', nameKo: '직접금융', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '隙　投資券\n【展開時】相オーラ→自オーラ：1\n1以上の集中力を全て支払ってもよい。 そうした場合、この矢印効果をもう1回行う。\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '破绽 投资券\n【展开时】敌装→1→自装\n可以支付所有集中力（至少1点），若如此做，重复1次这个箭头效果。\n【破弃时】进行一次“攻击距离2-5、伤害1/0”的攻击。', textZhG1: '', textKo: '빈틈, 투자권\n【전개시】 오라(상대)→오라(자신):1\n집중력이 1 이상 있다면 전부 지불해도 된다. 그렇게 했다면, 이 화살표 효과를 1회 더 수행한다.\n【파기시】 공격 『적정거리 2-5, 1/0』을 수행해도 된다.', textEn: '', investable: true},</v>
+        <v>'23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '直接金融', nameZhG1: '', nameKo: '직접금융', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '隙　投資券\n【展開時】相オーラ→自オーラ：1\n1以上の集中力を全て支払ってもよい。 そうした場合、この矢印効果をもう1回行う。\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '破绽 投资券\n【展开时】敌装→1→自装\n可以支付所有集中力（至少1点），若如此做，重复1次这个箭头效果。\n【破弃时】进行一次“攻击距离2-5、伤害1/0”的攻击。', textZhG1: '', textKo: '빈틈, 투자권\n【전개시】 오라(상대)→오라(자신):1\n집중력이 1 이상 있다면 전부 지불해도 된다. 그렇게 했다면, 이 화살표 효과를 1회 더 수행한다.\n【파기시】 공격 『적정거리 2-5, 1/0』을 수행해도 된다.', textEn: 'Unguarded, Investment\n\nInitialize: Opponent\'s Aura (1)→ Your Aura. If you have 1 or more Vigor, you may spend all of your Vigor. If you do, perform this arrow effect once more.\n\nDisenchant: You may attack with "Range: 2-5, Damage: 1/0".', investable: true},</v>
       </c>
       <c r="AU15" s="28" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    /** 《"&amp;$E15&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A15, 3, 1)="-", RIGHT($A15,LEN($A15)-3), $A15)), "-", "_")&amp;": TCardId = '"&amp;$A15&amp;"';", "")</f>
@@ -27778,40 +28012,40 @@
       <c r="AMJ15" s="30"/>
       <c r="AMK15" s="30"/>
     </row>
-    <row r="16" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="K16" s="75"/>
+        <v>253</v>
+      </c>
+      <c r="K16" s="77"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -27821,31 +28055,33 @@
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
       <c r="AC16" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE16" s="76" t="s">
-        <v>243</v>
+        <v>32</v>
+      </c>
+      <c r="AE16" s="78" t="s">
+        <v>255</v>
       </c>
       <c r="AF16" s="41"/>
       <c r="AG16" s="56" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH16" s="41"/>
       <c r="AI16" s="41"/>
       <c r="AJ16" s="41"/>
       <c r="AK16" s="60" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AL16" s="41"/>
-      <c r="AM16" s="60"/>
+      <c r="AM16" s="60" t="s">
+        <v>258</v>
+      </c>
       <c r="AN16" s="21"/>
       <c r="AO16" s="36"/>
       <c r="AP16" s="36"/>
@@ -27854,7 +28090,7 @@
       <c r="AS16" s="36"/>
       <c r="AT16" s="27" t="str">
         <f aca="false">IF(A16="", "","'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;IF(AD16="○",", investable: true","")&amp;"},")</f>
-        <v>'23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '源上安歧那的妙算', nameZhG1: '', nameKo: '미나카미 아키나의 정확한 계산', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-6）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたのメインフェイズの開始時に、あなたは回収を行う代わりに基本動作《宿し》を1回行ってもよい。', textZh: '距离限制（0-6） 投资券\n可以进行回收。若如此做，进行最多2次基本动作《装附》，将此卡移出游戏。\n【使用后】你的准备阶段开始时，可以进行一次基本动作《聚气》代替使用回收。', textZhG1: '', textKo: '간격제한(0-6) 투자권\n회수를 수행해도 된다. 그렇게 한 경우, 기본동작 《휘감기》를 2번까지 수행하고, 이 카드를 게임에서 제외한다.\n【사용됨】 당신의 메인 페이즈 시작에, 당신은 회수를 수행하는 대신 기본동작 《품기》를 1번 수행해도 된다.', textEn: '', removable: true, investable: true},</v>
+        <v>'23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '源上安歧那的妙算', nameZhG1: '', nameKo: '미나카미 아키나의 정확한 계산', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-6）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたのメインフェイズの開始時に、あなたは回収を行う代わりに基本動作《宿し》を1回行ってもよい。', textZh: '距离限制（0-6） 投资券\n可以进行回收。若如此做，进行最多2次基本动作《装附》，将此卡移出游戏。\n【使用后】你的准备阶段开始时，可以进行一次基本动作《聚气》代替使用回收。', textZhG1: '', textKo: '간격제한(0-6) 투자권\n회수를 수행해도 된다. 그렇게 한 경우, 기본동작 《휘감기》를 2번까지 수행하고, 이 카드를 게임에서 제외한다.\n【사용됨】 당신의 메인 페이즈 시작에, 당신은 회수를 수행하는 대신 기본동작 《품기》를 1번 수행해도 된다.', textEn: 'Range Restriction (0-6), Investment\n\nYou may Divest. If you do, perform up to 2 Recover basic actions and remove this card from the game.\n\nDevoted: At the beginning of your main phase, you may perform 1 Focus basic action instead of Divesting.', removable: true, investable: true},</v>
       </c>
       <c r="AU16" s="28" t="str">
         <f aca="false">IF($A16&lt;&gt;"", "    /** 《"&amp;$E16&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A16, 3, 1)="-", RIGHT($A16,LEN($A16)-3), $A16)), "-", "_")&amp;": TCardId = '"&amp;$A16&amp;"';", "")</f>
@@ -28842,41 +29078,41 @@
       <c r="AMJ16" s="30"/>
       <c r="AMK16" s="30"/>
     </row>
-    <row r="17" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="49" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="38"/>
       <c r="J17" s="49" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K17" s="49"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S17" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T17" s="37"/>
       <c r="U17" s="36"/>
@@ -28889,21 +29125,23 @@
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
-      <c r="AE17" s="76" t="s">
-        <v>251</v>
+      <c r="AE17" s="78" t="s">
+        <v>264</v>
       </c>
       <c r="AF17" s="41"/>
       <c r="AG17" s="56" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AH17" s="41"/>
       <c r="AI17" s="41"/>
       <c r="AJ17" s="41"/>
-      <c r="AK17" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="60"/>
+      <c r="AK17" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="60" t="s">
+        <v>267</v>
+      </c>
       <c r="AN17" s="21"/>
       <c r="AO17" s="36"/>
       <c r="AP17" s="36"/>
@@ -28912,7 +29150,7 @@
       <c r="AS17" s="36"/>
       <c r="AT17" s="27" t="str">
         <f aca="false">IF(A17="", "","'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"},")</f>
-        <v>'24-shisui-o-n-7': {megami: 'shisui', name: '黒き絆', nameEn: '', nameZh: '黑色牵绊', nameZhG1: '', nameKo: '검은 인연', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '以下から異なるX個までを選ぶ。Xはあなたがこのターンにダメージを受けた回数に等しい。\n・対応した《攻撃》を +0/-1する。\n・相手を畏縮させる。\n・相手は相手のオーラかフレアかライフから1つ選ぶ。 あなたはそこに裂傷を1与える。\n', textZh: '选择以下不同的最多X个，X等于你在本回合受到的伤害次数：\n·被对应的《攻击》得+0/-1；\n·令对手畏缩；\n·对手选择敌装、敌命、敌气中的1个，你给予那个区域1点裂伤。', textZhG1: '', textKo: '_x0001_\n아래에서 서로 다른 X가지를 선택한다. X는 당신이 이번 턴에 데미지를 입은 횟수와 동일하다.\n・대응한 《공격》은 +0/-1 된다.\n・상대를 위축시킨다\n・상대는 상대의 오라, 라이프, 플레어 중 하나를 고른다. 당신은 그곳에 열상 하나를 준다.', textEn: ''},</v>
+        <v>'24-shisui-o-n-7': {megami: 'shisui', name: '黒き絆', nameEn: '', nameZh: '黑色牵绊', nameZhG1: '', nameKo: '검은 인연', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '以下から異なるX個までを選ぶ。Xはあなたがこのターンにダメージを受けた回数に等しい。\n・対応した《攻撃》を +0/-1する。\n・相手を畏縮させる。\n・相手は相手のオーラかフレアかライフから1つ選ぶ。 あなたはそこに裂傷を1与える。\n', textZh: '选择以下不同的最多X个，X等于你在本回合受到的伤害次数：\n·被对应的《攻击》得+0/-1；\n·令对手畏缩；\n·对手选择敌装、敌命、敌气中的1个，你给予那个区域1点裂伤。', textZhG1: '', textKo: '_x0001_\n아래에서 서로 다른 X가지를 선택한다. X는 당신이 이번 턴에 데미지를 입은 횟수와 동일하다.\n・대응한 《공격》은 +0/-1 된다.\n・상대를 위축시킨다\n・상대는 상대의 오라, 라이프, 플레어 중 하나를 고른다. 당신은 그곳에 열상 하나를 준다.', textEn: 'Choose X different options from the following. X is equal to the number of times you\'ve taken damage this turn.\n・The Attack this reacted to gains +0/-1.\n・Flinch your opponent.\n・Your opponent chooses 1 area from among their Aura, Flare, or Life. Add 1 Laceration to the chosen area.'},</v>
       </c>
       <c r="AU17" s="28" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
@@ -29900,43 +30138,43 @@
       <c r="AMJ17" s="30"/>
       <c r="AMK17" s="30"/>
     </row>
-    <row r="18" customFormat="false" ht="96.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="38" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="38" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="K18" s="75"/>
+        <v>272</v>
+      </c>
+      <c r="K18" s="77"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T18" s="37"/>
       <c r="U18" s="36"/>
@@ -29945,27 +30183,29 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="76" t="s">
-        <v>259</v>
+      <c r="AE18" s="78" t="s">
+        <v>273</v>
       </c>
       <c r="AF18" s="41"/>
       <c r="AG18" s="56" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="AH18" s="41"/>
       <c r="AI18" s="41"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="60"/>
+      <c r="AK18" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="60" t="s">
+        <v>276</v>
+      </c>
       <c r="AN18" s="21"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="36"/>
@@ -29974,7 +30214,7 @@
       <c r="AS18" s="36"/>
       <c r="AT18" s="27" t="str">
         <f aca="false">IF(A18="", "","'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;IF(AD18="○",", investable: true","")&amp;"},")</f>
-        <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: '', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', rubyZh: 'Padma', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n開始フェイズと同様の手順であなたの裂傷トークンを全てダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り捨て）に等しい』を行う。', textZh: '【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。\n如同准备阶段一样顺序将你的裂伤指示物全部伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向下取整）”的攻击。', textZhG1: '', textKo: '【상시】 이 카드가 대응하고 있는 《공격》이 있다면, 그 《공격》을 해결한 후에 이 카드의 효과를 해결한다.\n개시 페이즈와 동일한 순서로 당신의 열상 토큰을 모두 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴 동안 데미지를 받은 횟수의 절반(내림)과 같다.』을 수행한다.', textEn: ''},</v>
+        <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: '', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', rubyZh: 'Padma', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n開始フェイズと同様の手順であなたの裂傷トークンを全てダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り捨て）に等しい』を行う。', textZh: '【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。\n如同准备阶段一样顺序将你的裂伤指示物全部伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向下取整）”的攻击。', textZhG1: '', textKo: '【상시】 이 카드가 대응하고 있는 《공격》이 있다면, 그 《공격》을 해결한 후에 이 카드의 효과를 해결한다.\n개시 페이즈와 동일한 순서로 당신의 열상 토큰을 모두 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴 동안 데미지를 받은 횟수의 절반(내림)과 같다.』을 수행한다.', textEn: 'Forced: If this card is used as a reaction to an Attack, after that Attack resolves this card\'s effect activates.\n\nExactly like the process during start of turn, convert all of your Laceration tokens into damage. Afterward, attack with "Range: 1-4, Damage: 2/1, No Reactions (Normal), Forced: This attack gains +0/+X, where X is equal to half the number of times you\'ve taken damage this turn (rounded down)."'},</v>
       </c>
       <c r="AU18" s="28" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
@@ -30973,7 +31213,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="75"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -30993,15 +31233,15 @@
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
       <c r="AD19" s="37"/>
-      <c r="AE19" s="76"/>
+      <c r="AE19" s="78"/>
       <c r="AF19" s="41"/>
-      <c r="AG19" s="79"/>
+      <c r="AG19" s="81"/>
       <c r="AH19" s="41"/>
       <c r="AI19" s="25"/>
       <c r="AJ19" s="41"/>
-      <c r="AK19" s="73"/>
+      <c r="AK19" s="75"/>
       <c r="AL19" s="41"/>
-      <c r="AM19" s="78"/>
+      <c r="AM19" s="80"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="36"/>
       <c r="AP19" s="36"/>
@@ -31024,42 +31264,44 @@
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="K20" s="81"/>
+        <v>280</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="K20" s="83" t="s">
+        <v>283</v>
+      </c>
       <c r="L20" s="37"/>
       <c r="M20" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="37" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="S20" s="82"/>
       <c r="T20" s="37"/>
@@ -31073,21 +31315,23 @@
       <c r="AB20" s="37"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="37"/>
-      <c r="AE20" s="76" t="s">
-        <v>269</v>
+      <c r="AE20" s="78" t="s">
+        <v>285</v>
       </c>
       <c r="AF20" s="41"/>
       <c r="AG20" s="49" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="AH20" s="41"/>
       <c r="AI20" s="25"/>
       <c r="AJ20" s="41"/>
-      <c r="AK20" s="83" t="s">
-        <v>271</v>
+      <c r="AK20" s="84" t="s">
+        <v>287</v>
       </c>
       <c r="AL20" s="41"/>
-      <c r="AM20" s="49"/>
+      <c r="AM20" s="49" t="s">
+        <v>288</v>
+      </c>
       <c r="AN20" s="21"/>
       <c r="AO20" s="36"/>
       <c r="AP20" s="36"/>
@@ -31096,7 +31340,7 @@
       <c r="AS20" s="36"/>
       <c r="AT20" s="27" t="str">
         <f aca="false">IF(A20="", "","'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-2': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-2', name: '欺瞞の霧', nameEn: '', nameZh: '欺瞒之雾', nameZhG1: '', nameKo: '기만의 안개', ruby: 'ぎまんのきり', rubyEn: '', baseType: 'normal', type: 'variable', text: '【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。', textZh: '【常时】此卡可以宣言当做，对手在眼前构筑选择的其他女神的非《付于》的通常牌，以正常的方式使用。若如此做，对手可以从其手牌、盖牌、弃牌中将那张牌公开。若公开的话，此牌使用失败并就这样弃掉。', textZhG1: '', textKo: '【상시】 이 카드를, 상대가 안전구축에서 고를 수 있는 다른 여신의 《부여》가 아닌 통상패로서 통상의 방법으로 사용을 선언해도 된다.\n그렇게 했다면, 상대는 상대의 손패, 덮은패, 버림패로부터 해당 카드를 공개해도 된다. 공개되었다면, 이 카드는 사용되지 않고 버림패가 된다.', textEn: ''},</v>
+        <v>'22-renri-a1-n-2': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-2', name: '欺瞞の霧', nameEn: 'Fog of Deception', nameZh: '欺瞒之雾', nameZhG1: '', nameKo: '기만의 안개', ruby: 'ぎまんのきり', rubyEn: '', baseType: 'normal', type: 'variable', text: '【常時】このカードを、相手が眼前構築で選びうる他のメガミの《付与》でない通常札として通常の方法で使用を宣言しても よい。そうした場合、相手は相手の手札、伏せ札、捨て札からそのカードを公開できる。 公開されたならば、このカードは使用されずに捨て札となる。', textZh: '【常时】此卡可以宣言当做，对手在眼前构筑选择的其他女神的非《付于》的通常牌，以正常的方式使用。若如此做，对手可以从其手牌、盖牌、弃牌中将那张牌公开。若公开的话，此牌使用失败并就这样弃掉。', textZhG1: '', textKo: '【상시】 이 카드를, 상대가 안전구축에서 고를 수 있는 다른 여신의 《부여》가 아닌 통상패로서 통상의 방법으로 사용을 선언해도 된다.\n그렇게 했다면, 상대는 상대의 손패, 덮은패, 버림패로부터 해당 카드를 공개해도 된다. 공개되었다면, 이 카드는 사용되지 않고 버림패가 된다.', textEn: 'Forced: You may declare this card as if it were any non-Renri non-Enhancement Normal card that your opponent could have chosen during deck construction, being played within the regular timing rules of that card. When you do, your opponent may reveal the copied card from their hand, discard or played pile. If they reveal it, place this card in your played pile without being played.'},</v>
       </c>
       <c r="AU20" s="28" t="str">
         <f aca="false">IF($A20&lt;&gt;"", "    /** 《"&amp;$E20&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A20, 3, 1)="-", RIGHT($A20,LEN($A20)-3), $A20)), "-", "_")&amp;": TCardId = '"&amp;$A20&amp;"';", "")</f>
@@ -32087,42 +32331,44 @@
     </row>
     <row r="21" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="K21" s="81"/>
+        <v>292</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="K21" s="83" t="s">
+        <v>294</v>
+      </c>
       <c r="L21" s="37"/>
       <c r="M21" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -32136,28 +32382,32 @@
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
       <c r="AD21" s="37"/>
-      <c r="AE21" s="76" t="s">
-        <v>277</v>
+      <c r="AE21" s="78" t="s">
+        <v>295</v>
       </c>
       <c r="AF21" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG21" s="83" t="s">
-        <v>279</v>
+        <v>296</v>
+      </c>
+      <c r="AG21" s="84" t="s">
+        <v>297</v>
       </c>
       <c r="AH21" s="49" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="AI21" s="25"/>
       <c r="AJ21" s="41"/>
-      <c r="AK21" s="83" t="s">
-        <v>281</v>
+      <c r="AK21" s="84" t="s">
+        <v>299</v>
       </c>
       <c r="AL21" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
+        <v>300</v>
+      </c>
+      <c r="AM21" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN21" s="49" t="s">
+        <v>302</v>
+      </c>
       <c r="AO21" s="36"/>
       <c r="AP21" s="36"/>
       <c r="AQ21" s="36"/>
@@ -32165,7 +32415,7 @@
       <c r="AS21" s="36"/>
       <c r="AT21" s="27" t="str">
         <f aca="false">IF(A21="", "","'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;IF(AD21="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-5', name: '神授', nameEn: '', nameZh: '神授', nameZhG1: '', nameKo: '신수', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textAdditional: '（使用済み領域に出し、右クリックすることで効果を発動可能）', textZh: '将此「神授」置于牌库顶，那之后将其和遗物中的1张通常牌交换。\n【常时】在重铸牌库前弃牌中有这张「神授」的话，可以使用这张牌。', textZhG1: '', textZhAdditional: '（移动到已使用区域并右键就可以发动效果）', textKo: '이「신수」를 패산 위에 놓고, 그 후에 유물에 있는 통상패 한 장과 교환한다.\n【상시】패산을 재구성하기 직전에, 이 「신수」가 버림패에 있다면, 이 카드를 사용해도 된다.', textKoAdditional: '（사용됨 영역에서 꺼내서 우클릭으로 효과 발동 가능）', textEn: ''},</v>
+        <v>'22-renri-a1-n-5': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-5', name: '神授', nameEn: 'Divine Gift', nameZh: '神授', nameZhG1: '', nameKo: '신수', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textAdditional: '（使用済み領域に出し、右クリックすることで効果を発動可能）', textZh: '将此「神授」置于牌库顶，那之后将其和遗物中的1张通常牌交换。\n【常时】在重铸牌库前弃牌中有这张「神授」的话，可以使用这张牌。', textZhG1: '', textZhAdditional: '（移动到已使用区域并右键就可以发动效果）', textKo: '이「신수」를 패산 위에 놓고, 그 후에 유물에 있는 통상패 한 장과 교환한다.\n【상시】패산을 재구성하기 직전에, 이 「신수」가 버림패에 있다면, 이 카드를 사용해도 된다.', textKoAdditional: '（사용됨 영역에서 꺼내서 우클릭으로 효과 발동 가능）', textEn: 'Put this "Divine Gift" on the top of your deck, then exchange it with a Noral card in your Relic.\n\nForced: You may use this "Divine Gift" from played pile just before you reshuffle your deck.', textEnAdditional: '(You can activate the effect by placing it in a used area and right-clicking.)'},</v>
       </c>
       <c r="AU21" s="28" t="str">
         <f aca="false">IF($A21&lt;&gt;"", "    /** 《"&amp;$E21&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A21, 3, 1)="-", RIGHT($A21,LEN($A21)-3), $A21)), "-", "_")&amp;": TCardId = '"&amp;$A21&amp;"';", "")</f>
@@ -33155,83 +33405,89 @@
     </row>
     <row r="22" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="K22" s="81"/>
+        <v>305</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="83" t="s">
+        <v>308</v>
+      </c>
       <c r="L22" s="37"/>
       <c r="M22" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="U22" s="36"/>
       <c r="V22" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W22" s="36"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB22" s="37"/>
       <c r="AC22" s="37"/>
       <c r="AD22" s="37"/>
-      <c r="AE22" s="76" t="s">
-        <v>289</v>
+      <c r="AE22" s="78" t="s">
+        <v>310</v>
       </c>
       <c r="AF22" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG22" s="83" t="s">
-        <v>291</v>
+        <v>311</v>
+      </c>
+      <c r="AG22" s="84" t="s">
+        <v>312</v>
       </c>
       <c r="AH22" s="49" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AI22" s="25"/>
       <c r="AJ22" s="41"/>
-      <c r="AK22" s="83" t="s">
-        <v>293</v>
+      <c r="AK22" s="84" t="s">
+        <v>314</v>
       </c>
       <c r="AL22" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="49"/>
+        <v>315</v>
+      </c>
+      <c r="AM22" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN22" s="49" t="s">
+        <v>317</v>
+      </c>
       <c r="AO22" s="36"/>
       <c r="AP22" s="36"/>
       <c r="AQ22" s="36"/>
@@ -33239,7 +33495,7 @@
       <c r="AS22" s="36"/>
       <c r="AT22" s="27" t="str">
         <f aca="false">IF(A22="", "","'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: '', nameZh: '虚伪的武器', nameZhG1: '', nameKo: '거짓의 무기', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで3枚目に使うカードが 《攻撃》 カードならば、その《攻撃》は+0/+1となる。\n', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '伪证设置 伪证 回归 \n【攻击后】伪火～你在本回合使用的第3张牌是《攻击》牌的话，那个《攻击》得+0/+1。', textZhG1: '', textZhAdditional: '（正面表示后右键就可以令其回归）', textKo: '위증설치 위증 회귀\n【공격후】위화 - 당신이 이번 턴에 3번째로 사용하는 카드가 《공격》카드라면, 그 《공격》은 +0/+1된다.', textKoAdditional: '（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex1': {megami: 'renri', anotherID: 'A1', replace: '', name: '偽りの武器', nameEn: 'Fabricated Weapon', nameZh: '虚伪的武器', nameZhG1: '', nameKo: '거짓의 무기', ruby: 'いつわりのぶき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '2-4', damage: '1/1', text: '偽証設置　偽証　回帰\n【攻撃後】偽火―あなたがこのターンで3枚目に使うカードが 《攻撃》 カードならば、その《攻撃》は+0/+1となる。\n', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '伪证设置 伪证 回归 \n【攻击后】伪火～你在本回合使用的第3张牌是《攻击》牌的话，那个《攻击》得+0/+1。', textZhG1: '', textZhAdditional: '（正面表示后右键就可以令其回归）', textKo: '위증설치 위증 회귀\n【공격후】위화 - 당신이 이번 턴에 3번째로 사용하는 카드가 《공격》카드라면, 그 《공격》은 +0/+1된다.', textKoAdditional: '（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）', textEn: 'FalseTrap Falsehood Return\n\nAfter Attack: False Inferno - If the third card you play this turn is an attack card, that attack gains +0/+1.', textEnAdditional: '(You can return by right-clicking after turning it face up)', lie: true},</v>
       </c>
       <c r="AU22" s="28" t="str">
         <f aca="false">IF($A22&lt;&gt;"", "    /** 《"&amp;$E22&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A22, 3, 1)="-", RIGHT($A22,LEN($A22)-3), $A22)), "-", "_")&amp;": TCardId = '"&amp;$A22&amp;"';", "")</f>
@@ -34227,85 +34483,91 @@
       <c r="AMJ22" s="30"/>
       <c r="AMK22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="G23" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="K23" s="81"/>
+        <v>320</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="K23" s="83" t="s">
+        <v>323</v>
+      </c>
       <c r="L23" s="37"/>
       <c r="M23" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="U23" s="36"/>
       <c r="V23" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W23" s="36"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB23" s="37"/>
       <c r="AC23" s="37"/>
       <c r="AD23" s="37"/>
-      <c r="AE23" s="76" t="s">
-        <v>300</v>
+      <c r="AE23" s="78" t="s">
+        <v>324</v>
       </c>
       <c r="AF23" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG23" s="83" t="s">
-        <v>301</v>
+        <v>311</v>
+      </c>
+      <c r="AG23" s="84" t="s">
+        <v>325</v>
       </c>
       <c r="AH23" s="49" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AI23" s="25"/>
       <c r="AJ23" s="41"/>
-      <c r="AK23" s="83" t="s">
-        <v>302</v>
+      <c r="AK23" s="84" t="s">
+        <v>326</v>
       </c>
       <c r="AL23" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
+        <v>315</v>
+      </c>
+      <c r="AM23" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN23" s="49" t="s">
+        <v>317</v>
+      </c>
       <c r="AO23" s="36"/>
       <c r="AP23" s="36"/>
       <c r="AQ23" s="36"/>
@@ -34313,7 +34575,7 @@
       <c r="AS23" s="36"/>
       <c r="AT23" s="27" t="str">
         <f aca="false">IF(A23="", "","'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;IF(AA23="○",", lie: true","")&amp;IF(AD23="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: '', nameZh: '刃之本质', nameZhG1: '', nameKo: '검의 본질', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '伪证 回归 \n【常时】奉纳～有樱花结晶放置于「晓丒旳绝雾」之上的话，此《攻击》得+0/+1。\n【常时】此牌回归时，对手的集中力变成0。\n（将此牌视为斩华的牌）', textZhG1: '', textZhAdditional: '（正面表示后右键就可以令其回归）', textKo: '위증 회귀\n【상시】봉납 - 「로루레로라루로」위에 벛꽃결정이 놓여 있다면, 이《공격》은 +0/+1 된다.\n【상시】이 카드가 회귀할 때, 상대의 집중력은 0이 된다.\n(이 카드는 여신 \'잔카\'의 카드로 취급한다.)', textKoAdditional: '（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex2': {megami: 'renri', anotherID: 'A1', replace: '', name: '刃の本質', nameEn: 'Essence of Sword', nameZh: '刃之本质', nameZhG1: '', nameKo: '검의 본질', ruby: 'やいばのほんしつ', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '3-4', damage: '3/1', text: '偽証　回帰\n【常時】奉納―「ロルレロラルロ」の上に桜花結晶があるならば、この《攻撃》は+0/+1となる。\n【常時】このカードを回帰した時、相手の集中力は0になる。\n（このカードはザンカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '伪证 回归 \n【常时】奉纳～有樱花结晶放置于「晓丒旳绝雾」之上的话，此《攻击》得+0/+1。\n【常时】此牌回归时，对手的集中力变成0。\n（将此牌视为斩华的牌）', textZhG1: '', textZhAdditional: '（正面表示后右键就可以令其回归）', textKo: '위증 회귀\n【상시】봉납 - 「로루레로라루로」위에 벛꽃결정이 놓여 있다면, 이《공격》은 +0/+1 된다.\n【상시】이 카드가 회귀할 때, 상대의 집중력은 0이 된다.\n(이 카드는 여신 \'잔카\'의 카드로 취급한다.)', textKoAdditional: '（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）', textEn: 'Falsehood Return\n\nForced: Oblation - If there are Sakura tokens on "Resolution", this attack gains +0/+1.\n\nForced: When this card returns, your opponent\'s vigor becomes 0.\n\n(Treat this card as a Zanka card.)', textEnAdditional: '(You can return by right-clicking after turning it face up)', lie: true},</v>
       </c>
       <c r="AU23" s="28" t="str">
         <f aca="false">IF($A23&lt;&gt;"", "    /** 《"&amp;$E23&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A23, 3, 1)="-", RIGHT($A23,LEN($A23)-3), $A23)), "-", "_")&amp;": TCardId = '"&amp;$A23&amp;"';", "")</f>
@@ -35301,44 +35563,46 @@
       <c r="AMJ23" s="30"/>
       <c r="AMK23" s="30"/>
     </row>
-    <row r="24" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" s="80" t="s">
-        <v>306</v>
-      </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="K24" s="81"/>
+        <v>330</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="K24" s="83" t="s">
+        <v>333</v>
+      </c>
       <c r="L24" s="37"/>
       <c r="M24" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
@@ -35349,33 +35613,37 @@
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB24" s="37"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="37"/>
-      <c r="AE24" s="76" t="s">
-        <v>308</v>
+      <c r="AE24" s="78" t="s">
+        <v>334</v>
       </c>
       <c r="AF24" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG24" s="83" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="AG24" s="84" t="s">
+        <v>335</v>
       </c>
       <c r="AH24" s="49" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AI24" s="25"/>
       <c r="AJ24" s="41"/>
-      <c r="AK24" s="83" t="s">
-        <v>310</v>
+      <c r="AK24" s="84" t="s">
+        <v>336</v>
       </c>
       <c r="AL24" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
+        <v>315</v>
+      </c>
+      <c r="AM24" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN24" s="49" t="s">
+        <v>317</v>
+      </c>
       <c r="AO24" s="36"/>
       <c r="AP24" s="36"/>
       <c r="AQ24" s="36"/>
@@ -35383,7 +35651,7 @@
       <c r="AS24" s="36"/>
       <c r="AT24" s="27" t="str">
         <f aca="false">IF(A24="", "","'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24="○",", poison: true","")&amp;IF(R24&lt;&gt;"", ", type: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S24&lt;&gt;"",", subType: '"&amp;VLOOKUP(S24,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T24&lt;&gt;"",", range: '"&amp;T24&amp;"'","")&amp;IF(V24&lt;&gt;"",", damage: '"&amp;V24&amp;"'","")&amp;IF(X24&lt;&gt;"",", capacity: '"&amp;X24&amp;"'","")&amp;IF(Y24&lt;&gt;"",", growth: "&amp;Y24&amp;"","")&amp;IF(Z24&lt;&gt;"",", cost: '"&amp;Z24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ24&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL24&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN24&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB24="○",", sealable: true","")&amp;IF(AC24="○",", removable: true","")&amp;IF(AA24="○",", lie: true","")&amp;IF(AD24="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: '', nameZh: '最初的樱铃', nameZhG1: '', nameKo: '최초의 벚꽃방울', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '伪证 回归 \n进行1次基本动作。此牌未被反证时，额外进行1次。\n光辉～若虚不超过5，则将1张盖牌置于牌库底。\n【常时】此牌回归时：虚→1→自命\n（将此牌视为樱华的牌）', textZhG1: '', textZhAdditional: '（正面表示后右键就可以令其回归）', textKo: '위증 회귀\n기본동작을 1번 수행한다. 이 카드가 반증되지 않았다면 1번 더 수행한다.\n광휘 - 더스트가 5개 이하라면, 덮음패에서 카드를 1장 선택하여 패산 아래에 놓는다.\n【상시】이 카드가 회귀할 때, 더스트→라이프(자신):1\n(이 카드는 여신 \'오우카\'의 카드로 취급한다.)', textKoAdditional: '（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）', textEn: '', lie: true},</v>
+        <v>'22-renri-a1-n-5-ex3': {megami: 'renri', anotherID: 'A1', replace: '', name: '最初の桜鈴', nameEn: 'Primal Sakura Bell', nameZh: '最初的樱铃', nameZhG1: '', nameKo: '최초의 벚꽃방울', ruby: 'さいしょのさくらすず', rubyEn: '', baseType: 'normal', extra: true, type: 'action', text: '偽証　回帰\n基本動作を1回行う。 このカードが反証されていないならば、さらにもう1回行う。\n光輝―ダストが5以下ならば伏せ札からカードを1枚選び、山札の一番下に置く。\n【常時】このカードが回帰した時、ダスト→自ライフ：1\n（このカードはヲウカのカードとして扱う）', textAdditional: '（表向きにした後に右クリックすることで回帰させることが可能）', textZh: '伪证 回归 \n进行1次基本动作。此牌未被反证时，额外进行1次。\n光辉～若虚不超过5，则将1张盖牌置于牌库底。\n【常时】此牌回归时：虚→1→自命\n（将此牌视为樱华的牌）', textZhG1: '', textZhAdditional: '（正面表示后右键就可以令其回归）', textKo: '위증 회귀\n기본동작을 1번 수행한다. 이 카드가 반증되지 않았다면 1번 더 수행한다.\n광휘 - 더스트가 5개 이하라면, 덮음패에서 카드를 1장 선택하여 패산 아래에 놓는다.\n【상시】이 카드가 회귀할 때, 더스트→라이프(자신):1\n(이 카드는 여신 \'오우카\'의 카드로 취급한다.)', textKoAdditional: '（앞면 표시로 한 뒤에 우클릭으로 회귀시키기 가능）', textEn: 'Falsehood Return\n\nPerform a basic action. If this was not refuted, perform one more.\n\nLuminosity - If there are 5 or less Sakura tokens on Shadow, choose a card in your discard pile and put it on bottom of your deck.\n\nForced: When this card returns, Shadow (2)→Your Life.\n\n(Treat this card as a Ouka card.)', textEnAdditional: '(You can return by right-clicking after turning it face up)', lie: true},</v>
       </c>
       <c r="AU24" s="28" t="str">
         <f aca="false">IF($A24&lt;&gt;"", "    /** 《"&amp;$E24&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A24, 3, 1)="-", RIGHT($A24,LEN($A24)-3), $A24)), "-", "_")&amp;": TCardId = '"&amp;$A24&amp;"';", "")</f>
@@ -36371,46 +36639,48 @@
       <c r="AMJ24" s="30"/>
       <c r="AMK24" s="30"/>
     </row>
-    <row r="25" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>317</v>
-      </c>
-      <c r="K25" s="81"/>
+        <v>341</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="82"/>
+      <c r="I25" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="83" t="s">
+        <v>345</v>
+      </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -36418,31 +36688,33 @@
       <c r="V25" s="37"/>
       <c r="W25" s="36"/>
       <c r="X25" s="37" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
       <c r="AC25" s="37"/>
       <c r="AD25" s="37"/>
-      <c r="AE25" s="76" t="s">
-        <v>319</v>
+      <c r="AE25" s="78" t="s">
+        <v>347</v>
       </c>
       <c r="AF25" s="41"/>
-      <c r="AG25" s="83" t="s">
-        <v>320</v>
+      <c r="AG25" s="84" t="s">
+        <v>348</v>
       </c>
       <c r="AH25" s="41"/>
       <c r="AI25" s="25"/>
       <c r="AJ25" s="41"/>
-      <c r="AK25" s="83" t="s">
-        <v>321</v>
+      <c r="AK25" s="84" t="s">
+        <v>349</v>
       </c>
       <c r="AL25" s="41"/>
-      <c r="AM25" s="49"/>
+      <c r="AM25" s="84" t="s">
+        <v>350</v>
+      </c>
       <c r="AN25" s="21"/>
       <c r="AO25" s="36"/>
       <c r="AP25" s="36"/>
@@ -36451,7 +36723,7 @@
       <c r="AS25" s="36"/>
       <c r="AT25" s="27" t="str">
         <f aca="false">IF(A25="", "","'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25="○",", poison: true","")&amp;IF(R25&lt;&gt;"", ", type: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S25&lt;&gt;"",", subType: '"&amp;VLOOKUP(S25,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T25&lt;&gt;"",", range: '"&amp;T25&amp;"'","")&amp;IF(V25&lt;&gt;"",", damage: '"&amp;V25&amp;"'","")&amp;IF(X25&lt;&gt;"",", capacity: '"&amp;X25&amp;"'","")&amp;IF(Y25&lt;&gt;"",", growth: "&amp;Y25&amp;"","")&amp;IF(Z25&lt;&gt;"",", cost: '"&amp;Z25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ25&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL25&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN25&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB25="○",", sealable: true","")&amp;IF(AC25="○",", removable: true","")&amp;IF(AA25="○",", lie: true","")&amp;IF(AD25="○",", investable: true","")&amp;"},")</f>
-        <v>'22-renri-a1-s-1': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-s-1', name: 'ロルレロラルロ', nameEn: '', nameZh: '晓丒旳绝雾', nameZhG1: '', nameKo: '로루레라라리로', ruby: '＝＝＝＝＝＝＝', rubyEn: '', rubyZh: '小丑的觉悟', baseType: 'special', type: 'enhance', capacity: '0', cost: '0', text: '【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。\n【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。\n【展開中】相手が焦燥で受けるダメージが2/1になる。\n【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。\n', textZh: '【使用后】在你的结束阶段，可以将这张牌当做纳为3且其中1个来自自命的方式使用此牌。\n【展开中】在你的主要阶段开始时可以抽1张牌。\n【展开中】对手受到的焦躁伤害变成2/1。\n【展开中】若你的伪证未被反证，你可以公开之，若那是假的则你获得1点集中力。', textZhG1: '', textKo: '【사용됨】 당신의 종료 페이즈에 이 카드를 봉납 3으로, 그 중 1개를 라이프에서 봉납하며 사용해도 된다.\n【전개중】 당신의 메인 페이즈의 시작에, 카드를 1장 뽑아도 된다.\n【전개중】 상대가 받는 초조 데미지는 2/1이 된다.\n【전개중】 당신의 위증이 반증되지 않았다면, 이 카드를 공개해도 된다. 그것이 거짓이었다면, 집중력을 1 얻는다.', textEn: ''},</v>
+        <v>'22-renri-a1-s-1': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-s-1', name: 'ロルレロラルロ', nameEn: 'Resolution', nameZh: '晓丒旳绝雾', nameZhG1: '', nameKo: '로루레라라리로', ruby: '＝＝＝＝＝＝＝', rubyEn: '', rubyZh: '小丑的觉悟', baseType: 'special', type: 'enhance', capacity: '0', cost: '0', text: '【使用済】あなたの終了フェイズに納3として、そのうちの1つをライフから納める形でこのカードを使用してもよい。\n【展開中】あなたのメインフェイズの開始時にカード を1枚引いてもよい。\n【展開中】相手が焦燥で受けるダメージが2/1になる。\n【展開中】あなたの偽証が反証されなかったならば、 そのカードを公開してもよい。それが偽物だったならば、集中力を1得る。\n', textZh: '【使用后】在你的结束阶段，可以将这张牌当做纳为3且其中1个来自自命的方式使用此牌。\n【展开中】在你的主要阶段开始时可以抽1张牌。\n【展开中】对手受到的焦躁伤害变成2/1。\n【展开中】若你的伪证未被反证，你可以公开之，若那是假的则你获得1点集中力。', textZhG1: '', textKo: '【사용됨】 당신의 종료 페이즈에 이 카드를 봉납 3으로, 그 중 1개를 라이프에서 봉납하며 사용해도 된다.\n【전개중】 당신의 메인 페이즈의 시작에, 카드를 1장 뽑아도 된다.\n【전개중】 상대가 받는 초조 데미지는 2/1이 된다.\n【전개중】 당신의 위증이 반증되지 않았다면, 이 카드를 공개해도 된다. 그것이 거짓이었다면, 집중력을 1 얻는다.', textEn: 'Devoted: At the end of your turn, you may play this card as if its Charge were 3, but you must pay one of its charge from Your Life.\n\nOngoing: At the beginning of your main phase, you may draw a card.\n\nOngoing: The Burnout damage that your opponent takes becomes 2/1.\n\nOngoing: If your Falsehood was not refuted, you may reveal that card. If it was a fake, you gain 1 Vigor.'},</v>
       </c>
       <c r="AU25" s="28" t="str">
         <f aca="false">IF($A25&lt;&gt;"", "    /** 《"&amp;$E25&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A25, 3, 1)="-", RIGHT($A25,LEN($A25)-3), $A25)), "-", "_")&amp;": TCardId = '"&amp;$A25&amp;"';", "")</f>
@@ -37450,7 +37722,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="75"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
@@ -37470,15 +37742,15 @@
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
       <c r="AD26" s="37"/>
-      <c r="AE26" s="76"/>
+      <c r="AE26" s="78"/>
       <c r="AF26" s="41"/>
-      <c r="AG26" s="79"/>
+      <c r="AG26" s="81"/>
       <c r="AH26" s="41"/>
       <c r="AI26" s="25"/>
       <c r="AJ26" s="41"/>
-      <c r="AK26" s="73"/>
+      <c r="AK26" s="75"/>
       <c r="AL26" s="41"/>
-      <c r="AM26" s="78"/>
+      <c r="AM26" s="80"/>
       <c r="AN26" s="21"/>
       <c r="AO26" s="36"/>
       <c r="AP26" s="36"/>
@@ -38486,7 +38758,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="75"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -38506,15 +38778,15 @@
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
       <c r="AD27" s="37"/>
-      <c r="AE27" s="76"/>
+      <c r="AE27" s="78"/>
       <c r="AF27" s="41"/>
-      <c r="AG27" s="79"/>
+      <c r="AG27" s="81"/>
       <c r="AH27" s="41"/>
       <c r="AI27" s="25"/>
       <c r="AJ27" s="41"/>
-      <c r="AK27" s="73"/>
+      <c r="AK27" s="75"/>
       <c r="AL27" s="41"/>
-      <c r="AM27" s="78"/>
+      <c r="AM27" s="80"/>
       <c r="AN27" s="21"/>
       <c r="AO27" s="36"/>
       <c r="AP27" s="36"/>
@@ -39522,7 +39794,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="75"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
@@ -39542,15 +39814,15 @@
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
       <c r="AD28" s="37"/>
-      <c r="AE28" s="76"/>
+      <c r="AE28" s="78"/>
       <c r="AF28" s="41"/>
-      <c r="AG28" s="79"/>
+      <c r="AG28" s="81"/>
       <c r="AH28" s="41"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="41"/>
-      <c r="AK28" s="73"/>
+      <c r="AK28" s="75"/>
       <c r="AL28" s="41"/>
-      <c r="AM28" s="78"/>
+      <c r="AM28" s="80"/>
       <c r="AN28" s="21"/>
       <c r="AO28" s="36"/>
       <c r="AP28" s="36"/>
@@ -40558,7 +40830,7 @@
       <c r="H29" s="39"/>
       <c r="I29" s="38"/>
       <c r="J29" s="39"/>
-      <c r="K29" s="75"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
@@ -40578,15 +40850,15 @@
       <c r="AB29" s="37"/>
       <c r="AC29" s="37"/>
       <c r="AD29" s="37"/>
-      <c r="AE29" s="76"/>
+      <c r="AE29" s="78"/>
       <c r="AF29" s="41"/>
-      <c r="AG29" s="79"/>
+      <c r="AG29" s="81"/>
       <c r="AH29" s="41"/>
       <c r="AI29" s="25"/>
       <c r="AJ29" s="41"/>
-      <c r="AK29" s="73"/>
+      <c r="AK29" s="75"/>
       <c r="AL29" s="41"/>
-      <c r="AM29" s="78"/>
+      <c r="AM29" s="80"/>
       <c r="AN29" s="21"/>
       <c r="AO29" s="36"/>
       <c r="AP29" s="36"/>
@@ -41594,7 +41866,7 @@
       <c r="H30" s="39"/>
       <c r="I30" s="38"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="75"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -41614,15 +41886,15 @@
       <c r="AB30" s="37"/>
       <c r="AC30" s="37"/>
       <c r="AD30" s="37"/>
-      <c r="AE30" s="76"/>
+      <c r="AE30" s="78"/>
       <c r="AF30" s="41"/>
-      <c r="AG30" s="79"/>
+      <c r="AG30" s="81"/>
       <c r="AH30" s="41"/>
       <c r="AI30" s="25"/>
       <c r="AJ30" s="41"/>
-      <c r="AK30" s="73"/>
+      <c r="AK30" s="75"/>
       <c r="AL30" s="41"/>
-      <c r="AM30" s="78"/>
+      <c r="AM30" s="80"/>
       <c r="AN30" s="21"/>
       <c r="AO30" s="36"/>
       <c r="AP30" s="36"/>
@@ -42630,7 +42902,7 @@
       <c r="H31" s="39"/>
       <c r="I31" s="38"/>
       <c r="J31" s="39"/>
-      <c r="K31" s="75"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -42650,15 +42922,15 @@
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="37"/>
-      <c r="AE31" s="76"/>
+      <c r="AE31" s="78"/>
       <c r="AF31" s="41"/>
-      <c r="AG31" s="79"/>
+      <c r="AG31" s="81"/>
       <c r="AH31" s="41"/>
       <c r="AI31" s="25"/>
       <c r="AJ31" s="41"/>
-      <c r="AK31" s="73"/>
+      <c r="AK31" s="75"/>
       <c r="AL31" s="41"/>
-      <c r="AM31" s="78"/>
+      <c r="AM31" s="80"/>
       <c r="AN31" s="21"/>
       <c r="AO31" s="36"/>
       <c r="AP31" s="36"/>
@@ -43666,7 +43938,7 @@
       <c r="H32" s="39"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="75"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
@@ -43686,15 +43958,15 @@
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="37"/>
-      <c r="AE32" s="76"/>
+      <c r="AE32" s="78"/>
       <c r="AF32" s="41"/>
-      <c r="AG32" s="79"/>
+      <c r="AG32" s="81"/>
       <c r="AH32" s="41"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="41"/>
-      <c r="AK32" s="73"/>
+      <c r="AK32" s="75"/>
       <c r="AL32" s="41"/>
-      <c r="AM32" s="78"/>
+      <c r="AM32" s="80"/>
       <c r="AN32" s="21"/>
       <c r="AO32" s="36"/>
       <c r="AP32" s="36"/>
@@ -44702,7 +44974,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="75"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -44722,15 +44994,15 @@
       <c r="AB33" s="37"/>
       <c r="AC33" s="37"/>
       <c r="AD33" s="37"/>
-      <c r="AE33" s="76"/>
+      <c r="AE33" s="78"/>
       <c r="AF33" s="41"/>
-      <c r="AG33" s="79"/>
+      <c r="AG33" s="81"/>
       <c r="AH33" s="41"/>
       <c r="AI33" s="25"/>
       <c r="AJ33" s="41"/>
-      <c r="AK33" s="73"/>
+      <c r="AK33" s="75"/>
       <c r="AL33" s="41"/>
-      <c r="AM33" s="78"/>
+      <c r="AM33" s="80"/>
       <c r="AN33" s="21"/>
       <c r="AO33" s="36"/>
       <c r="AP33" s="36"/>
@@ -45738,7 +46010,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="38"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="75"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -45758,15 +46030,15 @@
       <c r="AB34" s="37"/>
       <c r="AC34" s="37"/>
       <c r="AD34" s="37"/>
-      <c r="AE34" s="76"/>
+      <c r="AE34" s="78"/>
       <c r="AF34" s="41"/>
-      <c r="AG34" s="79"/>
+      <c r="AG34" s="81"/>
       <c r="AH34" s="41"/>
       <c r="AI34" s="25"/>
       <c r="AJ34" s="41"/>
-      <c r="AK34" s="73"/>
+      <c r="AK34" s="75"/>
       <c r="AL34" s="41"/>
-      <c r="AM34" s="78"/>
+      <c r="AM34" s="80"/>
       <c r="AN34" s="21"/>
       <c r="AO34" s="36"/>
       <c r="AP34" s="36"/>
@@ -46774,7 +47046,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="38"/>
       <c r="J35" s="39"/>
-      <c r="K35" s="75"/>
+      <c r="K35" s="77"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -46794,15 +47066,15 @@
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
-      <c r="AE35" s="76"/>
+      <c r="AE35" s="78"/>
       <c r="AF35" s="41"/>
-      <c r="AG35" s="79"/>
+      <c r="AG35" s="81"/>
       <c r="AH35" s="41"/>
       <c r="AI35" s="25"/>
       <c r="AJ35" s="41"/>
-      <c r="AK35" s="73"/>
+      <c r="AK35" s="75"/>
       <c r="AL35" s="41"/>
-      <c r="AM35" s="78"/>
+      <c r="AM35" s="80"/>
       <c r="AN35" s="21"/>
       <c r="AO35" s="36"/>
       <c r="AP35" s="36"/>
@@ -47810,7 +48082,7 @@
       <c r="H36" s="39"/>
       <c r="I36" s="38"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="75"/>
+      <c r="K36" s="77"/>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
@@ -47830,15 +48102,15 @@
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="37"/>
-      <c r="AE36" s="76"/>
+      <c r="AE36" s="78"/>
       <c r="AF36" s="41"/>
-      <c r="AG36" s="79"/>
+      <c r="AG36" s="81"/>
       <c r="AH36" s="41"/>
       <c r="AI36" s="25"/>
       <c r="AJ36" s="41"/>
-      <c r="AK36" s="73"/>
+      <c r="AK36" s="75"/>
       <c r="AL36" s="41"/>
-      <c r="AM36" s="78"/>
+      <c r="AM36" s="80"/>
       <c r="AN36" s="21"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
@@ -48846,7 +49118,7 @@
       <c r="H37" s="39"/>
       <c r="I37" s="38"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="75"/>
+      <c r="K37" s="77"/>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
@@ -48866,15 +49138,15 @@
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
       <c r="AD37" s="37"/>
-      <c r="AE37" s="76"/>
+      <c r="AE37" s="78"/>
       <c r="AF37" s="41"/>
-      <c r="AG37" s="79"/>
+      <c r="AG37" s="81"/>
       <c r="AH37" s="41"/>
       <c r="AI37" s="25"/>
       <c r="AJ37" s="41"/>
-      <c r="AK37" s="73"/>
+      <c r="AK37" s="75"/>
       <c r="AL37" s="41"/>
-      <c r="AM37" s="78"/>
+      <c r="AM37" s="80"/>
       <c r="AN37" s="21"/>
       <c r="AO37" s="36"/>
       <c r="AP37" s="36"/>
@@ -49882,7 +50154,7 @@
       <c r="H38" s="39"/>
       <c r="I38" s="38"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="75"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
@@ -49902,15 +50174,15 @@
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="37"/>
-      <c r="AE38" s="76"/>
+      <c r="AE38" s="78"/>
       <c r="AF38" s="41"/>
-      <c r="AG38" s="79"/>
+      <c r="AG38" s="81"/>
       <c r="AH38" s="41"/>
       <c r="AI38" s="25"/>
       <c r="AJ38" s="41"/>
-      <c r="AK38" s="73"/>
+      <c r="AK38" s="75"/>
       <c r="AL38" s="41"/>
-      <c r="AM38" s="78"/>
+      <c r="AM38" s="80"/>
       <c r="AN38" s="21"/>
       <c r="AO38" s="36"/>
       <c r="AP38" s="36"/>
@@ -50918,7 +51190,7 @@
       <c r="H39" s="39"/>
       <c r="I39" s="38"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="75"/>
+      <c r="K39" s="77"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
@@ -50938,15 +51210,15 @@
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="37"/>
-      <c r="AE39" s="76"/>
+      <c r="AE39" s="78"/>
       <c r="AF39" s="41"/>
-      <c r="AG39" s="79"/>
+      <c r="AG39" s="81"/>
       <c r="AH39" s="41"/>
       <c r="AI39" s="25"/>
       <c r="AJ39" s="41"/>
-      <c r="AK39" s="73"/>
+      <c r="AK39" s="75"/>
       <c r="AL39" s="41"/>
-      <c r="AM39" s="78"/>
+      <c r="AM39" s="80"/>
       <c r="AN39" s="21"/>
       <c r="AO39" s="36"/>
       <c r="AP39" s="36"/>
@@ -51954,7 +52226,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="38"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="75"/>
+      <c r="K40" s="77"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
@@ -51974,15 +52246,15 @@
       <c r="AB40" s="37"/>
       <c r="AC40" s="37"/>
       <c r="AD40" s="37"/>
-      <c r="AE40" s="76"/>
+      <c r="AE40" s="78"/>
       <c r="AF40" s="41"/>
-      <c r="AG40" s="79"/>
+      <c r="AG40" s="81"/>
       <c r="AH40" s="41"/>
       <c r="AI40" s="25"/>
       <c r="AJ40" s="41"/>
-      <c r="AK40" s="73"/>
+      <c r="AK40" s="75"/>
       <c r="AL40" s="41"/>
-      <c r="AM40" s="78"/>
+      <c r="AM40" s="80"/>
       <c r="AN40" s="21"/>
       <c r="AO40" s="36"/>
       <c r="AP40" s="36"/>
@@ -52989,7 +53261,7 @@
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="65"/>
+      <c r="J41" s="66"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -53010,15 +53282,15 @@
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
       <c r="AG41" s="41"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="41"/>
       <c r="AJ41" s="15"/>
-      <c r="AK41" s="66"/>
+      <c r="AK41" s="67"/>
       <c r="AL41" s="15"/>
-      <c r="AM41" s="66"/>
+      <c r="AM41" s="67"/>
       <c r="AN41" s="15"/>
       <c r="AO41" s="14"/>
       <c r="AP41" s="14"/>
@@ -53048,7 +53320,7 @@
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="65"/>
+      <c r="J42" s="66"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -53069,15 +53341,15 @@
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="67"/>
       <c r="AG42" s="41"/>
       <c r="AH42" s="15"/>
       <c r="AI42" s="41"/>
       <c r="AJ42" s="15"/>
-      <c r="AK42" s="66"/>
+      <c r="AK42" s="67"/>
       <c r="AL42" s="15"/>
-      <c r="AM42" s="66"/>
+      <c r="AM42" s="67"/>
       <c r="AN42" s="15"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
@@ -53107,7 +53379,7 @@
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="65"/>
+      <c r="J43" s="66"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
@@ -53128,15 +53400,15 @@
       <c r="AB43" s="12"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
+      <c r="AE43" s="67"/>
+      <c r="AF43" s="67"/>
       <c r="AG43" s="41"/>
       <c r="AH43" s="15"/>
       <c r="AI43" s="41"/>
       <c r="AJ43" s="15"/>
-      <c r="AK43" s="66"/>
+      <c r="AK43" s="67"/>
       <c r="AL43" s="15"/>
-      <c r="AM43" s="66"/>
+      <c r="AM43" s="67"/>
       <c r="AN43" s="15"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
@@ -53166,7 +53438,7 @@
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="65"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -53187,15 +53459,15 @@
       <c r="AB44" s="12"/>
       <c r="AC44" s="12"/>
       <c r="AD44" s="12"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
+      <c r="AE44" s="67"/>
+      <c r="AF44" s="67"/>
       <c r="AG44" s="41"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="41"/>
       <c r="AJ44" s="15"/>
-      <c r="AK44" s="66"/>
+      <c r="AK44" s="67"/>
       <c r="AL44" s="15"/>
-      <c r="AM44" s="66"/>
+      <c r="AM44" s="67"/>
       <c r="AN44" s="15"/>
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
@@ -53216,2353 +53488,2353 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="85"/>
+      <c r="I45" s="86"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="85"/>
+      <c r="I46" s="86"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="85"/>
+      <c r="I47" s="86"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="85"/>
+      <c r="I48" s="86"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="85"/>
+      <c r="I49" s="86"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="85"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="85"/>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="85"/>
+      <c r="I52" s="86"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="85"/>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="85"/>
+      <c r="I54" s="86"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="85"/>
+      <c r="I55" s="86"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="85"/>
+      <c r="I56" s="86"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="85"/>
+      <c r="I57" s="86"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="85"/>
+      <c r="I58" s="86"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="85"/>
+      <c r="I59" s="86"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="85"/>
+      <c r="I60" s="86"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="85"/>
+      <c r="I61" s="86"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="85"/>
+      <c r="I62" s="86"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="85"/>
+      <c r="I63" s="86"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="85"/>
+      <c r="I64" s="86"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="85"/>
+      <c r="I65" s="86"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="85"/>
+      <c r="I66" s="86"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="85"/>
+      <c r="I67" s="86"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="85"/>
+      <c r="I68" s="86"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="85"/>
+      <c r="I69" s="86"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="85"/>
+      <c r="I70" s="86"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="85"/>
+      <c r="I71" s="86"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="85"/>
+      <c r="I72" s="86"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="85"/>
+      <c r="I73" s="86"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="85"/>
+      <c r="I74" s="86"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="85"/>
+      <c r="I75" s="86"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="85"/>
+      <c r="I76" s="86"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="85"/>
+      <c r="I77" s="86"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="85"/>
+      <c r="I78" s="86"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="85"/>
+      <c r="I79" s="86"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="85"/>
+      <c r="I80" s="86"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="85"/>
+      <c r="I81" s="86"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="85"/>
+      <c r="I82" s="86"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="85"/>
+      <c r="I83" s="86"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="85"/>
+      <c r="I84" s="86"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="85"/>
+      <c r="I85" s="86"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="85"/>
+      <c r="I86" s="86"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="85"/>
+      <c r="I87" s="86"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="85"/>
+      <c r="I88" s="86"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="85"/>
+      <c r="I89" s="86"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="85"/>
+      <c r="I90" s="86"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="85"/>
+      <c r="I91" s="86"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="85"/>
+      <c r="I92" s="86"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="85"/>
+      <c r="I93" s="86"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="85"/>
+      <c r="I94" s="86"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="85"/>
+      <c r="I95" s="86"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="85"/>
+      <c r="I96" s="86"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="85"/>
+      <c r="I97" s="86"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="85"/>
+      <c r="I98" s="86"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="85"/>
+      <c r="I99" s="86"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="85"/>
+      <c r="I100" s="86"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="85"/>
+      <c r="I101" s="86"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="85"/>
+      <c r="I102" s="86"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="85"/>
+      <c r="I103" s="86"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="85"/>
+      <c r="I104" s="86"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="85"/>
+      <c r="I105" s="86"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="85"/>
+      <c r="I106" s="86"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="85"/>
+      <c r="I107" s="86"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="85"/>
+      <c r="I108" s="86"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="85"/>
+      <c r="I109" s="86"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="85"/>
+      <c r="I110" s="86"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="85"/>
+      <c r="I111" s="86"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="85"/>
+      <c r="I112" s="86"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="85"/>
+      <c r="I113" s="86"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="85"/>
+      <c r="I114" s="86"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="85"/>
+      <c r="I115" s="86"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="85"/>
+      <c r="I116" s="86"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="85"/>
+      <c r="I117" s="86"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="85"/>
+      <c r="I118" s="86"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="85"/>
+      <c r="I119" s="86"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="85"/>
+      <c r="I120" s="86"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="85"/>
+      <c r="I121" s="86"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="85"/>
+      <c r="I122" s="86"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="85"/>
+      <c r="I123" s="86"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="85"/>
+      <c r="I124" s="86"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="85"/>
+      <c r="I125" s="86"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="85"/>
+      <c r="I126" s="86"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="85"/>
+      <c r="I127" s="86"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="85"/>
+      <c r="I128" s="86"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="85"/>
+      <c r="I129" s="86"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="85"/>
+      <c r="I130" s="86"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="85"/>
+      <c r="I131" s="86"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="85"/>
+      <c r="I132" s="86"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="85"/>
+      <c r="I133" s="86"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="85"/>
+      <c r="I134" s="86"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="85"/>
+      <c r="I135" s="86"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="85"/>
+      <c r="I136" s="86"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="85"/>
+      <c r="I137" s="86"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="85"/>
+      <c r="I138" s="86"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="85"/>
+      <c r="I139" s="86"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="85"/>
+      <c r="I140" s="86"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="85"/>
+      <c r="I141" s="86"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="85"/>
+      <c r="I142" s="86"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="85"/>
+      <c r="I143" s="86"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="85"/>
+      <c r="I144" s="86"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="85"/>
+      <c r="I145" s="86"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="85"/>
+      <c r="I146" s="86"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="85"/>
+      <c r="I147" s="86"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="85"/>
+      <c r="I148" s="86"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="85"/>
+      <c r="I149" s="86"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="85"/>
+      <c r="I150" s="86"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="85"/>
+      <c r="I151" s="86"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="85"/>
+      <c r="I152" s="86"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="85"/>
+      <c r="I153" s="86"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="85"/>
+      <c r="I154" s="86"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="85"/>
+      <c r="I155" s="86"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="85"/>
+      <c r="I156" s="86"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="85"/>
+      <c r="I157" s="86"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="85"/>
+      <c r="I158" s="86"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="85"/>
+      <c r="I159" s="86"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="85"/>
+      <c r="I160" s="86"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="85"/>
+      <c r="I161" s="86"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="85"/>
+      <c r="I162" s="86"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="85"/>
+      <c r="I163" s="86"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="85"/>
+      <c r="I164" s="86"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="85"/>
+      <c r="I165" s="86"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="85"/>
+      <c r="I166" s="86"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="85"/>
+      <c r="I167" s="86"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="85"/>
+      <c r="I168" s="86"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="85"/>
+      <c r="I169" s="86"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="85"/>
+      <c r="I170" s="86"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="85"/>
+      <c r="I171" s="86"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="85"/>
+      <c r="I172" s="86"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="85"/>
+      <c r="I173" s="86"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="85"/>
+      <c r="I174" s="86"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="85"/>
+      <c r="I175" s="86"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="85"/>
+      <c r="I176" s="86"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="85"/>
+      <c r="I177" s="86"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="85"/>
+      <c r="I178" s="86"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="85"/>
+      <c r="I179" s="86"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="85"/>
+      <c r="I180" s="86"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="85"/>
+      <c r="I181" s="86"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="85"/>
+      <c r="I182" s="86"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="85"/>
+      <c r="I183" s="86"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="85"/>
+      <c r="I184" s="86"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="85"/>
+      <c r="I185" s="86"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="85"/>
+      <c r="I186" s="86"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="85"/>
+      <c r="I187" s="86"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="85"/>
+      <c r="I188" s="86"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="85"/>
+      <c r="I189" s="86"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="85"/>
+      <c r="I190" s="86"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="85"/>
+      <c r="I191" s="86"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="85"/>
+      <c r="I192" s="86"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="85"/>
+      <c r="I193" s="86"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="85"/>
+      <c r="I194" s="86"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="85"/>
+      <c r="I195" s="86"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="85"/>
+      <c r="I196" s="86"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="85"/>
+      <c r="I197" s="86"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="85"/>
+      <c r="I198" s="86"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="85"/>
+      <c r="I199" s="86"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="85"/>
+      <c r="I200" s="86"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="85"/>
+      <c r="I201" s="86"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="85"/>
+      <c r="I202" s="86"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="85"/>
+      <c r="I203" s="86"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="85"/>
+      <c r="I204" s="86"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="85"/>
+      <c r="I205" s="86"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="85"/>
+      <c r="I206" s="86"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="85"/>
+      <c r="I207" s="86"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="85"/>
+      <c r="I208" s="86"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="85"/>
+      <c r="I209" s="86"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="85"/>
+      <c r="I210" s="86"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="85"/>
+      <c r="I211" s="86"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="85"/>
+      <c r="I212" s="86"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="85"/>
+      <c r="I213" s="86"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="85"/>
+      <c r="I214" s="86"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="85"/>
+      <c r="I215" s="86"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="85"/>
+      <c r="I216" s="86"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="85"/>
+      <c r="I217" s="86"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="85"/>
+      <c r="I218" s="86"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="85"/>
+      <c r="I219" s="86"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="85"/>
+      <c r="I220" s="86"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="85"/>
+      <c r="I221" s="86"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="85"/>
+      <c r="I222" s="86"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="85"/>
+      <c r="I223" s="86"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="85"/>
+      <c r="I224" s="86"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="85"/>
+      <c r="I225" s="86"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="85"/>
+      <c r="I226" s="86"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="85"/>
+      <c r="I227" s="86"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="85"/>
+      <c r="I228" s="86"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="85"/>
+      <c r="I229" s="86"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="85"/>
+      <c r="I230" s="86"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="85"/>
+      <c r="I231" s="86"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="85"/>
+      <c r="I232" s="86"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="85"/>
+      <c r="I233" s="86"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="85"/>
+      <c r="I234" s="86"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="85"/>
+      <c r="I235" s="86"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="85"/>
+      <c r="I236" s="86"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="85"/>
+      <c r="I237" s="86"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="85"/>
+      <c r="I238" s="86"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="85"/>
+      <c r="I239" s="86"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="85"/>
+      <c r="I240" s="86"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="85"/>
+      <c r="I241" s="86"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="85"/>
+      <c r="I242" s="86"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="85"/>
+      <c r="I243" s="86"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="85"/>
+      <c r="I244" s="86"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="85"/>
+      <c r="I245" s="86"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="85"/>
+      <c r="I246" s="86"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="85"/>
+      <c r="I247" s="86"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="85"/>
+      <c r="I248" s="86"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="85"/>
+      <c r="I249" s="86"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="85"/>
+      <c r="I250" s="86"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="85"/>
+      <c r="I251" s="86"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="85"/>
+      <c r="I252" s="86"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="85"/>
+      <c r="I253" s="86"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="85"/>
+      <c r="I254" s="86"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="85"/>
+      <c r="I255" s="86"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="85"/>
+      <c r="I256" s="86"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="85"/>
+      <c r="I257" s="86"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="85"/>
+      <c r="I258" s="86"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="85"/>
+      <c r="I259" s="86"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="85"/>
+      <c r="I260" s="86"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="85"/>
+      <c r="I261" s="86"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="85"/>
+      <c r="I262" s="86"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="85"/>
+      <c r="I263" s="86"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="85"/>
+      <c r="I264" s="86"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="85"/>
+      <c r="I265" s="86"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="85"/>
+      <c r="I266" s="86"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="85"/>
+      <c r="I267" s="86"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="85"/>
+      <c r="I268" s="86"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="85"/>
+      <c r="I269" s="86"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="85"/>
+      <c r="I270" s="86"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="85"/>
+      <c r="I271" s="86"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="85"/>
+      <c r="I272" s="86"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="85"/>
+      <c r="I273" s="86"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="85"/>
+      <c r="I274" s="86"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="85"/>
+      <c r="I275" s="86"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="85"/>
+      <c r="I276" s="86"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="85"/>
+      <c r="I277" s="86"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="85"/>
+      <c r="I278" s="86"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="85"/>
+      <c r="I279" s="86"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="85"/>
+      <c r="I280" s="86"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="85"/>
+      <c r="I281" s="86"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="85"/>
+      <c r="I282" s="86"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="85"/>
+      <c r="I283" s="86"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="85"/>
+      <c r="I284" s="86"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="85"/>
+      <c r="I285" s="86"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="85"/>
+      <c r="I286" s="86"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="85"/>
+      <c r="I287" s="86"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="85"/>
+      <c r="I288" s="86"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="85"/>
+      <c r="I289" s="86"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="85"/>
+      <c r="I290" s="86"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="85"/>
+      <c r="I291" s="86"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="85"/>
+      <c r="I292" s="86"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="85"/>
+      <c r="I293" s="86"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="85"/>
+      <c r="I294" s="86"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="85"/>
+      <c r="I295" s="86"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="85"/>
+      <c r="I296" s="86"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="85"/>
+      <c r="I297" s="86"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="85"/>
+      <c r="I298" s="86"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="85"/>
+      <c r="I299" s="86"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="85"/>
+      <c r="I300" s="86"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="85"/>
+      <c r="I301" s="86"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="85"/>
+      <c r="I302" s="86"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="85"/>
+      <c r="I303" s="86"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="85"/>
+      <c r="I304" s="86"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="85"/>
+      <c r="I305" s="86"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="85"/>
+      <c r="I306" s="86"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="85"/>
+      <c r="I307" s="86"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="85"/>
+      <c r="I308" s="86"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="85"/>
+      <c r="I309" s="86"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="85"/>
+      <c r="I310" s="86"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="85"/>
+      <c r="I311" s="86"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="85"/>
+      <c r="I312" s="86"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="85"/>
+      <c r="I313" s="86"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="85"/>
+      <c r="I314" s="86"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="85"/>
+      <c r="I315" s="86"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="85"/>
+      <c r="I316" s="86"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="85"/>
+      <c r="I317" s="86"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="85"/>
+      <c r="I318" s="86"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="85"/>
+      <c r="I319" s="86"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="85"/>
+      <c r="I320" s="86"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="85"/>
+      <c r="I321" s="86"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="85"/>
+      <c r="I322" s="86"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="85"/>
+      <c r="I323" s="86"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="85"/>
+      <c r="I324" s="86"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="85"/>
+      <c r="I325" s="86"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="85"/>
+      <c r="I326" s="86"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="85"/>
+      <c r="I327" s="86"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="85"/>
+      <c r="I328" s="86"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="85"/>
+      <c r="I329" s="86"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="85"/>
+      <c r="I330" s="86"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="85"/>
+      <c r="I331" s="86"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="85"/>
+      <c r="I332" s="86"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="85"/>
+      <c r="I333" s="86"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="85"/>
+      <c r="I334" s="86"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="85"/>
+      <c r="I335" s="86"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="85"/>
+      <c r="I336" s="86"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="85"/>
+      <c r="I337" s="86"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="85"/>
+      <c r="I338" s="86"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="85"/>
+      <c r="I339" s="86"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="85"/>
+      <c r="I340" s="86"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="85"/>
+      <c r="I341" s="86"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="85"/>
+      <c r="I342" s="86"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="85"/>
+      <c r="I343" s="86"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="85"/>
+      <c r="I344" s="86"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="85"/>
+      <c r="I345" s="86"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="85"/>
+      <c r="I346" s="86"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="85"/>
+      <c r="I347" s="86"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="85"/>
+      <c r="I348" s="86"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="85"/>
+      <c r="I349" s="86"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="85"/>
+      <c r="I350" s="86"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="85"/>
+      <c r="I351" s="86"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="85"/>
+      <c r="I352" s="86"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="85"/>
+      <c r="I353" s="86"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="85"/>
+      <c r="I354" s="86"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="85"/>
+      <c r="I355" s="86"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="85"/>
+      <c r="I356" s="86"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="85"/>
+      <c r="I357" s="86"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="85"/>
+      <c r="I358" s="86"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="85"/>
+      <c r="I359" s="86"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="85"/>
+      <c r="I360" s="86"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="85"/>
+      <c r="I361" s="86"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="85"/>
+      <c r="I362" s="86"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="85"/>
+      <c r="I363" s="86"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="85"/>
+      <c r="I364" s="86"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="85"/>
+      <c r="I365" s="86"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="85"/>
+      <c r="I366" s="86"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="85"/>
+      <c r="I367" s="86"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="85"/>
+      <c r="I368" s="86"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="85"/>
+      <c r="I369" s="86"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="85"/>
+      <c r="I370" s="86"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="85"/>
+      <c r="I371" s="86"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="85"/>
+      <c r="I372" s="86"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="85"/>
+      <c r="I373" s="86"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="85"/>
+      <c r="I374" s="86"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="85"/>
+      <c r="I375" s="86"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="85"/>
+      <c r="I376" s="86"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="85"/>
+      <c r="I377" s="86"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="85"/>
+      <c r="I378" s="86"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="85"/>
+      <c r="I379" s="86"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="85"/>
+      <c r="I380" s="86"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="85"/>
+      <c r="I381" s="86"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="85"/>
+      <c r="I382" s="86"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="85"/>
+      <c r="I383" s="86"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="85"/>
+      <c r="I384" s="86"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="85"/>
+      <c r="I385" s="86"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="85"/>
+      <c r="I386" s="86"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="85"/>
+      <c r="I387" s="86"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="85"/>
+      <c r="I388" s="86"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="85"/>
+      <c r="I389" s="86"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="85"/>
+      <c r="I390" s="86"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="85"/>
+      <c r="I391" s="86"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="85"/>
+      <c r="I392" s="86"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="85"/>
+      <c r="I393" s="86"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="85"/>
+      <c r="I394" s="86"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="85"/>
+      <c r="I395" s="86"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="85"/>
+      <c r="I396" s="86"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="85"/>
+      <c r="I397" s="86"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="85"/>
+      <c r="I398" s="86"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="85"/>
+      <c r="I399" s="86"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="85"/>
+      <c r="I400" s="86"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="85"/>
+      <c r="I401" s="86"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="85"/>
+      <c r="I402" s="86"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="85"/>
+      <c r="I403" s="86"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="85"/>
+      <c r="I404" s="86"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="85"/>
+      <c r="I405" s="86"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="85"/>
+      <c r="I406" s="86"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="85"/>
+      <c r="I407" s="86"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="85"/>
+      <c r="I408" s="86"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="85"/>
+      <c r="I409" s="86"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="85"/>
+      <c r="I410" s="86"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="85"/>
+      <c r="I411" s="86"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="85"/>
+      <c r="I412" s="86"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="85"/>
+      <c r="I413" s="86"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="85"/>
+      <c r="I414" s="86"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="85"/>
+      <c r="I415" s="86"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="85"/>
+      <c r="I416" s="86"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="85"/>
+      <c r="I417" s="86"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="85"/>
+      <c r="I418" s="86"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="85"/>
+      <c r="I419" s="86"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="85"/>
+      <c r="I420" s="86"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="85"/>
+      <c r="I421" s="86"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="85"/>
+      <c r="I422" s="86"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="85"/>
+      <c r="I423" s="86"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="85"/>
+      <c r="I424" s="86"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="85"/>
+      <c r="I425" s="86"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="85"/>
+      <c r="I426" s="86"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="85"/>
+      <c r="I427" s="86"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="85"/>
+      <c r="I428" s="86"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="85"/>
+      <c r="I429" s="86"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="85"/>
+      <c r="I430" s="86"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="85"/>
+      <c r="I431" s="86"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="85"/>
+      <c r="I432" s="86"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="85"/>
+      <c r="I433" s="86"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="85"/>
+      <c r="I434" s="86"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="85"/>
+      <c r="I435" s="86"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="85"/>
+      <c r="I436" s="86"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="85"/>
+      <c r="I437" s="86"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="85"/>
+      <c r="I438" s="86"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="85"/>
+      <c r="I439" s="86"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="85"/>
+      <c r="I440" s="86"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="85"/>
+      <c r="I441" s="86"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="85"/>
+      <c r="I442" s="86"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="85"/>
+      <c r="I443" s="86"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="85"/>
+      <c r="I444" s="86"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="85"/>
+      <c r="I445" s="86"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="85"/>
+      <c r="I446" s="86"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="85"/>
+      <c r="I447" s="86"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="85"/>
+      <c r="I448" s="86"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="85"/>
+      <c r="I449" s="86"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="85"/>
+      <c r="I450" s="86"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="85"/>
+      <c r="I451" s="86"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="85"/>
+      <c r="I452" s="86"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="85"/>
+      <c r="I453" s="86"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="85"/>
+      <c r="I454" s="86"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="85"/>
+      <c r="I455" s="86"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="85"/>
+      <c r="I456" s="86"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="85"/>
+      <c r="I457" s="86"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="85"/>
+      <c r="I458" s="86"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="85"/>
+      <c r="I459" s="86"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="85"/>
+      <c r="I460" s="86"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="85"/>
+      <c r="I461" s="86"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="85"/>
+      <c r="I462" s="86"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="85"/>
+      <c r="I463" s="86"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="85"/>
+      <c r="I464" s="86"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="85"/>
+      <c r="I465" s="86"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="85"/>
+      <c r="I466" s="86"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="85"/>
+      <c r="I467" s="86"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="85"/>
+      <c r="I468" s="86"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="85"/>
+      <c r="I469" s="86"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="85"/>
+      <c r="I470" s="86"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="85"/>
+      <c r="I471" s="86"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="85"/>
+      <c r="I472" s="86"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="85"/>
+      <c r="I473" s="86"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="85"/>
+      <c r="I474" s="86"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="85"/>
+      <c r="I475" s="86"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="85"/>
+      <c r="I476" s="86"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="85"/>
+      <c r="I477" s="86"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="85"/>
+      <c r="I478" s="86"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="85"/>
+      <c r="I479" s="86"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="85"/>
+      <c r="I480" s="86"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="85"/>
+      <c r="I481" s="86"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="85"/>
+      <c r="I482" s="86"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="85"/>
+      <c r="I483" s="86"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="85"/>
+      <c r="I484" s="86"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="85"/>
+      <c r="I485" s="86"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="85"/>
+      <c r="I486" s="86"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="85"/>
+      <c r="I487" s="86"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="85"/>
+      <c r="I488" s="86"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="85"/>
+      <c r="I489" s="86"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="85"/>
+      <c r="I490" s="86"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="85"/>
+      <c r="I491" s="86"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="85"/>
+      <c r="I492" s="86"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="85"/>
+      <c r="I493" s="86"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="85"/>
+      <c r="I494" s="86"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="85"/>
+      <c r="I495" s="86"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="85"/>
+      <c r="I496" s="86"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="85"/>
+      <c r="I497" s="86"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="85"/>
+      <c r="I498" s="86"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="85"/>
+      <c r="I499" s="86"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="85"/>
+      <c r="I500" s="86"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="85"/>
+      <c r="I501" s="86"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="85"/>
+      <c r="I502" s="86"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="85"/>
+      <c r="I503" s="86"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="85"/>
+      <c r="I504" s="86"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="85"/>
+      <c r="I505" s="86"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="85"/>
+      <c r="I506" s="86"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="85"/>
+      <c r="I507" s="86"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="85"/>
+      <c r="I508" s="86"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="85"/>
+      <c r="I509" s="86"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="85"/>
+      <c r="I510" s="86"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="85"/>
+      <c r="I511" s="86"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="85"/>
+      <c r="I512" s="86"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="85"/>
+      <c r="I513" s="86"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="85"/>
+      <c r="I514" s="86"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="85"/>
+      <c r="I515" s="86"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="85"/>
+      <c r="I516" s="86"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="85"/>
+      <c r="I517" s="86"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="85"/>
+      <c r="I518" s="86"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="85"/>
+      <c r="I519" s="86"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="85"/>
+      <c r="I520" s="86"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="85"/>
+      <c r="I521" s="86"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="85"/>
+      <c r="I522" s="86"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="85"/>
+      <c r="I523" s="86"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="85"/>
+      <c r="I524" s="86"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="85"/>
+      <c r="I525" s="86"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="85"/>
+      <c r="I526" s="86"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="85"/>
+      <c r="I527" s="86"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="85"/>
+      <c r="I528" s="86"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="85"/>
+      <c r="I529" s="86"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="85"/>
+      <c r="I530" s="86"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="85"/>
+      <c r="I531" s="86"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="85"/>
+      <c r="I532" s="86"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="85"/>
+      <c r="I533" s="86"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="85"/>
+      <c r="I534" s="86"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="85"/>
+      <c r="I535" s="86"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="85"/>
+      <c r="I536" s="86"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="85"/>
+      <c r="I537" s="86"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="85"/>
+      <c r="I538" s="86"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="85"/>
+      <c r="I539" s="86"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="85"/>
+      <c r="I540" s="86"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="85"/>
+      <c r="I541" s="86"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="85"/>
+      <c r="I542" s="86"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="85"/>
+      <c r="I543" s="86"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="85"/>
+      <c r="I544" s="86"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="85"/>
+      <c r="I545" s="86"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="85"/>
+      <c r="I546" s="86"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="85"/>
+      <c r="I547" s="86"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="85"/>
+      <c r="I548" s="86"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="85"/>
+      <c r="I549" s="86"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="85"/>
+      <c r="I550" s="86"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="85"/>
+      <c r="I551" s="86"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="85"/>
+      <c r="I552" s="86"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="85"/>
+      <c r="I553" s="86"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="85"/>
+      <c r="I554" s="86"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="85"/>
+      <c r="I555" s="86"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="85"/>
+      <c r="I556" s="86"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="85"/>
+      <c r="I557" s="86"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="85"/>
+      <c r="I558" s="86"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="85"/>
+      <c r="I559" s="86"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="85"/>
+      <c r="I560" s="86"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="85"/>
+      <c r="I561" s="86"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="85"/>
+      <c r="I562" s="86"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="85"/>
+      <c r="I563" s="86"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="85"/>
+      <c r="I564" s="86"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="85"/>
+      <c r="I565" s="86"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="85"/>
+      <c r="I566" s="86"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="85"/>
+      <c r="I567" s="86"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="85"/>
+      <c r="I568" s="86"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="85"/>
+      <c r="I569" s="86"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="85"/>
+      <c r="I570" s="86"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="85"/>
+      <c r="I571" s="86"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="85"/>
+      <c r="I572" s="86"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="85"/>
+      <c r="I573" s="86"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="85"/>
+      <c r="I574" s="86"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="85"/>
+      <c r="I575" s="86"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="85"/>
+      <c r="I576" s="86"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="85"/>
+      <c r="I577" s="86"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="85"/>
+      <c r="I578" s="86"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="85"/>
+      <c r="I579" s="86"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="85"/>
+      <c r="I580" s="86"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="85"/>
+      <c r="I581" s="86"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="85"/>
+      <c r="I582" s="86"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="85"/>
+      <c r="I583" s="86"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="85"/>
+      <c r="I584" s="86"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="85"/>
+      <c r="I585" s="86"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="85"/>
+      <c r="I586" s="86"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="85"/>
+      <c r="I587" s="86"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="85"/>
+      <c r="I588" s="86"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="85"/>
+      <c r="I589" s="86"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="85"/>
+      <c r="I590" s="86"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="85"/>
+      <c r="I591" s="86"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="85"/>
+      <c r="I592" s="86"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="85"/>
+      <c r="I593" s="86"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="85"/>
+      <c r="I594" s="86"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="85"/>
+      <c r="I595" s="86"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="85"/>
+      <c r="I596" s="86"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="85"/>
+      <c r="I597" s="86"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="85"/>
+      <c r="I598" s="86"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="85"/>
+      <c r="I599" s="86"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="85"/>
+      <c r="I600" s="86"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="85"/>
+      <c r="I601" s="86"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="85"/>
+      <c r="I602" s="86"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="85"/>
+      <c r="I603" s="86"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="85"/>
+      <c r="I604" s="86"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="85"/>
+      <c r="I605" s="86"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="85"/>
+      <c r="I606" s="86"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="85"/>
+      <c r="I607" s="86"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="85"/>
+      <c r="I608" s="86"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="85"/>
+      <c r="I609" s="86"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="85"/>
+      <c r="I610" s="86"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="85"/>
+      <c r="I611" s="86"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="85"/>
+      <c r="I612" s="86"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="85"/>
+      <c r="I613" s="86"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="85"/>
+      <c r="I614" s="86"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="85"/>
+      <c r="I615" s="86"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="85"/>
+      <c r="I616" s="86"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="85"/>
+      <c r="I617" s="86"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="85"/>
+      <c r="I618" s="86"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="85"/>
+      <c r="I619" s="86"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="85"/>
+      <c r="I620" s="86"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="85"/>
+      <c r="I621" s="86"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="85"/>
+      <c r="I622" s="86"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="85"/>
+      <c r="I623" s="86"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="85"/>
+      <c r="I624" s="86"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="85"/>
+      <c r="I625" s="86"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="85"/>
+      <c r="I626" s="86"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="85"/>
+      <c r="I627" s="86"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="85"/>
+      <c r="I628" s="86"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="85"/>
+      <c r="I629" s="86"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="85"/>
+      <c r="I630" s="86"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="85"/>
+      <c r="I631" s="86"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="85"/>
+      <c r="I632" s="86"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="85"/>
+      <c r="I633" s="86"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="85"/>
+      <c r="I634" s="86"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="85"/>
+      <c r="I635" s="86"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="85"/>
+      <c r="I636" s="86"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="85"/>
+      <c r="I637" s="86"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="85"/>
+      <c r="I638" s="86"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="85"/>
+      <c r="I639" s="86"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="85"/>
+      <c r="I640" s="86"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="85"/>
+      <c r="I641" s="86"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="85"/>
+      <c r="I642" s="86"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="85"/>
+      <c r="I643" s="86"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="85"/>
+      <c r="I644" s="86"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="85"/>
+      <c r="I645" s="86"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="85"/>
+      <c r="I646" s="86"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="85"/>
+      <c r="I647" s="86"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="85"/>
+      <c r="I648" s="86"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="85"/>
+      <c r="I649" s="86"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="85"/>
+      <c r="I650" s="86"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="85"/>
+      <c r="I651" s="86"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="85"/>
+      <c r="I652" s="86"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="85"/>
+      <c r="I653" s="86"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="85"/>
+      <c r="I654" s="86"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="85"/>
+      <c r="I655" s="86"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="85"/>
+      <c r="I656" s="86"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="85"/>
+      <c r="I657" s="86"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="85"/>
+      <c r="I658" s="86"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="85"/>
+      <c r="I659" s="86"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="85"/>
+      <c r="I660" s="86"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="85"/>
+      <c r="I661" s="86"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="85"/>
+      <c r="I662" s="86"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="85"/>
+      <c r="I663" s="86"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="85"/>
+      <c r="I664" s="86"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="85"/>
+      <c r="I665" s="86"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="85"/>
+      <c r="I666" s="86"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="85"/>
+      <c r="I667" s="86"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="85"/>
+      <c r="I668" s="86"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="85"/>
+      <c r="I669" s="86"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="85"/>
+      <c r="I670" s="86"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="85"/>
+      <c r="I671" s="86"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="85"/>
+      <c r="I672" s="86"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="85"/>
+      <c r="I673" s="86"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="85"/>
+      <c r="I674" s="86"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="85"/>
+      <c r="I675" s="86"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="85"/>
+      <c r="I676" s="86"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="85"/>
+      <c r="I677" s="86"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="85"/>
+      <c r="I678" s="86"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="85"/>
+      <c r="I679" s="86"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="85"/>
+      <c r="I680" s="86"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="85"/>
+      <c r="I681" s="86"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="85"/>
+      <c r="I682" s="86"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="85"/>
+      <c r="I683" s="86"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="85"/>
+      <c r="I684" s="86"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="85"/>
+      <c r="I685" s="86"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="85"/>
+      <c r="I686" s="86"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="85"/>
+      <c r="I687" s="86"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="85"/>
+      <c r="I688" s="86"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="85"/>
+      <c r="I689" s="86"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="85"/>
+      <c r="I690" s="86"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="85"/>
+      <c r="I691" s="86"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="85"/>
+      <c r="I692" s="86"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="85"/>
+      <c r="I693" s="86"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="85"/>
+      <c r="I694" s="86"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="85"/>
+      <c r="I695" s="86"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="85"/>
+      <c r="I696" s="86"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="85"/>
+      <c r="I697" s="86"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="85"/>
+      <c r="I698" s="86"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="85"/>
+      <c r="I699" s="86"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="85"/>
+      <c r="I700" s="86"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="85"/>
+      <c r="I701" s="86"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="85"/>
+      <c r="I702" s="86"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="85"/>
+      <c r="I703" s="86"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="85"/>
+      <c r="I704" s="86"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="85"/>
+      <c r="I705" s="86"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="85"/>
+      <c r="I706" s="86"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="85"/>
+      <c r="I707" s="86"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="85"/>
+      <c r="I708" s="86"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="85"/>
+      <c r="I709" s="86"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="85"/>
+      <c r="I710" s="86"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="85"/>
+      <c r="I711" s="86"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="85"/>
+      <c r="I712" s="86"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="85"/>
+      <c r="I713" s="86"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="85"/>
+      <c r="I714" s="86"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="85"/>
+      <c r="I715" s="86"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="85"/>
+      <c r="I716" s="86"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="85"/>
+      <c r="I717" s="86"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="85"/>
+      <c r="I718" s="86"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="85"/>
+      <c r="I719" s="86"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="85"/>
+      <c r="I720" s="86"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="85"/>
+      <c r="I721" s="86"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="85"/>
+      <c r="I722" s="86"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="85"/>
+      <c r="I723" s="86"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="85"/>
+      <c r="I724" s="86"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="85"/>
+      <c r="I725" s="86"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="85"/>
+      <c r="I726" s="86"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="85"/>
+      <c r="I727" s="86"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="85"/>
+      <c r="I728" s="86"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="85"/>
+      <c r="I729" s="86"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="85"/>
+      <c r="I730" s="86"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="85"/>
+      <c r="I731" s="86"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="85"/>
+      <c r="I732" s="86"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="85"/>
+      <c r="I733" s="86"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="85"/>
+      <c r="I734" s="86"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="85"/>
+      <c r="I735" s="86"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="85"/>
+      <c r="I736" s="86"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="85"/>
+      <c r="I737" s="86"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="85"/>
+      <c r="I738" s="86"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="85"/>
+      <c r="I739" s="86"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="85"/>
+      <c r="I740" s="86"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="85"/>
+      <c r="I741" s="86"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="85"/>
+      <c r="I742" s="86"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="85"/>
+      <c r="I743" s="86"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="85"/>
+      <c r="I744" s="86"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="85"/>
+      <c r="I745" s="86"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="85"/>
+      <c r="I746" s="86"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="85"/>
+      <c r="I747" s="86"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="85"/>
+      <c r="I748" s="86"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="85"/>
+      <c r="I749" s="86"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="85"/>
+      <c r="I750" s="86"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="85"/>
+      <c r="I751" s="86"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="85"/>
+      <c r="I752" s="86"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="85"/>
+      <c r="I753" s="86"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="85"/>
+      <c r="I754" s="86"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="85"/>
+      <c r="I755" s="86"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="85"/>
+      <c r="I756" s="86"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="85"/>
+      <c r="I757" s="86"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="85"/>
+      <c r="I758" s="86"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I759" s="85"/>
+      <c r="I759" s="86"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I760" s="85"/>
+      <c r="I760" s="86"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I761" s="85"/>
+      <c r="I761" s="86"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I762" s="85"/>
+      <c r="I762" s="86"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I763" s="85"/>
+      <c r="I763" s="86"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I764" s="85"/>
+      <c r="I764" s="86"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I765" s="85"/>
+      <c r="I765" s="86"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I766" s="85"/>
+      <c r="I766" s="86"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I767" s="85"/>
+      <c r="I767" s="86"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I768" s="85"/>
+      <c r="I768" s="86"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I769" s="85"/>
+      <c r="I769" s="86"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I770" s="85"/>
+      <c r="I770" s="86"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I771" s="85"/>
+      <c r="I771" s="86"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I772" s="85"/>
+      <c r="I772" s="86"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I773" s="85"/>
+      <c r="I773" s="86"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I774" s="85"/>
+      <c r="I774" s="86"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I775" s="85"/>
+      <c r="I775" s="86"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I776" s="85"/>
+      <c r="I776" s="86"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I777" s="85"/>
+      <c r="I777" s="86"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I778" s="85"/>
+      <c r="I778" s="86"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I779" s="85"/>
+      <c r="I779" s="86"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I780" s="85"/>
+      <c r="I780" s="86"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I781" s="85"/>
+      <c r="I781" s="86"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I782" s="85"/>
+      <c r="I782" s="86"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I783" s="85"/>
+      <c r="I783" s="86"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I784" s="85"/>
+      <c r="I784" s="86"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I785" s="85"/>
+      <c r="I785" s="86"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I786" s="85"/>
+      <c r="I786" s="86"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I787" s="85"/>
+      <c r="I787" s="86"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I788" s="85"/>
+      <c r="I788" s="86"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I789" s="85"/>
+      <c r="I789" s="86"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I790" s="85"/>
+      <c r="I790" s="86"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I791" s="85"/>
+      <c r="I791" s="86"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I792" s="85"/>
+      <c r="I792" s="86"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I793" s="85"/>
+      <c r="I793" s="86"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I794" s="85"/>
+      <c r="I794" s="86"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I795" s="85"/>
+      <c r="I795" s="86"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I796" s="85"/>
+      <c r="I796" s="86"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I797" s="85"/>
+      <c r="I797" s="86"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I798" s="85"/>
+      <c r="I798" s="86"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I799" s="85"/>
+      <c r="I799" s="86"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I800" s="85"/>
+      <c r="I800" s="86"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I801" s="85"/>
+      <c r="I801" s="86"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I802" s="85"/>
+      <c r="I802" s="86"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I803" s="85"/>
+      <c r="I803" s="86"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I804" s="85"/>
+      <c r="I804" s="86"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I805" s="85"/>
+      <c r="I805" s="86"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I806" s="85"/>
+      <c r="I806" s="86"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I807" s="85"/>
+      <c r="I807" s="86"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I808" s="85"/>
+      <c r="I808" s="86"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I809" s="85"/>
+      <c r="I809" s="86"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I810" s="85"/>
+      <c r="I810" s="86"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I811" s="85"/>
+      <c r="I811" s="86"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I812" s="85"/>
+      <c r="I812" s="86"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I813" s="85"/>
+      <c r="I813" s="86"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I814" s="85"/>
+      <c r="I814" s="86"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I815" s="85"/>
+      <c r="I815" s="86"/>
     </row>
     <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I816" s="85"/>
+      <c r="I816" s="86"/>
     </row>
     <row r="817" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I817" s="85"/>
+      <c r="I817" s="86"/>
     </row>
     <row r="818" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I818" s="85"/>
+      <c r="I818" s="86"/>
     </row>
     <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I819" s="85"/>
+      <c r="I819" s="86"/>
     </row>
     <row r="820" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I820" s="85"/>
+      <c r="I820" s="86"/>
     </row>
     <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I821" s="85"/>
+      <c r="I821" s="86"/>
     </row>
     <row r="822" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I822" s="85"/>
+      <c r="I822" s="86"/>
     </row>
     <row r="823" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I823" s="85"/>
+      <c r="I823" s="86"/>
     </row>
     <row r="824" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I824" s="85"/>
+      <c r="I824" s="86"/>
     </row>
     <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I825" s="85"/>
+      <c r="I825" s="86"/>
     </row>
     <row r="826" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I826" s="85"/>
+      <c r="I826" s="86"/>
     </row>
     <row r="827" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I827" s="85"/>
+      <c r="I827" s="86"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -55611,100 +55883,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>322</v>
+        <v>79</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>351</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>323</v>
+        <v>80</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>324</v>
+        <v>109</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>353</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>325</v>
+        <v>160</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>326</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>355</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>327</v>
+        <v>284</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>328</v>
+      <c r="A4" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>357</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>329</v>
+        <v>134</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>331</v>
+      <c r="A5" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>360</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>332</v>
+        <v>124</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>334</v>
+      <c r="A6" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>363</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>335</v>
+        <v>110</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>337</v>
+      <c r="A7" s="89" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
